--- a/Músicas.xlsx
+++ b/Músicas.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuseppe.manzella\Desktop\Projetos Python\roteiroslides\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuseppe.manzella\Documents\GitHub\roteiro-slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61C288E-744E-4432-8CD5-4DED85171360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C113C93-1A78-494D-A6CB-D6E7B5AFB29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{639074AE-94E9-4B24-951A-73D30D40D203}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{639074AE-94E9-4B24-951A-73D30D40D203}"/>
   </bookViews>
   <sheets>
     <sheet name="Harpa" sheetId="1" r:id="rId1"/>
+    <sheet name="Músicas" sheetId="2" r:id="rId2"/>
+    <sheet name="Pastas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6770" uniqueCount="3383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7278" uniqueCount="3859">
   <si>
     <t>HINO</t>
   </si>
@@ -10184,6 +10186,1434 @@
   </si>
   <si>
     <t>Meu Brasil, nação gigante e mui sublime, Creio ver-te muito breve bem maior, Combatendo a iniquidade, o vício, o crime, Redimido aos pés de Cristo, o Salvador.</t>
+  </si>
+  <si>
+    <t>Nº</t>
+  </si>
+  <si>
+    <t>Pasta</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <t>Letra</t>
+  </si>
+  <si>
+    <t>ADUNAD</t>
+  </si>
+  <si>
+    <t>Aguardo o Dia</t>
+  </si>
+  <si>
+    <t>Aguenta Firme</t>
+  </si>
+  <si>
+    <t>Além do Rio Azul</t>
+  </si>
+  <si>
+    <t>Amigo Espírito Santo</t>
+  </si>
+  <si>
+    <t>Até Tocar o Céu</t>
+  </si>
+  <si>
+    <t>Braços de Amor</t>
+  </si>
+  <si>
+    <t>Calvário</t>
+  </si>
+  <si>
+    <t>Consolador</t>
+  </si>
+  <si>
+    <t>Cresça</t>
+  </si>
+  <si>
+    <t>Digno é o Senhor</t>
+  </si>
+  <si>
+    <t>Esperança</t>
+  </si>
+  <si>
+    <t>Estou em Tuas Mãos</t>
+  </si>
+  <si>
+    <t>Estou Pronto</t>
+  </si>
+  <si>
+    <t>Eu me Rendo</t>
+  </si>
+  <si>
+    <t>Faça Morada</t>
+  </si>
+  <si>
+    <t>Geração de Samuel</t>
+  </si>
+  <si>
+    <t>Hosana</t>
+  </si>
+  <si>
+    <t>Incomparável Deus</t>
+  </si>
+  <si>
+    <t>Jesus meu Guia é</t>
+  </si>
+  <si>
+    <t>Mestre</t>
+  </si>
+  <si>
+    <t>Minha Pequena Luz</t>
+  </si>
+  <si>
+    <t>Nunca Pare de Lutar</t>
+  </si>
+  <si>
+    <t>Planos de Deus</t>
+  </si>
+  <si>
+    <t>Pra Te adorar</t>
+  </si>
+  <si>
+    <t>Primeira Essência</t>
+  </si>
+  <si>
+    <t>Quando me Chamar</t>
+  </si>
+  <si>
+    <t>Salmos 121</t>
+  </si>
+  <si>
+    <t>Santificação</t>
+  </si>
+  <si>
+    <t>Santo Espírito</t>
+  </si>
+  <si>
+    <t>Som da Chuva</t>
+  </si>
+  <si>
+    <t>Terra Fértil</t>
+  </si>
+  <si>
+    <t>Tocou-me</t>
+  </si>
+  <si>
+    <t>Vai Valer a Pena</t>
+  </si>
+  <si>
+    <t>Vem Espírito...</t>
+  </si>
+  <si>
+    <t>A Ele a Glória!</t>
+  </si>
+  <si>
+    <t>A Sós com Deus...</t>
+  </si>
+  <si>
+    <t>Adorarei</t>
+  </si>
+  <si>
+    <t>Aleluia</t>
+  </si>
+  <si>
+    <t>Assembleia de Deus</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Casa de Bênção</t>
+  </si>
+  <si>
+    <t>Casa de Oração</t>
+  </si>
+  <si>
+    <t>Conquistando o Impossível</t>
+  </si>
+  <si>
+    <t>Depois do Culto</t>
+  </si>
+  <si>
+    <t>Desabafa</t>
+  </si>
+  <si>
+    <t>Desejo Missionário</t>
+  </si>
+  <si>
+    <t>Deus é Bom</t>
+  </si>
+  <si>
+    <t>Deus é Fiel</t>
+  </si>
+  <si>
+    <t>Deus Maravilhoso</t>
+  </si>
+  <si>
+    <t>Divisa de Fogo</t>
+  </si>
+  <si>
+    <t>É Adorar</t>
+  </si>
+  <si>
+    <t>Ele me Amou Primeiro</t>
+  </si>
+  <si>
+    <t>Família</t>
+  </si>
+  <si>
+    <t>Fiel é Deus</t>
+  </si>
+  <si>
+    <t>Jó</t>
+  </si>
+  <si>
+    <t>Lembranças de Jesus</t>
+  </si>
+  <si>
+    <t>Mãe</t>
+  </si>
+  <si>
+    <t>Meu Mestre &amp; Morar no Céu</t>
+  </si>
+  <si>
+    <t>Molda-me</t>
+  </si>
+  <si>
+    <t>Nada Pode Calar um Adorador</t>
+  </si>
+  <si>
+    <t>Não Seremos Abalados</t>
+  </si>
+  <si>
+    <t>Nenhuma Condenação Há...</t>
+  </si>
+  <si>
+    <t>Ninguém Explica Deus</t>
+  </si>
+  <si>
+    <t>O Bálsamo de Gileade</t>
+  </si>
+  <si>
+    <t>O Carpinteiro</t>
+  </si>
+  <si>
+    <t>O Escudo</t>
+  </si>
+  <si>
+    <t>O Melhor Lugar do Mundo</t>
+  </si>
+  <si>
+    <t>Pense Duas Vezes...</t>
+  </si>
+  <si>
+    <t>Posso Clamar</t>
+  </si>
+  <si>
+    <t>Pra Minha Mãe</t>
+  </si>
+  <si>
+    <t>Pra Onde eu Irei</t>
+  </si>
+  <si>
+    <t>Quando Dobro os Joelhos</t>
+  </si>
+  <si>
+    <t>Renova-me</t>
+  </si>
+  <si>
+    <t>Ressuscita-me</t>
+  </si>
+  <si>
+    <t>Se Isto Não for Amor...</t>
+  </si>
+  <si>
+    <t>Segura na Mão de Deus</t>
+  </si>
+  <si>
+    <t>Só Tu És Santo</t>
+  </si>
+  <si>
+    <t>Sonda-me</t>
+  </si>
+  <si>
+    <t>Sonhos de Deus</t>
+  </si>
+  <si>
+    <t>Tá Chorando Por Quê?</t>
+  </si>
+  <si>
+    <t>Tem Misericórdia de mim...</t>
+  </si>
+  <si>
+    <t>Teu Amor não Falha</t>
+  </si>
+  <si>
+    <t>Tu Podes</t>
+  </si>
+  <si>
+    <t>Vem me Buscar</t>
+  </si>
+  <si>
+    <t>Vem Sobre mim</t>
+  </si>
+  <si>
+    <t>Você Pode ter...</t>
+  </si>
+  <si>
+    <t>Ao que é Digno</t>
+  </si>
+  <si>
+    <t>Ao Único</t>
+  </si>
+  <si>
+    <t>Bom Estarmos Aqui</t>
+  </si>
+  <si>
+    <t>Descerá Sobre ti</t>
+  </si>
+  <si>
+    <t>Eu Te Louvarei</t>
+  </si>
+  <si>
+    <t>Existe um Rio...</t>
+  </si>
+  <si>
+    <t>Jesus em Tua Presença</t>
+  </si>
+  <si>
+    <t>Maravilhoso és...</t>
+  </si>
+  <si>
+    <t>Minh’alma Engrandece</t>
+  </si>
+  <si>
+    <t>Move as Águas</t>
+  </si>
+  <si>
+    <t>Tu És Soberano!</t>
+  </si>
+  <si>
+    <t>A Bíblia</t>
+  </si>
+  <si>
+    <t>A Deus dai Louvor</t>
+  </si>
+  <si>
+    <t>A Vida com Jesus é Doce</t>
+  </si>
+  <si>
+    <t>Adicionei Jesus</t>
+  </si>
+  <si>
+    <t>Assim vou Louvar</t>
+  </si>
+  <si>
+    <t>Celebrai com Júbilo</t>
+  </si>
+  <si>
+    <t>Conectados</t>
+  </si>
+  <si>
+    <t>Deus Cuida de mim</t>
+  </si>
+  <si>
+    <t>É Muito mais que Bom</t>
+  </si>
+  <si>
+    <t>Estátua</t>
+  </si>
+  <si>
+    <t>Eu li na Bíblia</t>
+  </si>
+  <si>
+    <t>Hey Pai!</t>
+  </si>
+  <si>
+    <t>Meu Herói</t>
+  </si>
+  <si>
+    <t>O Céu é Muito Bom</t>
+  </si>
+  <si>
+    <t>O Herói é Jesus</t>
+  </si>
+  <si>
+    <t>Páscoa</t>
+  </si>
+  <si>
+    <t>Quebrantado</t>
+  </si>
+  <si>
+    <t>Ressuscitou</t>
+  </si>
+  <si>
+    <t>Tá na Hora de Louvar</t>
+  </si>
+  <si>
+    <t>Telefone do Céu</t>
+  </si>
+  <si>
+    <t>Vamos Sair do Egito</t>
+  </si>
+  <si>
+    <t>A Bênção</t>
+  </si>
+  <si>
+    <t>A Casa é Sua</t>
+  </si>
+  <si>
+    <t>Adorador por Excelência</t>
+  </si>
+  <si>
+    <t>Ainda que a Figueira</t>
+  </si>
+  <si>
+    <t>Alfa e Ômega</t>
+  </si>
+  <si>
+    <t>Algo Novo</t>
+  </si>
+  <si>
+    <t>Aquele que está Feliz</t>
+  </si>
+  <si>
+    <t>Atos 2</t>
+  </si>
+  <si>
+    <t>Caminho no deserto</t>
+  </si>
+  <si>
+    <t>Canta Minh’alma</t>
+  </si>
+  <si>
+    <t>Confiarei</t>
+  </si>
+  <si>
+    <t>Coração Igual ao Teu</t>
+  </si>
+  <si>
+    <t>Corpo e Família</t>
+  </si>
+  <si>
+    <t>Creio que Tu És a Cura</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Decreto de Vitória</t>
+  </si>
+  <si>
+    <t>Deixa Eu te Usar</t>
+  </si>
+  <si>
+    <t>Descansa</t>
+  </si>
+  <si>
+    <t>Descansarei</t>
+  </si>
+  <si>
+    <t>Desemboca o Vaso</t>
+  </si>
+  <si>
+    <t>Deus de Promessas</t>
+  </si>
+  <si>
+    <t>Deus é Deus</t>
+  </si>
+  <si>
+    <t>Deus Proverá</t>
+  </si>
+  <si>
+    <t>Diante de Ti</t>
+  </si>
+  <si>
+    <t>Ele é Exaltado</t>
+  </si>
+  <si>
+    <t>Ele Não Desiste de Você</t>
+  </si>
+  <si>
+    <t>Ele Vem pra te Salvar</t>
+  </si>
+  <si>
+    <t>Ele Vem</t>
+  </si>
+  <si>
+    <t>Escrito de Vermelho</t>
+  </si>
+  <si>
+    <t>Espírito Santo</t>
+  </si>
+  <si>
+    <t>Eu Cuido de Ti</t>
+  </si>
+  <si>
+    <t>Eu Navegarei</t>
+  </si>
+  <si>
+    <t>Eu Quero é Deus</t>
+  </si>
+  <si>
+    <t>Eu Vejo a Glória</t>
+  </si>
+  <si>
+    <t>Fogo Cai</t>
+  </si>
+  <si>
+    <t>Grande é o Senhor</t>
+  </si>
+  <si>
+    <t>O Grande Eu Sou</t>
+  </si>
+  <si>
+    <t>Grandes Coisas</t>
+  </si>
+  <si>
+    <t>Há Momentos...</t>
+  </si>
+  <si>
+    <t>Homem de Guerra é Jeová</t>
+  </si>
+  <si>
+    <t>In Memorian</t>
+  </si>
+  <si>
+    <t>Jireh</t>
+  </si>
+  <si>
+    <t>Leva-me Além</t>
+  </si>
+  <si>
+    <t>Lindo És</t>
+  </si>
+  <si>
+    <t>Louvemos ao Senhor</t>
+  </si>
+  <si>
+    <t>Lugar Secreto</t>
+  </si>
+  <si>
+    <t>Lugar Seguro</t>
+  </si>
+  <si>
+    <t>Mais que Abundante</t>
+  </si>
+  <si>
+    <t>Mil Graus</t>
+  </si>
+  <si>
+    <t>Milagre</t>
+  </si>
+  <si>
+    <t>Não Morrerei</t>
+  </si>
+  <si>
+    <t>Não Pare</t>
+  </si>
+  <si>
+    <t>Nasci pra Vencer</t>
+  </si>
+  <si>
+    <t>Nosso General</t>
+  </si>
+  <si>
+    <t>O Lugar</t>
+  </si>
+  <si>
+    <t>O Nome de Jesus</t>
+  </si>
+  <si>
+    <t>O que Tua Glória fez Comigo</t>
+  </si>
+  <si>
+    <t>Oceanos</t>
+  </si>
+  <si>
+    <t>Oh, Quão Lindo esse Nome é!</t>
+  </si>
+  <si>
+    <t>Ousado Amor</t>
+  </si>
+  <si>
+    <t>Pensamentos</t>
+  </si>
+  <si>
+    <t>Perto Quero Estar</t>
+  </si>
+  <si>
+    <t>Pra Sempre</t>
+  </si>
+  <si>
+    <t>Preciso de Ti...</t>
+  </si>
+  <si>
+    <t>Promessas</t>
+  </si>
+  <si>
+    <t>Quando Ele Vem...</t>
+  </si>
+  <si>
+    <t>Que Ele Cresça</t>
+  </si>
+  <si>
+    <t>Quero Conhecer Jesus</t>
+  </si>
+  <si>
+    <t>Quero Subir</t>
+  </si>
+  <si>
+    <t>Reconstruindo Muros</t>
+  </si>
+  <si>
+    <t>Rompendo em Fé</t>
+  </si>
+  <si>
+    <t>Se eu me Humilhar</t>
+  </si>
+  <si>
+    <t>Sobre as Águas</t>
+  </si>
+  <si>
+    <t>Sonhos de Deus (Ludmilla)</t>
+  </si>
+  <si>
+    <t>Sonhos de Deus (Nani Azevedo)</t>
+  </si>
+  <si>
+    <t>Sou um Milagre</t>
+  </si>
+  <si>
+    <t>Te Louvarei</t>
+  </si>
+  <si>
+    <t>Tem Tudo a Ver com Ele</t>
+  </si>
+  <si>
+    <t>Teu Reino</t>
+  </si>
+  <si>
+    <t>Toca em mim de novo</t>
+  </si>
+  <si>
+    <t>Toda Sorte de Bençãos</t>
+  </si>
+  <si>
+    <t>Todavia me Alegrarei</t>
+  </si>
+  <si>
+    <t>Tributo a Yehovah</t>
+  </si>
+  <si>
+    <t>Tua Graça me Basta</t>
+  </si>
+  <si>
+    <t>Tua Presença</t>
+  </si>
+  <si>
+    <t>Tua Unção</t>
+  </si>
+  <si>
+    <t>Última Chance</t>
+  </si>
+  <si>
+    <t>Uma Nova História</t>
+  </si>
+  <si>
+    <t>Vem Cantar Louvores</t>
+  </si>
+  <si>
+    <t>Vida aos Sepulcros</t>
+  </si>
+  <si>
+    <t>Videira</t>
+  </si>
+  <si>
+    <t>Vitória no Deserto</t>
+  </si>
+  <si>
+    <t>Vitorioso És</t>
+  </si>
+  <si>
+    <t>Vou Deixar na Cruz...</t>
+  </si>
+  <si>
+    <t>Vou Seguir...</t>
+  </si>
+  <si>
+    <t>A Família &amp; a Marca</t>
+  </si>
+  <si>
+    <t>A Oração</t>
+  </si>
+  <si>
+    <t>A Voz de Deus</t>
+  </si>
+  <si>
+    <t>Abra o seu Coração</t>
+  </si>
+  <si>
+    <t>Acalma-me</t>
+  </si>
+  <si>
+    <t>Adorador sem Coroa</t>
+  </si>
+  <si>
+    <t>Além da Medicina</t>
+  </si>
+  <si>
+    <t>Além das Circunstâncias</t>
+  </si>
+  <si>
+    <t>Basta uma Palavra</t>
+  </si>
+  <si>
+    <t>Cântico de Vitória</t>
+  </si>
+  <si>
+    <t>Chora que a Vitória Vem</t>
+  </si>
+  <si>
+    <t>Cidade do Rei</t>
+  </si>
+  <si>
+    <t>Crente Fiel</t>
+  </si>
+  <si>
+    <t>De Joelhos</t>
+  </si>
+  <si>
+    <t>Deus Abre o Mar</t>
+  </si>
+  <si>
+    <t>Deus do Impossível</t>
+  </si>
+  <si>
+    <t>Dia de Sol</t>
+  </si>
+  <si>
+    <t>Dono da Festa</t>
+  </si>
+  <si>
+    <t>Elas</t>
+  </si>
+  <si>
+    <t>Ele é Jesus</t>
+  </si>
+  <si>
+    <t>Encontro Triunfal</t>
+  </si>
+  <si>
+    <t>Escudo Forte</t>
+  </si>
+  <si>
+    <t>Essência de Adorador</t>
+  </si>
+  <si>
+    <t>Estabilidade</t>
+  </si>
+  <si>
+    <t>Eu Acalmo o Mar</t>
+  </si>
+  <si>
+    <t>Eu só Vim Te Adorar</t>
+  </si>
+  <si>
+    <t>Eu Vou Viver Milagres</t>
+  </si>
+  <si>
+    <t>Fiel Adorador</t>
+  </si>
+  <si>
+    <t>Filho do Rei</t>
+  </si>
+  <si>
+    <t>Gideão e os Trezentos</t>
+  </si>
+  <si>
+    <t>Há uma Saída</t>
+  </si>
+  <si>
+    <t>Hino da Vitória</t>
+  </si>
+  <si>
+    <t>Homem dos Milagres</t>
+  </si>
+  <si>
+    <t>Jairo</t>
+  </si>
+  <si>
+    <t>Mais um Milagre</t>
+  </si>
+  <si>
+    <t>Menina dos Olhos de Deus</t>
+  </si>
+  <si>
+    <t>Milagres e Maravilhas</t>
+  </si>
+  <si>
+    <t>Milhões de Vozes</t>
+  </si>
+  <si>
+    <t>Na Unção de Deus</t>
+  </si>
+  <si>
+    <t>Não Será assim</t>
+  </si>
+  <si>
+    <t>No Limite</t>
+  </si>
+  <si>
+    <t>O Cálice</t>
+  </si>
+  <si>
+    <t>O Grande</t>
+  </si>
+  <si>
+    <t>O Jordão</t>
+  </si>
+  <si>
+    <t>O Nome Sobre Todo Nome</t>
+  </si>
+  <si>
+    <t>O Rosto de Cristo</t>
+  </si>
+  <si>
+    <t>Pérola</t>
+  </si>
+  <si>
+    <t>Pra Deus é Nada</t>
+  </si>
+  <si>
+    <t>Presença</t>
+  </si>
+  <si>
+    <t>Profetizo</t>
+  </si>
+  <si>
+    <t>Quando Ele chega...</t>
+  </si>
+  <si>
+    <t>Quem me Vê Cantando...</t>
+  </si>
+  <si>
+    <t>Rastro de Unção</t>
+  </si>
+  <si>
+    <t>Renovo</t>
+  </si>
+  <si>
+    <t>Santo dos Santos</t>
+  </si>
+  <si>
+    <t>Sê Comigo</t>
+  </si>
+  <si>
+    <t>Sem Palavras</t>
+  </si>
+  <si>
+    <t>Semente do Sangue</t>
+  </si>
+  <si>
+    <t>Sempre Fiel</t>
+  </si>
+  <si>
+    <t>Só Deus Pode Fazer Milagre</t>
+  </si>
+  <si>
+    <t>Sobrevivi (Sarah Farias)</t>
+  </si>
+  <si>
+    <t>Sobrevivi (Shirley Carvalhaes)</t>
+  </si>
+  <si>
+    <t>Sou Eu</t>
+  </si>
+  <si>
+    <t>Tu És</t>
+  </si>
+  <si>
+    <t>Um adorador</t>
+  </si>
+  <si>
+    <t>Unção Divina</t>
+  </si>
+  <si>
+    <t>Vai Ser só Glória</t>
+  </si>
+  <si>
+    <t>Vaso de Alabastro</t>
+  </si>
+  <si>
+    <t>Vaso de Honra</t>
+  </si>
+  <si>
+    <t>Vence a Prova</t>
+  </si>
+  <si>
+    <t>Vitória Certa</t>
+  </si>
+  <si>
+    <t>Vou Profetizar</t>
+  </si>
+  <si>
+    <t>Agnus Dei</t>
+  </si>
+  <si>
+    <t>Até o Sol Nascer</t>
+  </si>
+  <si>
+    <t>Cadeias Quebrar</t>
+  </si>
+  <si>
+    <t>Chamado de Deus</t>
+  </si>
+  <si>
+    <t>Comigo Estás</t>
+  </si>
+  <si>
+    <t>Deixa Queimar!</t>
+  </si>
+  <si>
+    <t>Dependo de Ti</t>
+  </si>
+  <si>
+    <t>Deus do secreto</t>
+  </si>
+  <si>
+    <t>Deus Não Abre Mão</t>
+  </si>
+  <si>
+    <t>Ele é contigo</t>
+  </si>
+  <si>
+    <t>Estou Seguindo a Jesus Cristo</t>
+  </si>
+  <si>
+    <t>Eu Escolho Deus</t>
+  </si>
+  <si>
+    <t>Eu Te Busco</t>
+  </si>
+  <si>
+    <t>Favor de Deus</t>
+  </si>
+  <si>
+    <t>Jesus, Filho de Deus</t>
+  </si>
+  <si>
+    <t>Lindo Nome (Medley)</t>
+  </si>
+  <si>
+    <t>Mais que Uma História</t>
+  </si>
+  <si>
+    <t>Manancial</t>
+  </si>
+  <si>
+    <t>Me Ama...</t>
+  </si>
+  <si>
+    <t>Me Derramar</t>
+  </si>
+  <si>
+    <t>Meu Amanhã</t>
+  </si>
+  <si>
+    <t>Meu Barquinho</t>
+  </si>
+  <si>
+    <t>Meu Respirar</t>
+  </si>
+  <si>
+    <t>Meu Salvador</t>
+  </si>
+  <si>
+    <t>Nada Além do Sangue</t>
+  </si>
+  <si>
+    <t>Não Tardará</t>
+  </si>
+  <si>
+    <t>Noite Santa</t>
+  </si>
+  <si>
+    <t>Postura do Reino</t>
+  </si>
+  <si>
+    <t>Raridade</t>
+  </si>
+  <si>
+    <t>Ressuscita</t>
+  </si>
+  <si>
+    <t>Teu Santo Nome</t>
+  </si>
+  <si>
+    <t>Vim Falar com Deus</t>
+  </si>
+  <si>
+    <t>Vim para Adorar-Te</t>
+  </si>
+  <si>
+    <t>Viver em Comunhão</t>
+  </si>
+  <si>
+    <t>A Luz do Teu Rosto</t>
+  </si>
+  <si>
+    <t>A Vida é Tudo de Bom!</t>
+  </si>
+  <si>
+    <t>Adorador</t>
+  </si>
+  <si>
+    <t>Mapa do Tesouro</t>
+  </si>
+  <si>
+    <t>Não me Envergonharei!</t>
+  </si>
+  <si>
+    <t>Oiapoque</t>
+  </si>
+  <si>
+    <t>Rei Davi</t>
+  </si>
+  <si>
+    <t>Vou para o Alvo</t>
+  </si>
+  <si>
+    <t>A Colheita</t>
+  </si>
+  <si>
+    <t>A Coroa</t>
+  </si>
+  <si>
+    <t>A Última Palavra</t>
+  </si>
+  <si>
+    <t>Amor Maior</t>
+  </si>
+  <si>
+    <t>Cantai!</t>
+  </si>
+  <si>
+    <t>Com muito louvor!</t>
+  </si>
+  <si>
+    <t>Deus dos deuses</t>
+  </si>
+  <si>
+    <t>Espírito de Adorador</t>
+  </si>
+  <si>
+    <t>Fidelidade</t>
+  </si>
+  <si>
+    <t>Fiel Toda Vida</t>
+  </si>
+  <si>
+    <t>Glória</t>
+  </si>
+  <si>
+    <t>Graças Te damos</t>
+  </si>
+  <si>
+    <t>Leão e Cordeiro</t>
+  </si>
+  <si>
+    <t>Louve Sempre</t>
+  </si>
+  <si>
+    <t>Maranata</t>
+  </si>
+  <si>
+    <t>Meu Deus Tem Poder</t>
+  </si>
+  <si>
+    <t>Milagre no Altar</t>
+  </si>
+  <si>
+    <t>Muito Além do Céu</t>
+  </si>
+  <si>
+    <t>Nada se Compara</t>
+  </si>
+  <si>
+    <t>Novo Dia, Novo Tempo</t>
+  </si>
+  <si>
+    <t>Pai</t>
+  </si>
+  <si>
+    <t>Pastor</t>
+  </si>
+  <si>
+    <t>Primeiro Amor</t>
+  </si>
+  <si>
+    <t>Promessa</t>
+  </si>
+  <si>
+    <t>Quão Grande é o meu Deus!</t>
+  </si>
+  <si>
+    <t>Reina em mim</t>
+  </si>
+  <si>
+    <t>Rendido Estou</t>
+  </si>
+  <si>
+    <t>Ser Conhecido de Deus</t>
+  </si>
+  <si>
+    <t>Sinfonia</t>
+  </si>
+  <si>
+    <t>Sopra Espírito!</t>
+  </si>
+  <si>
+    <t>Terremoto</t>
+  </si>
+  <si>
+    <t>Teu Deus, teu Senhor</t>
+  </si>
+  <si>
+    <t>Tu És Santo (Príncipe da paz)</t>
+  </si>
+  <si>
+    <t>Verei Jesus</t>
+  </si>
+  <si>
+    <t>Vou com Jesus</t>
+  </si>
+  <si>
+    <t>Amanhã</t>
+  </si>
+  <si>
+    <t>Apenas Servo</t>
+  </si>
+  <si>
+    <t>Casa do Oleiro</t>
+  </si>
+  <si>
+    <t>Cem Ovelhas</t>
+  </si>
+  <si>
+    <t>Deus Cuida de ti</t>
+  </si>
+  <si>
+    <t>Deus Enxuga teu Pranto</t>
+  </si>
+  <si>
+    <t>Deus Muda Situações...</t>
+  </si>
+  <si>
+    <t>Ei, você...</t>
+  </si>
+  <si>
+    <t>És...</t>
+  </si>
+  <si>
+    <t>Fiel a Mim</t>
+  </si>
+  <si>
+    <t>Jesus é o meu Refúgio</t>
+  </si>
+  <si>
+    <t>Medley (Adilson Rossi)</t>
+  </si>
+  <si>
+    <t>Meu Tributo</t>
+  </si>
+  <si>
+    <t>Muito Mais</t>
+  </si>
+  <si>
+    <t>Não Chores Mais</t>
+  </si>
+  <si>
+    <t>Não Vai Terminar Assim</t>
+  </si>
+  <si>
+    <t>Ouça-me</t>
+  </si>
+  <si>
+    <t>Palavras</t>
+  </si>
+  <si>
+    <t>Pode alguém</t>
+  </si>
+  <si>
+    <t>Quebranta-me</t>
+  </si>
+  <si>
+    <t>Questiona ou Adora</t>
+  </si>
+  <si>
+    <t>Santo</t>
+  </si>
+  <si>
+    <t>Se o Espírito Santo te Tocar</t>
+  </si>
+  <si>
+    <t>Um Nome</t>
+  </si>
+  <si>
+    <t>Vem com Josué</t>
+  </si>
+  <si>
+    <t>Viva com Deus</t>
+  </si>
+  <si>
+    <t>UMADECAP</t>
+  </si>
+  <si>
+    <t>A Igreja Vem</t>
+  </si>
+  <si>
+    <t>Aleluia ao Rei da Glória</t>
+  </si>
+  <si>
+    <t>Aleluia! Celebrai!</t>
+  </si>
+  <si>
+    <t>Cicatrizes</t>
+  </si>
+  <si>
+    <t>Deus, Tu És Santo</t>
+  </si>
+  <si>
+    <t>Ele Virá</t>
+  </si>
+  <si>
+    <t>Em Nome de Jesus</t>
+  </si>
+  <si>
+    <t>Ensina-me...</t>
+  </si>
+  <si>
+    <t>Faz Chover</t>
+  </si>
+  <si>
+    <t>Grandioso és Tu</t>
+  </si>
+  <si>
+    <t>Jerusalém</t>
+  </si>
+  <si>
+    <t>Jesus Voltará!</t>
+  </si>
+  <si>
+    <t>João Viu</t>
+  </si>
+  <si>
+    <t>Meu Socorro Vem do Senhor</t>
+  </si>
+  <si>
+    <t>Obrigado Jesus por Seu Sangue!</t>
+  </si>
+  <si>
+    <t>Pai eu Confiarei</t>
+  </si>
+  <si>
+    <t>Precioso Sangue</t>
+  </si>
+  <si>
+    <t>Que segurança</t>
+  </si>
+  <si>
+    <t>Sala do Trono</t>
+  </si>
+  <si>
+    <t>Salmo 100</t>
+  </si>
+  <si>
+    <t>Saudade</t>
+  </si>
+  <si>
+    <t>Te Agradeço</t>
+  </si>
+  <si>
+    <t>Te Exaltamos</t>
+  </si>
+  <si>
+    <t>Te Louvamos</t>
+  </si>
+  <si>
+    <t>Tudo Entregarei</t>
+  </si>
+  <si>
+    <t>Um Novo Endereço</t>
+  </si>
+  <si>
+    <t>Vem Espírito Santo</t>
+  </si>
+  <si>
+    <t>Vem</t>
+  </si>
+  <si>
+    <t>A Cada Passo</t>
+  </si>
+  <si>
+    <t>A Casa de Jairo</t>
+  </si>
+  <si>
+    <t>Bendito Serei</t>
+  </si>
+  <si>
+    <t>Chamada Final</t>
+  </si>
+  <si>
+    <t>Divino Companheiro</t>
+  </si>
+  <si>
+    <t>Estou Contigo</t>
+  </si>
+  <si>
+    <t>Felicidade</t>
+  </si>
+  <si>
+    <t>Fogo que Consome</t>
+  </si>
+  <si>
+    <t>Muito Além do Sol</t>
+  </si>
+  <si>
+    <t>No Caminho de Emáus</t>
+  </si>
+  <si>
+    <t>O Melhor desta Terra</t>
+  </si>
+  <si>
+    <t>Povo Escolhido</t>
+  </si>
+  <si>
+    <t>A Presença de Deus</t>
+  </si>
+  <si>
+    <t>Quando Jesus Estendeu a Mão...</t>
+  </si>
+  <si>
+    <t>Se Isto Não For Amor...</t>
+  </si>
+  <si>
+    <t>Seja Deus Louvado</t>
+  </si>
+  <si>
+    <t>Só Ele é</t>
+  </si>
+  <si>
+    <t>Soldado ferido</t>
+  </si>
+  <si>
+    <t>Vamos nós Trabalhar</t>
+  </si>
+  <si>
+    <t>Página</t>
+  </si>
+  <si>
+    <t>Avulsos</t>
+  </si>
+  <si>
+    <t>Congregacionais</t>
+  </si>
+  <si>
+    <t>Crianças</t>
+  </si>
+  <si>
+    <t>Equipe de Louvor</t>
+  </si>
+  <si>
+    <t>Irmãs</t>
+  </si>
+  <si>
+    <t>Músicas Antigas da Equipe de Louvor</t>
+  </si>
+  <si>
+    <t>Músicas Antigas de Retiros</t>
+  </si>
+  <si>
+    <t>Nova Geração</t>
+  </si>
+  <si>
+    <t>Orquestra</t>
+  </si>
+  <si>
+    <t>Varões</t>
+  </si>
+  <si>
+    <t>Deus está aqui &amp; Ao que está assentado</t>
+  </si>
+  <si>
+    <t>Em Espírito &amp; Vamos adorar a Deus</t>
+  </si>
+  <si>
+    <t>Espírito de Deus &amp; Sala do Trono</t>
+  </si>
+  <si>
+    <t>Medley: (O Nosso General É Cristo, Os Guerreiros Se Preparam, Firme nas Promessas)</t>
+  </si>
+  <si>
+    <t>Medley 1 - UFADECAP - Festa Dep. 2020</t>
+  </si>
+  <si>
+    <t>Medley 2 - UFADECAP - Festa Dep. 2020</t>
+  </si>
+  <si>
+    <t>Quando Ele vem (Original)</t>
+  </si>
+  <si>
+    <t>Quando eu Chorar</t>
+  </si>
+  <si>
+    <t>Quero Descer</t>
+  </si>
+  <si>
+    <t>Vai abalar</t>
+  </si>
+  <si>
+    <t>Deixa o Teu Rio me Levar</t>
+  </si>
+  <si>
+    <t>Falar com Deus</t>
+  </si>
+  <si>
+    <t>Imagine</t>
+  </si>
+  <si>
+    <t>Jesus Não é o Homem</t>
+  </si>
+  <si>
+    <t>Pensando Bem</t>
+  </si>
+  <si>
+    <t>Cadeias quebrar/Canção do Apocalipse</t>
+  </si>
+  <si>
+    <t>Lá na Cruz</t>
+  </si>
+  <si>
+    <t>Medley 1 - UMADECAP 33 anos</t>
+  </si>
+  <si>
+    <t>Medley 2 - UMADECAP 33 anos</t>
+  </si>
+  <si>
+    <t>Medley (Anderson Freire) - 2015</t>
+  </si>
+  <si>
+    <t>Medley - UMADECAP 35 Anos (Cassiane)</t>
+  </si>
+  <si>
+    <t>Medley - UMADECAP 36 anos</t>
+  </si>
+  <si>
+    <t>Santo! Santo! Santo! (Paulo Francisco)</t>
+  </si>
+  <si>
+    <t>Santo! Santo! Santo! (Reginald Heber)</t>
   </si>
 </sst>
 </file>
@@ -10219,7 +11649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10229,6 +11659,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10547,7 +11980,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:D3384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3341" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3347" sqref="D3347"/>
     </sheetView>
   </sheetViews>
@@ -57936,4 +59369,7028 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEC4970-1C25-417B-942E-AB4F1EC9EEFB}">
+  <dimension ref="A1:E492"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C494" sqref="C494"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="78.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3824</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3388</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3389</v>
+      </c>
+      <c r="D3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3390</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3391</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3392</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3393</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3394</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3395</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3397</v>
+      </c>
+      <c r="D12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3398</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3399</v>
+      </c>
+      <c r="D14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3400</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3402</v>
+      </c>
+      <c r="D17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3404</v>
+      </c>
+      <c r="D19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3405</v>
+      </c>
+      <c r="D20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3408</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3409</v>
+      </c>
+      <c r="D24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3411</v>
+      </c>
+      <c r="D26">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3412</v>
+      </c>
+      <c r="D27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3413</v>
+      </c>
+      <c r="D28">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3414</v>
+      </c>
+      <c r="D29">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3416</v>
+      </c>
+      <c r="D31">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3417</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D33">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3419</v>
+      </c>
+      <c r="D34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3420</v>
+      </c>
+      <c r="D35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3421</v>
+      </c>
+      <c r="D36">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D37">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3423</v>
+      </c>
+      <c r="D38">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3424</v>
+      </c>
+      <c r="D39">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3425</v>
+      </c>
+      <c r="D40">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3426</v>
+      </c>
+      <c r="D41">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3427</v>
+      </c>
+      <c r="D42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3428</v>
+      </c>
+      <c r="D43">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D44">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3430</v>
+      </c>
+      <c r="D45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3431</v>
+      </c>
+      <c r="D46">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D47">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3433</v>
+      </c>
+      <c r="D48">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D49">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3435</v>
+      </c>
+      <c r="D50">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3436</v>
+      </c>
+      <c r="D51">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3437</v>
+      </c>
+      <c r="D52">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3438</v>
+      </c>
+      <c r="D53">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3439</v>
+      </c>
+      <c r="D54">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D55">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3441</v>
+      </c>
+      <c r="D56">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3442</v>
+      </c>
+      <c r="D57">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3443</v>
+      </c>
+      <c r="D58">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3444</v>
+      </c>
+      <c r="D59">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D60">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3446</v>
+      </c>
+      <c r="D61">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3447</v>
+      </c>
+      <c r="D62">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3448</v>
+      </c>
+      <c r="D63">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>299</v>
+      </c>
+      <c r="D64">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3449</v>
+      </c>
+      <c r="D65">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D66">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D67">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3452</v>
+      </c>
+      <c r="D68">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3453</v>
+      </c>
+      <c r="D69">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3454</v>
+      </c>
+      <c r="D70">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3455</v>
+      </c>
+      <c r="D71">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3456</v>
+      </c>
+      <c r="D72">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3457</v>
+      </c>
+      <c r="D73">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3458</v>
+      </c>
+      <c r="D74">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3459</v>
+      </c>
+      <c r="D75">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3460</v>
+      </c>
+      <c r="D76">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3461</v>
+      </c>
+      <c r="D77">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D78">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3463</v>
+      </c>
+      <c r="D79">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D80">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3465</v>
+      </c>
+      <c r="D81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3466</v>
+      </c>
+      <c r="D82">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3467</v>
+      </c>
+      <c r="D83">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3468</v>
+      </c>
+      <c r="D84">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3469</v>
+      </c>
+      <c r="D85">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3470</v>
+      </c>
+      <c r="D86">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3471</v>
+      </c>
+      <c r="D87">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D88">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3473</v>
+      </c>
+      <c r="D89">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3474</v>
+      </c>
+      <c r="D90">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D91">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3476</v>
+      </c>
+      <c r="D92">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3477</v>
+      </c>
+      <c r="D93">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3835</v>
+      </c>
+      <c r="D94">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3836</v>
+      </c>
+      <c r="D95">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3478</v>
+      </c>
+      <c r="D96">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3479</v>
+      </c>
+      <c r="D97">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3480</v>
+      </c>
+      <c r="D98">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3481</v>
+      </c>
+      <c r="D99">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3482</v>
+      </c>
+      <c r="D100">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D101">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3837</v>
+      </c>
+      <c r="D102">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3460</v>
+      </c>
+      <c r="D103">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3416</v>
+      </c>
+      <c r="D104">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D105">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3485</v>
+      </c>
+      <c r="D106">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3486</v>
+      </c>
+      <c r="D107">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3487</v>
+      </c>
+      <c r="D108">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
+        <v>3488</v>
+      </c>
+      <c r="D109">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3489</v>
+      </c>
+      <c r="D110">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3490</v>
+      </c>
+      <c r="D111">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3491</v>
+      </c>
+      <c r="D112">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3492</v>
+      </c>
+      <c r="D113">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3493</v>
+      </c>
+      <c r="D114">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D115">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3495</v>
+      </c>
+      <c r="D116">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3496</v>
+      </c>
+      <c r="D117">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>3838</v>
+      </c>
+      <c r="D118">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>3497</v>
+      </c>
+      <c r="D119">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s">
+        <v>3498</v>
+      </c>
+      <c r="D120">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>3499</v>
+      </c>
+      <c r="D121">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>3500</v>
+      </c>
+      <c r="D122">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>3501</v>
+      </c>
+      <c r="D123">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>3502</v>
+      </c>
+      <c r="D124">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
+        <v>3503</v>
+      </c>
+      <c r="D125">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>3504</v>
+      </c>
+      <c r="D126">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3505</v>
+      </c>
+      <c r="D127">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3506</v>
+      </c>
+      <c r="D128">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D129">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3508</v>
+      </c>
+      <c r="D130">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>3509</v>
+      </c>
+      <c r="D131">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>3390</v>
+      </c>
+      <c r="D132">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3510</v>
+      </c>
+      <c r="D133">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D134">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D135">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3513</v>
+      </c>
+      <c r="D136">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3514</v>
+      </c>
+      <c r="D137">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D138">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>3516</v>
+      </c>
+      <c r="D139">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>3517</v>
+      </c>
+      <c r="D140">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3518</v>
+      </c>
+      <c r="D141">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3519</v>
+      </c>
+      <c r="D142">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D143">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3521</v>
+      </c>
+      <c r="D144">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3522</v>
+      </c>
+      <c r="D145">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>3523</v>
+      </c>
+      <c r="D146">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>3524</v>
+      </c>
+      <c r="D147">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>3525</v>
+      </c>
+      <c r="D148">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>3526</v>
+      </c>
+      <c r="D149">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D150">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D151">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>3529</v>
+      </c>
+      <c r="D152">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>3397</v>
+      </c>
+      <c r="D153">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>3530</v>
+      </c>
+      <c r="D154">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>3531</v>
+      </c>
+      <c r="D155">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>3532</v>
+      </c>
+      <c r="D156">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>3533</v>
+      </c>
+      <c r="D157">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>3534</v>
+      </c>
+      <c r="D158">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>3535</v>
+      </c>
+      <c r="D159">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>3536</v>
+      </c>
+      <c r="D160">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>3537</v>
+      </c>
+      <c r="D161">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>3538</v>
+      </c>
+      <c r="D162">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>3539</v>
+      </c>
+      <c r="D163">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>3540</v>
+      </c>
+      <c r="D164">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>3541</v>
+      </c>
+      <c r="D165">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>3542</v>
+      </c>
+      <c r="D166">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>3543</v>
+      </c>
+      <c r="D167">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>3544</v>
+      </c>
+      <c r="D168">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>3545</v>
+      </c>
+      <c r="D169">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>3404</v>
+      </c>
+      <c r="D170">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>3546</v>
+      </c>
+      <c r="D171">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>3547</v>
+      </c>
+      <c r="D172">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D173">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>3549</v>
+      </c>
+      <c r="D174">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>3550</v>
+      </c>
+      <c r="D175">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D176">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>3552</v>
+      </c>
+      <c r="D177">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>3553</v>
+      </c>
+      <c r="D178">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>3554</v>
+      </c>
+      <c r="D179">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>3555</v>
+      </c>
+      <c r="D180">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>3556</v>
+      </c>
+      <c r="D181">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>3557</v>
+      </c>
+      <c r="D182">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>3558</v>
+      </c>
+      <c r="D183">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>3559</v>
+      </c>
+      <c r="D184">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>3560</v>
+      </c>
+      <c r="D185">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>3561</v>
+      </c>
+      <c r="D186">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>3562</v>
+      </c>
+      <c r="D187">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>3563</v>
+      </c>
+      <c r="D188">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>3564</v>
+      </c>
+      <c r="D189">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>3565</v>
+      </c>
+      <c r="D190">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>999</v>
+      </c>
+      <c r="D191">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>3566</v>
+      </c>
+      <c r="D192">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>3567</v>
+      </c>
+      <c r="D193">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D194">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>3568</v>
+      </c>
+      <c r="D195">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>3569</v>
+      </c>
+      <c r="D196">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D197">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>3571</v>
+      </c>
+      <c r="D198">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>3572</v>
+      </c>
+      <c r="D199">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>3501</v>
+      </c>
+      <c r="D200">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>3573</v>
+      </c>
+      <c r="D201">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>3574</v>
+      </c>
+      <c r="D202">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>3575</v>
+      </c>
+      <c r="D203">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>3576</v>
+      </c>
+      <c r="D204">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>3416</v>
+      </c>
+      <c r="D205">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>3577</v>
+      </c>
+      <c r="D206">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>3578</v>
+      </c>
+      <c r="D207">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D208">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>3580</v>
+      </c>
+      <c r="D209">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D210">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>3582</v>
+      </c>
+      <c r="D211">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>3583</v>
+      </c>
+      <c r="D212">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>3584</v>
+      </c>
+      <c r="D213">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>3585</v>
+      </c>
+      <c r="D214">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>3586</v>
+      </c>
+      <c r="D215">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>3587</v>
+      </c>
+      <c r="D216">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>3588</v>
+      </c>
+      <c r="D217">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>3589</v>
+      </c>
+      <c r="D218">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>3590</v>
+      </c>
+      <c r="D219">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>3591</v>
+      </c>
+      <c r="D220">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>5</v>
+      </c>
+      <c r="C221" t="s">
+        <v>3592</v>
+      </c>
+      <c r="D221">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D222">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>3594</v>
+      </c>
+      <c r="D223">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>3595</v>
+      </c>
+      <c r="D224">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>3596</v>
+      </c>
+      <c r="D225">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>3597</v>
+      </c>
+      <c r="D226">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>3598</v>
+      </c>
+      <c r="D227">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
+        <v>3599</v>
+      </c>
+      <c r="D228">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>3600</v>
+      </c>
+      <c r="D229">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>6</v>
+      </c>
+      <c r="C230" t="s">
+        <v>3601</v>
+      </c>
+      <c r="D230">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>6</v>
+      </c>
+      <c r="C231" t="s">
+        <v>3602</v>
+      </c>
+      <c r="D231">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>6</v>
+      </c>
+      <c r="C232" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D232">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>6</v>
+      </c>
+      <c r="C233" t="s">
+        <v>3604</v>
+      </c>
+      <c r="D233">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>6</v>
+      </c>
+      <c r="C234" t="s">
+        <v>3605</v>
+      </c>
+      <c r="D234">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>6</v>
+      </c>
+      <c r="C235" t="s">
+        <v>3606</v>
+      </c>
+      <c r="D235">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>6</v>
+      </c>
+      <c r="C236" t="s">
+        <v>3424</v>
+      </c>
+      <c r="D236">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>6</v>
+      </c>
+      <c r="C237" t="s">
+        <v>3607</v>
+      </c>
+      <c r="D237">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>6</v>
+      </c>
+      <c r="C238" t="s">
+        <v>3608</v>
+      </c>
+      <c r="D238">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>6</v>
+      </c>
+      <c r="C239" t="s">
+        <v>3609</v>
+      </c>
+      <c r="D239">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>6</v>
+      </c>
+      <c r="C240" t="s">
+        <v>3610</v>
+      </c>
+      <c r="D240">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>6</v>
+      </c>
+      <c r="C241" t="s">
+        <v>3611</v>
+      </c>
+      <c r="D241">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>6</v>
+      </c>
+      <c r="C242" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D242">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>6</v>
+      </c>
+      <c r="C243" t="s">
+        <v>3613</v>
+      </c>
+      <c r="D243">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>6</v>
+      </c>
+      <c r="C244" t="s">
+        <v>3614</v>
+      </c>
+      <c r="D244">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>6</v>
+      </c>
+      <c r="C245" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D245">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>6</v>
+      </c>
+      <c r="C246" t="s">
+        <v>3616</v>
+      </c>
+      <c r="D246">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>6</v>
+      </c>
+      <c r="C247" t="s">
+        <v>3435</v>
+      </c>
+      <c r="D247">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>6</v>
+      </c>
+      <c r="C248" t="s">
+        <v>3617</v>
+      </c>
+      <c r="D248">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>6</v>
+      </c>
+      <c r="C249" t="s">
+        <v>3618</v>
+      </c>
+      <c r="D249">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>6</v>
+      </c>
+      <c r="C250" t="s">
+        <v>3619</v>
+      </c>
+      <c r="D250">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>6</v>
+      </c>
+      <c r="C251" t="s">
+        <v>3620</v>
+      </c>
+      <c r="D251">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>6</v>
+      </c>
+      <c r="C252" t="s">
+        <v>3621</v>
+      </c>
+      <c r="D252">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>6</v>
+      </c>
+      <c r="C253" t="s">
+        <v>3622</v>
+      </c>
+      <c r="D253">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>6</v>
+      </c>
+      <c r="C254" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D254">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>6</v>
+      </c>
+      <c r="C255" t="s">
+        <v>3624</v>
+      </c>
+      <c r="D255">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>6</v>
+      </c>
+      <c r="C256" t="s">
+        <v>3625</v>
+      </c>
+      <c r="D256">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>6</v>
+      </c>
+      <c r="C257" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D257">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>6</v>
+      </c>
+      <c r="C258" t="s">
+        <v>3627</v>
+      </c>
+      <c r="D258">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>6</v>
+      </c>
+      <c r="C259" t="s">
+        <v>3628</v>
+      </c>
+      <c r="D259">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>6</v>
+      </c>
+      <c r="C260" t="s">
+        <v>3629</v>
+      </c>
+      <c r="D260">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>6</v>
+      </c>
+      <c r="C261" t="s">
+        <v>3630</v>
+      </c>
+      <c r="D261">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>6</v>
+      </c>
+      <c r="C262" t="s">
+        <v>3631</v>
+      </c>
+      <c r="D262">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>6</v>
+      </c>
+      <c r="C263" t="s">
+        <v>3632</v>
+      </c>
+      <c r="D263">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>6</v>
+      </c>
+      <c r="C264" t="s">
+        <v>3633</v>
+      </c>
+      <c r="D264">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>6</v>
+      </c>
+      <c r="C265" t="s">
+        <v>3634</v>
+      </c>
+      <c r="D265">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>6</v>
+      </c>
+      <c r="C266" t="s">
+        <v>3635</v>
+      </c>
+      <c r="D266">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>6</v>
+      </c>
+      <c r="C267" t="s">
+        <v>3839</v>
+      </c>
+      <c r="D267">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>6</v>
+      </c>
+      <c r="C268" t="s">
+        <v>3840</v>
+      </c>
+      <c r="D268">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>6</v>
+      </c>
+      <c r="C269" t="s">
+        <v>3636</v>
+      </c>
+      <c r="D269">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>6</v>
+      </c>
+      <c r="C270" t="s">
+        <v>3637</v>
+      </c>
+      <c r="D270">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>6</v>
+      </c>
+      <c r="C271" t="s">
+        <v>3638</v>
+      </c>
+      <c r="D271">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>6</v>
+      </c>
+      <c r="C272" t="s">
+        <v>3639</v>
+      </c>
+      <c r="D272">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>6</v>
+      </c>
+      <c r="C273" t="s">
+        <v>3640</v>
+      </c>
+      <c r="D273">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>6</v>
+      </c>
+      <c r="C274" t="s">
+        <v>3641</v>
+      </c>
+      <c r="D274">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>6</v>
+      </c>
+      <c r="C275" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D275">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>6</v>
+      </c>
+      <c r="C276" t="s">
+        <v>3643</v>
+      </c>
+      <c r="D276">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>6</v>
+      </c>
+      <c r="C277" t="s">
+        <v>3644</v>
+      </c>
+      <c r="D277">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>6</v>
+      </c>
+      <c r="C278" t="s">
+        <v>3645</v>
+      </c>
+      <c r="D278">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>6</v>
+      </c>
+      <c r="C279" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D279">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>6</v>
+      </c>
+      <c r="C280" t="s">
+        <v>3647</v>
+      </c>
+      <c r="D280">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>6</v>
+      </c>
+      <c r="C281" t="s">
+        <v>3648</v>
+      </c>
+      <c r="D281">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>6</v>
+      </c>
+      <c r="C282" t="s">
+        <v>3649</v>
+      </c>
+      <c r="D282">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>6</v>
+      </c>
+      <c r="C283" t="s">
+        <v>3650</v>
+      </c>
+      <c r="D283">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>6</v>
+      </c>
+      <c r="C284" t="s">
+        <v>3651</v>
+      </c>
+      <c r="D284">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>6</v>
+      </c>
+      <c r="C285" t="s">
+        <v>3652</v>
+      </c>
+      <c r="D285">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>6</v>
+      </c>
+      <c r="C286" t="s">
+        <v>3653</v>
+      </c>
+      <c r="D286">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>6</v>
+      </c>
+      <c r="C287" t="s">
+        <v>3654</v>
+      </c>
+      <c r="D287">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>6</v>
+      </c>
+      <c r="C288" t="s">
+        <v>3655</v>
+      </c>
+      <c r="D288">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>6</v>
+      </c>
+      <c r="C289" t="s">
+        <v>3656</v>
+      </c>
+      <c r="D289">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>6</v>
+      </c>
+      <c r="C290" t="s">
+        <v>3657</v>
+      </c>
+      <c r="D290">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>6</v>
+      </c>
+      <c r="C291" t="s">
+        <v>3658</v>
+      </c>
+      <c r="D291">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>6</v>
+      </c>
+      <c r="C292" t="s">
+        <v>3659</v>
+      </c>
+      <c r="D292">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>6</v>
+      </c>
+      <c r="C293" t="s">
+        <v>3660</v>
+      </c>
+      <c r="D293">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>6</v>
+      </c>
+      <c r="C294" t="s">
+        <v>3661</v>
+      </c>
+      <c r="D294">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>6</v>
+      </c>
+      <c r="C295" t="s">
+        <v>3662</v>
+      </c>
+      <c r="D295">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>6</v>
+      </c>
+      <c r="C296" t="s">
+        <v>3663</v>
+      </c>
+      <c r="D296">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>6</v>
+      </c>
+      <c r="C297" t="s">
+        <v>2917</v>
+      </c>
+      <c r="D297">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>6</v>
+      </c>
+      <c r="C298" t="s">
+        <v>3664</v>
+      </c>
+      <c r="D298">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>6</v>
+      </c>
+      <c r="C299" t="s">
+        <v>3665</v>
+      </c>
+      <c r="D299">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>6</v>
+      </c>
+      <c r="C300" t="s">
+        <v>3666</v>
+      </c>
+      <c r="D300">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>6</v>
+      </c>
+      <c r="C301" t="s">
+        <v>3667</v>
+      </c>
+      <c r="D301">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>6</v>
+      </c>
+      <c r="C302" t="s">
+        <v>3668</v>
+      </c>
+      <c r="D302">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>6</v>
+      </c>
+      <c r="C303" t="s">
+        <v>3669</v>
+      </c>
+      <c r="D303">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>6</v>
+      </c>
+      <c r="C304" t="s">
+        <v>3670</v>
+      </c>
+      <c r="D304">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>6</v>
+      </c>
+      <c r="C305" t="s">
+        <v>3671</v>
+      </c>
+      <c r="D305">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>6</v>
+      </c>
+      <c r="C306" t="s">
+        <v>3672</v>
+      </c>
+      <c r="D306">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>7</v>
+      </c>
+      <c r="C307" t="s">
+        <v>3673</v>
+      </c>
+      <c r="D307">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>7</v>
+      </c>
+      <c r="C308" t="s">
+        <v>3674</v>
+      </c>
+      <c r="D308">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>7</v>
+      </c>
+      <c r="C309" t="s">
+        <v>3675</v>
+      </c>
+      <c r="D309">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>7</v>
+      </c>
+      <c r="C310" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D310">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>7</v>
+      </c>
+      <c r="C311" t="s">
+        <v>3677</v>
+      </c>
+      <c r="D311">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>7</v>
+      </c>
+      <c r="C312" t="s">
+        <v>3678</v>
+      </c>
+      <c r="D312">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>7</v>
+      </c>
+      <c r="C313" t="s">
+        <v>3679</v>
+      </c>
+      <c r="D313">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>7</v>
+      </c>
+      <c r="C314" t="s">
+        <v>3680</v>
+      </c>
+      <c r="D314">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>7</v>
+      </c>
+      <c r="C315" t="s">
+        <v>3681</v>
+      </c>
+      <c r="D315">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>7</v>
+      </c>
+      <c r="C316" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D316">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>7</v>
+      </c>
+      <c r="C317" t="s">
+        <v>3535</v>
+      </c>
+      <c r="D317">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>7</v>
+      </c>
+      <c r="C318" t="s">
+        <v>3683</v>
+      </c>
+      <c r="D318">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>7</v>
+      </c>
+      <c r="C319" t="s">
+        <v>3684</v>
+      </c>
+      <c r="D319">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>7</v>
+      </c>
+      <c r="C320" t="s">
+        <v>3685</v>
+      </c>
+      <c r="D320">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>7</v>
+      </c>
+      <c r="C321" t="s">
+        <v>3402</v>
+      </c>
+      <c r="D321">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>7</v>
+      </c>
+      <c r="C322" t="s">
+        <v>3686</v>
+      </c>
+      <c r="D322">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>7</v>
+      </c>
+      <c r="C323" t="s">
+        <v>3687</v>
+      </c>
+      <c r="D323">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>7</v>
+      </c>
+      <c r="C324" t="s">
+        <v>3688</v>
+      </c>
+      <c r="D324">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>7</v>
+      </c>
+      <c r="C325" t="s">
+        <v>3689</v>
+      </c>
+      <c r="D325">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>7</v>
+      </c>
+      <c r="C326" t="s">
+        <v>3690</v>
+      </c>
+      <c r="D326">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>7</v>
+      </c>
+      <c r="C327" t="s">
+        <v>3691</v>
+      </c>
+      <c r="D327">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>7</v>
+      </c>
+      <c r="C328" t="s">
+        <v>3692</v>
+      </c>
+      <c r="D328">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>7</v>
+      </c>
+      <c r="C329" t="s">
+        <v>3693</v>
+      </c>
+      <c r="D329">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>7</v>
+      </c>
+      <c r="C330" t="s">
+        <v>3694</v>
+      </c>
+      <c r="D330">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>7</v>
+      </c>
+      <c r="C331" t="s">
+        <v>3695</v>
+      </c>
+      <c r="D331">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>7</v>
+      </c>
+      <c r="C332" t="s">
+        <v>3696</v>
+      </c>
+      <c r="D332">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>7</v>
+      </c>
+      <c r="C333" t="s">
+        <v>3697</v>
+      </c>
+      <c r="D333">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>7</v>
+      </c>
+      <c r="C334" t="s">
+        <v>3698</v>
+      </c>
+      <c r="D334">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>7</v>
+      </c>
+      <c r="C335" t="s">
+        <v>3699</v>
+      </c>
+      <c r="D335">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>7</v>
+      </c>
+      <c r="C336" t="s">
+        <v>3700</v>
+      </c>
+      <c r="D336">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>7</v>
+      </c>
+      <c r="C337" t="s">
+        <v>3841</v>
+      </c>
+      <c r="D337">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>7</v>
+      </c>
+      <c r="C338" t="s">
+        <v>3842</v>
+      </c>
+      <c r="D338">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>7</v>
+      </c>
+      <c r="C339" t="s">
+        <v>3843</v>
+      </c>
+      <c r="D339">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>7</v>
+      </c>
+      <c r="C340" t="s">
+        <v>3701</v>
+      </c>
+      <c r="D340">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>7</v>
+      </c>
+      <c r="C341" t="s">
+        <v>3702</v>
+      </c>
+      <c r="D341">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>7</v>
+      </c>
+      <c r="C342" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D342">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>7</v>
+      </c>
+      <c r="C343" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D343">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>7</v>
+      </c>
+      <c r="C344" t="s">
+        <v>3703</v>
+      </c>
+      <c r="D344">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>7</v>
+      </c>
+      <c r="C345" t="s">
+        <v>3704</v>
+      </c>
+      <c r="D345">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>7</v>
+      </c>
+      <c r="C346" t="s">
+        <v>3705</v>
+      </c>
+      <c r="D346">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>7</v>
+      </c>
+      <c r="C347" t="s">
+        <v>3706</v>
+      </c>
+      <c r="D347">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>8</v>
+      </c>
+      <c r="C348" t="s">
+        <v>3707</v>
+      </c>
+      <c r="D348">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>8</v>
+      </c>
+      <c r="C349" t="s">
+        <v>3708</v>
+      </c>
+      <c r="D349">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>8</v>
+      </c>
+      <c r="C350" t="s">
+        <v>3709</v>
+      </c>
+      <c r="D350">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>8</v>
+      </c>
+      <c r="C351" t="s">
+        <v>3710</v>
+      </c>
+      <c r="D351">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>8</v>
+      </c>
+      <c r="C352" t="s">
+        <v>3711</v>
+      </c>
+      <c r="D352">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>8</v>
+      </c>
+      <c r="C353" t="s">
+        <v>3712</v>
+      </c>
+      <c r="D353">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>8</v>
+      </c>
+      <c r="C354" t="s">
+        <v>3713</v>
+      </c>
+      <c r="D354">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>8</v>
+      </c>
+      <c r="C355" t="s">
+        <v>3844</v>
+      </c>
+      <c r="D355">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>8</v>
+      </c>
+      <c r="C356" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D356">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>9</v>
+      </c>
+      <c r="C357" t="s">
+        <v>3715</v>
+      </c>
+      <c r="D357">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>9</v>
+      </c>
+      <c r="C358" t="s">
+        <v>3716</v>
+      </c>
+      <c r="D358">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>9</v>
+      </c>
+      <c r="C359" t="s">
+        <v>3717</v>
+      </c>
+      <c r="D359">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>9</v>
+      </c>
+      <c r="C360" t="s">
+        <v>3718</v>
+      </c>
+      <c r="D360">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>9</v>
+      </c>
+      <c r="C361" t="s">
+        <v>3719</v>
+      </c>
+      <c r="D361">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>9</v>
+      </c>
+      <c r="C362" t="s">
+        <v>3720</v>
+      </c>
+      <c r="D362">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>9</v>
+      </c>
+      <c r="C363" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D363">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>9</v>
+      </c>
+      <c r="C364" t="s">
+        <v>3845</v>
+      </c>
+      <c r="D364">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>9</v>
+      </c>
+      <c r="C365" t="s">
+        <v>3721</v>
+      </c>
+      <c r="D365">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>9</v>
+      </c>
+      <c r="C366" t="s">
+        <v>3722</v>
+      </c>
+      <c r="D366">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>9</v>
+      </c>
+      <c r="C367" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D367">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>9</v>
+      </c>
+      <c r="C368" t="s">
+        <v>3846</v>
+      </c>
+      <c r="D368">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>9</v>
+      </c>
+      <c r="C369" t="s">
+        <v>3723</v>
+      </c>
+      <c r="D369">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>9</v>
+      </c>
+      <c r="C370" t="s">
+        <v>3724</v>
+      </c>
+      <c r="D370">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>9</v>
+      </c>
+      <c r="C371" t="s">
+        <v>3725</v>
+      </c>
+      <c r="D371">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>9</v>
+      </c>
+      <c r="C372" t="s">
+        <v>3726</v>
+      </c>
+      <c r="D372">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>9</v>
+      </c>
+      <c r="C373" t="s">
+        <v>3847</v>
+      </c>
+      <c r="D373">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>9</v>
+      </c>
+      <c r="C374" t="s">
+        <v>3727</v>
+      </c>
+      <c r="D374">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>9</v>
+      </c>
+      <c r="C375" t="s">
+        <v>3728</v>
+      </c>
+      <c r="D375">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>9</v>
+      </c>
+      <c r="C376" t="s">
+        <v>3729</v>
+      </c>
+      <c r="D376">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>9</v>
+      </c>
+      <c r="C377" t="s">
+        <v>3730</v>
+      </c>
+      <c r="D377">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>9</v>
+      </c>
+      <c r="C378" t="s">
+        <v>3731</v>
+      </c>
+      <c r="D378">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>9</v>
+      </c>
+      <c r="C379" t="s">
+        <v>3732</v>
+      </c>
+      <c r="D379">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>9</v>
+      </c>
+      <c r="C380" t="s">
+        <v>3733</v>
+      </c>
+      <c r="D380">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>9</v>
+      </c>
+      <c r="C381" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D381">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>9</v>
+      </c>
+      <c r="C382" t="s">
+        <v>3735</v>
+      </c>
+      <c r="D382">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>9</v>
+      </c>
+      <c r="C383" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D383">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>9</v>
+      </c>
+      <c r="C384" t="s">
+        <v>3737</v>
+      </c>
+      <c r="D384">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>9</v>
+      </c>
+      <c r="C385" t="s">
+        <v>3738</v>
+      </c>
+      <c r="D385">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>9</v>
+      </c>
+      <c r="C386" t="s">
+        <v>3739</v>
+      </c>
+      <c r="D386">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>9</v>
+      </c>
+      <c r="C387" t="s">
+        <v>3740</v>
+      </c>
+      <c r="D387">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>9</v>
+      </c>
+      <c r="C388" t="s">
+        <v>3741</v>
+      </c>
+      <c r="D388">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>9</v>
+      </c>
+      <c r="C389" t="s">
+        <v>3742</v>
+      </c>
+      <c r="D389">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>9</v>
+      </c>
+      <c r="C390" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D390">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>9</v>
+      </c>
+      <c r="C391" t="s">
+        <v>3744</v>
+      </c>
+      <c r="D391">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>9</v>
+      </c>
+      <c r="C392" t="s">
+        <v>3745</v>
+      </c>
+      <c r="D392">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>9</v>
+      </c>
+      <c r="C393" t="s">
+        <v>3746</v>
+      </c>
+      <c r="D393">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>9</v>
+      </c>
+      <c r="C394" t="s">
+        <v>3747</v>
+      </c>
+      <c r="D394">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>9</v>
+      </c>
+      <c r="C395" t="s">
+        <v>3748</v>
+      </c>
+      <c r="D395">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>9</v>
+      </c>
+      <c r="C396" t="s">
+        <v>3749</v>
+      </c>
+      <c r="D396">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>10</v>
+      </c>
+      <c r="C397" t="s">
+        <v>3750</v>
+      </c>
+      <c r="D397">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>10</v>
+      </c>
+      <c r="C398" t="s">
+        <v>3751</v>
+      </c>
+      <c r="D398">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>10</v>
+      </c>
+      <c r="C399" t="s">
+        <v>3394</v>
+      </c>
+      <c r="D399">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>10</v>
+      </c>
+      <c r="C400" t="s">
+        <v>3752</v>
+      </c>
+      <c r="D400">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>10</v>
+      </c>
+      <c r="C401" t="s">
+        <v>3753</v>
+      </c>
+      <c r="D401">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>10</v>
+      </c>
+      <c r="C402" t="s">
+        <v>3754</v>
+      </c>
+      <c r="D402">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>10</v>
+      </c>
+      <c r="C403" t="s">
+        <v>3755</v>
+      </c>
+      <c r="D403">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>10</v>
+      </c>
+      <c r="C404" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D404">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>10</v>
+      </c>
+      <c r="C405" t="s">
+        <v>3757</v>
+      </c>
+      <c r="D405">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>10</v>
+      </c>
+      <c r="C406" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D406">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>10</v>
+      </c>
+      <c r="C407" t="s">
+        <v>3759</v>
+      </c>
+      <c r="D407">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>10</v>
+      </c>
+      <c r="C408" t="s">
+        <v>3631</v>
+      </c>
+      <c r="D408">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>10</v>
+      </c>
+      <c r="C409" t="s">
+        <v>3760</v>
+      </c>
+      <c r="D409">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>10</v>
+      </c>
+      <c r="C410" t="s">
+        <v>3848</v>
+      </c>
+      <c r="D410">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>10</v>
+      </c>
+      <c r="C411" t="s">
+        <v>3761</v>
+      </c>
+      <c r="D411">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>10</v>
+      </c>
+      <c r="C412" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D412">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>10</v>
+      </c>
+      <c r="C413" t="s">
+        <v>3763</v>
+      </c>
+      <c r="D413">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>10</v>
+      </c>
+      <c r="C414" t="s">
+        <v>3764</v>
+      </c>
+      <c r="D414">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>10</v>
+      </c>
+      <c r="C415" t="s">
+        <v>3765</v>
+      </c>
+      <c r="D415">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>10</v>
+      </c>
+      <c r="C416" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D416">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>10</v>
+      </c>
+      <c r="C417" t="s">
+        <v>3767</v>
+      </c>
+      <c r="D417">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>10</v>
+      </c>
+      <c r="C418" t="s">
+        <v>3849</v>
+      </c>
+      <c r="D418">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>10</v>
+      </c>
+      <c r="C419" t="s">
+        <v>3768</v>
+      </c>
+      <c r="D419">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>10</v>
+      </c>
+      <c r="C420" t="s">
+        <v>3769</v>
+      </c>
+      <c r="D420">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>10</v>
+      </c>
+      <c r="C421" t="s">
+        <v>3770</v>
+      </c>
+      <c r="D421">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>10</v>
+      </c>
+      <c r="C422" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D422">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>10</v>
+      </c>
+      <c r="C423" t="s">
+        <v>3772</v>
+      </c>
+      <c r="D423">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424">
+        <v>10</v>
+      </c>
+      <c r="C424" t="s">
+        <v>3773</v>
+      </c>
+      <c r="D424">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425">
+        <v>10</v>
+      </c>
+      <c r="C425" t="s">
+        <v>3774</v>
+      </c>
+      <c r="D425">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>10</v>
+      </c>
+      <c r="C426" t="s">
+        <v>3775</v>
+      </c>
+      <c r="D426">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>11</v>
+      </c>
+      <c r="C427" t="s">
+        <v>3777</v>
+      </c>
+      <c r="D427">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>11</v>
+      </c>
+      <c r="C428" t="s">
+        <v>3778</v>
+      </c>
+      <c r="D428">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429">
+        <v>11</v>
+      </c>
+      <c r="C429" t="s">
+        <v>3779</v>
+      </c>
+      <c r="D429">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>11</v>
+      </c>
+      <c r="C430" t="s">
+        <v>3390</v>
+      </c>
+      <c r="D430">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431">
+        <v>11</v>
+      </c>
+      <c r="C431" t="s">
+        <v>3510</v>
+      </c>
+      <c r="D431">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432">
+        <v>11</v>
+      </c>
+      <c r="C432" t="s">
+        <v>3391</v>
+      </c>
+      <c r="D432">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433">
+        <v>11</v>
+      </c>
+      <c r="C433" t="s">
+        <v>3850</v>
+      </c>
+      <c r="D433">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="B434">
+        <v>11</v>
+      </c>
+      <c r="C434" t="s">
+        <v>3780</v>
+      </c>
+      <c r="D434">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="B435">
+        <v>11</v>
+      </c>
+      <c r="C435" t="s">
+        <v>3781</v>
+      </c>
+      <c r="D435">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="B436">
+        <v>11</v>
+      </c>
+      <c r="C436" t="s">
+        <v>3533</v>
+      </c>
+      <c r="D436">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="B437">
+        <v>11</v>
+      </c>
+      <c r="C437" t="s">
+        <v>3782</v>
+      </c>
+      <c r="D437">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="B438">
+        <v>11</v>
+      </c>
+      <c r="C438" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D438">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="B439">
+        <v>11</v>
+      </c>
+      <c r="C439" t="s">
+        <v>3783</v>
+      </c>
+      <c r="D439">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="B440">
+        <v>11</v>
+      </c>
+      <c r="C440" t="s">
+        <v>3784</v>
+      </c>
+      <c r="D440">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="B441">
+        <v>11</v>
+      </c>
+      <c r="C441" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D441">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="B442">
+        <v>11</v>
+      </c>
+      <c r="C442" t="s">
+        <v>3785</v>
+      </c>
+      <c r="D442">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="B443">
+        <v>11</v>
+      </c>
+      <c r="C443" t="s">
+        <v>3786</v>
+      </c>
+      <c r="D443">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="B444">
+        <v>11</v>
+      </c>
+      <c r="C444" t="s">
+        <v>3787</v>
+      </c>
+      <c r="D444">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445">
+        <v>11</v>
+      </c>
+      <c r="C445" t="s">
+        <v>3788</v>
+      </c>
+      <c r="D445">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446">
+        <v>11</v>
+      </c>
+      <c r="C446" t="s">
+        <v>3789</v>
+      </c>
+      <c r="D446">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447">
+        <v>11</v>
+      </c>
+      <c r="C447" t="s">
+        <v>3851</v>
+      </c>
+      <c r="D447">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="B448">
+        <v>11</v>
+      </c>
+      <c r="C448" t="s">
+        <v>3852</v>
+      </c>
+      <c r="D448">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="B449">
+        <v>11</v>
+      </c>
+      <c r="C449" t="s">
+        <v>3853</v>
+      </c>
+      <c r="D449">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="B450">
+        <v>11</v>
+      </c>
+      <c r="C450" t="s">
+        <v>3856</v>
+      </c>
+      <c r="D450">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="B451">
+        <v>11</v>
+      </c>
+      <c r="C451" t="s">
+        <v>3854</v>
+      </c>
+      <c r="D451">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452">
+        <v>11</v>
+      </c>
+      <c r="C452" t="s">
+        <v>3855</v>
+      </c>
+      <c r="D452">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453">
+        <v>11</v>
+      </c>
+      <c r="C453" t="s">
+        <v>3790</v>
+      </c>
+      <c r="D453">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454">
+        <v>11</v>
+      </c>
+      <c r="C454" t="s">
+        <v>3791</v>
+      </c>
+      <c r="D454">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="B455">
+        <v>11</v>
+      </c>
+      <c r="C455" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D455">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="B456">
+        <v>11</v>
+      </c>
+      <c r="C456" t="s">
+        <v>3793</v>
+      </c>
+      <c r="D456">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="B457">
+        <v>11</v>
+      </c>
+      <c r="C457" t="s">
+        <v>3413</v>
+      </c>
+      <c r="D457">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="B458">
+        <v>11</v>
+      </c>
+      <c r="C458" t="s">
+        <v>3794</v>
+      </c>
+      <c r="D458">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="B459">
+        <v>11</v>
+      </c>
+      <c r="C459" t="s">
+        <v>3795</v>
+      </c>
+      <c r="D459">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="B460">
+        <v>11</v>
+      </c>
+      <c r="C460" t="s">
+        <v>3796</v>
+      </c>
+      <c r="D460">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="B461">
+        <v>11</v>
+      </c>
+      <c r="C461" t="s">
+        <v>3857</v>
+      </c>
+      <c r="D461">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="B462">
+        <v>11</v>
+      </c>
+      <c r="C462" t="s">
+        <v>3858</v>
+      </c>
+      <c r="D462">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="B463">
+        <v>11</v>
+      </c>
+      <c r="C463" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D463">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="B464">
+        <v>11</v>
+      </c>
+      <c r="C464" t="s">
+        <v>3581</v>
+      </c>
+      <c r="D464">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="B465">
+        <v>11</v>
+      </c>
+      <c r="C465" t="s">
+        <v>3798</v>
+      </c>
+      <c r="D465">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="B466">
+        <v>11</v>
+      </c>
+      <c r="C466" t="s">
+        <v>3799</v>
+      </c>
+      <c r="D466">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="B467">
+        <v>11</v>
+      </c>
+      <c r="C467" t="s">
+        <v>3800</v>
+      </c>
+      <c r="D467">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="B468">
+        <v>11</v>
+      </c>
+      <c r="C468" t="s">
+        <v>3801</v>
+      </c>
+      <c r="D468">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="B469">
+        <v>11</v>
+      </c>
+      <c r="C469" t="s">
+        <v>3802</v>
+      </c>
+      <c r="D469">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="B470">
+        <v>11</v>
+      </c>
+      <c r="C470" t="s">
+        <v>3803</v>
+      </c>
+      <c r="D470">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>470</v>
+      </c>
+      <c r="B471">
+        <v>11</v>
+      </c>
+      <c r="C471" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D471">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>471</v>
+      </c>
+      <c r="B472">
+        <v>12</v>
+      </c>
+      <c r="C472" t="s">
+        <v>3805</v>
+      </c>
+      <c r="D472">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>472</v>
+      </c>
+      <c r="B473">
+        <v>12</v>
+      </c>
+      <c r="C473" t="s">
+        <v>3806</v>
+      </c>
+      <c r="D473">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>473</v>
+      </c>
+      <c r="B474">
+        <v>12</v>
+      </c>
+      <c r="C474" t="s">
+        <v>3807</v>
+      </c>
+      <c r="D474">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>474</v>
+      </c>
+      <c r="B475">
+        <v>12</v>
+      </c>
+      <c r="C475" t="s">
+        <v>3808</v>
+      </c>
+      <c r="D475">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>475</v>
+      </c>
+      <c r="B476">
+        <v>12</v>
+      </c>
+      <c r="C476" t="s">
+        <v>3809</v>
+      </c>
+      <c r="D476">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>476</v>
+      </c>
+      <c r="B477">
+        <v>12</v>
+      </c>
+      <c r="C477" t="s">
+        <v>3810</v>
+      </c>
+      <c r="D477">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>477</v>
+      </c>
+      <c r="B478">
+        <v>12</v>
+      </c>
+      <c r="C478" t="s">
+        <v>3811</v>
+      </c>
+      <c r="D478">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>478</v>
+      </c>
+      <c r="B479">
+        <v>12</v>
+      </c>
+      <c r="C479" t="s">
+        <v>3812</v>
+      </c>
+      <c r="D479">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>479</v>
+      </c>
+      <c r="B480">
+        <v>12</v>
+      </c>
+      <c r="C480" t="s">
+        <v>3813</v>
+      </c>
+      <c r="D480">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>480</v>
+      </c>
+      <c r="B481">
+        <v>12</v>
+      </c>
+      <c r="C481" t="s">
+        <v>3814</v>
+      </c>
+      <c r="D481">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>481</v>
+      </c>
+      <c r="B482">
+        <v>12</v>
+      </c>
+      <c r="C482" t="s">
+        <v>3644</v>
+      </c>
+      <c r="D482">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>482</v>
+      </c>
+      <c r="B483">
+        <v>12</v>
+      </c>
+      <c r="C483" t="s">
+        <v>3815</v>
+      </c>
+      <c r="D483">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>483</v>
+      </c>
+      <c r="B484">
+        <v>12</v>
+      </c>
+      <c r="C484" t="s">
+        <v>3816</v>
+      </c>
+      <c r="D484">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>484</v>
+      </c>
+      <c r="B485">
+        <v>12</v>
+      </c>
+      <c r="C485" t="s">
+        <v>3817</v>
+      </c>
+      <c r="D485">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>485</v>
+      </c>
+      <c r="B486">
+        <v>12</v>
+      </c>
+      <c r="C486" t="s">
+        <v>3818</v>
+      </c>
+      <c r="D486">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>486</v>
+      </c>
+      <c r="B487">
+        <v>12</v>
+      </c>
+      <c r="C487" t="s">
+        <v>3819</v>
+      </c>
+      <c r="D487">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>487</v>
+      </c>
+      <c r="B488">
+        <v>12</v>
+      </c>
+      <c r="C488" t="s">
+        <v>3820</v>
+      </c>
+      <c r="D488">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>488</v>
+      </c>
+      <c r="B489">
+        <v>12</v>
+      </c>
+      <c r="C489" t="s">
+        <v>3821</v>
+      </c>
+      <c r="D489">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>489</v>
+      </c>
+      <c r="B490">
+        <v>12</v>
+      </c>
+      <c r="C490" t="s">
+        <v>3822</v>
+      </c>
+      <c r="D490">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>490</v>
+      </c>
+      <c r="B491">
+        <v>12</v>
+      </c>
+      <c r="C491" t="s">
+        <v>3823</v>
+      </c>
+      <c r="D491">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>491</v>
+      </c>
+      <c r="B492">
+        <v>12</v>
+      </c>
+      <c r="C492" t="s">
+        <v>3748</v>
+      </c>
+      <c r="D492">
+        <v>534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DADA653-03F9-4F28-A34A-5799BD7C6B78}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3834</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Músicas.xlsx
+++ b/Músicas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuseppe.manzella\Documents\GitHub\roteiro-slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C113C93-1A78-494D-A6CB-D6E7B5AFB29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CF8AC2-2C21-4F81-843B-42F1439E8F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{639074AE-94E9-4B24-951A-73D30D40D203}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{639074AE-94E9-4B24-951A-73D30D40D203}"/>
   </bookViews>
   <sheets>
     <sheet name="Harpa" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7278" uniqueCount="3859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7771" uniqueCount="4351">
   <si>
     <t>HINO</t>
   </si>
@@ -11614,6 +11614,1482 @@
   </si>
   <si>
     <t>Santo! Santo! Santo! (Reginald Heber)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La... La... La... La... Vem desfrutar do amor de Deus você e sua casa Deixe Jesus, que é o Rei, entrar em seu coração Vida melhor Ele quer te dar, restaurar seu lar Paz e harmonia Ele quer trazer pra você La... La... La... La... Deus alcançou e modificou toda a minha casa Ainda que venha a tempestade não nos abalará Vida melhor Ele quer te dar, restaurar seu lar Paz e harmonia Ele quer trazer pra você Paz e harmonia Ele quer trazer pra você (Jesus quer trazer paz pra você) Uh... Uh... Uh... Uh... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existe um rio que emana do Senhor Há uma fonte que limpa o pecador Oh! Vinde as águas, a sede saciar! Oh! Vinde a fonte, que nunca secará! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A autoridade está nas mãos do Todo Poderoso! Abre porta onde não tem, se Ele fecha a porta não tem pra ninguém! Faz o inexistente existir! O vento se cala, o mar se aquieta ao ouvir o som da Sua voz! A terra se cala quando Ele fala! Quando Ele ordena o morto se levanta Até o surdo faz ouvir! Ele vai na frente resolvendo tudo! Quebrando muralhas, derrubando muros! Operando Ele quem impedirá? Ganha todas lutas mesmo sem lutar! O impossível Ele faz! O vaso quebrado Ele faz de novo! E Ele é Deus Tremendo, também Poderoso! Usa um menino pra matar gigante! A vitória é certa isto Ele garante! Ele é Deus de fogo, Ele é demais! Não dá pra comparar! É grande o Seu poder! O mudo fala, o coxo anda, até o cego vê! E se precisa de ajuda chama que Ele vem! Ele manda logo um anjo pra te socorrer! Onde Ele chega sai todo embaraço! Ele corta todo o laço, enche o crente de poder! E se por um momento o inimigo encosta Jesus levanta a mão, coloca ele pra correr! A autoridade está nas mãos... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem são elas que estão vindo com a Bíblia em sua mão Caminhando passo firme rumo à igreja Elas são as heroínas, cheias de fé e ação Vai aqui minha homenagem mulher de oração Muitas vezes tão cansadas, elas não desistem, não! Vão orando, derramando lágrimas no chão! Dizendo Deus salve meus filhos, meu esposo, por favor! Oram pelos missionários e a família do pastor Oram pra Jesus também salvar esta nação Aonde está mulher que canta e o céu se abre? Aonde está mulher que chama e Deus responde? Aonde está mulher que é cheia do poder e faz o inferno estremecer Aonde está mulher que prega e Deus revela? Aonde está mulher que ora e profetiza? Aonde está mulher que canta e Deus opera? Deus hoje quer usar você! Quero lembrar também, de Ana a nossa irmã Orava ao Deus do céu, Deus lhe deu Samuel! Me lembro da rainha Ester, lugar de honra alcançou Sara vivia orando, Deus muito a honrou! Maria não saiu dos planos, mas foi fiel até o fim Débora estava disposta a contribuir! Então não pare de orar, também não pare de clamar Que a glória do Senhor irá descer neste lugar! Aonde está mulher que canta e o céu se abre? Aonde está mulher que chama e Deus responde? Aonde está mulher que é cheia do poder e faz o inferno estremecer Aonde está mulher que prega e Deus revela? Aonde está mulher que ora e profetiza? Aonde está mulher que canta e Deus opera? Deus hoje quer usar você! [2x] Deus hoje quer usar você! Usar você... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todo ser que vive louve o nome do Senhor Toda criatura se derrame aos Seus pés Ao som da Sua voz o universo se desfaz! Não há outro nome comparado ao Grande Eu Sou! E mesmo sendo pó com tudo que há em mim confessarei, Que céus e terra passarão mas o Teu nome é Eterno! Todo joelho dobrará ao ouvir Teu nome, Teu Santo nome! Todo ser confessará louvado seja o Teu nome, Teu Santo nome! E mesmo sendo pó com tudo que há em mim confessarei, Que céus e terra passarão mas o Teu nome é Eterno! (...) Todo joelho dobrará ao ouvir Teu nome, Teu Santo nome! Todo ser confessará louvado seja o Teu nome, Teu Santo nome! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Atrás das nuvens brilha o sol Luz que vem para me guiar! Socorro presente em meio a aflição Sei que em Ti posso confiar! (2x) Todos: Ainda que esteja andando em dor Sei onde posso Te encontrar! Jamais serei envergonhado Minha cura está no altar! Jesus eu creio Há um milagre me esperando no altar! Tua glória está neste lugar, eu sei! Vem sobre mim poder! [2x] Ainda que esteja andando em dor Sei onde posso Te encontrar Jamais serei envergonhado Minha cura está no altar! Jesus eu creio Há um milagre me esperando no altar! Tua glória está neste lugar, eu sei! Vem sobre mim poder! Solo: Nada vai me impedir de viver o meu milagre! Tua palavra diz, Há cura hoje aqui! Não importa a multidão, vou atravessar em fé! Vou viver... Vou viver...Vou viver! Jesus eu creio Há um milagre me esperando no altar! Tua glória está neste lugar, eu sei! Vem sobre mim poder! [2x] Vem sobre mim poder! (2x) </t>
+  </si>
+  <si>
+    <t>A dor é a mesma em cada mortal O medo da morte no dia final Como há de ser o dia do adeus Na vida de quem não vive com Deus? Viva com Deus agora e aqui E não tenha medo de um dia partir! Por isso eu insisto nos conselhos meus Aceite a Cristo e viva com Deus! Contemple a cruz e faça o que eu fiz Aceite a Jesus e seja feliz! A morte não tem o domínio seu Na vida de quem já vive com Deus! Viva com Deus agora e aqui E não tenha medo de um dia partir! Por isso eu insisto nos conselhos meus Aceite a Cristo e viva com Deus! A morte morreu no lenho da cruz E quem a venceu foi Cristo Jesus! Com mãos estendidas cheias de poder Jesus dá a vida a todo que crer! Viva com Deus agora e aqui E não tenha medo de um dia partir! Por isso eu insisto nos conselhos meus Aceite a Cristo e viva com Deus! (3x)_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eis me aqui, prostrado outra vez Pra tudo entregar... (2x) Leva-me, perto de Ti, Senhor! Anseio por Ti... (2x) Eu me rendo... Enche-me, da graça e do Teu amor Sacia meu ser... (2x) Abraça-me, ouve o meu clamor! Fala pra mim... (2x) Eu me rendo! (2x) Pra conhecer-Te mais! (2x) Eu me rendo! (2x) Pra conhecer-Te mais! (2x) Então vem me incendiar, meu coração é o Teu altar! Quero ouvir o som do céu, Tua glória contemplar! [2x] Te damos honra! Te damos glória! Teu é o poder pra sempre amém... [2x] Eu me rendo! (2x) Pra conhecer-Te mais! (2x) Eu me rendo! (2x) Pra conhecer-Te mais! (2x) Vento de poder, sopra em meu viver Faz Teu querer! Faz Teu querer em mim! Como um vendaval, sobrenatural Faz Teu querer! Faz Teu querer em mim! (3x) </t>
+  </si>
+  <si>
+    <t>Mesmo sobre a morte Ele triunfou Tem poder e autoridade pra fazer ressuscitar Deu vida a Lázaro depois de quatro dias Com o som da Sua voz o morto revivia E hoje Ele está aqui pra milagres operar Pois na cruz venceu o inferno e a morte, e a chave tirou de lá Destruiu as cadeias do inferno, e nos deu esperança Que até mesmo na morte então podemos triunfar! Triunfar sobre a morte e viver, triunfar nas batalhas e vencer Triunfar na fornalha e escapar, nas promessas de Deus triunfar Triunfar infinitamente mais, é louvar com o triunfo e ser capaz De dizer eu sou mais que vencedor, foi pra isso que Deus me chamou! Com triunfo mesmo em meio a morte eu louvo Com triunfo vou passando pelo vale, exalto Com triunfo Deus me dá o troféu da vitória Com triunfo vou cantar junto com os anjos na glória Com triunfo hoje canto para o mundo ouvir Porque nem o poder da morte pode me impedir Deus em mim é tudo e nada pode me abalar Porque em todas as coisas Deus me faz triunfar Triunfar! Triunfar! Triunfar!</t>
+  </si>
+  <si>
+    <t>Almejo o dia em que verei Uma pequena luz no céu! E essa luz aumentará, Milhares de anjos surgirão! Eu creio sim que Ele virá e muito em breve eu subirei Pra um novo lar, um novo céu! Pra sempre eu estarei, feliz eu viverei! Verei Jesus! A voz de Deus irá soar Nas nuvens Sua glória surgirá! Mil gerações se encontrarão E para sempre louvarão Eu creio sim que Ele virá e muito em breve eu subirei Pra um novo lar, um novo céu! Pra sempre eu estarei, feliz eu viverei! Verei Jesus! Eu creio sim que Ele virá e muito em breve eu subirei Pra um novo lar, um novo céu! Pra sempre eu estarei, feliz eu viverei... Eu creio sim que Ele virá e muito em breve eu subirei Pra um novo lar, um novo céu! Pra sempre eu estarei, feliz eu viverei! Verei Jesus!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguardo o dia que verei No céu a luz mais forte que o Sol O céu se abrir e ver descer Jesus Em majestade força e poder Tristeza e choro não existirão Sofrer e morte lá não entrarão Na eternidade com meu Salvador pra sempre adorarei ao meu Senhor! Virá o rei Jesus! Meu coração deseja vê-lo! Em Sua presença pra sempre estar! Aguardo o dia em que Ele vem nos buscar! E junto aos santos me unirei Louvor eterno ali entoarei Tua luz a tudo iluminará, pra sempre ó Deus então governarás! Virá o rei Jesus! Meu coração deseja vê-lo! Em Sua presença pra sempre estar! Aguardo o dia que Ele vem...! Virá o rei Jesus! Meu coração deseja vê-lo! Em Sua presença pra sempre estar! Aguardo o dia em que Ele vem nos buscar! Sua vinda aguardo eu cantando; meu lar no céu; Seus passos hei de ouvir soando além do escuro véu. Passarinhos, belas flores, querem m’encantar; São vãos terrestres esplendores mas contemplo o meu lar! Virá o rei Jesus! Meu coração deseja vê-lo! Em Sua presença pra sempre estar! Aguardo o dia que Ele vem...! Virá o rei Jesus! Meu coração deseja vê-lo! Em Sua presença pra sempre estar! Aguardo o dia em que Ele vem nos buscar! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguenta firme, não desista, continue a lutar! As crises e as dores acontecem, Mas chega uma hora aonde elas têm seu fim. Se você não desistir, é pra minha inspiração, Pra também permanecer, fiel e firme! Eu tô contando contigo, Deus tá contando com a gente. O céu inteiro se move, Pra ver a gente vencer. [2x] Eu só peço ao meu Senhor, Que entre bem na minha frente e abençoe tua vida! E te faça tão feliz agarrado em Sua presença, Cure as tuas feridas, e te faça vencedor E te dê a alegria, de ver toda tua casa, derramada aos Seus pés. Aguenta firme, não desista! (2x) Se você não desistir, é pra minha inspiração, Pra também permanecer, fiel e firme! Eu tô contando contigo, Deus tá contando com a gente. O céu inteiro se move, Pra ver a gente vencer. [3x]    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Além do rio azul as ruas são de ouro e de cristais Ali tudo é vida, ali tudo é paz Morte e choro... Nunca mais! Tristeza e dor...Nunca mais! Além do rio azul as ruas são de ouro e de cristais Ali tudo é vida, ali tudo é paz Morte e choro... Nunca mais! Tristeza e dor... Nunca mais! Verei o grande rio da vida claro como o cristal Verei a face do meu mestre querido! Não haverá mais noite ali! Não haverá nenhum clamor! Verei os olhos de Jesus e tocarei Seu corpo enfim! [2x] As nações andarão na Sua luz e as portas jamais se fecharão! A cidade é de ouro puro, de jaspe é seu muro, além do rio azul! Morte e choro, tristeza e dor nunca mais! Nunca mais! (3x)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Espírito Santo, meu Consolador Espírito Santo, sabes quem eu sou! E mesmo assim se importas comigo! E mesmo assim, Vocal: (E mesmo assim) Solo: Moras em mim... Vocal: (Espírito Santo!) Todos: Tu és Santo, Tu és Santo! Que outra palavra se faz necessária pra Te descrever? Tu és Santo, Tu és Santo! Procuro palavras pra Te descrever, Espírito Santo! Solo: Amigo, abrigo, renovo, consolo, Todos: Espírito Santo de Deus! Solo: Que fala comigo, que ora por mim com gemidos inexprimíveis! Em todos momentos vem me convencer Todos: que sou dependente Solo: de Deus! Todos: ÔÔÔÔÔ... Solo: Não Te afaste de mim, Não Te retires de mim! Todos: ÔÔÔÔÔ... Todos: Não Te afaste de mim! Não Te retires de mim! Solo: Espírito Santo! (2x) Todos: Tu és Santo, Tu és Santo! Que outra palavra se faz necessária pra Te descrever? Tu és Santo, Tu és Santo! Procuro palavras pra Te descrever, Espírito Santo!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Até tocar o céu... Até tocar o céu... Vou te buscar, vou te adorar até tocar o céu! [2x] É tempo de vigiar e orar É tempo de buscar a face de Deus É tempo de receber a Sua direção e o Seu poder! É tempo de se levantar e agir É tempo de ampliar a visão É tempo de se arrepender e clamar pelo Seu perdão! É tempo de viver a realidade de uma vida de temor e santidade Com os olhos espirituais abertos pois a vinda de Jesus esta muito perto! É tempo de parar de murmurar, de abrir a boca para abençoar! Porque somos os profetas desse tempo, somos a geração do avivamento! Geração que denuncia o pecado mas ama o pecador Geração que abre mão de tudo por causa do Senhor Geração que não tolera Jezabel! Geração que ora como Daniel! Geração que busca a Deus... Até tocar o céu! Até tocar o céu... Vou te buscar, vou te adorar até tocar o céu!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pode ser que alguém venha te fazer chorar... Pode ser que esse alguém seja quem mais você amar! De quem menos se espera pode vir a traição Mas somente em Jesus se encontra amor com perfeição! Ele deu a vida por você, Ele te ama pra valer! Nele você pode confiar, Com Ele você pode contar! Tudo o que Ele faz é por amor, não por interesse ou por favor! Nunca vai te decepcionar, mas as suas lágrimas Ele vem enxugar! Mesmo se você errar, está pronto a te perdoar! Na alegria ou na dor, sempre está contigo seja onde for! Não te deixa caído, mas te carrega em Seus braços de amor! De quem menos se espera pode vir a traição Mas somente em Jesus se encontra amor com perfeição! Ele deu a vida por você, Ele te ama pra valer! Nele você pode confiar, Com Ele você pode contar! Tudo o que Ele faz é por amor, não por interesse ou por favor! Nunca vai te decepcionar, Mas as suas lágrimas Ele vem enxugar! Mesmo se você errar, está pronto a te perdoar! Na alegria ou na dor, sempre está contigo seja onde for! Não te deixa caído, mas te carrega em Seus braços de amor! (2x)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Calvário meu Senhor um sacrifício fez por mim Se entregou como um Cordeiro por amor Toda dor Ele sofreu... o Seu corpo a sangrar... Alto preço Ele pagou em meu lugar! A coroa em Sua cabeça a perfurar! Os cravos em Suas mãos a transpassar! O último suspiro ali na cruz! Jesus morreu... Oh... Oh... Oh... Oh... A esperança se acabou, tudo em trevas se tornou A tristeza gera lágrimas no olhar... Mas um milagre aconteceu e a alegria renasceu! Ao terceiro dia Cristo ressurgiu! E a esperança brotou em cada olhar, O Rei dos reis vivo está! Jesus sobre a morte triunfou! E vivo está! (3x) Jesus sobre a morte triunfou E Ele está vivo! Vivo! E Ele está vivo! Vivo! Ao terceiro dia vivo! Vivo! Vivo! Vivo! Ele foi ferido por causa das nossas transgressões, E esmagado por causa das nossas iniquidades; O castigo que nos traz a paz estava sobre Ele, E pelas Suas pisaduras fomos sarados Eu sei... Ele morreu mas a morte não o prendeu! Porque ao terceiro dia... Ao terceiro dia... Ao terceiro dia, vivo! Vivo! Jesus sobre a morte triunfou! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Rei dos reis consagro tudo o que sou... De gratos louvores transborda o meu coração! A minha vida eu entrego nas Tuas mãos, meu Senhor! Pra Te exaltar com todo meu amor! Eu Te louvarei conforme a Tua justiça E cantarei louvores, pois Tu és Altíssimo! Celebrarei a Ti ó Deus, com meu viver! Meninas: Cantarei e contarei as Tuas obras! Pois por Tuas mãos foram criados terra, céu e mar e todo ser que neles há! Toda a terra celebra a Ti com cânticos de júbilo! Pois Tu és o Deus Criador! [2x] Celebrarei a Ti ó Deus, com meu viver! Meninas: Cantarei e contarei as Tuas obras! Pois por Tuas mãos foram criados terra, céu e mar e todo ser que neles há! Toda a terra celebra a Ti com cânticos de júbilo! Pois Tu és o Deus Criador! [2x] Pois Tu és o Deus Criador! A honra! A glória! A força! E o poder ao Rei Jesus! E o louvor ao Rei Jesus! [3x]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consolador, não sai daqui Meu peito dói, minha alma chora se Tu sair! Consolador, mora em mim Sinto um vazio quando estou longe de Ti... Perdoa o meu coração Das vezes que errei sem perceber Mas não afaste Sua presença Seus frutos me fazem viver Quando minha alma se cansou fostes minha força pra seguir! Quando meu coração calou fostes Intercessor, o meu Ajudador, o meu Consolador fiel! Consolador, não sai daqui Meu peito dói, minha alma chora se Tu sair! Consolador, mora em mim Sinto um vazio quando estou longe de Ti... Perdoa o meu coração Das vezes que errei sem perceber Mas não afaste Sua presença Seus frutos me fazem viver    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Senhor não quero ser refém de mim mesmo, venha me salvar! Mesmo que eu seja alguém que eu não venha me vangloriar! Crucifico o meu ego pra que Tu cresças sobre mim, Me esvazio dos meus ideais, quero transbordar mais de Ti! Solo: Senhor, me escondo em Tua graça e no Teu amor, Me esconda em cavernas se preciso for! Não quero estar em evidência se não for pra Tua glória e pro Teu louvor! Senhor, blindado em Tua verdade está o meu coração O meu fascínio está além da multidão! Rejeito Babilônia, seus manjares e os altares da corrupção! Cresça, até que o meu eu desapareça, Até a Tua glória me cobrir! Quero Tua presença exalando em mim, Que eu diminua e o Senhor cresça! Que o Teu nome esteja sempre em evidência E Tua glória eternamente permaneça! Senhor que eu venha diminuir E a Tua glória vá além de mim! (Ô...Ô...Ô...Ô...Ô...Ô) (Ô...Ô...Ô...Ô...Ô...Ô...Ô) (2x) Todos: Cresça, até que o meu eu desapareça, Até a Tua glória me cobrir! Quero Tua presença exalando em mim, que eu diminua e o Senhor cresça! Que o Teu nome esteja sempre em evidência e Tua glória eternamente permaneça! Senhor que eu venha diminuir Solo: E a Tua glória vá além de mim! Todos: Do pó, do barro formastes o homem feito em Tuas mãos, Criador tão nobre! Eles não têm, não possuem, não são! É só a caneta, És o autor da canção! Nem fama, nem palco, nem honra, nem aplausos traduzem o preço na cruz que foi pago! A renúncia existe, vai na contramão, Nós somos só a voz que anuncia a salvação, Tesouros em vasos de barro pra que a excelência seja Tua, Brilhando o farol e sendo Tua luz nas ruas mais escuras! Ninguém rouba Tua glória! Ninguém toma o Teu trono! Ai daquele que mexe e troca manjares por honra... Da Igreja És o Dono! Que sopra e erga Teu nome, Que venha a justiça e o Teu reino! Que a glória da cruz confronte com os grandes e caiam de joelhos, Solo: Somos o pincel, Só Tu És o artista! Que eu diminua e o Senhor cresça, cresça... Todos: Cresça, até que o meu eu desapareça, Até a Tua glória me cobrir! Quero Tua presença exalando em mim, que eu diminua e o Senhor cresça! Que o Teu nome esteja sempre em evidência e Tua glória eternamente permaneça! Senhor que eu venha diminuir Solo: E a Tua glória vá além de mim! Cresça, até que o meu eu desapareça, Até a Tua glória me cobrir! Quero Tua presença exalando em mim, que eu diminua e o Senhor cresça! Que o Teu nome esteja sempre em evidência e Tua glória eternamente permaneça! Senhor que eu venha diminuir Solo: E a Tua glória vá além de mim! Todos: Cresça!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graças eu Te dou, Pai pelo preço que pagou Sacrifício de amor que me comprou, Ungido do Senhor! Pelos cravos em Tuas mãos graças eu Te dou, ó meu Senhor! Lavou minha mente e coração, me deu perdão, restaurou-me a comunhão! Digno é o Senhor! Sobre o trono está Soberano, Criador vou sempre Te adorar! Elevo minhas mãos ao Cristo que venceu Cordeiro de Deus morreu por mim... Mas ressuscitou! Digno é o Senhor! Pelos cravos em Tuas mãos graças eu Te dou, ó meu Senhor! Lavou minha mente e coração, me deu perdão, restaurou-me a comunhão! Digno é o Senhor! Sobre o trono está Soberano, Criador vou sempre Te adorar! Elevo minhas mãos ao Cristo que venceu Cordeiro de Deus morreu por mim... Mas ressuscitou! Digno é o Senhor! Mas ressuscitou! Digno é o Senhor Mas ressuscitou! Digno é o Senhor     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Eu vejo naquela cruz que um dia morreu por mim O meu Senhor pra me salvar Hoje posso Todos: Te exaltar pra sempre Todos: És para mim a esperança da minha vida, É Jesus meu Senhor Tua graça alcançou-me! Sempre vou Te buscar! Sempre vou Te buscar, Uôô! Meninas: Eu vejo naquela cruz que um dia morreu por mim O meu Senhor pra me salvar Hoje posso Todos: Te exaltar pra sempre... Para Sempre! Todos: És para mim a esperança da minha vida É Jesus meu Senhor Tua graça alcançou-me! [2x] Sempre vou Te buscar! Sempre vou Te buscar, Uôô... (2x) Só Tu És meu Redentor o meu Socorro Sempre vou anunciar Tua palavra [2x] Todos: És para mim a esperança da minha vida É Jesus meu Senhor Tua graça alcançou-me! Sempre vou Te buscar! Sempre vou Te buscar, Uôô... (2x) Todos: Só Tu És meu Redentor o meu Socorro Sempre vou anunciar Tua palavra Tua palavra (4x) ôôôô, ôôôô, ôôô...ô   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não te desanimes, Não temas mal algum! A luta logo passa E a alegria cedo vem Tem alguém chamado Cristo, Sempre vai te consolar! Se o coração está ferido Levante as mãos e diz: Eu sei que tudo posso... Eu posso suportar! Não importa o que me aconteça Estou em Tuas mãos! Com Cristo tudo posso... Eu posso suportar! Não importa o que me aconteça Estou em Tuas mãos! E quando a luta vem Parecendo não ter fim... E logo seus amigos Querem te abandonar Tem alguém chamado Cristo, Sempre vai te consolar! Se o coração está ferido Levante as mãos e diz: Eu sei que tudo posso... Eu posso suportar! Não importa o que me aconteça Estou em Tuas mãos! Com Cristo tudo posso...Eu posso suportar! Não importa o que me aconteça Estou em Tuas mãos! E quando a luta vem Parecendo não ter fim... E logo seus amigos Querem te abandonar Tem alguém chamado Cristo, Sempre vai te consolar! Se o coração está ferido Levante as mãos e diz: Eu sei que tudo posso... Eu posso suportar! Não importa o que me aconteça Estou em Tuas mãos! Com Cristo tudo posso... Eu posso suportar! Não importa o que me aconteça Estou em Tuas mãos! (3x)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estou pronto, sempre pronto, Totalmente submisso a Ti Estou deixando tudo para trás, Todo meu ser Entrego a Ti Solo: Com tudo o que sou vem me usar! Minha vida te dou E o meu coração Todos: (meu coração) Pois eu senti Senhor Morreste por mim Todos: Minha vida mudou, Hoje eu posso dizer Estou pronto, sempre pronto, Totalmente submisso a Ti Estou deixando tudo para trás, Todo meu ser Entrego a Ti Solo: Ninguém me falou que seria fácil, Eu iria chorar Mas eu recebi (o Seu poder) Minha fraqueza Em força Ele transformou Todos: Minha vida mudou, Hoje eu posso dizer Estou pronto, sempre pronto, Totalmente submisso a Ti Estou deixando tudo para trás, Todo meu ser Entrego a Ti Ô,ô,ô... A luta vai chegar (estou pronto), Deus vai te usar (pronto) Deus vai operar (pronto.... Pronto), Você pode até chorar (pronto) Deus vai te usar (estou pronto), Ele vai operar (pronto) Ele vai operar em você (estou pronto) Tudo que eu quero E o que preciso E tudo que sou Entrego a Ti Te dou minha vida E o meu coração Te dou! (Te dou!) (3x) Entrego a Ti! Estou pronto, sempre pronto, Totalmente submisso a Ti Estou deixando tudo para trás, Todo meu ser Entrego a Ti </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eis me aqui, prostrado outra vez Pra tudo entregar... (2x) Leva-me, perto de Ti, Senhor! Anseio por Ti... (2x) Eu me rendo... Enche-me, da graça e do Teu amor Sacia meu ser... (2x) Abraça-me, ouve o meu clamor! Fala pra mim... (2x) Eu me rendo! Eu me rendo! Pra conhecer-Te mais! Pra conhecer-Te mais! [2x] Então vem me incendiar, Meu coração é o Teu altar! Quero ouvir o som do céu, Tua glória contemplar! [2x] Te damos honra! Te damos glória! Teu é o poder Pra sempre amém... [2x] Eu me rendo! Eu me rendo! Pra conhecer-Te mais! Pra conhecer-Te mais! [2x] Vento de poder, sopra em meu viver Faz Teu querer! Faz Teu querer, em mim! Como um vendaval, sobrenatural Faz Teu querer! Faz Teu querer, em mim! (3x) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Eis-me aqui, tantas fraquezas diante da Tua grandeza O que se vê o coração sente, o corpo responde, minha alma não mente Sonda agora este coração, Veja, Senhor, se não tenho razão! Mas eu não quero ser tão racional, Espírito Santo, pode se achegar E fazer morada! e fazer morada! Vocal: (ôôôô...) Espírito Santo, mora em mim! Vocal: (ô..ô..ô..ô..ô..) Todos: O meu coração é o Teu lugar, Solo: faça morada! Solo: Eu Te convido a nunca mais me deixar aqui... Todos: Faça morada em mim! (3x) Todos: Eis-me aqui, tantas fraquezas diante da Tua grandeza O que se vê o coração sente, o corpo responde, minha alma não mente Sonda agora este coração, Veja, Senhor, se não tenho razão! Mas eu não quero ser tão racional, Espírito Santo, pode se achegar Todos: E fazer morada! E fazer morada! Solo: Espírito Santo, mora em mim! Vocal: (ôôôôô...) Todos: O meu coração é o Teu lugar, Solo: faça morada! Solo: Eu Te convido a nunca mais me deixar aqui... Todos: Faça morada em mim! (3x) Solo: O meu coração é o Teu lugar... Vocal: (Faça morada em mim (2x) em... Mim ) Solo: O meu coração é o Teu lugar, faça morada! Eu Te convido a nunca mais me deixar aqui... Vocal: (ôôôôô...) Todos: O meu coração é o teu lugar... Faça morada em mim! Faça morada em mim! Faça morada em mim!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu faço parte de um novo tempo Que está nascendo em minha nação Eu sou um fruto de uma semente Que foi plantada há muito tempo atrás por meus irmãos! [2x] A geração de Samuel está se levantando em todo lugar! (3X) Geração que depõe Saul, Geração que unge Davi (2x) Para um tempo de louvor Geração que depõe Saul, Geração que unge Davi (2x) Para um tempo de louvor (2x) A geração de Samuel está se levantando em todo lugar! (2X) Geração que depõe Saul, Geração que unge Davi (4x) Para um tempo de louvor (9x)      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cordeiro de Deus que dos céus desceu Muito além do véu quero te adorar Se encham meus lábios com teu louvor Hosana, pra sempre ao Rei dos reis! (2x) [2x] No teu lugar santo me faz entrar Meu advogado perante o Pai Ofereço minha vida em louvor a Ti Hosana, pra sempre Te adorarei! (2x) [2x] Das dores da vida amarga livrou-me Encheu-me do Espírito Santo de Deus Só existe louvor onde Tu estás! (2x) Falar face a face com o Leão! E ver em Seu rosto o brilho do sol! E junto com os anjos louvar a Ti Hosana, pra sempre Te adorarei! (4x) Hosana pra sempre! Hosana pra sempre e sempre e sempre... (4x) E sempre e sempre e sempre e sempre! Hosana pra sempre! Hosana pra sempre! Te amo! Hosana! Te louvo! Hosana! Te amo! Hosana! (4x) Te adoro! Hosana! (4x)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incomparável Deus, mui digno de louvor Em Tuas mãos está todo poder! Nada pode escapar da Tua grandeza, Nem mesmo um pequeno fio de cabelo Incomparável Grandioso Deus! [2x] Tua voz é mais doce que o mel Teu olhar é ternura e amor Me envolves de misericórdia confortando o meu coração! Incomparável Grandioso Deus! Porque Tu És, Hoje eu posso te adorar! Porque Tu És, Em Tua mesa tenho lugar! Me destes autoridade Teu governo em meus ombros está! Incomparável Grandioso Deus! [2x] Incomparável És! Incomparável És! Ser mais semelhante a Jesus é o desejo do meu coração! Incomparável És! [2x]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus meu guia é, Amigo e protetor! Ele é o meu bom Pastor E quando eu sentir temor... Nele confiarei! Nele confiarei! Fraco sou, mas Deus me dá Seu poder, Seu amor! Jesus meu guia é, Amigo e protetor! Ele é o meu bom Pastor! E quando eu sentir temor... Nele confiarei! (Jesus meu guia é) Nele confiarei! (Amigo e protetor, Ele é...) Fraco sou mas Deus me dá (O meu bom Pastor) Seu poder seu amor (E quando eu sentir temor) Nele confiarei! Nele confiarei! Fraco sou, mas Deus me dá Seu poder, Seu amor! Jesus meu guia é, Amigo e protetor! Ele é o meu bom Pastor E quando eu sentir temor... Nele confiarei (Jesus meu guia é) Nele confiarei (Amigo e protetor, Ele é...) Fraco sou mas Deus me dá (O meu bom Pastor) Seu poder, Seu amor (E quando eu sentir temor) Nele confiarei! Nele confiarei! Fraco sou mas Deus me dá Seu poder seu amor [2X]    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Mestre... tem lugar em minha casa se quiser Já bateu em tantas portas que nem sei, ó Rei dos reis! Mestre... não pensei que fosse à casa de um plebeu, Ainda mais alguém humilde como eu, ó grande Rei! Já que veio é bem-vindo em meu viver Vocal: (Uh... Uh... Uh...) Faça Sua esta casa, ó meu Rei! Vocal: (Uh... Uh... Ah...) E a faça santa, santa, santa, santa Vocal: (santa, santa, santa, santa) e santo eu serei! Grandioso e Santo, Santo, Santo... Vocal: (Santo, Santo, Santo) Ó Deus altíssimo habita em mim! Solo: Eu fui uma casa onde muita coisa entrou Só eu sei o quanto o coração chorou, mas Deus mudou! Quando permiti que Ele entrasse em meu viver Fiz mudanças que jamais imaginei realizar! Minha casa é minha vida e dei pra Deus Vocal: (Uh... Uh... Uh...) Ó Senhor, como quiser vem transformar! Vocal: (Uh... Uh... Ah...) E a faça santa, santa, santa, santa Vocal: (santa, santa, santa, santa) e santo eu serei! Grandioso e Santo, Santo, Santo... Vocal: (Santo, Santo, Santo) Ó Deus altíssimo habita em mim! E a faça santa, santa, santa, santa Vocal: (santa, santa, santa, santa) e Todos: santo eu serei! (Sim, eu serei) Grandioso e Santo, Santo, Santo... Vocal: (Santo, Santo, Santo) Ó Deus altíssimo habita em mim! Todos : (Oh... Oh... Oh...) Amém! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minha pequena luz, eu vou deixar brilhar (3x) Brilhar, deixar brilhar, deixar brilhar Por onde quer que eu vá, eu vou deixar brilhar (3x) Brilhar, deixar brilhar, deixar brilhar! Uma luz, esperança viva na voz e no coração Linda luz que acende e mexe todo fogo da inspiração! Que traz a força e faz continuar a força da liberdade Por isso a minha luz vai brilhar! Minha pequena luz, eu vou deixar brilhar (3x) Brilhar, deixar brilhar, deixar brilhar! Na minha vida eu vou, eu vou deixar brilhar (3x) Brilhar, deixar brilhar, deixar brilhar! Uma luz, esperança viva na voz e no coração Linda luz que acende e mexe todo fogo da inspiração! Que traz a força e faz continuar a força da liberdade Por isso a minha luz vai brilhar! Minha pequena luz, eu vou deixar brilhar (3x) Brilhar, deixar brilhar, deixar brilhar! A minha luz eu vou deixar brilhar! (3x) Por onde quer que eu vá!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em tempos de guerra, nunca pare de lutar! Não baixe a guarda, nunca pare de lutar! Em tempos de guerra, nunca pare de adorar! Libera a Palavra, profetiza sem parar! O escape, o descanso, a cura, a recompensa vem sem demora! (4x) O que vem pra tentar ferir o valente de Deus em meio às suas guerras? Que ataque é capaz de fazê-lo olhar pra trás e querer desistir? Que terrível arma é usada pra tentar paralisar sua fé? Cansaço, desânimo logo após uma vitória A mistura de um desgaste com um contra-ataque do mal A dor de uma perda, ou a dor da traição Uma quebra de aliança, que é a raiz da ingratidão Se alguém está assim, preste muita atenção Ouça o que vem do coração de Deus! Em tempos de guerra, nunca pare de lutar! Não baixe a guarda, nunca pare de lutar! Em tempos de guerra, nunca pare de adorar! Libera a Palavra, profetiza sem parar! O escape, o descanso, a cura, a recompensa vem sem demora!(4x)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bem sei eu que tudo podes... E nenhum dos Teus planos pode se frustrar! A vontade é Tua e a minha vida em Tuas mãos está E nenhum dos Teus planos pode se frustrar! (2x) Não se frustrarão, não se frustrarão! Os planos de Deus ninguém impedirá! Pode o vento soprar, a Terra pode se abalar! Mas os planos de Deus ninguém impedirá! Bem sei eu que tudo podes... E nenhum dos Teus planos pode se frustrar! A vontade é Tua e a minha vida em Tuas mãos está! E nenhum dos Teus planos pode se frustrar! Oh... Oh... Oh... Não se frustrarão, não se frustrarão! Os planos de Deus ninguém impedirá! Pode o vento soprar, a Terra pode se abalar! Mas os planos de Deus ninguém impedirá! Ninguém pode te ajudar! Ninguém pode te levantar! Mas se Deus tem um plano contigo ninguém impedirá! Solo: Quando passares pelas águas Todos: Eu estarei contigo, filho... Solo: Quando passares pelo fogo, ele não te queimará! Todos: Pois Eu estou contigo, filho! Eu estou contigo, filho! Eu estou contigo, filho! Eu estou contigo! E se teu barco parecer que vai naufragar, Está balançando pra lá e pra cá! Está causando medo em teu coração Está causando dúvidas... Cadê Jesus? Mas olha só quem vem aí andando sobre as águas! Parece que é Jesus andando sobre as águas! Está dando uma ordem para o vento! Sou Eu Dono do tempo, Sou Eu Dono daqui, Sou Eu Dono do mar! Sou Eu! (3x) Sou Eu...! E se teu barco parecer que vai naufragar, Está balançando pra lá e pra cá! Está causando medo em teu coração Está causando dúvidas... Cadê Jesus? Mas olha só quem vem aí andando sobre as águas! Parece que é Jesus andando sobre as águas! Está dando uma ordem para o vento! Sou Eu Dono do tempo, Sou Eu Dono daqui, Sou Eu Dono do mar! Sou Eu! (3x) Sou Eu...! Ninguém pode te ajudar! Ninguém pode te levantar! Mas se Deus tem um plano contigo ninguém impedirá!        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristo, pelo Teu sangue chegamos Junto ao trono da graça para Te adorar Sacrifício vivo, honra e louvores rendemos Humildemente viemos, só pra Te adorar! Para erguer nosso louvor, para ouvir a Tua voz Para dizer a todo mundo que és Senhor! Para prostrados Te adorar e o Teu nome bem dizer E para sempre com os anjos cantar... Aleluia! Livres, comprados por Tua graça De toda tribo e raça para Te adorar Povo escolhido, pelo Teu sangue lavado Fomos por Ti separados só pra Te adorar! Para erguer nosso louvor, para ouvir a Tua voz Para dizer a todo mundo que és Senhor! Para prostrados Te adorar e o Teu nome bem dizer E para sempre com os anjos cantar... Aleluia... (4x) Aleluia...(4x) Para erguer osso louvor, para ouvir a Tua voz Para dizer a todo mundo que és Senhor! Para prostrados Te adorar e o Teu nome bem dizer E para sempre com os anjos cantar... Para erguer nosso louvor, para ouvir a Tua voz Para dizer a todo mundo que és Senhor! Para prostrados Te adorar e o Teu nome bem dizer E para sempre com os anjos cantar Aleluia...  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estou no meu jardim tranquei a porta, abri meu coração Reguei minhas raízes com minhas lágrimas, gotas de adoração! Senhor, não quero que os meus olhos Percam o brilho do primeiro amor por Ti Não quero que em mim se perca o desejo de Te adorar Vem Senhor e me resgata todos os dias só pra Te adorar! Quero ser Teu bom perfume, primeira essência, jardim particular! Estou no meu jardim tranquei a porta, abri meu coração Reguei minhas raízes com minhas lágrimas, gotas de adoração! Senhor, não quero que os meus olhos Percam o brilho do primeiro amor por Ti Não quero que em mim se perca o desejo de Te adorar Vem Senhor e me resgata todos os dias só pra Te adorar! Quero ser Teu bom perfume, primeira essência, jardim particular! Te adoro! Te adoro! Vem sobre mim Senhor! (4x) Te adoro! Te adoro! Vem Senhor e me resgata todos os dias só pra Te adorar! Quero ser Teu bom perfume, primeira essência, jardim particular!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: É tarde da noite e não consigo dormir São mil pensamentos passando por mim Foi nesse momento que ouvi uma voz me chamando... Todos: Quando me chamar Solo: Direi: Todos: eis-me aqui (3x) Todos: Senhor, eis-me aqui! Solo: O barulho do mundo te impede de ouvir Mesmo teus pensamentos não te deixam sentir A presença de um Deus que está aqui me chamando ! Todos: (Me chamando) Te chamando (Vem... 4x) Todos: Quando me chamar Solo: Direi: Todos: eis-me aqui (3x) Todos: Senhor, eis-me aqui! Todos: Não mais andar Solo: sem direção Solo: Fecho meus olhos em oração Todos: E me deixo guiar pelo som da Tua voz Solo: Falando ao meu coração Quando me chamar Direi: eis-me aqui (3x) Senhor, eis-me aqui! Quando me chamar Direi: eis-me aqui (3x) Senhor, eis-me aqui...    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elevo os meus olhos para os montes de onde vem O socorro pra minh’alma descansar Não me deixarás cair, Tu sim me guardarás A minh’alma anseia mais de Ti... Vem me tocar! Toca em mim Senhor Jesus! Toca em mim com Teu poder! Refrigera minha alma para prosseguir, Tuas mãos a me tocar, Teu Espírito a me encher, Vem toda minha vida transformar! Toca em mim... (2x) Elevo os meus olhos para os montes de onde vem O socorro pra minh’alma descansar Não me deixarás cair, Tu sim me guardarás A minh’alma anseia mais de Ti... Vem me tocar! Toca em mim Senhor Jesus! Toca em mim com Teu poder! Refrigera minha alma para prosseguir, Tuas mãos a me tocar Teu Espírito a me encher, Vem toda minha vida transformar! Toca em mim Enche com Teu poder! Toca em mim! Toca em mim!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santificação! Santificação! Santificação! Quando entrares na casa do Senhor Teu Deus tira as sandálias dos teus pés Purifica o teu coração, o lugar santo é! Teus olhos tem que refletir o brilho do Senhor que há em ti Não se contamine com o mundo não, Diante de Deus, ninguém se esconde não! Santo em todo tempo, fora e dentro do templo, Vigiando sempre, sempre bem atento Há uma nuvem de testemunhas que te cercam Toda hipocrisia vem à tona, te conserta! No grande dia ninguém pode escapar, o pecado encoberto Ele vai mostrar! O Juiz naquele dia dará a sentença, céu ou inferno, qual tua recompensa? No grande dia até os mortos vão ressuscitar E ali todos os joelhos vão se dobrar A noiva de Cristo é alva como a neve Se hoje fosse o grande dia, como estão tuas vestes? Só entra no céu quem aqui for fiel! Santificação, pra morar lá em Sião! Só entra no céu quem aqui for fiel! Vigiai e orai! O Noivo logo vem! A trombeta tocou e agora quem ficou vai procurar aqueles que ele criticou O pastor sumiu, e as irmãs também, As crianças que cantavam, cantam em Jerusalém Vão procurar nas igrejas, mas não vão encontrar Onde estão os crentes que vinham adorar? (Ah...) Solo: “E saiu a notícia que o mundo não acreditou” Todos: A igreja subiu, Jesus voltou! Só entra no céu quem aqui for fiel! Santificação, pra morar lá em Sião! Só entra no céu quem aqui for fiel! Vigiai e orai! O Noivo logo vem! [2x] Santificação! Santificação! Santificação! Santificação! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Não há nada igual, não há nada melhor A que se comparar à esperança viva! Tua presença! Eu provei e vi o mais doce amor Que liberta o meu ser e a vergonha desfaz! Tua presença! Todos: Santo Espírito És bem-vindo aqui! Vem inundar, encher este lugar, é o desejo do meu coração, Sermos inundados por Tua glória Senhor! Tua glória... Não há nada igual, não há nada melhor A que se comparar à esperança viva! Tua presença! Eu provei e vi o mais doce amor Que liberta o meu ser e a vergonha desfaz! Tua presença! Santo Espírito És bem-vindo aqui! Vem inundar, encher este lugar, é o desejo do meu coração, Sermos inundados por Tua glória Senhor! Tua glória... Vamos provar quão real é Tua presença! Vamos provar Tua glória e bondade! [2x] Santo Espírito És bem-vindo aqui! Vem inundar, encher este lugar, é o desejo do meu coração, Sermos inundados por Tua glória Senhor! Tua glória (3x) Tua glória Senhor!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O som da chuva, sobre a terra seca posso ouvir O som da chuva, vem derramando bênçãos, posso sentir! Sobre os filhos de Sião, sobre o povo de Jerusalém! Sobre aqueles que estão sedentos de Deus! [2x] Faz chover Senhor e derrama sobre nós Águas que limpam, águas que jorram, águas que curam enfermidades Águas que regam e que transbordam todo meu ser! Sobre os filhos de Sião, Sobre o povo de Jerusalém! Sobre aqueles que estão sedentos de Deus! [2x] Faz chover Senhor e derrama sobre nós Águas que limpam, águas que jorram, águas que curam enfermidades Águas que regam e que transbordam todo meu ser!      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu quero entrar nos átrios do Pai E regozijar-me em Tua presença E ali me prostrarei com toda reverência E entregarei minha humilde oferta Meu coração, minha vida, meu ser Te entregarei! Colher o que há de bom em Tua palavra E descansar em Teus braços de amor Quero Teu arado, preparando a minha vida, Devolva com vontade o mais profundo de mim... Tire as pedras e os espinhos, terra fértil quero ser! Pra Teu louvor, faz-me Senhor! Eu quero ser usado sem medida! Prepara-me Senhor, capacita-me Senhor! Te entrego a direção da minha vida! Colher o que há de bom em Tua palavra E descansar em Teus braços de amor Quero Teu arado, preparando a minha vida, Devolva com vontade o mais profundo de mim... Tire as pedras e os espinhos, terra fértil quero ser! Pra Teu louvor, faz-me Senhor! Eu quero ser usado sem medida! Prepara-me Senhor, capacita-me Senhor! Te entrego a direção da minha vida! [2x] Sou tão dependente desse Teu amor, Uma pequena gota, em Teu grande mar Move as Tuas águas, enche-me de Ti, Eu quero Senhor transbordar! Pra Teu louvor, faz-me Senhor Eu quero ser usado sem medida! Prepara-me Senhor, capacita-me Senhor Te entrego a direção da minha vida! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algemado por um peso, Oh! Quão triste eu andei... Até sentir a mão de Cristo, Não sou mais como eu era, eu sei! Tocou-me, Jesus, tocou-me! De paz encheu meu coração Quando o Senhor Jesus me tocou Livrou-me da escuridão! Desde que encontrei a Cristo E senti Seu terno amor Eu tenho achado paz e vida Pra sempre eu cantarei em Seu louvor! Tocou-me, Jesus, tocou-me! De paz encheu meu coração Quando o Senhor Jesus me tocou Livrou-me da escuridão! [2x] Livrou-me da escuridão!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não compreendo os Teus caminhos Mas te darei a minha canção! Doces palavras te darei... Me sustentas em minha dor E isso me leva mais perto de Ti Mais perto dos Teus caminhos... E ao redor de cada esquina, encima de cada montanha Eu não procuro por coroas ou pelas águas das fontes Desesperado eu Te busco! Frenético, acredito Que a visão da Tua face É tudo o que eu preciso! Eu te direi Que vai valer a pena, vai valer a pena, vai valer a pena mesmo! Sim, vai valer a pena, vai valer a pena, vai valer a pena mesmo! Não compreendo os Teus caminhos Mas te darei a minha canção! Doces palavras te darei... Me sustentas em minha dor E isso me leva mais perto de Ti Mais perto dos Teus caminhos... E ao redor de cada esquina, encima de cada montanha Eu não procuro por coroas ou pelas águas das fontes Desesperado eu Te busco! Frenético, acredito Que a visão da Tua face É tudo o que eu preciso! Eu te direi Que vai valer a pena, vai valer a pena, vai valer a pena mesmo! Sim, vai valer a pena, vai valer a pena, vai valer a pena mesmo! Quando o grande dia chegar (3x) eu cantarei (3x) Senhor, valeu a pena! Senhor, valeu a pena! Senhor valeu a pena mesmo! [2x] </t>
+  </si>
+  <si>
+    <t>Espírito de Deus eis-me aqui, toca-me com brasas do altar Me enche com a Tua unção, faz transbordar! Estendo a Ti as minhas mãos, do Teu óleo quero mais! No rio do Teu poder eu quero navegar! [2x] Vem, vem! Espírito Santo vem! Vem, vem! Unção derramar! [2x] Espírito de Deus eis-me aqui, toca-me com brasas do altar Me enche com a Tua unção, faz transbordar! Estendo a Ti as minhas mãos, do Teu óleo quero mais! No rio do Teu poder eu quero navegar! Vem, vem! Espírito Santo vem! Vem, vem! Unção derramar! [4x] Vem, vem! Vem, vem! Vem, vem! Unção derramar Vem, vem! Espírito Santo vem! Vem, vem! Unção derramar! [2x] Vem, vem! Vem, vem! Vem, vem! Vem, vem! Vem, vem! Vem, vem! Vem, vem! Unção derramar!_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh! Profundidade das riquezas! Tanto da sabedoria quanto do conhecimento! Quão insondáveis Senhor são os Teus caminhos! Quem conhece a mente desse Deus? Não há outro igual a Ele e ninguém acima d’Ele! Porque por Ele e pra Ele são todas as coisas! A Ele a glória! A Ele a glória! Eternamente... Amém! Quem conhece a mente desse Deus? Não há outro igual a Ele e ninguém acima d’Ele! Porque por Ele e pra Ele são todas as coisas! A Ele a glória! A Ele a glória! Eternamente... Amém!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">É noite e você trancado em seu quarto... Só Deus compreende e vê o teu desabafo... Você só chora e de sua boca só se ouve gemidos... Já é madrugada, você quer resposta... O seu coração, a Deus, implora vitória! E logo amanhece, você é renovado! Deus contigo fala Eu cuido de você, conheço o teu sofrimento! Você não vai morrer! Ainda não é o tempo! A prova é grande, bem maior é a vitória que Eu estou preparando! Já é madrugada, você quer resposta... O seu coração, a Deus, implora vitória! E logo amanhece, você é renovado! Deus contigo fala Eu cuido de você, conheço o teu sofrimento! Você não vai morrer! Ainda não é o tempo! A prova é grande, bem maior é a vitória que Eu estou preparando! [2x]      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adorarei! Adorarei! Pois o véu está rasgado e eu posso entrar! Adorarei... Adorarei! Adorarei! Não me interrompa! Quero adorar... Eu li que o véu do templo se rasgou Eu li que agora eu posso adorar! Com o sangue que Jesus por mim derramou Me deu livre acesso pra entrar! Ninguém agora vai sentir por mim A tão real presença do Senhor! Sou sacerdócio real! Sou povo adquirido! Sou mais um escolhido pra ser chamado de adorador! Adorarei! Adorarei! Pois o véu está rasgado e eu posso entrar! Adorarei... Adorarei! Adorarei! Não me interrompa! Quero adorar... Mesmo chorando, quero adorar! Faltando tudo, quero adorar! Mesmo sofrendo, quero adorar! Se tu não gosta de barulho sai de perto de mim, quero adorar! Se tu não gosta de dar glória sai de perto de mim, deixa eu adorar! Deixa eu levantar as minhas mãos... Adorarei! Adorarei! Pois o véu está rasgado e eu posso entrar! Adorarei... Adorarei! Adorarei! Não me interrompa! Quero adorar...  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pai, eu quero Te amar Tocar o Teu coração e me derramar aos Teus pés Mais perto eu quero estar Senhor e Te adorar com tudo o que sou E Te render glória e aleluia! Aleluia, Aleluia... Aleluia, Aleluia... Quando lutas vierem me derrubar Firmado em Ti eu estarei Pois Tu És o meu refúgio, ó Deus! E não importa onde estiver, no vale ou no monte adorarei! A Ti eu canto glória e aleluia! Aleluia, Aleluia... Aleluia, Aleluia... Senhor, preciso do Teu olhar, ouvir as batidas do Teu coração Me esconder nos Teus braços, ó Pai! Toda minh’alma deseja a Ti, Junto com os anjos cantarei Tu És Santo! Exaltado! Aleluia! Aleluia, Aleluia... Aleluia, Aleluia... Aleluia, Aleluia... Aleluia, Aleluia...      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em Belém do Pará onde começou a doutrina dos dons, Deus enviou o Batismo de fogo para os fiéis, era mil novecentos e dez! Assembleia de Deus no Brasil chegou, Cuidando da doutrina e também dos dons Porta que abriu, nunca mais fechou, Deus multiplicou o Seu rebanho (2x) Os líderes da Assembleia que formada estão, Daniel Berg e Gunnar Vingren seu irmão, E outros pioneiros ainda estão lutando e Cristo lá do céu abençoando Assembleia de Deus no Brasil chegou, Cuidando da doutrina e também dos dons Porta que abriu, nunca mais fechou, Deus multiplicou o Seu rebanho (2x) Muitos ministérios a Assembleia têm, mas um só Espírito apascentando vem Seu número é como as águas de muitos rios, É a grande multidão que João viu! Assembleia de Deus no Brasil chegou, Cuidando da doutrina e também dos dons Porta que abriu, nunca mais fechou, Deus multiplicou o Seu rebanho (2x) Em cada cidade do nosso céu, Assembleia de Deus estendeu o seu véu Em cada povoado tem uma igreja e o inimigo já perdeu a peleja! Assembleia de Deus no Brasil chegou, Cuidando da doutrina e também dos dons Porta que abriu, nunca mais fechou, Deus multiplicou o Seu rebanho (2x)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos quatro cantos desta terra pode-se ouvir alguém chorar... São lágrimas de esperança por um futuro que ainda vai chegar! Promessas de um avivamento que o mundo inteiro vai tocar Tomamos posse da herança, o que Deus falou se cumprirá! Brasil, em teu solo existe um povo! Brasil, uma gente que te ama! Que clama a Deus! Que acredita nas promessas! Ele virá restaurando a nossa terra! Se o Meu povo que se chama pelo Meu nome... Se humilhar... E orar... Se a minha face buscar! Se o Meu povo que se chama pelo Meu nome... Dos seus caminhos maus se desviar, Eu ouvirei... Perdoarei... Sua terra sararei! Brasil, em teu solo existe um povo! Brasil, uma gente que te ama! Que clama a Deus! Que acredita nas promessas! Ele virá restaurando a nossa terra! Se o Meu povo que se chama pelo Meu nome... Se humilhar... E orar... Se a minha face buscar! Se o Meu povo que se chama pelo Meu nome... Dos seus caminhos maus se desviar, Eu ouvirei... Perdoarei... Sua terra sararei!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minha casa será uma casa de benção Minha casa será um pedaço do céu Nela estarão reunidos adoradores Que só exaltam ao Deus verdadeiro e Fiel Minha casa será reconhecida Como um lugar de milagres e oração, Onde Jesus tem prazer de ficar, onde o Espírito Santo habita Onde há prosperidade, amor e vida! Faça do meu lar, Senhor um lugar de harmonia, Faça do meu coração Tua casa todo dia! Esteja à vontade pra ficar e nunca mais partir, Pois a casa que um dia Te recebeu nunca mais saberá viver sem Ti! Pois a casa que um dia Te recebeu Nunca mais saberá viver sem Ti...      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filho Meu... Me busque em oração, Levanta a tua voz Clama a Mim e responder-te-ei! Filho Meu não cesse de orar, De buscar Minha face, de Me conhecer! [2x] A Minha Casa será chamada Casa de oração, Casa de adoração, Casa de louvor! A Minha Casa será chamada Casa de comunhão, Casa de união entre os irmãos! Senhor em Tua casa estou, E quero Te adorar, Te exaltar, Te engrandecer! Senhor em Tua casa vou permanecer... Em oração, Interceder por minha nação! [2x] A Tua Casa será chamada Casa de oração, Casa de adoração, Casa de louvor! A Tua Casa será chamada Casa de comunhão, Casa de união entre os irmãos! E esta Casa será chamada Casa de oração, Casa de adoração, Casa de louvor! E esta Casa será chamada Casa de comunhão, Casa de união entre os irmãos! [2x] Casa de oração...!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acredite, é hora de vencer! Essa força vem de dentro de você! Você pode até tocar o céu, se crer! Acredite que nenhum de nós já nasceu com jeito pra super-herói! Nossos sonhos, a gente é quem constrói! É vencendo os limites! Escalando as fortalezas! Conquistando o impossível pela fé! Campeão! Vencedor! Deus dá asas, faz teu voo! Campeão! Vencedor! Essa fé que te faz imbatível te mostra o teu valor! Acredite que nenhum de nós já nasceu com jeito pra super-herói! Nossos sonhos, a gente é quem constrói! É vencendo os limites! Escalando as fortalezas! Conquistando o impossível pela fé! Campeão! Vencedor! Deus dá asas, faz teu voo! Campeão! Vencedor! Essa fé que te faz imbatível te mostra o teu valor! Tantos recordes você pode quebrar As barreiras você pode ultrapassar e vencer Campeão! Vencedor! Deus dá asas, faz teu voo! Campeão! Vencedor! Essa fé que te faz imbatível te mostra o teu valor! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deu errado... Sua pesca a noite toda não teve sucesso E agora seu amanhã parece incerto... O que tens a fazer é lavar as redes e parar... Deu errado... Pois você sabia onde o peixe estava Era ali que você sempre pescava Mas tentou a noite inteira e nada conseguiu pegar! Mas está acontecendo um culto na beira do mar E é Jesus quem vai pregar, e quer teu barco emprestado! E depois do culto Ele chama pra voltar Exatamente no mesmo lugar onde tudo deu errado! Depois do culto você vai ver, Depois do culto Ele vai com você! Depois do culto se prepara pro milagre que você tanto espera! Depois do culto você vai voltar Exatamente pro mesmo lugar Depois desse culto Jesus vai surpreender crente nessa terra! Não vai precisar mudar de casa, Nem de rua, de cidade, nem tampouco do país Você vai voltar pro mesmo barco, a mesma rede, O mesmo mar onde você foi infeliz! O que até agora não deu certo, Se prepara que o milagre acabou de começar! Vai ouvindo aí Jesus pregando, Tem milagre te esperando quando o culto terminar! Depois do culto você vai ver, Depois do culto Ele vai com você! Depois do culto tem milagre, providência, tem resposta, receba! Depois do culto você vai voltar exatamente pro mesmo lugar Depois desse culto Jesus vai surpreender crente nessa terra! Não vai precisar mudar de casa, Nem de rua, de cidade, nem tampouco do país Você vai voltar pro mesmo barco, a mesma rede, O mesmo mar onde você foi infeliz! O que até agora não deu certo, se prepara que o milagre acabou de começar! Vai ouvindo aí Jesus pregando Tem milagre te esperando quando o culto terminar! Depois do culto você vai ver, Depois do culto Ele vai com você! Depois do culto se prepara pro milagre que você tanto espera! Depois do culto você vai voltar exatamente pro mesmo lugar Depois desse culto eu já sei até o hino que tu vais cantar! Eu vi inimigos lutando, lutando Mas eu ia vencendo, vencendo, vencendo! E quanto mais apertavam, oprimiam e lutavam Eu estava crescendo, crescendo, crescendo, crescendo, crescendo Depois do culto você vai ver, Depois do culto Ele vai com você! Depois do culto tem milagre, providência, tem resposta, creia! Depois do culto você vai voltar exatamente pro mesmo lugar Depois desse culto Jesus vai surpreender crente nessa terra!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem disse que estás só... Não é verdade que ninguém mais se importa com sua dor... Não é verdade que a única saída é desistir de tudo, de todos... Deus te ama tanto que escreveu um cântico pra te dizer Que você não é obra do acaso, alguém está contando com você Faz tempo que você está calado este é o momento pra poder dizer Desabafa e mantêm a calma! O pai não rejeita a oração sincera de um filho! Fecha a porta do teu quarto e ora! Põem pra fora todos os segredos, angústias e os medos que te faz querer parar... Vai se sentir melhor quando desabafar! Deus te ama tanto que escreveu um cântico pra te dizer Que você não é obra do acaso, alguém está contando com você Faz tempo que você está calado este é o momento pra poder dizer Desabafa e mantêm a calma! O pai não rejeita a oração sincera de um filho! Fecha a porta do teu quarto e ora! Põem pra fora todos os segredos, angústias e os medos que te faz querer parar... Vai se sentir melhor... Desabafa e mantêm a calma! O pai não rejeita a oração sincera de um filho! Fecha a porta do teu quarto e ora! Põem pra fora todos os segredos, angústias e os medos... Desabafa e mantêm a calma! O pai não rejeita a oração sincera de um filho! Fecha a porta do teu quarto e ora! Põem pra fora todos os segredos, angústias e os medos que te faz querer parar... Vai se sentir melhor quando desabafar! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senhor Tu sabes do anelo que há em minh’alma É como fogo bem acesso em meu coração Senhor pergunto, porque é que eu não posso andar pelos países, deste mundo perdido Eu quisera ir ao campo missionário Eu quisera, Senhor, ir a proclamar Mesmo aqueles quase mortos sem saber que há um Deus Eu quisera, eu quisera anunciar Somente Tu conheces os meus problemas, somente Tu, Senhor, me ajudará Porque sei que em Ti vivo, tudo em mim podes fazer Irei Senhor, aonde me ordenares Eu quisera ir ao campo missionário Eu quisera, Senhor, ir a proclamar Mesmo aqueles quase mortos sem saber que há um Deus Eu quisera, eu quisera anunciar Mesmo aqueles quase mortos sem saber que há um Deus Eu quisera, eu quisera anunciar!      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh... Glória, A Ele toda Glória! Oh... Glória, A Ele toda Glória! (2x) Deus é bom, Deus é bom demais, A presença do Senhor me satisfaz (2x) Ele opera milagres, eu acredito! Ele pode mudar a sua história, eu acredito! Faz de você vencedor, eu acredito! E Ele é o Salvador, eu acredito! Oh... Glória, A Ele toda Glória! Oh... Glória, A Ele toda Glória! Quando Deus operar e sua vida mudar, A Ele toda Glória Pro seu vaso encher tem que se esvaziar, A Ele toda Glória Somos menos que nada e Ele é tudo pra nós, A Ele toda Glória O inimigo caiu e a vitória chegou, A Ele toda Glória Deus é bom, Deus é bom demais, A presença do Senhor me satisfaz (2x) Oh... Glória, A Ele toda Glória! Oh... Glória, A Ele toda Glória! Tem comida na mesa, família unida, A Ele toda Glória Você foi promovido, o salário aumentou, A Ele toda Glória E aquele carrão que Ele te abençoou, A Ele toda Glória E no seu casamento hoje tem mais amor, A Ele toda Glória Deus é bom, Deus é bom demais A presença do Senhor me satisfaz (2x) Oh... Glória, A Ele toda Glória! Oh... Glória, A Ele toda Glória! Eu estava no mundo e Jesus me chamou, A Ele toda Glória Hoje eu louvo pra Deus e minha vida mudou, A Ele toda Glória Deus é bom, Deus é bom demais A presença do Senhor me satisfaz (2x)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim, Deus é fiel para cumprir toda palavra dita a mim! Deus é fiel! Deus é fiel! Sim, Deus é fiel para cumprir toda promessa feita a mim! Deus é fiel! Deus é fiel! Eu não morrerei enquanto o Senhor não cumprir em mim Todos os sonhos que Ele mesmo sonhou pra mim! Eu quero viver em santidade e adoração! Pois é só d’Ele, somente d’Ele o meu coração! [2x] Sim, Deus é fiel para cumprir toda palavra dita a mim! Deus é fiel! Deus é fiel! Sim, Deus é fiel para cumprir toda promessa feita a mim! Deus é fiel! Deus é fiel! Eu não morrerei enquanto o Senhor não cumprir em mim Todos os sonhos que Ele mesmo sonhou pra mim! Eu quero viver em santidade e adoração! Pois é só d’Ele, somente d’Ele o meu coração! Tu não morrerás enquanto o Senhor não cumprir em ti Todos os sonhos que Ele mesmo sonhou pra ti! Então viverás em santidade e adoração! Pois é só d’Ele, somente d’Ele o teu coração!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu louvo a Deus quando estou sozinho Eu louvo a Deus em meio à multidão Eu sou igual aos passarinhos O meu maior prazer é viver pra louvar a Deus Ó Deus maravilhoso! O Seu amor excede a todo entendimento Os céus e a terra manifestam o Seu poder E não há nada que a Ele possa comparar         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deus de fogo, Deus de fogo... Que abriu o Mar Vermelho! Deus de fogo, Deus de fogo... Que não deixa ninguém tocar num fio do teu cabelo! Deus de fogo, Deus de fogo... Que te chama pelo nome! Eu nunca vi o justo mendigar o pão Nem sua descendência passar fome... Divisa de fogo, Varão de guerra Ele desceu na Terra, Ele chegou pra guerrear! [2x] Foi no quartel general de Jeová Você tem que aprender, você tem que adorar! E uma bola de fogo aqui descerá, Se você tem olhos ungidos você vai contemplar! Mas desceu o Varão resplandecente lá da glória Glorificado, esse é o Deus que dá vitória! Olho de fogo, sapato de fogo, olha o renovo! Mas desceu Miguel, arcanjo de guerra lá do céu! Divisa de fogo, Varão de guerra Ele desceu na Terra Ele chegou pra guerrear! [2x] E fez abrir o Mar Vermelho pra passar o povo Seu, Não posso me esquecer do profeta Eliseu Elias orou e o fogo desceu Na carruagem de fogo Arrebatado por Deus! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">É adorar quando Deus não responde É adorar quando a dor te consome... Adorar a Deus acima de tudo! É adorar no dia do luto! Adorar a Deus no vale ou no deserto É adorar sem amigos por perto... É adorar quando não há recursos! É adorar a Deus, quando lhe falta tudo... Quem nunca pensou em desistir? Quem nunca pensou emparar? Mudar todos os planos de uma vida, deixar tudo pra lá? Quem nunca cogitou sair de casa? Abandonar os sonhos no caminho? Como folha seca no vento sem direção... virar um andarilho Às vezes as portas se fecham... Às vezes as lágrimas rolam... Às vezes as luzes se apagam... E o que se perde não volta... O que fazer? O que fazer? É quando no fundo do poço... Perguntas ficam sem respostas! É quando a vitória não chega... E se conhece a derrota! O que fazer? O que fazer? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O mar azul, o ar sem cor Tudo o que o Senhor fez é bom! (2x) O frio da noite, o sol da manhã Tudo o que o Senhor fez é bom! (2x) O Senhor, poderoso e forte me encontrou, substância informe Esse amor, mais forte que a morte me salvou! [2x] Ele me amou primeiro! (2x) E eu O amarei para sempre! (2x) Ele me amou primeiro! (2x) E eu O amarei... (3x) para sempre! O Senhor, poderoso e forte me encontrou, substância informe Esse amor, mais forte que a morte me salvou! [2x] Ele me amou primeiro! (2x) E eu O amarei para sempre (2x) Ele me amou primeiro! (2x) E eu O amarei... (3x) para sempre! Ele disse haja noite e dia! Ele disse haja água e céus! Ele disse haja a linda natureza! Ele fez o sol, a lua e as estrelas! Ele disse nadem, voem, andem! Ele me criou do pó da terra! Ele viu que tudo ficou bom e depois foi descansar Pra me ensinar com Ele andar! [2x] Ele me amou primeiro! (2x) E eu O amarei para sempre! (2x) Ele me amou primeiro! (2x) E eu O amarei... (3x) para sempre! O mar azul, o ar sem cor Tudo o que o Senhor fez é bom! (2x) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ele não é homem pra mentir Nem filho do homem pra se arrepender Se Deus te prometeu, Ele irá cumprir! Nunca falhou, não vai falhar Não tardou, não vai tardar Se Deus te prometeu, Ele cumprirá! [2x] Fiel é Deus, Fiel é Deus Não tarda, não falha Fiel é Deus, Fiel é Deus Seu amor não tem fim Sempre cuida de mim, Fiel é Deus! Ele não é homem pra mentir Nem filho do homem pra se arrepender Se Deus te prometeu, Ele irá cumprir! Nunca falhou, não vai falhar Não tardou, não vai tardar Se Deus te prometeu, Ele cumprirá! Fiel é Deus, Fiel é Deus Não tarda, não falha Fiel é Deus, Fiel é Deus Seu amor não tem fim Sempre cuida de mim, Fiel é Deus! Meu Deus É Fiel! Meu Deus É Fiel! Meu Deus É Fiel! Meu Deus É Fiel! Fiel é Deus, Fiel é Deus Não tarda, não falha Fiel é Deus, Fiel é Deus Seu amor não tem fim Sempre cuida de mim, Fiel é Deus! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jó, como pode ainda adorar se não tem motivos pra cantar? Abandona esse Deus e morre! Mas não O adoro pelo que Ele faz, nem menos por bens materiais Eu O adoro pelo que Ele É! Eu sou d’Ele, tudo é d’Ele! Jó, você não tem motivos! Perdeu os seus bens, seus filhos, seus amigos! O que você vai fazer? Eu vou adorar... Simplesmente adorar... Eu vou adorar! Deus me deu, Deus tomou! Bendito seja o nome do Senhor! A Ele a glória! A Ele a honra e o louvor! A Ele a Glória, A Ele a Glória, A Ele a Glória, A Ele a Glória A Ele a Glória, A Ele a Glória, A Ele a Glória, Pra sempre! Amém! Deus me deu, Deus tomou! Bendito seja o nome do Senhor! A Ele a glória! A Ele a honra e o louvor! Deus me deu, Deus tomou! Bendito seja o nome do Senhor! A Ele a glória! A Ele a honra e o louvor!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como vai a sua vida? É bom desabafar tudo que sentes! Não podes desaminar, Precisas suportar até o fim... Imagine, lá no calvário Jesus Cristo foi por ti crucificado! Os cravos em Suas mãos, com amor no coração Tudo isso por você É difícil carregar a cruz que Ele levou, carregou sem reclamar! É impossível esquecer Sua morte lá na cruz! Lembranças de Jesus... Lembranças de Jesus... Imagine, lá no calvário Jesus Cristo foi por ti crucificado! Os cravos em Suas mãos, com amor no coração Tudo isso por você É difícil carregar a cruz que Ele levou, carregou sem reclamar! É impossível esquecer Sua morte lá na cruz! Lembranças de Jesus... Lembranças de Jesus!!! É difícil carregar a cruz que Ele levou, carregou sem reclamar! É impossível esquecer Sua morte lá na cruz! Lembranças de Jesus... Lembranças de Jesus...    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoje eu acordei com uma vontade enorme de dizer O quanto você é importante pra mim, mãe! Nunca alguém me olhou assim com tanta emoção, Quando eu ouço a sua voz escuto a mesma canção Que você cantava quando eu chorava, Sem querer dormir e com lágrimas você orava por mim Palavras de amor, palavras de paz, São momentos que eu não esquecerei jamais! Mãe eu preciso te falar de amor, Eu preciso te falar da minha gratidão! Receba essa canção mãezinha! Quero dedicar esse momento ao Senhor, E bendito aquele dia em que eu nasci de você! Louvado seja Deus porque você é minha mãe! Quero te beijar, quero te abraçar mamãe Abra os braços e sorria! Quero te beijar, quero te abraçar mamãe Todo dia é o seu dia! Mãe eu preciso te falar de amor, Eu preciso te falar da minha gratidão! Receba essa canção mãezinha! Quero dedicar esse momento ao Senhor, E bendito aquele dia em que eu nasci de você! Louvado seja Deus porque você é minha mãe! [2x] Quero te beijar, quero te abraçar mamãe... Minha mãe... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A minha vida é do Mestre, Meu coração é do meu Mestre, O meu caminho é do Mestre, Minha esperança é meu Mestre! [2x] A Deus eu entreguei o barco do meu ser e entrei no mar afora... Pra longe eu naveguei, não vejo mais o cais... Só Deus e eu agora! Na solidão da lida eu pude perceber o quanto Deus me ama! As ondas grandes vêm tentando me arrastar pra longe da presença d’Ele... Ainda bem que eu vou morar no céu! Ainda bem que eu vou morar com Deus! [2x] O mundo está cheio de horror Os mentirosos reinam sem pudor Mentes brilhantes planejando o mal, Mas eu não desanimo pois sou sal! A integridade foi pro além! No mundo ninguém ama mais ninguém! Mas Jesus Cristo disse: “Filhos, Eu vou voltar pra te buscar!” Restaura Tua casa ó Senhor Acaba o show, restaura o louvor! Riqueza e fama agora é a pregação Já não se fala mais em salvação! O mundo está tentando enganar aqueles que o bom Deus virá buscar Mas permaneço firme e forte, eu levo a minha cruz, pois eu sou luz! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molda-me Senhor conforme o Teu querer Faça resplandecer Tua luz em meu viver Ouça minha voz pedindo perdão Tu me sondas, me conheces, toma o meu coração! Toma-me Senhor em Tuas mãos, Saras as feridas do viver! Mostra-me o caminho a seguir Para que eu veja o Teu poder! Quero em Teus braços sempre estar, Quero a Tua face contemplar! És o meu Oleiro Criador Molda-me meu Mestre Salvador! Quebra Senhor minha vida em Tuas mãos! Molda o meu viver! Toma-me Senhor em Tuas mãos, Saras as feridas do viver! Mostra-me o caminho a seguir Para que eu veja o Teu poder! Quero em Teus braços sempre estar, Quero a Tua face contemplar! És o meu Oleiro Criador Molda-me meu Mestre Salvador! [2x] Molda-me Senhor... Conforme o Teu querer!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adorador é tudo o que eu sou Adorador, assim Deus me formou! E quem poderá calar a voz de um coração? Se eu subir aos céus, eu sei que lá estás Se eu mergulhar no mais profundo mar Nunca poderei me ausentar do seu olhar Tu és o Deus que me sonda Tu és o Deus que me vê Não tenho todas as respostas Mas de uma coisa sei, por toda minha vida Te adorarei! Adorar é o que sei, Adorar é o que sou! Nada pode calar um adorador! Não existem prisões que contenham a voz de quem te adora ó Senhor! Se eu vencer, Te adoro, Se eu perder, Te adoro Se eu subir, Te adoro, Se eu descer... Te adorar é o meu prazer! Minha força vem do Senhor Nada pode calar um adorador! Adorar é o que sei, Adorar é o que sou! Nada pode calar um adorador! Não existem prisões que contenham a voz de quem te adora ó Senhor!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confiando em nosso Deus E em Seu eterno amor Não seremos abalados! (3x) Na batalha permaneceremos em fé, Se exércitos se erguerem contra nós Não seremos abalados! (3x) Quando vier a intensa escuridão Não temerá o nosso coração! A esperança nasce como a luz Deus é por nós, Ele é o vencedor! Confiando em nosso Deus E em Seu eterno amor Não seremos abalados! (3x) [2x] Seus inimigos cairão! Nosso Deus é mais forte, tudo Ele pode! Mais alto nome não há, Jesus é grandioso, tudo Ele pode! [2x] Confiando em nosso Deus E em Seu eterno amor Não seremos abalados! (3x) [2x]    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não temas porque Eu Sou contigo, Não te assombres Sou teu Deus, te fortaleço! Não temas, te ajudo e te esforço com a destra da Minha justiça Não temas, eis que envergonhados e confundidos serão Os que se indignarem contra ti! Não temas, tornar-se-ão em nada! Os que contenderem contigo perecerão! Porque Eu, o Senhor teu Deus te tomo pela tua mão direita! Eu Sou e te digo não temas, não temas, não temas! Não temas que Eu te ajudo! Não temas, Sou Eu quem vai contigo, não temas... Não temas, prossiga em teu caminho, não temas... Não temas, nos lugares altos porei rios e fontes no meio dos vales Não temas, pois de deserto Eu faço mares e de lugares secos mananciais Porque Eu, o Senhor teu Deus te tomo pela tua mão direita! Eu Sou e te digo não temas, não temas, não temas! Não temas que Eu te ajudo! [2x]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De todas as provas que eu já passei é bem difícil Senhor... A gente ter que ouvir acusações do vil tentador! Lembranças do passado vêm E querem me fazer parar! Ou mesmo palavras de alguém que não quer na gente acreditar... E quase parando sem forças e vigor a gente lê a Palavra! E encontra bastante poder pra vencer E continuar a jornada! E ver que o passado ficou pra trás, Pois Cristo na cruz tudo já venceu! E saber que dele não lembra mais Eu canto pra glória de Deus! Nenhuma condenação há para quem está em Ti Jesus! Cuja a vida coberta está pelo sangue que desceu na cruz! É certo que provas virão, investidas do vil tentador Mas nenhuma condenação há para quem está em Ti Querido Senhor... Nenhuma condenação há para quem está em Ti Jesus! Cuja a vida coberta está pelo sangue que desceu na cruz! É certo que provas virão, investidas do vil tentador Mas nenhuma condenação há para quem está em Ti Querido Senhor...     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nada é igual ao Seu redor Tudo se faz no Seu olhar Todo o universo se formou no Seu falar Teologia para explicar O Big Bang pra disfarçar Pode alguém até duvidar Sei que há um Deus a me guardar! E eu... tão pequeno e frágil querendo Sua atenção No silêncio encontro resposta certa então! Dono de toda ciência, sabedoria e poder! Oh! Dá-me de beber da água da fonte da vida Antes que o “haja” houvesse, Ele já era Deus Se revelou ao Seus Do crente ao ateu Ninguém explica Deus! Dono de toda ciência, sabedoria e poder! Oh! Dá-me de beber da água da fonte da vida Antes que o “haja” houvesse, Ele já era Deus Se revelou ao Seus Do gentio ao judeu Ninguém explica Deus! Ninguém explica, Ninguém explica Deus! E se duvida ou acredita Ninguém explica, Ninguém explica Deus!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Há um bálsamo em Gileade, Há unção em Gileade, Vem sobre mim para curar, Vem sobre a filha de Sião! Há um médico em Gileade, Há remédio em Gileade, Vem sobre mim para curar, Restaura a filha de Sião Vinde voltemos ao Senhor, pois Ele nos despedaçou e nos sarará! Fez a ferida e a ligará, nos revigorará e viveremos diante d’Ele!        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esconda-me em Ti... (2x) Nas asas do Seu amor! Como eu amo o Seu nome! Tens o nome mais lindo que eu conheço! Como eu amo o Seu nome... [2x] Qual é som? Qual é o som de quando Deus desce na Terra? Qual é som? Qual é o som? Qual é som? Qual é o som de quando Deus desce na Terra? Qual é som? Qual é o som? Esconda-me em Ti... (2x) Nas asas do Seu amor! Como eu amo o Seu nome! Tens o nome mais lindo que eu conheço! Como eu amo o Seu nome... Como eu amo o Seu nome! Tens o nome mais lindo que eu conheço! Como eu amo o Seu nome Jesus! Qual é som? Qual é o som de quando Deus desce na Terra? Qual é som? Qual é o som? Qual é som? Qual é o som de quando Deus desce na Terra? E esse é o som, do carpinteiro batendo à porta (2x) E esse é meu som, quando de dentro eu abro a porta (2x) Como eu amo o Seu nome! Tens o nome mais lindo que eu conheço! Como eu amo o Seu nome... Como eu amo o Seu nome! Tens o nome mais lindo que eu conheço! Como eu amo o Seu nome Jesus! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por toda a minha vida ó Senhor Te louvarei, Pois meu fôlego é a Tua vida e nunca me cansarei Posso ouvir a Tua voz, é mais doce do que o mel Que me tira desta cova e me leva até o céu! Já vi fogo e terremotos, vento forte que passou, Já vivi tantos perigos mas Tua voz me acalmou! Tu dá ordens às estrelas e ao mar os seus limites Eu me sinto tão seguro no Teu colo ó Altíssimo! Não há ferrolhos, nem portas que se fechem diante da Sua voz! Não há doença, nem culpa que fiquem de pé diante de nós! E a tempestade se acalma na voz daqu’Ele que tudo criou! Pois Sua Palavra é pura! Escudo para os que n’Ele creem! [2x]       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No mundo ainda existem belezas Que alegram a vida e nos fazem sonhar Recantos felizes da natureza onde qualquer ser humano gostaria de estar Mas de todos os lugares, o mais bonito e inspirador É onde fico, em oração, junto aos pés do Salvador! O melhor lugar do mundo é aos pés do Salvador! É ali aonde a esperança trás alívio ao sofredor É ali onde eu me encontro com a fonte do amor! O melhor lugar do mundo é aos pés do Salvador! Sonhamos com casas que tenham conforto Talvez numa encosta com vista pro mar Mas as maravilhas não fazem sentido se Cristo não está em primeiro lugar! Ao sentir a paz de Deus, Seu poder e amor profundo Eu posso estar onde for... Estou feliz, por me encontrar no melhor lugar do mundo! O melhor lugar do mundo é aos pés do Salvador! É ali aonde a esperança trás alívio ao sofredor É ali onde eu me encontro com a fonte do amor! O melhor lugar do mundo é aos pés do Salvador! É ali aonde a esperança trás alívio ao sofredor É ali onde eu me encontro com a fonte do amor! O melhor lugar do mundo é aos pés do Salvador! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pense duas vezes antes de desistir, não pare e lute, é tempo de vitória! Você pode sim! Você consegue sim! Você tem poder, Deus habita dentro de você! Grite bem alto tua vitória Profetize e acontecerá! Tua boca é a boca de Deus! Que falou e tudo se fez! Que mandou e tudo apareceu! Já decidi! Não vou mais desistir, Cristo vai comigo! Vou caminhar, o alvo vou acertar, a flecha é o meu Deus!        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mestre, o vento balançou meu barco Mestre, estou à beira de um naufrágio! Mestre, será que não vês? Será que eu vou perecer!? Sinto na pele o frio desse vento... Chego a crer que não estás me vendo! Lembro que estás logo ali na proa do meu barco a dormir... Eu sei que não estou só e já posso crer que amanhã vai ser bem melhor! Só porque Estás comigo eu posso clamar! Eu acredito que eu não vou naufragar! Só porque Estás comigo eu posso clamar! Já tenho fé pra descansar nas ondas de um bravo mar... Sim, eu posso clamar! Mestre, vem me ajudar! [2x] Quem é Esse que até o vento e o mar lhe obedecem? Quem é Esse que ordena e milagres acontecem? Jesus, esse nome toda língua confessará! Jesus, céu e terra se prostram pra Te adorar! Jesus, o presente que Deus enviou pra nós! Jesus, até o vento se cala pra ouvir Tua voz! Posso clamar! Eu acredito que eu não vou naufragar! Só porque Estás comigo eu posso clamar! Já tenho fé pra descansar nas ondas de um bravo mar... Sim, eu posso clamar! Mestre, vem me ajudar! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foi num dia especial que Deus me deu você de presente Eu não conseguia ver, mas já podia ouvir claramente Foi então que senti sua mão me afagar, sua voz me acalmar pra dormir, Seu amor me abraçou, seu calor me aqueceu, Já então percebi que você era tudo pra mim! Você é amor, você é calor, Você é a brisa da manhã, Você é a luz, a mão de Jesus Guiando meus passos com amor Você me traz carinho e paz, Você me ensina a caminhar Só posso dizer: eu amo você e vou sempre amar Sei que um dia vou partir e pelo mundo irei como gente E vou crescer e aprender como viver e ser diferente Mas eu vou me lembrar das lições que aprendi E das coisas que eu vi com você Vou sozinho andar, mas seus sonhos terei Na saudade do adeus as lembranças do amor levarei Você é amor, você é calor, Você é a brisa da manhã, Você é a luz, a mão de Jesus Guiando meus passos com amor Você me traz carinho e paz, Você me ensina a caminhar Só posso dizer: eu amo você e vou sempre amar   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ele abriu mão de Sua glória, Sangrou no madeiro por mim! Me conectou, salvou, curou! Ele me deu um destino, Uma capa e um pouco de vinho, Ele me deu unção, cajado e pão! Pôs um anel em meu dedo e me tirou o medo! Novas sandálias pra suportar o ide... Pôs um anel em meu dedo e me tirou o medo! Novas sandálias e disse vai... E eu me despedi dos meus pais Eu queimei minhas carroças e eu afundei meus barcos no cais! [2x] Pra onde eu irei, se eu não tenho pra onde voltar? Só tenho Você, Deus! Palavra de vida eterna! [8x] Sou, sou totalmente Teu... Fui encontrado pelo Teu amor, pelo Teu amor... Sou, sou totalmente Teu... Fui contemplado em ser um com Você, ser um com Você... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando eu tenho sede de Ti eu dobro os joelhos Quando eu penso em desistir eu dobro os joelhos Eu deixo pra trás o que sou e clamo ao Cordeiro Preciso de Ti, preciso de Ti! Quando não há mais chances pra mim eu dobro os joelhos Se o fardo é pesado demais eu dobro os joelhos Pois eu sei que Tu És Deus fiel Deus presente Emanuel! És Deus de promessa que não falhará! Se o sol cair eu vou confiar em Ti Se os montes desabarem eu vou confiar em Ti E no meio da batalha eu vou confiar em Ti Pois Tu És meu Deus, meu Salvador, Rocha inabalável eu confio em Ti! Vem ser abençoador Quando eu tenho sede de Ti eu dobro os joelhos Quando eu penso em desistir eu dobro os joelhos Eu deixo pra trás o que sou E clamo ao Cordeiro Preciso de Ti, preciso de Ti! Quando não há mais chances pra mim eu dobro os joelhos Se o fardo é pesado demais eu dobro os joelhos Pois eu sei que Tu És Deus fiel Deus presente Emanuel! És Deus de promessa que não falhará! Se o sol cair eu vou confiar em Ti Se os montes desabarem eu vou confiar em Ti E no meio da batalha eu vou confiar em Ti Pois Tu És meu Deus, meu Salvador, Rocha inabalável eu confio em Ti! Tu és abençoador! Se o sol cair eu vou confiar em Ti Se os montes desabarem eu vou confiar em Ti Pois Tu És meu Deus, meu Salvador, Rocha inabalável eu confio em Ti! Tu és abençoador! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senhor venha mudar, mudar meus pensamentos, Restaura os meus sonhos e meus sentimentos Vem encher o vaso, é o que eu mais quero! Por onde tenho andado sempre estás por perto! Renova-me Senhor! Venha curar as minhas feridas! Eu quero ser melhor! Renova-me Senhor! Senhor venha mudar, mudar meus pensamentos, Restaura os meus sonhos e meus sentimentos Vem encher o vaso, é o que eu mais quero! Por onde tenho andado sempre estás por perto! Renova-me Senhor! Venha curar as minhas feridas! Eu quero ser melhor! Renova-me Senhor! [2X] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mestre eu preciso de um milagre! Transforma minha vida, meu estado... Faz tempo que eu não vejo a luz do dia, Estão tentando sepultar minha alegria, Tentando ver meus sonhos cancelados! Lázaro ouviu a Sua voz quando aquela pedra removeu... Depois de quatro dias ele reviveu! Mestre, não há outro que possa fazer Aquilo que só o Teu nome tem todo poder! Eu preciso tanto de um milagre! Remove a minha pedra! Me chama pelo nome! Muda a minha história, ressuscita os meus sonhos! Transforma a minha vida! Me faz um milagre! Me toca nessa hora, me chama para fora Ressuscita-me! Tu És a própria Vida! A força que há em mim! Tu És O Filho de Deus Que me ergue pra vencer! Senhor de tudo em mim já ouço a Tua voz Me chamando pra viver uma história de poder! Remove a minha pedra! Me chama pelo nome! Muda a minha história, ressuscita os meus sonhos! Transforma a minha vida! Me faz um milagre! Me toca nessa hora, me chama para fora [2x] Ressuscita-me!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deixou o esplendor de Sua glória para vir a este mundo aqui Estava só e ferido no Gólgota para dar Sua vida por mim! Se isto não for amor o Céu não é real! Não há estrelas no céu! As andorinhas não voam mais! Se isto não for amor o oceano secou! Tudo perde o valor se isto não for amor! Mesmo na morte lembrou-se de um ladrão que a Seu lado estava Com amor e ternura falou-lhe ao paraíso comigo irás! Se isto não for amor o Céu não é real! Não há estrelas no céu! As andorinhas não voam mais! Se isto não for amor o oceano secou! Tudo perde o valor se isto não for amor! [2x]       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se as águas do mar da vida quiserem te afogar Segura na mão de Deus e vai! Se as tristezas desta vida quiserem te sufocar Segura na mão de Deus e vai! Segura na mão de Deus, segura na mão de Deus! Pois ela, ela te sustentará! Não temas, segue adiante e não olhes para trás, Segura na mão de Deus e vai! Se a jornada é pesada e sustentas a caminhada Segura na mão de Deus e vai! Orando, jejuando, confiando e confessando, Segura na mão de Deus e vai! Segura na mão de Deus, segura na mão de Deus! Pois ela, ela te sustentará! Não temas, segue adiante e não olhes para trás, Segura na mão de Deus e vai! O Espírito do Senhor sempre te revestirá, Segura na mão de Deus e vai! Jesus Cristo prometeu que jamais te deixará, Segura na mão de Deus e vai! Segura na mão de Deus, segura na mão de Deus! Pois ela, ela te sustentará! Não temas, segue adiante e não olhes para trás, Segura na mão de Deus e vai!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tudo está preparado aqui A casa e o meu coração também Tu és O único motivo que me fez chegar... Os filhos já estão chegando aqui Agora somos dois ou três, ou mais Encontre meu coração disposto a queimar por Ti... Todos os versos e canções que eu conseguir cantar Todas as vezes quebrantado, só quero te falar que Teu é o reino e a glória pra sempre! Teu é o domínio e o poder, amém, amém! [2x] Só Tu és santo! Só Tu és santo! Não há outro como Tu! (3x) Não há outro como Jesus! [5x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senhor eu sei que Tu me sondas Sei também que me conheces Se me assento ou me levanto Tu conheces meus pensamentos! Quer deitado ou quer andando Sabe todos os meus passos Antes que haja em mim palavras Sei que em tudo me conheces... Senhor, eu sei que Tu me sondas... (4x) Deus, Tu me cercaste em volta Tua mão em mim repousa! Tal ciência é grandiosa Não alcanço de tão alta! Se eu subo até os céus, Sei que ali também Te encontro! Se no abismo está minha cama, Sei que ali também me amas! Senhor, eu sei que Tu me sondas... (4x) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu sei que não há nenhuma provação maior do que eu possa suportar Mas estou cansado, Pai preciso crer nas Tuas promessas pra continuar! Eu sei que me livraste das acusações mas estou cansado de chorar... Espírito Santo vem me renovar, Só Tua presença pra me alegrar! Os sonhos de Deus são maiores que os teus, Tão grandes que nem pode imaginar! Não desanime, filho Eu vim te consolar Nas Minhas promessas volte a acreditar! Os sonhos de Deus são maiores que os teus, Por isso vale a pena acreditar! O dia está chegando, Eu vou te renovar Na Minha presença tu vais prosperar Você devia se alegrar! Você devia se alegrar! Você devia se alegrar! Você devia agradecer! Você devia agradecer! Você devia agradecer! [2x] Os sonhos de Deus são maiores que os teus, Tão grandes que nem pode imaginar! Não desanime, filho Eu vim te consolar Nas Minhas promessas volte a acreditar! Os sonhos de Deus são maiores que os teus, Por isso vale a pena acreditar! O dia está chegando, Eu vou te renovar Na Minha presença tu vais prosperar   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tá chorando por quê? Se você tem um Deus Que cuida de você, e jamais te esqueceu Ele sabe de tudo que você tá passando! E mandou te dizer que Ele tá cuidando! Lembra de onde você veio e aonde que você chegou! Lembra de todos os livramentos que você já passou! Nem era para você estar aqui mas Deus falou assim: Esse aí vou levantar e onde colocar a mão ele vai prosperar! Não chore quem cuida de você não dorme! Levanta, tem muita gente que te ama! Deus mandou te dizer que vai acontecer! Deus mandou te falar que tudo vai passar! Lembra de onde você veio e aonde que você chegou! Lembra de todos os livramentos que você já passou! Nem era para você estar aqui mas Deus falou assim: Esse aí vou levantar e onde colocar a mão ele vai prosperar! Não chore quem cuida de você não dorme! Levanta, tem muita gente que te ama! Deus mandou te dizer que vai acontecer! Deus mandou te falar que tudo vai passar!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tem misericórdia de mim, Eu não quero Te entristecer pra sempre... Tudo o que eu não quero fazer eu faço... Mas tenho tanto amor por Ti! Tem misericórdia de mim! Sabe Senhor eu não compreendo Meu modo de agir se eu não faço o que é certo O que eu detesto eu faço Isso não é bom pra mim! Querer o bem está em mim Eu não posso entender porque sou assim desse jeito Conto Contigo pra me ajudar, quero ser fiel a Ti , Tem misericórdia de mim ó Deus! Eu não quero Te entristecer pra sempre... Tudo o que eu não quero fazer eu faço... Mas tenho tanto amor por Ti! Tem misericórdia de mim! Querer o bem está em mim Eu não posso entender porque sou assim desse jeito Conto Contigo pra me ajudar, quero ser fiel a Ti Tem misericórdia de mim ó Deus! Eu não quero Te entristecer pra sempre... Tudo o que eu não quero fazer eu faço... Mas tenho tanto amor por Ti! Tem misericórdia de mim! Pra Te servir, Pra Te adorar, estou aqui! Oh, faz de mim uma benção, Uma benção em Tuas mãos! Tem misericórdia de mim... Tem misericórdia de mim ó Deus! Eu não quero Te entristecer pra sempre... Tudo o que eu não quero fazer eu faço... Mas tenho tanto amor por Ti! Tem misericórdia de mim! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nada vai me separar mesmo se eu me abalar! Teu amor não falha! Mesmo sem merecer Tua graça se derrama sobre mim! Teu amor não falha! Pois Tu és o mesmo pra sempre! Teu amor não muda! Se o choro dura uma noite, A alegria vem pela manhã! Se o mar se enfurecer eu não tenho o que temer! Porque eu sei que me amas! Teu amor não falha! Se o vento é forte e profundo o mar, Tua presença vem me amparar! Teu amor não falha! Difícil é o caminhar, nunca pensei que eu fosse alcançar Mas Teu amor não falha! Nunca falhará! Pois Tu és o mesmo pra sempre! Teu amor não muda! Se o choro dura uma noite, A alegria vem pela manhã! Se o mar se enfurecer eu não tenho o que temer! Porque eu sei que me amas! Teu amor não falha! Tu fazes que tudo coopere para o meu bem! (4x) Pois Tu és o mesmo pra sempre! Teu amor não muda! Se o choro dura uma noite, A alegria vem pela manhã! Se o mar se enfurecer eu não tenho o que temer! Porque eu sei que me amas! Teu amor não falha!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como Bartimeu, eu preciso de um milagre E só o Senhor pode fazer! Eu farei o que for preciso pra que ouça a minha voz, Filho de Davi, socorre-me! Sem Ti eu sou tão frágil! A Tua mão me sustenta de pé! Mesmo que tudo se acabe, Ainda me resta a fé! O que eu não posso fazer Tu podes! A mudança que eu preciso Tu podes! O milagre que eu espero Tu podes! Senhor vem me socorrer! O meu milagre Senhor, eu tomo posse! A cura que eu preciso, eu tomo posse! A minha benção, Senhor, eu tomo posse! Abro as mãos para receber O que eu não posso fazer Tu podes! A mudança que eu preciso Tu podes! O milagre que eu espero Tu podes! Senhor vem me socorrer! O meu milagre Senhor, eu tomo posse! A cura que eu preciso, eu tomo posse! A minha benção, Senhor, eu tomo posse! Abro as mãos para receber  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">És adorado entre nós, tão desejado aqui! Mas nada se comparará com a glória que há de vir! Eu não sou daqui, pra casa voltarei! Ele vem me buscar, e com Ele eu irei! [2x] Yeshua, o Messias aguardado, Ele vem me buscar! (2x) Em breve Jesus, no céu vai aparecer E todo joelho se dobrará, e toda língua confessará Mas a Igreja será arrebatada, num piscar de olhos acontecerá! (2x) Yeshua! Yeshua! Yeshua! Yeshua! Mas a Igreja será arrebatada, num piscar de olhos acontecerá! (2x) Yeshua, o Messias aguardado, Ele vem me buscar! (2x) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espírito Santo toma minha mente Espírito Santo toma o meu coração Espírito Santo toma o meu ventre, vem sobre mim! Espírito Santo toma minha casa Espírito Santo toma minha família Espírito Santo toma os meus filhos, vem sobre mim! Eu sou o que a bíblia diz que eu sou Eu tenho o que a bíblia diz que eu tenho Eu vou onde a bíblia diz que eu vou, vem sobre mim! Espírito Santo toma minha mente Espírito Santo toma o meu coração Espírito Santo toma o meu ventre, vem sobre mim! Espírito Santo toma minha casa Espírito Santo toma minha família Espírito Santo toma os meus filhos, vem sobre mim! Eu sou o que a bíblia diz que eu sou Eu tenho o que a bíblia diz que eu tenho Eu vou onde a bíblia diz que eu vou, vem sobre mim!     </t>
+  </si>
+  <si>
+    <t>Você pode ter a casa repleta de amigos, paredes e pisos cobertos de bens, Ter um carro do último tipo e andar conforme der na cabeça Ou pode até ser um cara que vive apertado até mesmo dentro de um lotação Curtindo assim mesmo o fim de semana a andar conforme der na cabeça Mas sempre será como folha no vento esperando o momento de cair Você pode ter tudo aquilo que sonhar mas nunca terá a paz que existe lá dentro que não se encontra pra poder comprar Porque essa paz só tem a pessoa que se encontra com Cristo _x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao que É digno de receber a glória Ao que É digno de receber louvor [2x] Levantemos nossas mãos e adoremos A Jesus, Cordeiro de glória! Exaltemos Sua Incomparável Majestade, Ao que vive pra sempre, Ao Grande “Eu Sou”, a Jesus! Ao que É digno de receber a glória Ao que É digno de receber louvor [2x] Levantemos nossas mãos e adoremos A Jesus, Cordeiro de glória! Exaltemos Sua Incomparável Majestade, Ao que vive pra sempre, Ao Grande “Eu Sou”, a Jesus!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao Único que é Digno de receber A honra e a glória, a força e o poder Ao Rei Eterno, Imortal, Invisível, mas Real! A Ele ministramos o louvor! [2x] Coroamos a Ti ó Rei Jesus! Coroamos a Ti ó Rei Jesus! Adoramos o Teu nome Nos rendemos a Teus pés! Consagramos todo nosso ser a Ti... [2x]       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bom estarmos aqui louvando a Deus Podendo exaltar Seu Santo nome! [2x] Tempo para isso, tempo para louvarmos a Deus Num só amor, Num só Espírito! [2x] Deus, venha nos abençoar e que esta união nunca falte para nós! [2x] Bom estarmos aqui louvando a Deus Podendo exaltar Seu Santo nome! [2x] Tempo para isso, tempo para louvarmos a Deus Num só amor, Num só Espírito! [2x] Deus, venha nos abençoar e que esta união nunca falte para nós! [2x]    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descerá sobre ti o Espírito Santo... E o poder do Altíssimo te envolverá! [2x] Tua alma viverá! Teu espírito renovará E no teu corpo tudo novo se fará! [2x] E chorarás, e saltarás de alegria! Vem Espírito Santo me guiar... Vem Espírito Santo restaurar... Vem Espírito Santo visitar... Vento do Espírito! Vento do Espírito! Sopra neste lugar E enche os nossos corações! Tua alma viverá! Teu espírito renovará E no teu corpo tudo novo se fará! [2x] E chorarás, e saltarás de alegria! Vem Espírito Santo me guiar... Vem Espírito Santo restaurar... Vem Espírito Santo visitar... Vento do Espírito! Vento do Espírito! Sopra neste lugar E enche os nossos corações! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deus está aqui, Aleluia! Tão certo como o ar que eu respiro! Tão certo como o amanhã que se levanta! Tão certo como eu te falo e podes me ouvir! [2x] Ao que está assentado no trono e ao Cordeiro... Seja o louvor! E a honra! E a glória! E o domínio pelos séculos dos séculos, amém! [2x] Deus está aqui, Aleluia! Tão certo como o ar que eu respiro! Tão certo como o amanhã que se levanta! Tão certo como eu te falo e podes me ouvir! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em Espírito, em verdade Te adoramos, Te adoramos, [2x] Rei dos reis e Senhor! Te entregamos nosso viver! [2x] Pra Te adorar ó Rei dos reis! Foi que eu nasci ó Rei Jesus! Meu prazer é Te louvar! Meu prazer é estar nos átrios do Senhor! Meu prazer é viver na casa de Deus Onde flui o amor! Vamos adorar a Deus! Vamos adorar a Deus! Vamos invocar Seu Nome! Vamos adorar a Deus! [2x] Ele veio em minha vida em um dia especial! Trocou meu coração por um novo coração! E essa é a razão porque eu digo que... Vamos adorar a Deus! (3x)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu Te louvarei Senhor, De todo o meu coração! [2x] Na presença dos deuses A Ti cantarei louvores! [2x] Eu Te louvarei Senhor, De todo o meu coração! [2x] Na presença dos deuses A Ti cantarei louvores! [2x]      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus em Tua presença reunimo-nos aqui Contemplamos Tua face e rendemo-nos a Ti Pois um dia a Tua morte trouxe vida a todos nós E nos deu completo acesso ao coração do Pai! O véu que separava já não separa mais! A luz que outrora apagada Agora brilha e cada dia brilha mais! Só pra Te adorar e fazer Teu nome grande! E Te dar o louvor que é devido Estamos nós aqui! Jesus em Tua presença reunimo-nos aqui Contemplamos Tua face e rendemo-nos a Ti Pois um dia a Tua morte trouxe vida a todos nós E nos deu completo acesso ao coração do Pai! O véu que separava já não separa mais! A luz que outrora apagada Agora brilha e cada dia brilha mais! Só pra Te adorar e fazer Teu nome grande! E Te dar o louvor que é devido Estamos nós aqui!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quão formoso És, Rei do Universo! Tua glória enche a terra e enche os céus! Tua glória enche a terra! Tua glória enche os céus! Tua glória enche minha vida, Senhor! Maravilhoso é estar em Tua presença! Maravilhoso é poder Te adorar! Maravilhoso é tocar em Tuas vestes! Maravilhoso é Te contemplar, Senhor! [2x]      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minh’alma engrandece ao Senhor, Meu espírito se alegra em Deus, meu Salvador! Pois com poder tem feito grandes coisas! E com misericórdia demonstrar o amor! Santo! Santo! Santo és Senhor! Santo! Santo! Santo és Senhor! Minh’alma engrandece ao Senhor, Meu espírito se alegra em Deus, meu Salvador! Pois com poder tem feito grandes coisas! E com misericórdia demonstrar o amor! Santo! Santo! Santo és Senhor! Santo! Santo! Santo és Senhor! Tem enchido nossas lâmpadas com o óleo do Espírito! Tem feito sua vide florescer! [2x] Santo! Santo! Santo és Senhor! Santo! Santo! Santo és Senhor!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quanto tempo esperei! Chegou a minha vez! Sei que hoje é o meu dia Jesus está aqui! [2x] Move as águas Senhor! Move as águas... Vou mergulhar, Vou restaurar a minha vida! Move as águas Senhor! Move as águas... Vou mergulhar, Me libertar, sim, move as águas! Quanto tempo esperei! Chegou a minha vez! Sei que hoje é o meu dia Jesus está aqui! [2x] Move as águas Senhor! Move as águas... Vou mergulhar, Vou restaurar a minha vida! Move as águas Senhor! Move as águas... Vou mergulhar, Me libertar, sim, move as águas! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Espírito de Deus está aqui... Operando em nossos corações Trazendo Sua vida e poder! Ministrando Sua graça e amor! Os feridos de alma são curados! Os cativos e oprimidos livres são! Os enfermos e doentes são sarados Pois o Espírito de Deus está aqui! O Espírito de Deus está aqui! Pai, eu quero contemplar Tua glória e majestade! Pai, eu quero Te adorar Em Espírito e em verdade! Não apenas no átrio Ou no santo lugar Eu quero Te entronizar Entre os querubins! Meninas: Oh! Leva-me à sala do trono Pelo novo e vivo caminho Todos: Pelo sangue de Jesus, Eterno Sumo Sacerdote! Oh! Leva-me à sala do trono Pra Te adorar, Senhor! Oh! Leva-me à sala do trono Pra Te adorar, Senhor! (3x) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renova-me Senhor Jesus... Já não quero ser igual! Renova-me Senhor Jesus... Põe em mim Teu coração! Porque tudo o que há dentro de mim Necessita ser mudado Senhor! Porque tudo o que há dentro do meu coração Necessita mais de Ti Renova-me Senhor Jesus... Já não quero ser igual! Renova-me Senhor Jesus... Põe em mim Teu coração! Porque tudo o que há dentro de mim Necessita ser mudado Senhor! Porque tudo o que há dentro do meu coração Necessita mais de Ti      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Espírito enche a minha vida, Pois com Cristo eu quero brilhar! Santo Espírito enche a minha vida, Leva-me as almas a ganhar! Aleluia! Aleluia! Aleluia dou ao Cristo Rei! Aleluia! Aleluia! Aleluia dou ao Rei! Santo Espírito enche a minha vida, Pois com Cristo eu quero brilhar! Santo Espírito enche a minha vida, Leva-me as almas a ganhar! Aleluia! Aleluia! Aleluia dou ao Cristo Rei! Aleluia! Aleluia! Aleluia dou ao Rei!      </t>
+  </si>
+  <si>
+    <t>Tu És Soberano sobre a terra, Sobre os céus Tu És Senhor absoluto! Tudo que existe e acontece Tu o sabes muito bem! Tu És Tremendo! [2x] E apesar dessa glória que tens, Tu Te importas comigo também! E esse amor tão grande, eleva-me, amarra-me a Ti! Tu És Tremendo! Tu És Soberano sobre a terra, Sobre os céus Tu És Senhor absoluto! Tudo que existe e acontece Tu o sabes muito bem! Tu És Tremendo! E apesar dessa glória que tens, Tu Te importas comigo também! E esse amor tão grande, eleva-me, amarra-me a Ti! Tu És Tremendo! E apesar dessa glória que tens, Tu Te importas comigo também! E esse amor tão grande, eleva-me, amarra-me a Ti! Homens: Tu És Soberano sobre a terra Mulheres: Tu És Tremendo! Todos: Tu És Soberano sobre a terra Tu És Tremendo! _x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Bíblia é um livro especial, com ela aprendo mais sobre Jesus Ele é meu grande amigo, eu quero conhecer mais! Vou ler a Bíblia todo dia mais e mais! Vou entrar no meu quarto, fechar minha porta, Vamos ficar juntinhos, só eu e o Senhor! Vou pegar minha Bíblia, vou ler com carinho Sei que Deus vai falar comigo! A Bíblia é o pão que alimenta a fome que está em meu coração É a palavra de Jesus que me cura e fortalece! Vou ler a Bíblia todo dia mais e mais! Vou entrar no meu quarto, fechar minha porta, Vamos ficar juntinhos, só eu e o Senhor! Vou pegar minha Bíblia, vou ler com carinho, Sei que Deus vai falar comigo! [2x] Sabe, gente? A Bíblia é um livro muito especial! Nela Deus colocou uma coleção de livros que nos ensinam tudo o que precisamos saber sobre quem Ele é e sobre a vida que Ele tem para nós! Por isso, é importante nós conhecermos todos os livros da Bíblia, e nesta hora vamos cantar juntos quais são estes livros: Gênesis, Êxodo, Levítico, Números, Deuteronômio, Josué, Juízes, Rute, Samuel, Samuel, Reis, Reis e Crônicas, Crônicas, Esdras, Neemias, Ester, Jó, Salmos, Provérbios, Eclesiastes, Cantares, Isaías, Jeremias e Lamentações, Ezequiel e Daniel, Oseias, Joel, Amós, Obadias, Jonas, Miqueias, Naum, Habacuque, Sofonias, Ageu, Zacarias, Malaquias, Os 39 livros então do Velho Testamento aqui estão! Mateus, Marcos, Lucas e João, Atos, Romanos, Coríntios, Coríntios, Gálatas, Efésios, Filipenses, Colossenses, Tessalonicenses, Tessalonicenses, Timóteo, Timóteo, Tito, Filemon, Hebreus, Tiago, Pedro, Pedro, João, João, João, Judas e Apocalipse de João! Os 27 livros então do Novo Testamento aqui estão! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Deus dai louvor com todo ser, com todo corpo a Cristo dai louvor Use as mãos e os pés, a cabeça e a voz, com seu corpo dai louvor Com a mão... A Deus dai louvor com todo ser, com todo corpo a Cristo dai louvor Use as mãos e os pés, a cabeça e a voz, com seu corpo dai louvor Com a mão, outra mão... A Deus dai louvor com todo ser, com todo corpo a Cristo dai louvor Use as mãos e os pés, a cabeça e a voz, com seu corpo dai louvor Com a mão, outra mão, com o pé... A Deus dai louvor com todo ser, com todo corpo a Cristo dai louvor Use as mãos e os pés, a cabeça e a voz, com seu corpo dai louvor Com a mão, outra mão, com o pé, outro pé... A Deus dai louvor com todo ser, com todo corpo a Cristo dai louvor Use as mãos e os pés, a cabeça e a voz, com seu corpo dai louvor Com a mão, outra mão, com o pé, outro pé, com a cabeça... A Deus dai louvor com todo ser, com todo corpo a Cristo dai louvor Use as mãos e os pés, a cabeça e a voz, com seu corpo dai louvor Com a mão, outra mão, com o pé, outro pé, com a cabeça... e a voz! Dai louvor! Fim   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A vida com Jesus é doce, doce, doce como o mel! Paz, amor e alegria, um pedacinho do céu! [2x] Te dou um sorriso, gostinho gostoso, te dou um abraço, amigo carinhoso! A amizade é um tesouro que vale mais, muito mais do que ouro! A vida com Jesus é doce, doce, doce como o mel! Paz, amor e alegria, um pedacinho do céu! [2x] Digo não à briga, vivo em união, eu sou da paz, te estendo a minha mão! Cheio de amor está meu coração! Vivo feliz e pra você eu canto está canção A vida com Jesus é doce, doce, doce como o mel! Paz, amor e alegria, um pedacinho do céu! [2x] Paz, amor e alegria, um pedacinho do céu!      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recebi no meu e-mail um recadinho legal, Dizendo que Jesus é o amigo especial E no final o recadinho diz, sabe o que? Que Ele quer me fazer feliz! Adicionei Jesus na minha vida, adicionei Jesus no meu coração Agora estou legal, Ele é meu amigo especial! [2x] A tristeza... (Ele deletou!) A alegria... (Ele adicionou!) E o mal... Ele apagou! [2x] E no final o recadinho diz, sabe o que? Que Ele quer me fazer feliz! Adicionei Jesus na minha vidam adicionei Jesus no meu coração Agora estou legal, Ele é meu amigo especial! [4x] A tristeza... (Ele deletou!) A alegria...(Ele adicionou!) E o mal... Ele apagou! [2x]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se fosse eu um elefante com a minha tromba louvaria ao Senhor Se fosse eu um urso polar com a minha barriga eu iria louvar Se fosse um peixinho lá no fundo do mar, louvaria ao Senhor sem parar de nadar Mas nem elefante, nem urso, nem peixinho eu sou Mas eu sou o que sou, tenho um coração, Um grande sorriso e uma linda canção Se Deus me fez assim, assim vou louvar Se fosse eu um elefante com a minha tromba louvaria ao Senhor Se fosse eu um urso polar com a minha barriga eu iria louvar Se fosse um peixinho lá no fundo do mar, louvaria ao Senhor sem parar de nadar Mas nem elefante, nem urso, nem peixinho eu sou Mas eu sou o que sou, tenho um coração, Um grande sorriso e uma linda canção Se Deus me fez assim, assim vou louvar Se fosse eu um elefante com a minha tromba louvaria ao Senhor Se fosse eu um urso polar com a minha barriga eu iria louvar Se fosse um peixinho lá no fundo do mar, louvaria ao Senhor sem parar de nadar Mas nem elefante, nem urso, nem peixinho eu sou Mas eu sou o que sou, tenho um coração, Um grande sorriso e uma linda canção Se Deus me fez assim, assim vou louvar... [4x]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celebrai com júbilo ao Senhor todos os moradores da terra Servi ao Senhor com alegria apresentai-vos a Ele com cânticos! Sabei que o Senhor é Deus e eterna a Sua bondade E sua fidelidade de geração em geração! Aleluia, glória e aleluia! (8x) Celebrai com júbilo ao Senhor todos os moradores da terra Servi ao Senhor com alegria apresentai-vos a Ele com cânticos! Sabei que o Senhor é Deus e eterna a Sua bondade E sua fidelidade de geração em geração! Aleluia, glória e aleluia! (8x) [2x]        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conectados, conectados, conectados com a luz! Conectados, conectados, conectados com o Senhor Jesus! [2x] Eu vou me conectar com o Senhor, eu vou Vou adicionar o Espírito Santo em meu coração Eu quero proteger o meu “HD” Não vou perder a conexão com o Senhor não vou, não vou vacilar Jesus Cristo em minha rede social, Ele é o provedor titular Adicione Jesus.com (adicione) Adicione Jesus.com Não é no Facebook, Twitter ou Instagram, Adicione Jesus em seu coração! Adicione Jesus.com Adicione Jesus.com Não é no Facebook, Twitter ou Instagram Adicione Jesus em seu coração Dê um “control + alt + del” no mal pra formatar Ponha a bíblia em seu drive pra instalar Com Jesus em sua vida tudo vai mudar Conectados com Deus pra sempre vai estar! Conectados, conectados, conectados com a luz! Conectados, conectados, conectados com o Senhor Jesus! [2x] Dê um “control + alt + del” no mal pra formatar Ponha a bíblia em seu drive pra instalar Com Jesus em sua vida tudo vai mudar Conectados com Deus pra sempre vai estar! Conectados, conectados, conectados com a luz! Conectados, conectados, conectados com o Senhor Jesus! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ele sabe tudo que eu preciso, tem nas mãos a guarda do meu coração Se estou feliz Ele sorri comigo! Se estou confuso Ele segura a minha mão! O melhor amigo que alguém pode querer, sem Ele eu sei que nada posso fazer! Nem todo ouro poderia comprar a segurança que meu Deus me dá! Deus cuida de mim, eu posso confiar, vai ser sempre assim não pode mudar! Se alguém me perguntar porque eu sou tão feliz, Posso cantar: Deus cuida de mim! Deus cuida de mim, e nada faltará, Ele é meu pastor, eu vou descansar! Tudo o que eu precisar encontro Nele sim, Posso cantar: Deus cuida de mim! Ah, eu sei vai ser sempre assim, vou cantar: Deus cuida de mim! Ah, eu sei vai ser sempre assim, vou cantar... Ele sabe tudo que eu preciso, tem nas mãos a guarda do meu coração! Se estou feliz Ele sorri comigo! Se estou confuso Ele segura a minha mão! O melhor amigo que alguém pode querer, sem Ele eu sei que nada posso fazer! Nem todo ouro poderia comprar, a segurança que meu Deus me dá! Deus cuida de mim, eu posso confiar, vai ser sempre assim não pode mudar! Se alguém me perguntar porque eu sou tão feliz, Posso cantar: Deus cuida de mim! Deus cuida de mim, e nada faltará, Ele é meu pastor, eu vou descansar! Tudo o que eu precisar encontro Nele sim, Posso cantar: Deus cuida de mim! Ah, eu sei vai ser sempre assim, vou cantar: Deus cuida de mim! Ah, eu sei vai ser sempre assim, vou cantar... Deus cuida de mim, e nada faltará, Ele é meu pastor, eu vou descansar! Tudo o que eu precisar encontro Nele sim, Posso cantar: Deus cuida de mim! Posso cantar: Deus cuida de mim! Posso cantar: Deus cuida de mim! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A vida é muito recheada de coisas legais! É picolé, bombom, biscoito, bala e muito mais! Mas isso nunca foi melhor que adorar a Deus, Eu sou criança mas entendo isso muito bem! Bom, bom, é muito mais que bom, é até melhor que picolé, É cantar, é pular é correr pra perto de Deus! [2x] Bom, bom, bom, bom, bom, bom, é muito mais que bom, é Bom, bom, bom, bom, bom, bom, até melhor que picolé! A vida é muito recheada de coisas legais! É picolé, bombom, biscoito, bala e muito mais! Mas isso nunca foi melhor que adorar a Deus, Eu sou criança mas entendo isso muito bem! Bom, bom, é muito mais que bom, é até melhor que picolé, É cantar, é pular é correr pra perto de Deus! [2x] Bom, bom, bom, bom, bom, bom, é muito mais que bom, é Bom, bom, bom, bom, bom, bom, até melhor que picolé! Bom, bom, é muito mais que bom, é até melhor que picolé, É cantar, é pular é correr pra perto de Deus! [2x] Bom, bom, bom, bom, bom, bom, é muito mais que bom, é Bom, bom, bom, bom, bom, bom, até melhor que picolé!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levanta! (9x) Levantou! Pula! (9x) Pulou! Dança! (9x) Dançou! Roda! (9x) Rodou! Eu quero ver uma estátua diferente uma estátua inteligente Pula! (9x) Pulou! Eu quero ver quem aqui constrói uma estátua de super herói Roda, roda, roda, roda que legal Eu quero ver agora uma estátua de animal Pula, pula, pula, pula, pula, pula Eu quero ver agora uma estátua bonita parecendo capa de revista Dança, dança, dança, dança criançada Eu quero ver agora uma estátua engraçada Pula, pula, pula, pula e sai do chão Eu quero ver uma estátua fazendo coração Dança, dança, dança, dança, dança, dança Eu quero ver agora uma estátua sorrindo Uma estátua que parece estar dormindo Acorda! (9x) Acordou! Pula! (9x) Pula, estátua! Dança! (9x) Estátua! Roda! (9x) Estátua! Mão na cabeça, mão nas orelhas, mão nas bochechas, mão no nariz, mão na barriga, mão no joelho, Estátua! Batendo o pé no chão, palma com a mão, o pé no chão, palma com a mão, Estátua! Pula, pula, pula, pula, pula, pula Eu quero ver quem é que fica sem se mexer Dança, dança, dança, pula, pula, pula, roda, roda, roda Pedi pra parar, parou! Pedi pra sentar, sentou! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, uh, oh, uh, oh... Oh, uh, oh, uh, oh... Eu li na Bíblia e vou contar pra você que com Jesus você pode vencer! Você fica valente, fica obediente, Se vem o mal, você vence porque... Não tem medo de cara feia não! Deus te dá forças pra matar leão! Se Davi venceu até gigante, mesmo pequenininho você pode ser... Forte e corajoso como Sansão! Amigo de Deus como Abraão! Muito inteligente como Salomão! Você pode ser o que quiser, use a sua fé! [2x] Oh, uh, oh, uh, oh... Oh, uh, oh, uh, oh... Eu li na Bíblia e vou contar pra você que com Jesus você pode vencer! Você fica valente, fica obediente, Se vem o mal, você vence porque... Não tem medo de cara feia não! Deus te dá forças pra matar leão! Se Davi venceu até gigante, mesmo pequenininho você pode ser... Forte e corajoso como Sansão! Amigo de Deus como Abraão! Muito inteligente como Salomão! Você pode ser o que quiser, use a sua fé! [2x] Lute, lute, lute como Davi lutou! Dance, dance, dance como Miriã dançou! Grite, grite, grite como Josué gritou e derrube as muralhas na força do Senhor! [2x] Forte e corajoso como Sansão! Amigo de Deus como Abraão! Muito inteligente como Salomão! Você pode ser o que quiser, use a sua fé! [2x] Lute, lute, lute como Davi lutou! Dance, dance, dance como Miriã dançou! Grite, grite, grite como Josué gritou e derrube as muralhas na força do Senhor! [2x] Forte e corajoso como Sansão! Amigo de Deus como Abraão! Muito inteligente como Salomão! Você pode ser o que quiser, use a sua fé! [2x] Você pode ser o que quiser, use a sua fé!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu sei que nunca me deixou, eu sei que sempre esteve aqui comigo Livrando o meu coração do que não é Seu! E eu sei que, todas as noites, Tu vens, pra acalmar a minha mente E pondo no meu coração que eu sou Teu! Tchu-ru-ru... (2x) Hey Pai, olhando pra Você me lembro bem Das noites que passei e que lutei aqui Pensando estar sozinho, sem ninguém por perto Eu, mesmo tão sozinho, não desanimei Pois sabia que cuidarias de mim mesmo sem eu merecer, me daria Sua mão! Tchu-ru-ru... Eu sei que nunca me deixou, eu sei que sempre esteve aqui comigo Livrando o meu coração do que não é Seu! E eu sei que, todas as noites, Tu vens, pra acalmar a minha mente E pondo no meu coração que eu sou Teu! Tchu-ru-ru... (2x)      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelo Senhor marchamos sim, o Seu exército poderoso é! Sua glória será vista em toda a terra! Vamos cantar o canto da vitória, Glória a Deus! Vencemos a batalha Toda arma contra nós perecerá! O nosso General é Cristo, seguimos os Seus passos Nenhum inimigo nos resistirá! [2x] Os guerreiros se preparam para a grande luta É Jesus o Capitão, que avante os levará. A milícia dos remidos marcha impoluta; Certa que a vitória alcançará! Eu quero estar com Cristo, onde a luta se travar, No lance imprevisto Na frente m’encontrar. Até que O possa ver na glória, Se alegrando da vitória, Onde Deus vai me coroar! Jesus! Jesus! Jesus! Jesus! Firme! Firme! Firme nas promessas de Jesus, meu Mestre Firme! Firme! Sim, firme nas promessas de Jesus. Firme! Firme! Firme nas promessas de Jesus, meu Mestre Firme! Firme... Sim, firme nas promessas de Jesus. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O meu Herói não é um herói de brinquedo O meu Herói não é um herói de papel O meu Herói não é um desenho animado igual aquele que assisti na TV O meu herói não usa máscara negra nem espinafre como força e poder! O meu Herói não se disfarça em nada nem se esconde atrás de uma TV! O meu Herói é Todo-Poderoso! Ele é mais forte que o Super Man É só orar que Ele aparece Vem rapidinho pra me socorrer! Jesus é meu Herói! (3x) E vai me proteger! Jesus é meu Herói! (3x) Com Ele eu vou vencer! O meu Herói é Todo-Poderoso Ele é o filho do Grande Deus! Não usa martelo, mas Sua palavra É uma espada com muito poder! Jesus é meu Herói! (3x) E vai me proteger! Jesus é meu Herói! (3x) Com Ele eu vou vencer! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melhor que chocolate, melhor do que bombom, Melhor que pirulito, o céu é muito bom! [2x] Um lugar com tesouros e ruas de ouro, É lá que um dia eu vou morar! Um lago limpinho, feito de cristal! Lá é muito lindo, lá é tão legal! Melhor que chocolate, melhor do que bombom, Melhor que pirulito, o céu é muito bom! [2x] Pra sempre brincando, pra sempre cantando! É lá que um dia eu vou morar! [2x] Melhor que chocolate, melhor do que bombom, Melhor que pirulito, o céu é muito bom! [2x] Um lugar com tesouros e ruas de ouro, É lá que um dia eu vou morar! Um lago limpinho, feito de cristal! Lá é muito lindo, lá é tão legal! Melhor que chocolate, melhor do que bombom, Melhor que pirulito, o céu é muito bom! [2x]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não existe homem morcego Não existe homem de ferro É tudo história de quadrinhos Os verdadeiros estão na Bíblia O Batman não é de nada O Super Man não tem poder para salvar Isso é tudo conto de fadas Sobre grandes heróis eu vou contar Davi era um menino muito dedicado a Deus Ele não tinha lança nem espada em suas mãos Ele rasgava o urso e o leão só num instante Usava uma funda e uma pedra pra matar gigante Abraão era valente tinha fé em Deus vencia Josué era valente a batalha não temia Mais o verdadeiro morreu numa cruz e ressuscitou Seu nome é Jesus! O Autor da fé, Pai da Eternidade, Príncipe da paz! Rege as nações! Ele tem poder para curar libertar E te dar a salvação! O Seu sangue purifica o homem do pecado! O enfermo toca em Suas vestes e sai curado! Pra nos dar a salvação morreu numa cruz! O herói é Jesus!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Páscoa! Páscoa! Páscoa! Páscoa, Páscoa! P, A, S, C, O, A! (4x) “P” de passagem, “A” de amor, “S” de Senhor e Salvador, “C” de Cristo, o caminho para o céu, “O” de orientador, “A” de alegria, amizade e amor! Quando Jesus Cristo a Sua vida entregou, A minha Páscoa bem mais doce se tornou! Morreu na cruz, foi assim que me salvou! Mas no terceiro dia ressuscitou! Páscoa, Páscoa! P, A, S, C, O, A! (2x) “P” de passagem, “A” de amor, ,“S” de Senhor e Salvador, “C” de Cristo, o caminho para o céu, “O” de orientador, “A” de alegria, amizade e amor! Quando Jesus Cristo a Sua vida entregou, A minha Páscoa bem mais doce se tornou! Morreu na cruz, foi assim que me salvou! Mas no terceiro dia ressuscitou! Páscoa, Páscoa! P, A, S, C, O, A! (4x) Páscoa!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu olho para a cruz e para a cruz eu vou Do Seu sofrer participar, da Sua obra vou cantar! Meu Salvador na cruz mostrou o amor do Pai, o justo Deus! Pela cruz me chamou! Gentilmente me atraiu e eu... Sem palavras, me aproximo quebrantado por Seu amor! Oh, oh, oh, oh... Oh, oh, oh, oh... Oh, oh, oh, oh... Imerecida vida, de graça recebi Por Sua cruz da morte me livrou Trouxe-me a vida, eu estava condenado Mas agora pela cruz eu fui reconciliado! Pela cruz me chamou! Gentilmente me atraiu e eu... Sem palavras, me aproximo quebrantado por Seu amor! [2x] Impressionante é o Seu amor! Me redimiu e me mostrou o quanto é fiel! Pela cruz me chamou! Gentilmente me atraiu e eu... Sem palavras, me aproximo quebrantado por Seu amor! Oh, oh, oh, oh... Oh, oh, oh, oh... Oh, oh, oh, oh... Oh... Oh...     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ressuscitou! Ressuscitou! Ressuscitou! Aleluia! (2x) Ó morte, onde está ó morte, a sua vitória? Jesus Ressuscitou! (2x) Ressuscitou! Ressuscitou! Ressuscitou! Aleluia! (2x) Venceu a morte! Venceu o mal! Venceu as trevas! Jesus ressuscitou! (2x) Ressuscitou! Ressuscitou! Ressuscitou! Aleluia! (2x)         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A árvore com o vento balança e se sacode Se curva como pode para adorar a Deus! [2x] Erguei as mãos pros céus assim você e eu! E tudo o que tem fôlego vai dando glória a Deus! [2x] Até o passarinho saindo o ovinho Já abre o seu biquinho e vai dando glória a Deus! [2x] Erguei as mãos pros céus assim você e eu! E tudo o que tem fôlego vai dando glória a Deus! [2x] Até dona girafa tão longe aqui do chão Vai dando glória a Deus com aquele gargantão [2x] Erguei as mãos pros céus assim você e eu! E tudo o que tem fôlego vai dando glória a Deus! [2x] Chuê, chuê, chuê Faz o rio a correr Chuá, chuá, chuá Cantando pra Te louvar [2x] Erguei as mãos pros céus assim você e eu! E tudo o que tem fôlego vai dando glória a Deus! [2x]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O telefone do céu é a oração O telefone do céu é joelho no chão Disque uma vez, disque duas ou três! Se não atender, se não atender disque outra vez!          </t>
+  </si>
+  <si>
+    <t>Nós vamos sair do Egito! Vamos sair do Egito! Nós vamos sair do Egito, cantando o Senhor é Deus! [2x] Só o Senhor é Deus! Só o Senhor é Deus! Nós vamos sair do Egito, cantando o Senhor é Deus! [2x] Faraó está vindo atrás, mas Deus vai abrir o mar! (2x) Nós vamos sair do Egito! Vamos sair do Egito! Nós vamos sair do Egito, cantando o Senhor é Deus! Miriam tocou o pandeiro, e eu também vou tocar (2x) Nós vamos sair do Egito! Vamos sair do Egito! Nós vamos sair do Egito, cantando o Senhor é Deus! Só o Senhor é Deus! Só o Senhor é Deus! Nós vamos sair do Egito, cantando o Senhor é Deus! [2x] Os velhos e as crianças vão sair do Egito! Os jovens e as crianças vão sair do Egito! A igreja e as crianças, vão sair do Egito! Nós vamos sair do Egito! Vamos sair do Egito! Nós vamos sair do Egito, cantando o Senhor é Deus! Só o Senhor é Deus! Só o Senhor é Deus! Nós vamos sair do Egito, cantando o Senhor é Deus! [2x] Nós vamos sair do Egito! Vamos sair do Egito! Nós vamos sair do Egito, cantando o Senhor é Deus! [2x] Só o Senhor é Deus! Só o Senhor é Deus! Nós vamos sair do Egito, cantando o Senhor é Deus! [2x]_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meninas: Que o Senhor te abençoe E faça brilhar Seu rosto em ti! Que conceda Sua graça e te dê a paz! Amém! Amém! Amém! (2x) Todos: Que o Senhor te abençoe E faça brilhar Seu rosto em ti! Que conceda Sua graça e te dê a paz! Amém! Amém! Amém! (2x) Homens: Que a bênção se derrame até mil gerações! Tua família e teus filhos e os filhos dos teus filhos! Meninas: Que a bênção se derrame até mil gerações! Tua família e teus filhos e os filhos dos teus filhos! Todos: Que a bênção se derrame até mil gerações! Tua família e teus filhos e os filhos dos teus filhos! [2x] Sua presença te acompanhe por detrás e por diante Do teu lado e em ti É contigo! É por ti! Sua presença te acompanhe por detrás e por diante Do teu lado e em ti É contigo! É por ti! E de dia e de noite Tua entrada e saída Em teu riso, Em teu choro É contigo! É por ti! É contigo! É por ti! É contigo! É por ti! É contigo! É por ti! É contigo! É por ti! Amém! Amém! Amém! Amém! Amém! Amém! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você é bem-vindo aqui! A casa é Sua, pode entrar! Me esvazio de mim! (2x) Sopra o Teu vento aqui! Toma o Teu trono, vem reinar... Nós queremos Te ouvir! (2x) Essa casa é Sua casa! Nós deixamos ela pra Você, Jesus! [4x] Apareça! Que o Teu nome cresça! Enche este lugar! Enche este lugar! Apareça! Que o Teu nome cresça! Vem me incendiar! Vem me incendiar! [2x] Essa casa é Sua casa! Nós deixamos ela pra Você, Jesus! [4x] Apareça! Que o Teu nome cresça! Enche este lugar! Enche este lugar! Apareça! Que o Teu nome cresça! Vem me incendiar! Vem me incendiar! [2x] Essa casa é Sua casa! Nós deixamos ela pra Você, Jesus! [4x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quero dar o melhor de mim! Quero oferecer sacrifício de louvor! Quero ser bem mais do que já sou, Um adorador por excelência me tornar! Eu não vou me importar com o que vai acontecer Eu só quero Te exaltar! Tu És a razão do meu viver! Eu não posso me calar! Tenho adoração em meu DNA! Um adorador por excelência... Um adorador por excelência... Um adorador por excelência... Quero ser! Quero dar o melhor de mim! Quero oferecer sacrifício de louvor! Quero ser bem mais do que já sou, Um adorador por excelência me tornar! Eu não vou me importar com o que vai acontecer Eu só quero Te exaltar! Tu És a razão do meu viver! Eu não posso me calar! Tenho adoração em meu DNA! Um adorador por excelência... Um adorador por excelência... Um adorador por excelência... Quero ser! Um adorador por excelência... Um adorador por excelência... Um adorador por excelência... Quero ser!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tu és a minha porção Tu és a minha herança Tu és o meu socorro Nos dias de tribulação! Mesmo que meus pais me deixem, Mesmo que amigos me traiam... Eu sei que em Seus braços eu encontro Salvação! Ainda que a figueira não floresça, Ainda que a videira não dê o seu fruto... Mesmo que não haja alimento nos campos eu me alegrarei em Ti! Ainda que a figueira não floresça, Ainda que a videira não dê o seu fruto... Mesmo que não haja alimento nos campos eu me alegrarei em Ti! Tu és a minha porção Tu és a minha herança Tu és o meu socorro Nos dias de tribulação! Mesmo que meus pais me deixem, Mesmo que amigos me traiam... Eu sei que em Seus braços eu encontro Salvação! Ainda que a figueira não floresça, Ainda que a videira não dê o seu fruto... Mesmo que não haja alimento nos campos eu me alegrarei em Ti! Ainda que a figueira não floresça, Ainda que a videira não dê o seu fruto... Mesmo que não haja alimento nos campos eu me alegrarei em Ti!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Além do rio azul As ruas são de ouro e de cristais Ali tudo é vida! Ali tudo é paz! Morte e choro... Nunca mais! Tristeza e dor... Nunca mais! Verei o grande rio da vida Claro como o cristal Verei a face do meu Mestre querido! Não haverá mais noite ali! Não haverá nenhum clamor! Verei os olhos de Jesus E tocarei Seu corpo enfim! [2x] As nações andarão na Sua luz E as portas jamais se fecharão! A cidade é de ouro puro! De jaspe é seu muro! Além do rio azul! Morte e choro, tristeza e dor... Nunca mais! Nunca mais! [4x] Não haverá mais noite ali! Não haverá nenhum clamor! Verei os olhos de Jesus E tocarei Seu corpo enfim! Não haverá mais noite ali! Não haverá nenhum clamor! Verei os olhos de Jesus E tocarei Seu corpo enfim! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não há outro como Tu... Soberano e Fiel! Não há outro como Tu! Reina sobre a terra e céus! És o Alfa e Ômega, Início e Fim! És o ar que eu respiro, tudo pra mim! Tu És Jesus! Tu És Jesus! És o Alfa e Ômega, Início e Fim! És o ar que eu respiro, tudo pra mim! Tu És Jesus! Tu És Jesus! Alfa e Ômega, Início e Fim! Tudo pra mim... Tudo pra mim... [4x] És o Alfa e Ômega, Início e Fim! És o ar que eu respiro Tudo pra mim! Tu És Jesus! Tu És Jesus! És o Alfa e Ômega, Início e Fim! És o ar que eu respiro Tudo pra mim! Tu És Jesus! Tu És Jesus! És o Alfa e Ômega, Início e Fim! És o ar que eu respiro Tudo pra mim! Tu És Jesus! Tu És Jesus! És o Alfa e Ômega, Início e Fim! És o ar que eu respiro Tudo pra mim! Tu És Jesus! Tu És Jesus! Tu És Jesus! Tu És Jesus! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vem me visitar hoje aqui Quero conhecer mais de Ti! Espírito vem... Espírito vem... Espírito Santo! (2x) Eu quero viver algo novo! Faz meu coração arder de novo! Fazendo todo medo desaparecer Trazendo sobre mim um novo amanhecer Eu quero viver algo novo! Vem me visitar hoje aqui Quero conhecer mais de Ti! Espírito vem... Espírito vem... Espírito Santo! (4x) Eu quero viver algo novo! Faz meu coração arder de novo! Fazendo todo medo desaparecer Trazendo sobre mim um novo amanhecer Eu quero viver algo novo! Eu quero viver algo novo! Faz meu coração arder de novo! Fazendo todo medo desaparecer Trazendo sobre mim um novo amanhecer Eu quero viver algo novo! Santo Espírito desce como fogo! Santo Espírito desce como fogo! Incendeia! Incendeia! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquele que está feliz diga amém: Amém! Aquele que está feliz grite aleluia: Aleluia! Aquele que está feliz bata palma assim... Aquele que está feliz cante comigo assim, Oh... Oh... Oh! Com Jesus no coração a gente é feliz, é feliz... Com Jesus na condução tudo é muito bom! Jesus é alegria, euforia, companhia todo dia! Jesus é o Motivo da nossa alegria! [2x] Aquele que está feliz diga amém: Amém! Aquele que está feliz grite aleluia: Aleluia! Aquele que está feliz bata palma assim... Aquele que está feliz cante comigo assim, Oh... Oh... Oh! Com Jesus no coração a gente é feliz, é feliz... Com Jesus na condução tudo é muito bom! Jesus é alegria, euforia, companhia todo dia! Jesus é o Motivo da nossa alegria! [2x]    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nós estamos aqui tão sedentos de Ti Vem ó Deus! Vem ó Deus! Enche este lugar, meu desejo é sentir Teu poder! Teu poder! [2x] Então vem me incendiar, Meu coração é o Teu altar! Quero ouvir o som do céu, Tua glória contemplar! [2x] Nós estamos aqui tão sedentos de Ti Vem ó Deus! Vem ó Deus! Enche este lugar, meu desejo é sentir Teu poder! Teu poder! Então vem me incendiar, Meu coração é o Teu altar! Quero ouvir o som do céu, Tua glória contemplar! [2x] Te damos honra! Te damos glória! Teu é o poder pra sempre amém... [3x] Então vem me incendiar, Meu coração é o Teu altar! Quero ouvir o som do céu, Tua glória contemplar! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estás aqui movendo entre nós! Te adorarei... Te adorarei... Estás aqui mudando destinos! Te adorarei... Te adorarei... Estás aqui operando milagres! Te adorarei... Te adorarei... Estás aqui transformando nossas vidas! Te adorarei... Te adorarei... Meu Deus é... Deus de milagres, Deus de promessas, Caminho no deserto, Luz na escuridão! Meu Deus... Esse é quem Tu És! [2x] Estás aqui tocando os corações! Te adorarei... Te adorarei... Estás aqui curando multidões! Te adorarei... Te adorarei... Estás aqui restaurando os corações! Te adorarei... Te adorarei... Estás aqui transformando histórias! Te adorarei... Te adorarei... Meu Deus é... Deus de milagres, Deus de promessas, Caminho no deserto, Luz na escuridão! Meu Deus... Esse é quem Tu És! [2x] Enxuga as lágrimas, Restaura os corações! Tu És a Resposta, Jesus! [2x] Meu Deus é... Deus de milagres, Deus de promessas, Caminho no deserto, Luz na escuridão! Meu Deus... Esse é quem Tu És! [6x]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veja o amor do Pai, Mistério que não posso entender! Quão grande é o Teu amor E o quanto nos deseja! As coisas deste mundo Não são nada diante d’Ele... Pai infalível! O que se compara a Ti? Veja o Filho de Deus, O Leão e o Cordeiro dado a nós! O Verbo Se encarnou! Salvador da minha alma! Sofreu por tanto amar a humanidade, No Seu sangue há salvação! Jesus, Messias! O Justo Se entregou Não foi o fim, Ele ressuscitou! Canta minh’alma! Canta minh’alma! Que amor tão grande! (2x) [2x] Que grande amor... Veja comigo está O Espírito queimando em meu ser! Amigo e Protetor Que me leva à verdade! Traz luz pro meu perdido coração Até meu tempo aqui findar! Ó Santo Espírito Teu reino eu quero ver! Ó Santo Espírito Faz em mim o Teu querer! Canta minh’alma! Canta minh’alma! Que amor tão grande! (2x) [2x] Que grande amor... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se o mundo tenta me parar Eu não vou desanimar, Eu confiarei em Ti! E se no deserto eu passar, Eu não vou desanimar, Eu confiarei em Ti! Minha fé está firmada no meu Salvador! Meu castelo forte Ele É! É meu refúgio e segurança n’Ele firme estou! No Senhor não vou me abalar! Confiarei em Ti! Se o Senhor é por mim, quem será contra mim? Confiarei em Ti! Se o Senhor é por mim, quem será contra mim? Confiarei! Não temerei! Oh, oh, oh... ei, ei, ei, ei... (4x) Confiarei em Ti! Se o Senhor é por mim, quem será contra mim? Confiarei em Ti! Se o Senhor é por mim, quem será contra mim? Confiarei! Não temerei!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se Tu olhares Senhor pra dentro de mim... Nada encontrarás de bom! Mas um desejo eu tenho de ser transformado! Preciso tanto do Teu perdão! Dá-me um novo coração! Dá-me um coração igual ao Teu, meu Mestre! Dá-me um coração igual ao Teu... Coração disposto a obedecer! Cumprir todo o Teu querer! Dá-me um coração igual ao Teu... Ensina-me amar o meu irmão! A olhar com Teus olhos, perdoar com Teu perdão! Enche-me com Teu Espírito, Endireita os meus caminhos Ó Deus dá-me um novo coração! [2x] Dá-me um coração igual ao Teu, meu Mestre! Dá-me um coração igual ao Teu... Coração disposto a obedecer! Cumprir todo o Teu querer! Dá-me um coração igual ao Teu... (2x) Coração disposto a obedecer! Cumprir todo o Teu querer! Dá-me um coração igual... ao Teu!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recebi um novo coração do Pai... Coração regenerado, Coração transformado, Coração que é inspirado por Jesus! Como fruto desse novo coração... Eu declaro a paz de Cristo! Te abençoo meu irmão! Preciosa é a nossa comunhão! Somos corpo, e assim bem ajustado Totalmente ligado, unido, vivendo em amor! Uma família sem qualquer falsidade! Vivendo a verdade Expressando a glória do Senhor! Uma família vivendo o compromisso Do grande amor de Cristo! Eu preciso de ti, querido irmão... Precioso és para mim, querido irmão! Eu preciso de ti, querido irmão... Precioso és para mim, querido irmão!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me escutas quando clamo E acalma o meu pensar, Me levas pelo fogo Curando todo meu ser Confio em Ti... (2x) Creio que Tu És a cura! Creio que És tudo para mim... Creio que Tu És a vida! Creio que não há outro igual a Ti! Jesus eu preciso de Ti! Me escutas quando clamo E acalma o meu pensar, Me levas pelo fogo Curando todo meu ser Confio em Ti... (2x) Creio que Tu És a cura! Creio que És tudo para mim... Creio que Tu És a vida! Creio que não há outro igual a Ti! Jesus eu preciso de Ti! Não há outro igual a Ti! Nada é impossível para Ti, Nada é impossível... Nada é impossível para Ti, Tens o meu mundo em Tuas mãos! [2x] Creio que Tu És a cura! Creio que És tudo para mim... Creio que Tu És a vida! Creio que não há outro igual a Ti! Jesus eu preciso de Ti... Não há outro igual a Ti... Jesus eu preciso de Ti! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podia ter rejeitado, Mas não rejeitou! Então assim foi levado Ao lugar de muita dor! Crucificaram! Pregaram Suas mãos Chicotearam! Sangue caia no chão Mas Ele não Reclamou! (2x) Ele só perguntou, Em alta voz gritou: Eli, Eli, Lamá Sabactâni! Deus meu, Deus meu, Por que Desamparastes Teu Filho? [2x] E eis que o véu se rasgou! A terra tremeu! Algo acontecia Entre a terra e o céu! O véu se rasgou! E o povo assim falou: Verdadeiramente este era o Filho de Deus! Oh, oh, oh, oh! Verdadeiramente este era o Filho de Deus!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ansiedade do futuro Me consome todo dia Quem será ou o que será Do amanhã da minha vida? A noite passa, o dia chega E o sono nunca vem Pois o medo é maior Que a esperança do além! O que fazer? Resta somente uma saída Uma solução pra minha vida Correr a Ele, lançar n’Ele Toda minha ansiedade Pois o poder que emana n’Ele É tão grandioso e veraz E o que Ele pode nessa terra Não há um que seja capaz! Vou clamar.... Meu Mestre e Senhor, não me despeças daqui! Sem Teu toque hoje eu sentir Te imploro, não me deixe ir... Pois se eu Te tocar tudo vai se transformar! E o medo do futuro que aflige tanto o meu coração sairá! Quando eu Te tocar...! [2x] Hoje é o dia que o Mestre vou tocar! Sobre Jesus minha ansiedade vou lançar! Hoje é o dia que o Mestre vou tocar! Sobre Jesus minha ansiedade vou lançar! Hoje eu Te toquei! A minh’alma aliviei! E ao voltar pra minha casa A vitória certamente levarei! Pois vim ante o altar minha bênção receber! E esta semana um decreto de vitória eu terei! [2x] Hoje eu Te toquei! A minh’alma aliviei! E ao voltar pra minha casa A vitória certamente levarei! Pois vim ante o altar minha bênção receber! E esta semana um decreto de vitória... (4x) Eu terei! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apesar das feridas, Apesar das decepções Eu te chamei... (2x) Apesar do passado, Apesar das desilusões Eu te chamei... (2x) Deixa Eu te usar para curar! Deixa Eu te usar para salvar! Enquanto Eu te uso Eu cuido de tudo Que te faz chorar! [2x] Eu não te dei espírito de temor, mas de ousadia! Onde Eu te mandar tu irás, Onde Eu te colocar, tu brilharás! E Eu te encherei (3x) Vai, vai, vai em paz! Deixa Eu te usar para curar! Deixa Eu te usar para salvar! Enquanto Eu te uso Eu cuido de tudo Que te faz chorar! [2x]    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tá se preocupando à toa, O diagnóstico do homem não significa nada! Tenha calma! Sou Eu quem dou a vida! Sou Eu quem tiro a vida! E determino o tempo pra curar as feridas! Sou Eu quem faço! Quem é o homem pra por um ponto final onde Eu não coloquei? Não entre em desespero, Enxugue as suas lágrimas! É tudo passageiro, você precisa confiar e descansar! Descansa! Quem te prometeu garante! Descansa! Esse mal não é pra morte! Descansa! Sou Eu quem estou tocando agora Já tenho a tua vitória, Só precisas descansar! Eu Sou Deus antes da medicina Antes de tudo Eu já existia! Eu Sou dono das noites de choro E também das manhãs de alegria! Eu Sou! Dono de tudo Eu Sou! Eu Sou! Dono de tudo Eu Sou! (...) Descansa! Quem te prometeu garante! Descansa! Esse mal não é pra morte! Descansa! Sou Eu quem estou tocando agora Já tenho a tua vitória, Só precisas descansar!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobre-me com Tuas mãos! Com poder vem me esconder, Senhor! Se o trovão e o mar se erguendo vêm sobre a tempestade eu voarei! Sobre as águas Tu também És Rei! Descansarei, pois sei que És Deus! Se o trovão e o mar se erguendo vêm sobre a tempestade eu voarei! Sobre as águas Tu também És Rei! Descansarei, pois sei que És Deus! Minh’alma está segura em Ti! Sabes bem que em Cristo firme estou Se o trovão e o mar se erguendo vêm sobre a tempestade eu voarei! Sobre as águas Tu também És Rei! Descansarei, pois sei que És Deus! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desemboca o vaso, Jesus Enche de azeite! Enche de azeite! Enche de azeite! [2x] Liga, liga, liga, liga, liga, liga nesta hora Pede, pede, pede, pede, pede pra Jesus agora [2x] Batiza o vaso, Jesus Enche de azeite! Enche de azeite! Enche de azeite! [2x] Liga, liga, liga, liga, liga, liga nesta hora Pede, pede, pede, pede, pede pra Jesus agora [2x] Renova o vaso, Jesus Enche de azeite! Enche de azeite! Enche de azeite! [2x] Liga, liga, liga, liga, liga, liga nesta hora Pede, pede, pede, pede, pede pra Jesus agora [2x] Santifica o vaso, Jesus Enche de azeite! Enche de azeite! Enche de azeite! [2x] Liga, liga, liga, liga, liga, liga nesta hora Pede, pede, pede, pede, pede pra Jesus agora [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sei que os Teus olhos... Sempre atentos permanecem em mim! E os Teus ouvidos... Estão sensíveis para ouvir meu clamor! Posso até chorar... Mas a alegria vem de manhã! És Deus de perto e não de longe! Nunca mudastes! Tu És fiel! Deus de Aliança! Deus de Promessas! Deus que não é homem pra mentir! Tudo pode passar, tudo pode mudar Mas Tua palavra vai se cumprir! Deus de Aliança! Deus de Promessas! Deus que não é homem pra mentir! Tudo pode passar, tudo pode mudar Mas Tua palavra vai se cumprir! Posso enfrentar o que for! Eu sei Quem luta por mim! Seus planos não podem ser frustrados! Minha esperança está Nas mãos do grande “Eu Sou”! Meus olhos vão ver o impossível acontecer! Deus de Aliança! Deus de Promessas! Deus que não é homem pra mentir! Tudo pode passar, tudo pode mudar Mas Tua palavra vai se cumprir! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minha fé não está firmada nas coisas que podes fazer Eu aprendi a Te adorar pelo que És! D’Ele vem o sim e o amém, Somente d’Ele e mais ninguém A Deus seja o louvor! Se Deus fizer, Ele é Deus! Se não fizer, Ele é Deus! Se a porta abrir, Ele é Deus! Mas se fechar, continua sendo Deus! Se a doença vier, Ele é Deus! Se curado eu for, Ele é Deus! Se tudo der certo, Ele é Deus! Mas se não der, continua sendo Deus Não O adoro pelo que Ele faz, Eu O adoro pelo que Ele É! Haja o que houver sempre será Deus! [2x] Se Deus fizer, Ele é Deus! Se não fizer, Ele é Deus! Se a porta abrir, Ele é Deus! Mas se fechar, continua sendo Deus! Se a doença vier, Ele é Deus! Se curado eu for, Ele é Deus! Se tudo der certo, Ele é Deus! Mas se não der, continua sendo Deus  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta é a história de um pai no deserto a sofrer... Tudo que houvera pedido a Deus, do nada Deus resolve requerer! Madrugadinha, lá vem Abraão com carinho a Isaque diz, Filho, vamos ali no Moriá Sacrificar ao Senhor de Israel A caminho do inesperado vão está apertado o coração de Abraão! Em certo momento, então, Isaque diz ao pai: Eis aqui a lenha, o fogo e o altar... O machado já está em sua mão... Mas onde o cordeiro estará? E então lhe responde Abraão: Deus proverá! Deus proverá! Deus proverá! Subirei ao Moriá, mas vou voltar! Não entendo o que Ele quer mas vou aceitar! Profetizo pela fé Deus proverá! [2x] No meu emprego (Deus proverá...) Nas minhas finanças (Deus proverá...) Na minha casa (Deus proverá...) Na minha família (Deus proverá...) Na minha saúde (Deus proverá...) Em todas as áreas (Deus proverá...)* Nesta cidade (Deus proverá...) Lá no seu bairro (Deus proverá...) Nesta igreja (Deus proverá...) O meu e o teu milagre (Deus proverá...)* Continue crendo (Deus proverá...) Deus proverá! (Deus proverá...) Deus proverá! Deus proverá! Deus proverá! Subirei ao Moriá, mas vou voltar! Não entendo o que Ele quer mas vou aceitar! Profetizo pela fé Deus proverá! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vem Senhor, encher este lugar (2x) Com Tua glória... (4x) Fala-me, eu quero Te ouvir Toca-me, eu quero Te sentir Vem e abraça-me... (4x) Todo dia é dia de adorar ao Senhor Eu conto os segundos só pra Te encontrar Quando estou em Tua presença... Dá vontade de pular! Dá vontade de dançar! Dá vontade de gritar! Dá vontade de correr! Diante de Ti... Dá vontade de pular! Dá vontade de dançar! Dá vontade de gritar! Dá vontade de correr! Fala-me, eu quero Te ouvir Toca-me, eu quero Te sentir Vem e abraça-me... (4x) Todo dia é dia de adorar ao Senhor Eu conto os segundos só pra Te encontrar Quando estou em Tua presença... Dá vontade de pular! Dá vontade de dançar! Dá vontade de gritar! Dá vontade de correr! Diante de Ti... Dá vontade de pular! Dá vontade de dançar! Dá vontade de gritar! Dá vontade de correr!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graças eu Te dou Pai, pelo preço que pagou... Sacrifício de amor que me comprou, Ungido do Senhor! Pelos cravos em Suas mãos Graças eu Te dou, ó meu Senhor! Lavou minha mente e coração, me deu perdão! Restaurou-me a comunhão! Digno é o Senhor, sobre o trono está! Soberano, Criador! Vou sempre Te adorar! Elevo minhas mãos ao Cristo que venceu! Cordeiro de Deus morreu por mim... Mas ressuscitou! Digno é o Senhor! Pelos cravos em Suas mãos Graças eu Te dou, ó meu Senhor! Lavou minha mente e coração, me deu perdão! Restaurou-me a comunhão! Digno é o Senhor, sobre o trono está! Soberano, Criador! Vou sempre Te adorar! Elevo minhas mãos ao Cristo que venceu! Cordeiro de Deus morreu por mim... Mas ressuscitou! Digno é o Senhor! Mas ressuscitou! Digno é o Senhor! Digno é o Senhor, sobre o trono está! Soberano, Criador! Vou sempre Te adorar! Elevo minhas mãos ao Cristo que venceu! Cordeiro de Deus morreu por mim... Mas ressuscitou! Digno é o Senhor! Digno é o Senhor! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ele É exaltado, O Rei É exaltado nos céus Eu O louvarei! Ele É exaltado, Pra sempre exaltado, O Seu nome louvarei! Ele É o Senhor! Sua Verdade vai sempre reinar! Terra e céus glorificam Seu santo Nome! Ele É exaltado, o Rei É exaltado nos céus! Ele É o Senhor! Sua Verdade vai sempre reinar! Terra e céus glorificam Seu santo Nome! Ele É exaltado, o Rei É exaltado nos céus!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não importa quem você é, não importa o que você fez, Jesus conhece o seu interior também Quantas vezes você caiu tentando acertar Mas a tristeza e o desespero te fizeram chorar... Não importa pra onde você foi, Se na escuridão da noite, Ele apaga o seu passado e não desiste de você! Ele não desiste de você, Ele se importa com você! Ele compreende seu caminhar, Nunca vi um amor tão grande assim! Ele não desiste de você, Ele se importa com você! Ele compreende seu caminhar, Nunca vi um amor tão grande assim! Ele não desiste!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diga para os temerosos: Não há nada a temer Poderoso É o teu Senhor quando clama Seu nome Ele então virá! Ele vem pra te salvar, Ele vem para te salvar! Diga ao cansado, o teu Senhor virá Ele vem para te salvar! Ele vem pra te salvar, Ele vem para te salvar! Contempla ao Senhor e te levantarás! Ele vem para te salvar! Diga para os abatidos: Não percam a fé! Poderoso É o teu Senhor quando clama Seu nome Ele então virá! Ele vem pra te salvar, Ele vem para te salvar! Diga ao cansado, o teu Senhor virá Ele vem para te salvar! [2x] Ele é o teu refúgio em meio as lutas Um escudo na tempestade Uma torre na tristeza Fortaleza em meio a batalha! Ele vem pra te salvar, Ele vem para te salvar! Diga ao cansado, o teu Senhor virá Ele vem para te salvar! [2x]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu não vou me apegar com as coisas daqui Pois eu sei, há um lugar que me espera Estrangeiro eu sou, o meu lar é o céu, Meu Jesus vem buscar a Sua noiva! Ele virá num piscar de olhar E quem estiver pronto com Ele irá Na Sua glória com Ele morar Ele vem, Ele vem! Não mais tristeza, não mais temor, Junto com os anjos cantar eu vou! Digno é o Cordeiro que Se entregou Ele vem, Ele vem! Tu És Senhor, o nosso Deus! Digno Tu És de receber todo louvor! Vamos clamar Então vem! Então vem! [3x] O Rei está voltando! O Rei está voltando! A trombeta está soando O meu nome irá chamar! Sim, o Rei está voltando! O Rei está voltando! Aleluia, Ele vem me buscar! [2x]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foi tão grande o amor que teve O meu Salvador por mim! Por alguém que O desprezava De uma forma tão cruel! Sua justiça exigia sacrifício haver... Meus pecados eram tantos... Não poderia pagar... Foi então que Jesus Cristo A Si mesmo ofereceu! Alto preço no calvário por mim pagou Alto preço no calvário por amor! Meu nome escrito de vermelho foi! Com sangue puro do meu Salvador! O céu azul tornou-se para mim Quando o véu no templo se rasgou Propriedade d’Ele me tornei! Pois o resgate pago foi na cruz! Tornei-me alvo como a branca lã! Sou livre e vou reinar com meu Jesus! [2x] Tornei-me alvo como a branca lã! Sou livre e vou reinar com meu Jesus!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Espírito Santo de Deus está aqui, Já sentimos o Seu santo agir neste lugar! Se não fosse a Sua presença em meu viver Certamente eu não poderia suportar! Ó Espírito Santo, me ouça, Eu preciso tanto de Tua força! Vem Espírito Consolador, me ajudar! [2x] Hoje nós clamamos, Espírito Santo, Vem curar minha alma, Espírito Santo Vem de manhã com a alva, Espírito Santo Ou no cair da noite, Espírito Santo A igreja Te ama, Espírito Santo! A igreja Te adora, Espírito Santo! Sem Tua presença, Espírito Santo Nós não viveremos, Espírito Santo! Queremos profetizar, Espírito Santo, Palavras de vitória, Espírito Santo Chegou a nossa hora, Espírito Santo, Só sairemos daqui, Espírito Santo abençoados! Serei abençoado! Abençoado! Sairei abençoado! Abençoado! Serei abençoado! Abençoado! Irei abençoado! Abençoado!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando todos os meus medos já não cabem mais em mim... Quando o céu está de bronze e parece que é o fim! Quando o vento está revolto e o mar não quer se acalmar... Quando as horas do relógio se demoram a passar... Muitas vezes não consigo os Teus planos compreender Mas prefiro confiar sem entender! Eu creio em Ti! Eu creio em Ti! Eu olho pra Ti e espero em Ti! Quando você sente medo do teu lado Eu estou E é bom que você saiba que Eu sinto a sua dor Nunca, nunca se esqueça que o mar posso acalmar E que Eu sei o tempo certo da vitória te entregar Este tempo é necessário pra te amadurecer E depois tem novidade pra você! Eu cuido de ti! Eu cuido de ti! Descansa em Mim, comece a sorrir! O que Eu tenho é bem melhor, Pois só Eu sei do amanhã! Então recebe o abraço Meu, Pois da tua vida cuido Eu! Eu cuido de ti! Eu cuido de ti! Descansa em Mim, comece a sorrir!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu navegarei no oceano do Espírito E ali adorarei ao Deus do meu amor [2x] Espírito, Espírito! Que desce como fogo! Vem como em pentecostes, E enche-me de novo! [2x] Eu adorarei ao Deus da minha vida Que me compreendeu Sem nenhuma explicação! [2x] Espírito, Espírito! Que desce como fogo! Vem como em pentecostes, E enche-me de novo! [2x]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu, eu, eu, eu quero é Deus! (2x) Não importa o que vão pensar de mim, eu quero é Deus! (2x) Ninguém morreria assim em meu lugar! Foi uma morte terrível pra me salvar Por isso eu declaro, eu amo esse Deus! Eu, eu, eu, eu quero é Deus! (2x) Não importa o que vão pensar de mim, eu quero é Deus! (2x) Ele é o pão vivo que desceu do céu O Cordeiro de Deus, o Príncipe da Paz Ele é a raiz de Davi! Ele é o Leão de Judá! Eu, eu, eu, eu quero é Deus! (2x) Não importa o que vão pensar de mim, eu quero é Deus! (2x)      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu vejo a glória do Senhor hoje aqui, A Sua mão, o Seu poder sobre mim Os céus abertos hoje eu vou contemplar O amor descer neste lugar! [2x] Eu quero ver agora o Teu poder! A Tua glória inundando meu ser! Vou levantar as mãos e vou receber Vou louvando o Teu nome porque eu sinto o Senhor me tocar! [2x] Eu vejo a glória do Senhor hoje aqui, A Sua mão, o Seu poder sobre mim Os céus abertos hoje eu vou contemplar O amor descer neste lugar! Eu quero ver agora o Teu poder! A Tua glória inundando meu ser! Vou levantar as mãos e vou receber Vou louvando o Teu nome porque eu sinto o Senhor me tocar! [2x]    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando eu oro, o diabo treme! Quando eu canto, o inferno cai! Pois eu sei, Deus é capaz sim, De parar o inimigo! (3x) Quando eu oro! [2x] Fogo cai! Foco cai! Quando nós oramos esse fogo cai! [2x] O meu louvor queima como incenso, E o meu clamor sobe até o trono! De onde vem o fogo santo! O diabo já caiu! (3x) Quando eu oro! Fogo cai! Foco cai! Quando nós oramos esse fogo cai! [2x]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande é o Senhor e mui digno de louvor Na cidade do nosso Deus, Seu santo monte! Alegria de toda terra... Grande é o Senhor em quem nós temos a vitória E que nos ajuda contra o inimigo, Por isso diante d’Ele nos prostramos... Queremos o Teu nome engrandecer! E agradecer-Te por Tua obra em nossas vidas! Confiamos em Teu infinito amor! Pois só Tu És o Deus Eterno sobre toda terra e céus! Queremos o Teu nome engrandecer! E agradecer-Te por Tua obra em nossas vidas! Confiamos em Teu infinito amor! Pois só Tu És o Deus Eterno sobre toda terra e céus!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quero viver perto de Ti, Sei que És real e vives em mim! Quero ouvir anjos cantar em uma só voz... Aleluia! Santo, Santo! Poderoso! O Grande Eu Sou! Que É Digno, Não há outro! Poderoso! O Grande Eu Sou! (2x) Quero estar perto de Ti, O mundo amar sem nele ficar! Ver ossos secos com vida outra vez em uma só voz... Aleluia! Santo, Santo! Poderoso! O Grande Eu Sou! Que É Digno, Não há outro! Poderoso! O Grande Eu Sou! (2x) Montanhas vão cair, demônios fugirão... Ao ouvir de que Jesus É o Rei dos reis! Não há poder maior! Nada resistirá... Ao Seu Poder e a presença Do Grande Eu Sou...! (6x) Aleluia! Santo, Santo! Poderoso! O Grande Eu Sou! Que É Digno, Não há outro! Poderoso! O Grande Eu Sou! (2x) Aleluia! Santo, Santo! Poderoso! O Grande Eu Sou! Que É Digno, Não há outro! Poderoso! O Grande Eu Sou! [2x] O Grande Eu Sou! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tu És o Deus dessa terra, Tu És o Rei desse povo És o Senhor da nação, Tu És... Tu És a Luz desse mundo, Esperança para os perdidos! Tu És a paz pros cansados, Tu És... Ninguém é como o nosso Deus... (2x) Grandes coisas estão por vir! Grandes coisas vão acontecer nesse lugar! [2x] Ninguém é como o nosso Deus... (2x) Grandes coisas estão por vir! Grandes coisas vão acontecer nesse lugar! [2x]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Há momentos que na vida pensamos em olhar atrás É preciso pedir ajuda para poder continuar... E clamamos o nome de Jesus! E clamamos o nome de Jesus! E clamamos o nome, o nome de Jesus! Ele nos ajuda a carregar a cruz!        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homem de Guerra É Jeová Seu nome é temido na terra! A todos os Seus inimigos venceu, Deus grande e temido em louvores [2x] Quem é como o Senhor entre os deuses sobre a terra? Que me livra do mal, que me dá poder para guerrear! Homem de Guerra É Jeová Seu nome é temido na terra! A todos os Seus inimigos venceu, Deus grande e temido em louvores (2x) Homem de Guerra é Jeová! Pelo Senhor marchamos sim, O Seu exército poderoso é! Sua glória será vista em toda a terra! Vamos cantar o canto da vitória, Glória a Deus! Vencemos a batalha! Toda arma contra nós perecerá! O nosso General é Cristo, Seguimos os Seus passos Nenhum inimigo nos resistirá! [2x] Pelo Messias marchamos sim, Em Suas mãos, a chave da vitória Que nos leva a possuir a terra prometida! Vamos cantar o canto da vitória, Glória a Deus! Vencemos a batalha! Toda arma contra nós perecerá! O nosso General é Cristo, Seguimos os Seus passos Nenhum inimigo nos resistirá! [3x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entra, tudo aqui é Teu, a casa está pronta! Estamos esperando pra Te encontrar Brilha Tua Glória e nos envolva com Teu fogo Vem e toma o Teu lugar! Nós invocamos, acende a chama E que venha o Teu Reino! Nós nos rendemos e tudo entregamos Pra sempre cantaremos! [2x] Hosana! Hosana! O Noivo vem! O Noivo vem! (2x) Hosana! Hosana! O Noivo vem! O Noivo vem! (4x) Nós invocamos, acende a chama E que venha o Teu Reino! Nós nos rendemos e tudo entregamos Pra sempre cantaremos! [2x] Hosana! Hosana! O Noivo vem! O Noivo vem! (2x)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sempre vou lembrar... Da coragem, do amor, da firmeza e vontade, da fé e devoção Da igreja do tempo de Paulo, de Pedro e João Que enfrentavam a fúria de Roma, mas nunca negaram sua fé de cristãos! É um exemplo pra mim, verdadeira lição! Eu queria ver... A bravura dos santos em plena arena enfrentando os leões! Quanto mais a fogueira queimava, mais se ouvia o louvor dos nossos irmãos! Sob o sangue, tombavam nas ruas, chegavam no Céu com a vitória nas mãos! É um exemplo pra mim, verdadeira lição! Oh! Meu Deus reaviva Tua igreja de novo! Faz a chama arder nesse povo como foram os primeiros cristãos! Oh! Meu Deus reaviva Tua igreja de novo! Faz a chama arder nesse povo começando em meu coração! Oh! Meu Deus reaviva Tua igreja de novo! Faz a chama arder nesse povo começando em meu... coração!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não serei mais amado do que eu já sou, Não depende de mim! Nada que eu fizer pode Te abalar, Senhor... Não são minhas obras que vão Te agradar! Não serei mais amado do que eu já sou, Na tempestade estou mas não vou parar, Ouço Tua voz chamando o meu nome como um vento a soprar! Atravessas o oceano pra eu não me afogar! Nunca tão perto como agora estás! Tu és Jireh! És tudo pra mim! Jireh! És tudo pra mim! Me contentarei em qualquer situação! Tu és Jireh! És tudo pra mim! Pra sempre serás, sempre serás tudo pra mim! (2x) O que sinto aqui não quero esquecer, Do alto da montanha posso ver tão claro o Teu querer! Comigo estás ao anoitecer! O que sinto aqui não quero esquecer! Tu és Jireh! És tudo pra mim! Jireh! És tudo pra mim! Me contentarei em qualquer situação! Tu és Jireh! És tudo pra mim! Pra sempre serás, sempre serás tudo pra mim! (2x) Eu já sou amado! Já fui escolhido! Eu sei quem eu sou e o que foi prometido! Eu já sou amado mais do que imagino! Completo sou! [3x] Completo sou! Completo sou! Completo sou! Tudo és pra mim! Completo sou! Tudo és pra mim! Tu és Jireh! És tudo pra mim! Jireh! És tudo pra mim! Me contentarei em qualquer situação! Tu és Jireh! És tudo pra mim! Se Ele veste os lírios com Sua beleza, Quanto mais os Seus filhos! (2x) Se Ele cuida até mesmo das aves do céu! Quanto mais a quem ama! (2x) [3x] Mais do que eu peça ou imagine segundo o Teu poder, Que opera em nós, És tudo pra mim! [3x] Tu és Jireh! És tudo pra mim! Jireh! És tudo pra mim! Me contentarei em qualquer situação! Tu és Jireh! És tudo pra mim!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Render a Ti adoração e derramar meu ser... É o que meu coração deseja toda manhã! Te imaginar é me inspirar pra Te dizer, Estou apaixonado cada vez mais por Ti! Senhor Tu És incomparável! Teu nome é Maravilhoso! Leva-me além... Leva-me além... A um nível mais profundo de intimidade contigo ó Senhor! Leva-me além... Leva-me além... Que a minha vida flua mais da Tua unção, mais do Teu poder! Leva-me além... Leva-me além... Que a minha vida flua mais da Tua unção, mais do Teu poder!      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lindo, Lindo, Lindo És... Glória, glória eu Te dou Jesus, Jesus... Me leva à Sala do trono Mostra Tua beleza Quero ver Tua Face! Só quero... Só quero... Ver Você....        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louvemos ao Senhor! (2x) Adoremos no Seu santo monte nosso amado Pai, Seu nome é Santo! [2x] Louvamos ao Senhor, pois Seu nome é Santo! (2x) Mulheres: Magnifiquemos ao Senhor, ao Rei que é digno de louvor, Excelso, Supremo e mui Digno de louvor! (2x) Louvamos ao Senhor, pois Seu nome é Santo! (2x) Hosana, hosana, hosana ao nosso Rei! (2x) Homens: Cristo é a nossa vida, o motivo do louvor em nosso novo coração! Pois morreu a nossa morte pra vivermos Sua vida, nos trouxe grande salvação! Louvamos ao Senhor, pois Seu nome é Santo! (4x)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tu És tudo o que eu mais quero O meu fôlego Tu És! Em Teus braços é o meu lugar Estou aqui, estou aqui! Pai, eu amo Sua presença Teu sorriso é vida em mim! Eu seguro em Suas mãos Confio em Ti, confio em Ti! Quero ir mais fundo Leva-me mais perto Onde eu Te encontro no lugar secreto Aos Teus pés me rendo Pois a Tua glória, quero ver! Quero ir mais fundo Leva-me mais perto Onde eu Te encontro no lugar secreto Aos Teus pés me rendo Pois a Tua glória, quero ver! Tudo o que eu mais quero é Te ver, Me envolva com Tua glória e poder Tua majestade é real! Tua voz ecoa em meu ser! [4x] Quero ir mais fundo Leva-me mais perto Onde eu Te encontro no lugar secreto Aos Teus pés me rendo Pois a Tua glória, quero ver! [3x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vem o temporal... Vem o dia mal... Mas Deus me faz assim, pés sobre a rocha, Ele cuida bem de mim! Guarda a minha saída, Guarda a minha entrada, Ele é minha sombra, Mão direita que não falha! Durante o dia, o sol não pode me ferir Com Ele, à noite eu posso até sorrir! Estou olhando para os montes, Meu socorro vem de Deus! Não paro de olhar pros montes! Ele não descansa, Ele é o Guarda de Israel, Rei da terra e é também Dono do Céu! Estou olhando para os montes, Meu socorro vem de Deus! Não paro de olhar pros montes! Ele não descansa, Ele é o Guarda de Israel, Rei da terra e é também Dono do Céu! Meu lugar seguro, Minha proteção Todo Poderoso, Deus da minha salvação! Oh, oh...! Oh, oh...! Oh, oh...! Oh, oh...! (2x) Estou olhando para os montes, Meu socorro vem de Deus! Não paro de olhar pros montes! Ele não descansa, Ele é o Guarda de Israel, Rei da terra e é também Dono do Céu! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meu Deus é mais que abundante, Supre as minhas necessidades! Descanso em pastos verdejantes! El Shaddai cuida de mim! [2x] Meu Pastor não vai deixar Na minha vida algo me faltar! Confio em Ti, meu El Shaddai!  Jesus, o Bom Pastor cuida de mim! [2x] Ainda que a figueira não floresça E a terra toda estremeça Levanto minhas mãos a Ti El Shaddai cuida de mim! [2x] Meu Pastor não vai deixar Na minha vida algo me faltar! Confio em Ti, meu El Shaddai!  Jesus, o Bom Pastor cuida de mim! [2x] Mais que abundante é o derramar Do poder de Deus sobre mim! Elevo meu cálice a Ti Eu sei... irá transbordar! Mais que abundante! (3x) Elevo o meu cálice! Mais que abundante! (2x) Elevo o meu cálice! Meu Pastor não vai deixar Na minha vida algo me faltar! Confio em Ti, meu El Shaddai!  Jesus, o Bom Pastor cuida de mim! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na presença dos homens, Na presença dos anjos sempre Eu Te louvarei! Te louvarei! Mesmo estando em guerra Vou celebrando minha vitória Eu Te louvarei! Te louvarei! Sobre toda terra, Novo som se ouvirá! Tua alegria, Força pra continuar! Deus de maravilhas, Que maravilha Te louvar...! (3x) Eu entro na Tua presença Pra receber o Seu poder, E quanto mais o tempo passa Mais quero Deus! O fogo cai, a igreja canta, O inimigo vai ao chão Fogo e glória nas cabeças Mil graus de unção! (2x) O som da festa vai subir, Sua glória descerá! Se ouvirá um novo som de aleluia! [2x] O som da festa vai subir, Sua glória descerá! Se ouvirá um novo som de aleluia! [4x]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posso crer que em minha vida O Milagre vai acontecer! Posso ver as promessas Sendo liberadas sobre mim! (2x) [2x] Hoje o meu milagre vai chegar! Eu vou crer, não vou duvidar! O preço que foi pago ali na Cruz Me dá vitória nesta hora! [2x] Tua morte, Tua cruz! Teu sangue derramado no Calvário! Está selado! Foi consumado! Vivo hoje livre do pecado! Vivo as promessas dos milagres! [2x] Hoje o meu milagre vai chegar! Eu vou crer, não vou duvidar! O preço que foi pago ali na Cruz Me dá vitória nesta hora! [2x] Hoje o meu milagre vai chegar! Eu vou crer, não vou duvidar! O preço que foi pago ali na Cruz Me dá vitória nesta hora... (4x)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se tudo está difícil, a multidão já te cansou, O meu Deus nunca falha e nunca falhou! Se a luta é muito grande, ela te fez perder a fé, O meu Deus entra na guerra, peleja por você! Levante os teus olhos e veja o sobrenatural, Quem tem promessa de Deus vence o mal! Levante os teus olhos e veja o sobrenatural, Quem tem promessa de Deus vence o mal, vence o mal! Não morrerei enquanto a promessa não se cumprir! Quem tem promessa de Deus não morre não! Não desiste não e tem a fé, a fé de Abraão! [2x] Levante os teus olhos e veja o sobrenatural, Quem tem promessa de Deus vence o mal!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amanheceu, nada pesquei... Parecia ser apenas mais um dia como qualquer outro Estava cansado, sem forças, desanimado... Decidido a largar tudo e parar... Deus conhece tua estrutura! Sabe o que está fazendo! Mesmo que seja difícil não pares, Ele está vendo! Colheu todas tuas lágrimas e mandou a ti falar: Pegue o que Ele te entregou e volte para o mar que é o teu lugar! Quem mandou largar a rede? Quem mandou você parar? Volte para o mar alto, no lugar da tua vergonha Eu vou te honrar [2x] Filho eu vou te honrar! Oh, filho! A noite já passou, a tua hora chegou! Pegue a tua rede, volte para o mar! Vou te esperar no mar... Oh! Não é hora de parar, Deus contemplou o seu caminhar! Eu sei, é difícil prosseguir quando tudo lhe faltar... Esse cenário vai mudar! A tua hora chegará! Há um tempo pra tudo! Quem mandou largar a rede? Quem mandou você parar? Volte para o mar alto, no lugar da tua vergonha Eu vou te honrar [3x] Filho eu vou te honrar!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não posso deixar meu sonho se perder Me esquecer das promessas, desistir sem lutar, deixar de ser um vencedor Vou acreditar, Deus tem o melhor pra mim, eu sei! Vou lutar pra vencer, não olhar para trás, transpor barreiras, Eu vou conquistar o impossível! Nasci pra vencer, vou acreditar Que os sonhos jamais podem se apagar Lutar pra vencer, pela fé conquistar, Sou filho de Deus, nasci pra vencer!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelo Senhor marchamos sim, O Seu exército poderoso é! Sua glória será vista em toda a terra! Vamos cantar o canto da vitória, Glória a Deus! Vencemos a batalha Toda arma contra nós perecerá! O nosso General é Cristo, Seguimos os Seus passos Nenhum inimigo nos resistirá! [2x] Pelo Messias marchamos sim, Em Suas mãos, a chave da vitória Que nos leva a possuir a terra prometida! Vamos cantar o canto da vitória, Glória a Deus! Vencemos a batalha Toda arma contra nós perecerá! O nosso General é Cristo, Seguimos os Seus passos Nenhum inimigo nos resistirá! [2x] Nenhum inimigo nos resistirá! (2x)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoje Eu fui te procurar naquele lugar Onde você me chamava de Pai... Esperei com tudo que Me pediu, Mas você não foi... Onde é que você está? Já não ouço mais a sua voz, Você não tem mais tempo para vir aqui... Tá tão ocupado com as suas coisas Que se esqueceu de Mim! Mas se precisar de um ombro pra chorar Ainda Vou estar naquele lugar Onde você buscava, Eu ia te encontrar, Meu filho... No santo lugar Eu quero te encontrar, Sarar suas feridas e te perdoar! Lá naquela cruz Morri em seu lugar! Filho nada irá Me impedir de te amar! Filho, Eu dei minha vida por você! E Eu não te fiz para viver assim tão longe, Meu filho... Filho, Eu inspirei o compositor, Pus essa canção nos lábios do cantor só pra te dizer, te amo! Amo você... Amo você... Amo você... Amo você... No santo lugar Eu quero te encontrar, Sarar suas feridas e te perdoar! Lá naquela cruz Morri em seu lugar! Filho nada irá Me impedir de te amar!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Nome de Jesus é poderoso, O Nome de Jesus é sobre todos! Nome mais doce! Nome mais lindo! Nome sublime é o Nome de Jesus! O Nome de Jesus levanta os mortos! O Nome de Jesus sara os feridos! Nome mais santo! Nome mais puro! Nome bendito é o Nome de Jesus!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu me rasgo por inteiro Faço tudo, mas vem novamente! Eu mergulho na mirra ardente Mas peço que Tua presença aumente! [2x] E se eu passar pelo fogo não temerei, Na Tua fumaça de glória eu entrarei! Longe do Santo dos Santos não sei mais viver! Quem já pisou no Santo dos Santos Em outro lugar não sabe viver... E onde estiver clama pela glória, a glória de Deus! [2x] Glória... Glória! Santo... Santo! Kadosh... Kadosh! Holy... Holy! Quem já pisou no Santo dos Santos Em outro lugar não sabe viver... E onde estiver clama pela glória, a glória de Deus! [2x] Glória... Glória... Glória... Glória...   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tua voz me chama sobre as águas Onde os meus pés podem falhar E ali Te encontro no mistério, Em meio ao mar confiarei! Ao Teu nome clamarei E além das ondas olharei! Se o mar crescer somente em Ti descansarei, Pois eu sou Teu e Tu és meu! Tua graça cobre os meus temores, Tua forte mão me guiará! Se estou cercado pelo medo Tu És fiel, nunca vais falhar! Ao Teu nome clamarei E além das ondas olharei! Se o mar crescer somente em Ti descansarei, Pois eu sou Teu e Tu és meu! Guia-me pra que em tudo em Ti confie, Sobre as águas eu caminhe por onde quer que chames! Leva-me mais fundo do que já estive E minha fé será mais firme, Senhor, em Tua presença! [3x] Ao Teu nome clamarei E além das ondas olharei! Somente em Ti descansarei, Pois eu sou Teu e Tu és meu!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No início Eras a Palavra, Um com Deus, O Altíssimo! O mistério de Tua glória, Cristo, em Ti Se revelou! Oh! Quão lindo esse nome é! (2x) O nome de Jesus, meu Rei! Oh! Quão lindo esse nome é! Maior que tudo ele é! Oh! Quão lindo esse nome é! O nome de Jesus! Deixou o céu para buscar-nos, Veio pra nos resgatar! Amor maior que o meu pecado, Nada vai nos separar! Oh! Quão Maravilhoso é! (2x) O nome de Jesus, meu Rei! Oh! Quão Maravilhoso é! Maior que tudo ele é! Oh! Quão Maravilhoso é! O nome de Jesus... (2x) A morte venceste! O véu Tu rompeste! A tumba vazia agora está! O céu Te adora, Proclama Tua glória, Pois ressuscitaste e vivo está! És invencível! Inigualável! Hoje e pra sempre reinarás! Teu é o reino, Tua é a glória! Acima de todo nome está! Poderoso esse nome é! (2x) O nome de Jesus, meu Rei! Poderoso esse nome é! Mais forte que tudo é! Poderoso esse nome é! O nome de Jesus! És invencível! Inigualável! Hoje e pra sempre reinarás! Teu é o reino, Tua é a glória! Acima de todo nome está! Poderoso esse nome é! (2x) O nome de Jesus, meu Rei! Poderoso esse nome é! Mais forte que tudo é! Poderoso esse nome é! O nome de Jesus... (3x)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antes de eu falar Tu cantavas sobre mim! Tu tens sido tão, tão bom pra mim! Antes de eu respirar sopraste Tua vida em mim! Tu tens sido tão, tão bom pra mim! Oh! Impressionante, infinito e ousado amor de Deus! Oh! Que deixa as noventa e nove só pra me encontrar! Não posso comprá-lo... Nem merecê-lo... Mesmo assim Se entregou! Oh! Impressionante, infinito e ousado amor de Deus! Inimigo eu fui, mas Teu amor lutou por mim... Tu tens sido tão, tão bom pra mim! Não tinha valor mas tudo pagou por mim... Tu tens sido tão, tão bom pra mim! Oh! Impressionante, infinito e ousado amor de Deus! Oh! Que deixa as noventa e nove só pra me encontrar! Não posso comprá-lo... Nem merecê-lo... Mesmo assim Se entregou! Oh! Impressionante, infinito e ousado amor de Deus! Traz luz para as sombras, Escala montanhas, pra me encontrar! Derruba muralhas, destrói as mentiras, pra me encontrar! [4x] Oh! Impressionante, infinito e ousado amor de Deus! Oh! Que deixa as noventa e nove só pra me encontrar! Não posso comprá-lo... Nem merecê-lo... Mesmo assim Se entregou! Oh! Impressionante, infinito e ousado amor de Deus!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sacrifício vivo Se entregou por mim! Com armas de amor Ele lutou até o fim! Vestido de silêncio, o semblante era de dor! A todos que O feriu lá no Calvário perdoou! Subiu naquela cruz sem nada reclamar! Cordeiro imaculado que sofreu por me amar! E a minha vida foi lavada pelo sangue de Jesus! Minha história dividiu, antes e depois! Pelo sangue, Pelo sangue de Jesus! Fui salvo pelo sangue! Fui curado pelo sangue! Fui liberto pelo sangue! Fui comprado pelo sangue! O sangue de Jesus que me leva até o céu! O sangue de Jesus, vermelho, forte e fiel! Suportou a cruz a preço de sangue por amor! Precioso sangue de Jesus! O sacrifício vivo eu quero ser pra Deus! Tão puro e agradável como Cristo ofereceu! Com a Sua verdade vou me comprometer! E ser exemplo vivo de Sua graça e poder! Amar como a mim mesmo a quem me odiar! Usar as minhas mãos pra outras mãos abençoar! E já não vivo eu, mas agora Jesus Cristo vive em mim! O meu passado apagou! Tudo perdoou! Pelo sangue, Pelo sangue de Jesus! Fui salvo pelo sangue! Fui curado pelo sangue! Fui liberto pelo sangue! Fui comprado pelo sangue! O sangue de Jesus que me leva até o céu! O sangue de Jesus, vermelho, forte e fiel! Suportou a cruz a preço de sangue por amor! Precioso sangue de Jesus! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se eu pudesse eu queria ir ao mar E saber as profundezas que ele tem Eu queria ir ao espaço pra saber que altura tem! Da terra até chegar aos altos céus! Eu queria passear lá em Naim E passar uns dias em Jerusalém, Mas esses pensamentos podem ser em vão! O que eu quero mesmo é ver Jesus e tocar em Suas mãos! Imagine como deve ser muito lindo o Seu olhar! Quando n’Ele estou pensando sinto vontade de voar! Voar, voar, voar... [2x] Se pudesse eu queria ir à Lua Pra saber como me sentiria lá Chegar perto das estrelas e tocá-las com as mãos! E de perto o Sol queria contemplar! Gostaria de ir às nuvens pra saber Como podem tanta água carregar Mas esses pensamentos podem ser em vão! O que eu quero mesmo é ver Jesus e tocar em Suas mãos! Imagine como deve ser muito lindo o Seu olhar! Quando n’Ele estou pensando sinto vontade de voar! Voar, voar, voar... [5x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perto quero estar junto aos Teus pés! Pois prazer maior não há que me render e Te adorar! Tudo que há em mim quero Te ofertar! Mas ainda é pouco eu sei se comparado ao que ganhei! Não sou apenas servo, Teu amigo me tornei! Te louvarei! Não importam as circunstâncias! Adorarei somente a Ti Jesus! Perto quero estar junto aos Teus pés! Pois prazer maior não há que me render e Te adorar! Tudo que há em mim quero Te ofertar! Mas ainda é pouco eu sei se comparado ao que ganhei! Não sou apenas servo, Teu amigo me tornei! Te louvarei! Não importam as circunstâncias! Adorarei somente a Ti Jesus! [4x] Somente aTi Jesus! (4x)      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bem sei eu que tudo podes... E nenhum dos Teus planos pode se frustrar! A vontade é Tua e a minha vida em Tuas mãos está E nenhum dos Teus planos pode se frustrar! (2x) Não se frustrarão, não se frustrarão! Os planos de Deus ninguém impedirá! Pode o vento soprar, a Terra pode se abalar! Mas os planos de Deus ninguém impedirá! Ninguém pode te ajudar! Ninguém pode te levantar! Mas se Deus tem um plano contigo ninguém impedirá! Solo: Quando passares pelas águas Todos: Eu estarei contigo, filho... Solo: Quando passares pelo fogo, ele não te queimará! Pois Eu estou contigo, filho! Eu estou contigo, filho! Eu estou contigo, filho! Eu estou contigo! E se teu barco parecer que vai naufragar, Está balançando pra lá e pra cá! Está causando medo em teu coração Está causando dúvidas... Cadê Jesus? Mas olha só quem vem aí andando sobre as águas! Parece que é Jesus andando sobre as águas! Está dando uma ordem para o vento! Sou Eu Dono do tempo, Sou Eu Dono daqui, Sou Eu Dono do mar! Sou Eu! (3x) Sou Eu...! Ninguém pode te ajudar! Ninguém pode te levantar! Mas se Deus tem um plano contigo ninguém impedirá! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O universo chora! O sol se apagou... Ali estava morto o Salvador! Seu corpo lá na cruz Seu sangue derramou! O peso do pecado Ele levou! Deus Pai o abandonou, cessou Seu respirar! Em trevas se encontrou o Filho! A guerra começou! A morte enfrentou! Todo o poder das trevas vencido foi! A terra estremeceu, sepulcro se abriu! Nada vencerá Seu grande amor! Ó morte, onde estás? O Rei ressuscitou! Ele venceu pra sempre... Pra sempre Exaltado É! Pra sempre Adorado É! Pra sempre Ele vive... Ressuscitou, Ressuscitou! Cantemos Aleluia! Cantemos Aleluia! Cantemos Aleluia! O Cordeiro venceu! [4x] Pra sempre Exaltado É! Pra sempre Adorado É! Pra sempre Ele vive... Ressuscitou, Ressuscitou! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preciso de Ti... Preciso do Teu perdão! Preciso de Ti... Quebranta meu coração! Como a corça anseia por águas assim tenho sede! Como terra seca assim é a minh’alma, preciso de Ti! Distante de Ti Senhor não posso viver, não vale a pena existir! Escuta o meu clamor, mais que o ar que eu respiro, preciso de Ti! [2x] Não posso esquecer o que fizeste por mim! Como alto é o céu Tua misericórdia é sem fim! Como um pai se compadece dos filhos assim Tu me amas! Afasta as minhas transgressões, Preciso de Ti! Distante de Ti Senhor não posso viver, não vale a pena existir! Escuta o meu clamor, mais que o ar que eu respiro, preciso de Ti! [2X] E as lutas vêm tentando me afastar de Ti... Frieza e escuridão procuram me cegar! Mas eu não vou desistir! Ajuda-me, Senhor... Eu quero permanecer Contigo até o fim! Distante de Ti Senhor não posso viver, não vale a pena existir! Escuta o meu clamor, mais que o ar que eu respiro, preciso de Ti! [2X] Preciso de Ti... (3X)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deus de Abraão, Fiel para cumprir a promessa feita a mim E como prometeu Prova outra vez e cumpre o que diz! Se o vendaval vier me abater Firme estarei! Se me prometeu vai acontecer, Eu descansarei! Sei que Tu És fiel a mim! (2x) Do nascer do sol ao anoitecer eu Te louvarei! Sei que Tu És fiel a mim! Início, meio e fim Tudo vai passar, Tu permanecerás! E hoje posso ver Que não há o que Tu não possas fazer! Se o vendaval vier me abater Firme estarei! Se me prometeu vai acontecer, Eu descansarei! Sei que Tu És fiel a mim! (2x) Do nascer do sol ao anoitecer eu Te louvarei! Sei que Tu És fiel a mim! Minha fé está em Cristo! Minha âncora no mar! Meu firme fundamento! Jamais me deixará! [4x] Sei que Tu És fiel a mim! (2x) Do nascer do sol ao anoitecer eu Te louvarei! Sei que Tu És fiel a mim! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nosso amigo Santo Espírito Venha aquecer os corações! Vem com cura e todo Seu poder! Vem manifestar os Seus sinais! O que dizer? O que fazer quando Ele vem aqui? Mais que ser Bem-Vindo, nós Te desejamos outra vez aqui! O que dizer? O que fazer quando Ele vem aqui? Mais que ser Bem-Vindo, nós Te desejamos outra vez aqui! Faz de novo... Faz de novo... O Seu povo clama a Ti mais uma vez... De novo... Faz de novo... O Seu povo clama a Ti mais uma vez... De novo... Faz de novo... O Seu povo clama a Ti mais uma vez... De novo... Faz de novo... O seu povo clama a Ti... O que dizer? O que fazer quando Ele vem aqui? Mais que ser Bem-Vindo, nós Te desejamos outra vez aqui! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mais de Ti (2x) E menos de mim (4X) Que Ele cresça e eu diminua, Que Ele apareça e eu me constranja com a Sua glória e todo Seu amor! Infinita humildade, Servo de todos os irmãos! Que Ele cresça e eu diminua, Que Ele apareça e eu me constranja com a Sua glória e todo Seu amor! Infinita humildade, Servo de todos os irmãos!         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu olho para a cruz E para a cruz eu vou Do Seu sofrer participar Da Sua obra vou cantar Meu Salvador Na cruz mostrou O amor do Pai O justo Deus Pela cruz me chamou! Gentilmente me atraiu e eu... Sem palavras, me aproximo Quebrantado por Seu amor! Imerecida vida, de graça recebi Por Sua cruz da morte me livrou Trouxe-me a vida, eu estava condenado Mas agora pela cruz eu fui reconciliado! Pela cruz me chamou! Gentilmente me atraiu e eu... Sem palavras, me aproximo Quebrantado por Seu amor! [2x] Impressionante é o Seu amor! Me redimiu e me mostrou o quanto é fiel! Pela cruz me chamou! Gentilmente me atraiu e eu... Sem palavras, me aproximo Quebrantado por Seu amor! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meu orgulho me tirou do jardim... Sua humildade colocou o jardim em mim! E se eu vender tudo o que tenho em troca do amor eu falharia... Pois o amor não se compra, nem se merece... O amor se ganha, de graça o recebe! Eu quero conhecer Jesus! (2x) E ser achado n’Ele! Eu quero conhecer Jesus! Eu quero conhecer Jesus! Meu Amado É o mais Belo entre milhares e milhares! (3x) Yeshua! Yeshua! Yeshua! Yeshua! Meu Amado É o mais Belo entre milhares e milhares! (3x)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quero subir ao monte santo de Sião E entoar um novo cântico ao meu Deus Mais que palavras, minha vida eu quero entregar! Purifica o meu coração para entrar em Tua presença, Contemplar Tua grandeza! [2x] Te adoro Senhor em espírito e em verdade, Me prostro aos Teus pés na beleza da santidade Te dou meu louvor e seja um cheiro suave E um som agradável a Ti, pois Digno És... [2x] Quero subir ao monte santo de Sião E entoar um novo cântico ao meu Deus Mais que palavras, minha vida eu quero entregar! Purifica o meu coração para entrar em Tua presença, Contemplar Tua grandeza! Te adoro Senhor em espírito e em verdade, Me prostro aos Teus pés na beleza da santidade Te dou meu louvor e seja um cheiro suave E um som agradável a Ti, pois Digno És... [2x] Te dou meu louvor e seja um cheiro suave E um som agradável a Ti, pois Digno És...   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ainda que em ruínas esteja a minha vida, Como Neemias os meus muros vou reconstruir! Por certo surgirão Sambalate e Tobias Pra zombar de mim dizendo ser o fim... Deus me deu visão, pôs em minhas mãos uma grande obra E não posso parar! Sejam os muros da minha família, Sejam os muros do meu ministério totalmente restaurados! Edificados por Deus como os muros de Jerusalém! [2x] Ainda que em ruínas esteja a minha vida, Como Neemias os meus muros vou reconstruir! Por certo surgirão Sambalate e Tobias Pra zombar de mim dizendo ser o fim... Deus me deu visão, pôs em minhas mãos uma grande obra E não posso parar! Sejam os muros da minha família, Sejam os muros do meu ministério totalmente restaurados! Edificados por Deus como os muros de Jerusalém! [4x]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada vez que a minha fé é provada Tu me dás a chance de crescer um pouco mais As montanhas e vales, desertos e mares Que atravesso me levam pra perto de Ti! Minhas provações não são maiores que o meu Deus E não vão me impedir de caminhar! Se diante de mim não se abrir o mar... Deus vai me fazer andar por sobre as águas! Rompendo em fé! Minha vida se revestirá do Teu poder! Rompendo em fé! Com ousadia vou mover o sobrenatural Vou lutar e vencer! Vou plantar e colher! A cada dia vou viver rompendo em fé! Rompendo em fé! Minha vida se revestirá do Teu poder! Rompendo em fé! Com ousadia vou mover o sobrenatural Vou lutar e vencer! Vou plantar e colher! A cada dia vou viver rompendo em fé!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Espírito, És bem-vindo aqui! Vem inundar, encher esse lugar É o desejo do meu coração, Sermos inundados por Tua glória, Senhor! Não há nada igual, não há nada melhor A que se comparar à esperança viva, Tua presença Eu provei e vi o mais doce amor que liberta o meu ser E a vergonha desfaz, Tua presença Santo Espírito, És bem-vindo aqui! Vem inundar, encher esse lugar É o desejo do meu coração, Sermos inundados por Tua glória, Senhor! Vamos provar quão real é Tua presença Vamos provar Tua glória e bondade, [4x] Santo Espírito, És bem-vindo aqui! Vem inundar, encher esse lugar É o desejo do meu coração, Sermos inundados por Tua glória, Senhor!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neste lugar Tu És real Vou me entregar totalmente... O Teu toque abriu os olhos do meu coração, Eu posso enxergar e entender! Se eu me humilhar diante do Teu altar E sacrificar aquilo que me custar... Tu inclinarás os Teus ouvidos ao meu clamor! Mais vale um dia no centro do Teu querer Que toda a vida sem jamais Te conhecer Tu És minha fonte, minha colheita, minha herança! A minha fonte é o Teu amor! Minha colheita é o Teu amor! Minha herança é o Teu amor! [3x] Se eu me humilhar diante do Teu altar E sacrificar aquilo que me custar... Tu inclinarás os Teus ouvidos ao meu clamor! Mais vale um dia no centro do Teu querer Que toda a vida sem jamais Te conhecer Tu És minha fonte, minha colheita, minha herança!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se o sol se pôr e a noite chegar Tu És quem me guia! Se a tempestade me alcançar Tu És meu abrigo! Se o mar me submergir a Tua mão... Me traz à tona pra respirar e me faz andar sobre as águas! Tu És o Deus da minha salvação! És o meu dono, minha paixão! Minha canção e o meu louvor! Se o sol se pôr e a noite chegar Tu És quem me guia! Se a tempestade me alcançar Tu És meu abrigo! Se o mar me submergir a Tua mão... Me traz à tona pra respirar e me faz andar sobre as águas! Tu És o Deus da minha salvação! És o meu dono, minha paixão! Minha canção e o meu louvor! [2x] Aleluia, Aleluia... Aleluia, Aleluia...    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se tentaram matar os teus sonhos sufocando o teu coração... Se lançaram você numa cova e ferido perdeu a visão! [2x] Não desista, não pare de crer! Os sonhos de Deus jamais vão morrer! Não desista, não pare de lutar, não pare de adorar! Levanta os teus olhos e vê, Deus está restaurando os teus sonhos e a tua visão! Recebe a cura! Recebe a unção! Unção de ousadia, Unção de conquista, Unção de multiplicação! [2x] Recebe a cura! Recebe a unção! Unção de ousadia, Unção de conquista, Unção de multiplicação! [5x]      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os sonhos de Deus são maiores que os meus, Ele vai fazer o melhor por mim! Ele vai além do que eu posso ver, Ele faz o que eu não posso fazer! Deus vai cumprir os Seus planos em mim, Ele vai fazer o que lhe apraz! Sou pequeno e falho mas Ele é Deus! Ele só faz o melhor pelos Seus! [2x] [----- Versão Playback -----] Acredito sim! Acredito sim! Acredito sim que Deus vai fazer o impossível em meu viver, Acredito sim! Acredito sim! Acredito sim que Deus vai fazer o impossível em meu viver, O impossível Deus vai fazer! [2x] [----- Fim da Versão Playback -----] [----- Versão Orquestra ADCPTA -----] Acredito sim! Acredito sim! Acredito sim que Deus vai fazer o impossível em meu viver, [3x] O impossível Deus vai fazer! (2x) [----- Fim da Versão Orquestra ADCPTA -----]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nunca houve noite que pudesse impedir o nascer do sol e a esperança! E não há problema que possa impedir as mãos de Jesus pra me ajudar! [2x] Haverá um milagre dentro de mim, Vem descendo o rio pra me dar a vida! Este rio que emana lá da cruz do lado de Jesus! [2x] Aquilo que parecia impossível! Aquilo que parecia ão ter saída... Aquilo que parecia ser minha morte... Mas Jesus mudou minha sorte, sou um milagre estou aqui! [2x] Usa-me! Sou o Teu milagre! Usa-me! Eu quero Te servir! Usa-me! Sou a Tua imagem! Usa-me! Ó Filho de Davi... Aquilo que parecia impossível! Aquilo que parecia não ter saída... Aquilo que parecia ser minha morte... Mas Jesus mudou minha sorte, sou um milagre estou aqui! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">És Tu única razão da minha adoração ó Jesus! És Tu única esperança que anelo ter ó Jesus! Confiei em Ti, fui ajudado! Tua salvação tem me alegrado! Hoje há gozo em meu coração, com meu canto Te louvarei! Eu Te louvarei! Te glorificarei! Eu Te louvarei meu bom Jesus! Em todo tempo Te louvarei Em todo tempo Te adorarei Eu Te louvarei! Te glorificarei! Eu Te louvarei meu bom Jesus!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesmo que eu ande em meio ao frio, Mesmo que eu vá correndo sem direção Mesmo que eu me canse de lutar ou esperar algo acontecer Mesmo que eu me encontre em meio ao caos! Eu sei que tudo continua sendo d’Ele, Eu sei que posso sempre andar com Ele! Eu sei que o Seu amor é duradouro e é para sempre, Eu sei que o Seu amor é pra mim! Tem tudo a ver com Ele! Com Ele eu sei pra onde eu devo ir! Tem tudo a ver com Ele! A cruz revela Seu amor por mim E mesmo se eu me abalar O Teu amor vai sustentar Tudo o que há em mim... (2x) [2x] Ainda que os montes se movam Ainda que as colinas sumam O Teu amor por mim permanecerá! Teu amor por mim permanecerá! [4x] Tem tudo a ver com Ele! Com Ele eu sei pra onde eu devo ir! Tem tudo a ver com Ele! A cruz revela Seu amor por mim E mesmo se eu me abalar o Teu amor vai sustentar Tudo o que há em mim... (2x) [4x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os reinos se abalam Os povos se curvam As bocas se abrem As mãos se levantam Pra dizer que Tu És o Rei! Pra dizer que Tu És o Senhor! [2x] Teu reino é sempre eterno, Firmado em misericórdia! Justiça e igualdade, Bondade e fidelidade! A Tua Igreja Te adora! A Tua Igreja Te adora! [2x]      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lembro quando Te encontrei Tudo novo Você fez Os abraços que senti Me fizeram prosseguir Várias vezes eu caí E Você me levantou Eu achava estar bem Mas me rendo! Eu me rendo, Eu me rendo, Eu me rendo a Ti! (2x) Toca em mim de novo! Enche-me de novo! Eu não me vejo sem Tua presença! [4x] Eu me rendo, Eu me rendo, Eu me rendo a Ti! (2x) Toca em mim de novo! Enche-me de novo! Eu não me vejo sem Tua presença! [4x]    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por onde eu for a Tua bênção me seguirá! Onde eu colocar as minhas mãos prosperará! A minha entrada e a minha saída bendita será Pois sobre mim há uma promessa! Prosperarei, transbordarei! Os meus celeiros fartamente se encherão! A minha casa terá sempre Tua provisão! Onde eu puser a planta dos meus pés possuirei! Pois sobre mim há uma promessa! Prosperarei, transbordarei! Para direita, para esquerda, Pra minha frente e para trás! [2x] Por todo lado, sou abençoado! Em tudo o que eu faço sou abençoado! Toda sorte de bênçãos o Senhor preparou para mim E em todas as coisas eu sou mais do que vencedor! Por todo lado, sou abençoado! Em tudo o que eu faço sou abençoado!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu tenho um Deus que não vai deixar Essa luta me matar, o desespero me tomar! Por mais pressão que seja a situação O controle ainda está na palma de Suas mãos! O choro dura uma noite mas a alegria, Ela vem pela manhã! Eu creio, eu creio! [2x] Ainda que a figueira não floresça e não haja fruto na vide E o produto da oliveira minta... Todavia me alegrarei! (6x) O choro dura uma noite mas a alegria, Ela vem pela manhã! Eu creio, eu creio! [2x] Ainda que a figueira não floresça e não haja fruto na vide E o produto da oliveira minta... Todavia me alegrarei! (3x) [4x] Todavia me alegrarei! (3x)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu sou grato por tudo que tenho, O tesouro maior desse mundo Me foi dado como herança eterna! Maior prova de um amor tão profundo! Tenho vida, alegria todo o tempo! Tenho amigos, família, muitos irmãos! Foi Jesus, meu amigo verdadeiro, Tudo Ele fez ao me dar a salvação! Ye, Yee... Yehovah! (4x) Louvarei ao Senhor em todo tempo, Seu louvor estará continuamente Em meus lábios e também no coração! Jesus Cristo será sempre nossa canção! Ye, Yee... Yehovah! (8x) Jesus Cristo... (3x) Será sempre Nossa canção!      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu não preciso ser reconhecido por ninguém, A minha glória é fazer com que conheçam a Ti! E que diminua eu, pra que Tu cresças Senhor mais e mais! E como os serafins que cobrem o rosto ante a Ti, Escondo o rosto pra que vejam Tua face em mim! E que diminua eu, pra que Tu cresças Senhor mais e mais! No santo dos santos a fumaça me esconde, só Teus olhos me veem! Debaixo de Tuas asas é o meu abrigo, meu lugar secreto! Só Tua graça me basta e Tua presença é o meu prazer! No santo dos santos a fumaça me esconde, só Teus olhos me veem! Debaixo de Tuas asas é o meu abrigo, meu lugar secreto! Só Tua graça me basta e Tua presença é o meu prazer! [2x] Tua presença é o meu prazer! Tua presença... Tua presença é o meu prazer! [4x] No santo dos santos a fumaça me esconde, só Teus olhos me veem! Debaixo de Tuas asas é o meu abrigo, meu lugar secreto! Só Tua graça me basta e Tua presença é o meu prazer!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre no quarto e feche a porta, Chegou a hora de falar com Deus! Dobre os joelhos e sinta a presença Que toma todo esse lugar... Sinta a glória de Deus! Sinta a glória do Pai! Não te detenha se as lágrimas rolarem E as batidas do seu coração acelerarem  É Ele mexendo no secreto da gente, O lugar que ninguém conhece mas Ele viu e sabe curar! Ele viu e sabe o remédio pra curar toda ferida! Jesus! Tua presença é o que eu mais quero, Jesus! Tua presença é o meu remédio, Jesus! Eu não quero ouro nem prata, só quero que cuides de mim! Eita! Que presença é essa? Presença que mexe e confronta com tudo aqui dentro da gente! Que causa arrepio na alma e a gente sente, Jesus! Que eu perca dinheiro e perca amigos só não quero perder... Tua presença! (5x) Não te detenha se as lágrimas rolarem E as batidas do seu coração acelerarem  É Ele mexendo no secreto da gente, O lugar que ninguém conhece mas Ele viu e sabe curar! Ele viu e sabe o remédio pra curar toda ferida! Jesus! Tua presença é o que eu mais quero, Jesus! Tua presença é o meu remédio, Jesus! Eu não quero ouro nem prata, só quero que cuides de mim! Eita! Que presença é essa? Presença que mexe e confronta com tudo aqui dentro da gente! Que causa arrepio na alma e a gente sente, Jesus! Que eu perca dinheiro e perca amigos só não quero perder... Tua presença! (5x) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quero sempre estar diante de Ti no Teu altar! Pronto pra sentir e receber o Teu poder Além do véu eu quero estar, vem fluir a Tua unção! E transbordar meu coração, quero pronto estar pra seguir e conquistar! Renova a unção sobre mim para profetizar e pregar a libertação... E o Teu poder pra curar, as cadeias quebrar com o agir e fluir desta unção Uma só palavra que Deus mandar vai fazer a minha vida mudar! Em meio as lutas eu vou triunfar, pois eu sei que é só em Ti confiar! Se o inimigo quiser me combater, não há nada que me faça temer Não importa o que enfrentarei com a unção imbatível serei! Além do véu eu quero estar, vem fluir a Tua unção! E transbordar meu coração, quero pronto estar pra seguir e conquistar! Renova a unção sobre mim para profetizar e pregar a libertação... E o Teu poder pra curar, as cadeias quebrar com o agir e fluir desta unção Uma só palavra que Deus mandar vai fazer a minha vida mudar! Em meio as lutas eu vou triunfar, pois eu sei que é só em Ti confiar! Se o inimigo quiser me combater, não há nada que me faça temer Não importa o que enfrentarei com a unção imbatível serei!      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma chance igual a essa talvez eu não tenha mais... Quero estar em Tua presença nem que seja a última vez... Se tiver que gritar, eu gritarei! Se tiver que chorar, eu chorarei! Se tiver que humilhar o meu espírito, assim o farei... Me dá mais uma chance! Eu quero nascer do Teu Espírito! Eu quero matar minha carne! Fazer Tua vontade doce Espírito! Que a minha vida seja Tua vida Jesus! [2x] Eu quero nascer do Teu Espírito! Eu quero matar minha carne! Fazer Tua vontade doce Espírito! Que a minha vida seja Tua vida... (4x) Jesus!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma nova história Deus tem pra mim, Um novo tempo Deus tem pra mim! Tudo aquilo que perdido foi ouvirei de Sua boca, te abençoarei! Sai de tua tenda ó filho meu, te mostrarei as estrelas do céu! Sai de tua tenda ó filho meu, te mostrarei a areia do mar! Será que podes contar? Será que podes imaginar tudo aquilo que sonhei para ti, filho meu? O que minhas mãos fizeram para ti, filho meu? Minha bênção será sobre ti! Uma nova história Deus tem pra mim, Um novo tempo Deus tem pra mim! Tudo aquilo que perdido foi ouvirei de Sua boca, te abençoarei! Sai de tua tenda ó filho meu, te mostrarei as estrelas do céu! Sai de tua tenda ó filho meu, te mostrarei a areia do mar! Será que podes contar? Será que podes imaginar tudo aquilo que sonhei para ti, filho meu? O que minhas mãos fizeram para ti, filho meu? Minha bênção será sobre ti! Uma nova história Deus tem pra mim, Um novo tempo Deus tem pra mim! Tudo aquilo que perdido foi ouvirei de Sua boca, te abençoarei!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se tudo está difícil louve a Deus! Se está desesperado louve a Deus! Se o mar está na frente louve a Deus! Quando louvamos Deus se comove! Se já não tem mais jeito louve a Deus! Perdeu a esperança louve a Deus! Eu quero relembrar-te meu irmão Que o nosso Deus ainda faz milagre! Vem cantar louvores ao Senhor antes de atravessar o mar, Porque hoje o mar vai se abrir e você vai passar! [2x] Tudo o que acontece é pela fé, No reino de Deus é sempre assim! Quem tem fé avança sem parar, Sabe que sua prova está no fim! Vem profetizar seu amanhã! Venha sobre as águas caminhar! Venha pela fé agradecer Tudo o que o Senhor irá te dar! Vem cantar louvores ao Senhor antes de atravessar o mar, Porque hoje o mar vai se abrir e você vai passar! [3x] E você vai passar! E você vai passar!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No mundo busquei mas não preencheu-me Canções tão vazias, tesouros que um dia se consumarão Então você veio e me trouxe pra perto E todo desejo é satisfeito em Seu amor! Não há nada, nada melhor (3x) Que meu Deus! Não tenho medo de expor minhas fraquezas Defeitos e falhas não vou esconder, um Amigo encontrei! O Deus das montanhas É o Deus dos vales! E não há lugar que a Sua graça não possa me achar! Não há nada, nada melhor (3x) Que meu Deus! [2x] Torna o luto em festa! A vergonha em glória! Traz beleza às cinzas! O Senhor pode fazer! Traz a vida aos sepulcros! Faz de ossos, soldados! Faz no mar um caminho O Senhor pode fazer! Só o Senhor pode fazer! Não há nada, nada melhor (3x) Que meu Deus! [2x] Traz a vida aos sepulcros! Faz de ossos, soldados! Faz no mar um caminho O Senhor pode fazer! Só o Senhor pode fazer! Só o Senhor pode fazer! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tu És o Deus que quebra todas as cadeias, Destrói muralhas e derruba fortalezas Tu És o Deus que cura todas as doenças, Que purifica justifica e santifica! Tu És Tremendo, Maravilhoso e Conselheiro, Vitorioso, Leão de Judá! Tu És a Fonte de água viva bem cristalina que me sacia e me faz cantar Aleluia eu sou feliz em Te amar meu Salvador! Aleluia eu tenho paz, pois encontrei no Teu amor Alegria, vida eterna e louvor! Tu És o Deus que quebra todas as cadeias, Destrói muralhas e derruba fortalezas Tu És o Deus que cura todas as doenças, Que purifica justifica e santifica! Tu És Tremendo, Maravilhoso e Conselheiro, Vitorioso, Leão de Judá! Tu És a Fonte de água viva bem cristalina que me sacia e me faz cantar Aleluia eu sou feliz em Te amar meu Salvador! Aleluia eu tenho paz, pois encontrei no Teu amor Alegria, vida eterna e louvor! Videira, videira, videira, videira, videira, videira, vida! Tu És Tremendo, Maravilhoso e Conselheiro, Vitorioso, Leão de Judá! Tu És a Fonte de água viva bem cristalina que me sacia e me faz cantar Aleluia eu sou feliz em Te amar meu Salvador! Aleluia eu tenho paz, pois encontrei no Teu amor Alegria, vida eterna e louvor! Aleluia eu sou feliz em Te amar meu Salvador! Aleluia eu tenho paz, pois encontrei no Teu amor Alegria, vida eterna e louvor! Videira, videira, videira, videira, videira, videira, vida! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando a noite fria cair sobre mim E num deserto eu me encontrar Me ver cercado por egípcios e por faraó Sendo impedido de prosseguir, eu sei... Sei que o Teu fogo cairá sobre mim! (2x) E me levará a em Ti confiar (2x) Então eu direi, Oh, Uh, Oh! Abra-se o mar! E eu passarei pulando e dançando em Sua presença! [2x] Por isso eu pulo, pulo, pulo, pulo, pulo na presença do Rei! Por isso eu danço, danço, danço, danço, danço na presença do Rei Por isso eu grito, grito, grito, grito, grito na presença do Rei Por isso eu corro, corro, corro, corro, corro na presença do Rei Então eu direi, Oh, Uh, Oh! Abra-se o mar! E eu passarei pulando e dançando em Sua presença! [2x] Por isso eu pulo, pulo, pulo, pulo, pulo na presença do Rei! Por isso eu danço, danço, danço, danço, danço na presença do Rei Por isso eu grito, grito, grito, grito, grito na presença do Rei Por isso eu corro, corro, corro, corro, corro na presença do Rei Então eu direi, Oh, Uh, Oh! Abra-se o mar! E eu passarei pulando e dançando em Sua presença! [2x]    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lutamos com armas de fé e nada irá resistir enquanto adoramos Em meio às tribulações o nosso Deus é vencedor, nós O adoramos! Vitorioso És! Na tempestade estás Teu nome infalível é! Os reinos vêm e vão Teu trono acima está Teu nome imutável é! O inferno não prevaleceu e nada irá me impedir, eu Te adorarei... Muralhas vão estremecer, cadeias irão se romper enquanto adoramos! Vitorioso És! Na tempestade estás Teu nome infalível é! Os reinos vêm e vão Teu trono acima está Teu nome imutável é! Como um trovão Impetuoso Poderoso És! Grandioso És! Que venha o céu Nós proclamamos Poderoso És! Grandioso És! [2x] Vitorioso És! Na tempestade estás Teu nome infalível é! Os reinos vêm e vão Teu trono acima está Teu nome imutável é! Como um trovão Impetuoso Poderoso És! Grandioso És! Que venha o céu Nós proclamamos Poderoso És! Grandioso És! Vitorioso És! Na tempestade estás Teu nome infalível é! Os reinos vêm e vão Teu trono acima está Teu nome imutável é!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sua morte ali na cruz carregando a minha dor, Você se expôs por mim! Se entregou em meu lugar e me deu uma nova chance Eu vou recomeçar! Vou deixar na cruz tudo o que passou, tudo o que ficou pra trás! Olho pra Jesus, corro pra Jesus O Seu amor me chama! Eu dependo desse amor, do Seu amor mais que tudo! Eu confio que esse amor tem poder pra curar dores! Sua morte ali na cruz carregando a minha dor, Você se expôs por mim! Se entregou em meu lugar e me deu uma nova chance Eu vou recomeçar! Vou deixar na cruz tudo o que passou, tudo o que ficou pra trás! Olho pra Jesus, corro pra Jesus O Seu amor me chama! Eu dependo desse amor, do Seu amor mais que tudo! Eu confio que esse amor tem poder pra curar dores!      </t>
+  </si>
+  <si>
+    <t>Se você já pensou em desistir Tenha fé e não pare de sorrir Você vai ver que o inimigo não vai entender Que o crente até mesmo chorando ele canta porque... Se chorar, chora nos pés do Senhor, Tem Jesus como teu consolador Teu sofrer, uma noite até pode durar Mas o crente sabe que a vitória vem pela manhã Então cante assim... Vou seguir os passos de Jesus Vou levar comigo a minha cruz Se espinhos ferem os meus pés eu vou descansar nos braços de Jesus! [2x] Quando o crente está firme nos pés do Senhor Ele passa pela prova cantando louvor O inimigo se levanta mas tem que cair, O crente não deixa a cruz mas leva até o fim! Se cair mil ao seu lado ele não cede não, Sempre está protegido por um batalhão! Deus dá ordens aos Seus anjos para proteger, Bem guardado desse jeito, desistir por que? Vou seguir os passos de Jesus Vou levar comigo a minha cruz Se espinhos ferem os meus pés Eu vou descansar nos braços de Jesus! [2x] Vou seguir os passos de Jesus Descansar nos braços de Jesus! _x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não há um Deus maior que o Seu, Ele vai curar sua dor! Se um fio de escarlate salvou a meretriz e sua família O que pode o sangue de Cristo fazer por você e por sua casa? Se um filho partiu, se um bem se perdeu Se o amor esfriou ou alguém morreu! Você pode chorar, mas não deixe de esperar em Deus! Sua casa é herança de Deus, ninguém pode tocar! Pois quem guarda sua casa é o Leão da tribo de Judá! Quem tem a marca de Cristo tem uma aliança firmada com Deus! O sangue reveste a casa enquanto lá dentro há glória de Deus! Reúne a família, acende a família! Renova entre eles o amor... Ele acaba com a guerra, Ele sara a terra! Da casa se torna Senhor! Ele põe, Ele tira, Ele mata e dá vida! Faz tudo voltar pro lugar! Pois a casa que teme ao Senhor sempre vai triunfar! Se um filho partiu, se um bem se perdeu Se o amor esfriou ou alguém morreu! Você pode chorar, mas não deixe de esperar em Deus! Sua casa é herança de Deus, ninguém pode tocar! Pois quem guarda sua casa é o Leão da tribo de Judá! Quem tem a marca de Cristo tem uma aliança firmada com Deus! O sangue reveste a casa enquanto lá dentro há glória de Deus! Reúne a família, acende a família! Renova entre eles o amor... Ele acaba com a guerra, Ele sara a terra! Da casa se torna Senhor! Ele põe, Ele tira, Ele mata e dá vida! Faz tudo voltar pro lugar Pois a casa que teme ao Senhor sempre vai triunfar! [2x] Pois a casa que teme ao Senhor... (3x) Sempre vai triunfar!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Há momentos que as palavras mais parecem frases decoradas que Deus cansou de ouvir... Há momentos que a solidão aperta o peito e dói o coração mas não vou desistir! Vou andar de joelhos! Vou andar de joelhos! É preciso acreditar que a vitória chegará, Deus não nos deixa só! É preciso acreditar, ter coragem pra lutar, De joelhos é melhor! É melhor de joelhos! É melhor de joelhos! É melhor de joelhos! Clame ao Senhor! Não cesse, não pare, insista, avante prossiga, de orar não desista! Clame ao Senhor! Ainda que faltem palavras o Deus que entende o gemido da alma já te escutou! Pois da oração de um justo Deus se agrada! A oração é a chave que abre as portas! A oração, o inimigo não suporta a oração! É o meu particular com Deus, é a oração! Se quer milagre, ora! Queres cura, ora! Quer resposta, ora! Providência, ora! Queres ser usado? O segredo é oração! É vida no altar, Vida de comunhão! Então vai orando, vai clamando, vai chorando até tocar o céu! De joelhos nos tornamos íntimos de Deus! Um Deus que ama e compreende a voz de cada crente! [2x] Clame ao Senhor! Não cesse, não pare, insista, avante prossiga, de orar não desista! Clame ao Senhor! Ainda que faltem palavras o Deus que entende o gemido da alma já te escutou! Pois da oração de um justo Deus se agrada! A oração é a chave que abre as portas! A oração, o inimigo não suporta a oração! É o meu particular com Deus, é a oração! Se quer milagre, ora! Queres cura, ora! Quer resposta, ora! Providência, ora! Queres ser usado? O segredo é oração! É vida no altar, Vida de comunhão! Então vai orando, vai clamando, vai chorando até tocar o céu! De joelhos nos tornamos íntimos de Deus! Um Deus que ama e compreende a voz de cada crente! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Já podemos ouvir a voz de Deus neste lugar Fiquemos atentos para ouvir Deus falar Ele fala como quer, é só você usar a fé E verás que esta voz contigo é Sua voz soa como um trovão, Ela está em cada coração No louvor, na palavra, no testemunho de um irmão No sorriso da criança, no amor, na esperança E até mesmo no pedido de perdão! Todas: Basta somente você crer que esta voz tem o poder, E esta voz está falando com você! Quando Ele fala, toda a terra cala, até o inferno tem que obedecer! Ele quebra o arco, despedaça a lança, tempestade em bonança hoje vai fazer! Ele levanta a voz, faz a guerra cessar, Ele detém o sol, faz a lua parar! Ele ordena Seus anjos pra contigo lutar e teus inimigos têm que recuar Não importa o problema Deus tem solução, Ele estará contigo em qualquer situação! No mar ou no deserto Deus está por perto! Estende a mão! Sua voz soa como um trovão, Ela está em cada coração No louvor, na palavra, no testemunho de um irmão No sorriso da criança, no amor, na esperança E até mesmo no pedido de perdão! Basta somente você crer que esta voz tem o poder, E esta voz está falando com você! Quando Ele fala, toda a terra cala, até o inferno tem que obedecer! Ele quebra o arco, despedaça a lança, tempestade em bonança hoje vai fazer! Ele levanta a voz, faz a guerra cessar, Ele detém o sol, faz a lua parar! Ele ordena Seus anjos pra contigo lutar e teus inimigos têm que recuar Não importa o problema Deus tem solução, Ele estará contigo em qualquer situação! No mar ou no deserto Deus está por perto! Estende a mão! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Abra o seu coração, deixe Deus falar contigo! Ele diz que terminou, Ele diz que acabou, o inimigo está vencido! Põe agora a tua fé em Jesus de Nazaré E esqueça a sua luta, vê se agora me escuta, o teu Deus está aqui! Todas: Passe pela luta cantando ao Senhor, Passe pela prova exaltando com amor Passe na fornalha que Ele vai estar lá, Ele pisa na brasa pra lá e pra cá! Você tem um Deus que escreve e apaga, derruba o inimigo das nossas almas, Mesmo se na cova do leão você está, Ele é o Leão da Tribo de Judá! Põe agora a tua fé em Jesus de Nazaré E esqueça a sua luta, vê se agora me escuta, o teu Deus está aqui! Passe pela luta cantando ao Senhor, Passe pela prova exaltando com amor Passe na fornalha que Ele vai estar lá, Ele pisa na brasa pra lá e pra cá! Você tem um Deus que escreve e apaga, derruba o inimigo das nossas almas, Mesmo se na cova do leão você está, Ele é o Leão da Tribo de Judá! [2x] Só Ele é Deus!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calma, tudo o que está acontecendo está sob o olhar de Deus Calma, Deus vai restituir em dobro o que você perdeu Aquela voz que você ouve tentando lhe desanimar... Você chora e parece que o mundo vai desabar... O milagre que não chega, a promessa que não vem... Você se pergunta: Será que Ele vem? Será que Jesus vem!? Calma, tudo o que está acontecendo está sob o olhar de Deus Calma, aquieta o seu coração, Ele cuida dos Seus! Não é essa luta, não é essa prova que vai lhe fazer parar! Se levante porque Deus está contigo pra lhe ajudar Está chegando a sua hora, e quem sabe é agora! Mesmo que ninguém lhe veja, Ele sabe onde você está! Então não há porque se preocupar! Ele não dorme! Ele não falha! Ele não brinca! Ele não tarda! Jesus cumpre o que promete, Não é o homem pra mentir! Ele nunca se esquece! Se marcou, assina embaixo! Sua promessa tem data e horário! O tempo é d’Ele, Ele sabe o dia, Sua palavra é a própria profecia! Confia, confia, confia, em Deus confia! Confia meu irmão, tem vitória chegando Confia meu irmão! Ele não dorme! Ele não falha! Ele não brinca! Ele não tarda! Jesus cumpre o que promete, não é o homem pra mentir! Ele nunca se esquece! Se marcou, assina embaixo! Sua promessa tem data e horário! O tempo é d’Ele, Ele sabe o dia, Sua palavra é a própria profecia! Confia, confia, confia, em Deus confia! Confia meu irmão, tem vitória chegando, Levante a sua mão! Receba, receba, receba agora! Vitória, vitória! Adore, é dia de vitória! É dia de vitória! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como Davi eu abro mão das vestes reais... E sem coroa aos Seus pés vou me prostrar! Se precisar até a cinza eu vou descer e me humilhar! Vou me prostrar diante do altar e Te adorar! Vou adorar! Vou exaltar! Mesmo na prova eu vou louvar! Vou adorar! Vou exaltar! Mesmo na luta eu vou cantar! Pois não há Deus como Tu, Jeová! Não importa a situação ao Teu nome eu vou adorar! Por maior que seja a tribulação simplesmente eu vou adorar! Se o vale quiser me prender, se a muralha na frente estiver Vou Te adorar simplesmente por quem Tu És! Vou adorar! Vou exaltar! Mesmo na prova eu vou louvar! Vou adorar! Vou exaltar! Mesmo na luta eu vou cantar! Pois não há Deus como Tu, Jeová! Adorado! Exaltado! Magnificado seja o Teu nome! Adonai, El Shaddai, Eloí, Yeshua! Maravilhoso! Conselheiro! Pai da eternidade Príncipe da paz! És o Deus forte, Tu és Senhor! Vou adorar! Vou exaltar! Mesmo na prova eu vou louvar! Vou adorar! Vou exaltar! Mesmo na luta eu vou cantar! Pois não há Deus como Tu, Jeová!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Por Tua morte lá na cruz, Jesus Te adorarei! Pelo sangue derramado, pelo véu que foi rasgado, Te adorarei! Pelo privilégio de aqui estar, poder soltar a minha voz e Te louvar! Por sentir a Sua presença, pela total certeza da Tua existência, Te adorarei! Por Teu Santo Espírito que habita em mim, Por Teu grande amor que não tem fim, Te adorarei! Por me inspirar na letra da canção, Por cantar agora e sentir Sua unção, Te adorarei! Todas: Te adorarei, Senhor mais uma vez Te adorarei! Fui chamado pra adorar, então adorarei! Sou adorador, foi assim que Deus me fez, então adorarei! [2x] Ninguém vai me calar, Te adorarei! Está em meu DNA, Te adorarei! Ainda que tirarem minha vida quando chegar aí no Céu Te adorarei! [2x] Te adorarei, Te adorarei! Quando chegar aí no Céu Te adorarei! [2x]    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: A dor, de procurar e não achar uma saída! É tão sofrido ver alguém perder a vida! O desespero toma conta do coração... A dor, de se chamar a petição não respondida! De esperar e ver a vida destruída! E concluir que não existe mais o que fazer... Todas: Mas Ele vem aí, e vem pra decidir! Se o teu caso está perdido, Ele faz o impossível! Pois Ele tem poder! Ele te faz vencer! Sim, Ele é o teu amigo! O Seu nome é Jesus Cristo! Sim foi Ele Quem apareceu depois de quatro dias, que Lázaro morreu! Naquela tumba fria já não existia uma esperança, uma solução... Sim foi Ele mesmo Quem falou que Ele é a vida e a ressurreição! Quando Ele disse: Lázaro, sai para fora Ele surpreendeu aquela multidão! Ele vai além da medicina quando Ele estende a Sua mão! Quando já não tem saída! Quando a morte vence a vida Ele ainda tem a solução! Mas Ele vem aí, e vem pra decidir! Se o teu caso está perdido, Ele faz o impossível! Pois Ele tem poder! Ele te faz vencer! Sim, Ele é o teu amigo! O Seu nome é Jesus Cristo! Ele vai além da medicina quando Ele estende a Sua mão! Quando já não tem saída! Quando a morte vence a vida Ele ainda tem a solução! Sim foi Ele Quem apareceu depois de quatro dias, que Lázaro morreu! Naquela tumba fria já não existia uma esperança, uma solução... Sim foi Ele mesmo Quem falou que Ele é a vida e a ressurreição! Quando Ele disse: Lázaro, sai para fora Ele surpreendeu aquela multidão! Ele vai além da medicina quando Ele estende a Sua mão! Quando já não tem saída! Quando a morte vence a vida... Ele ainda tem a solução! (Jesus! Jesus!) (3x) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Podem lançar ele na prisão, Como Paulo e Silas ele entoa um hino em adoração Podem jogar ele na fornalha Como Sadraque, Mesaque e Abednego ele adora só um Deus que nunca falha! E se tudo ele perder, como aconteceu com Jó Ele adora porque sabe que Deus nunca o deixa só! Em fornalha ou cova de leões ou até mesmo dentro de prisões Ninguém cala um adorador! Ele adora na alegria, adora na dor! Ainda que amarrem os seus pés e mãos Tentando parar a sua adoração Ele ainda adora com o coração! Todas: Adorador! Adora aí, adora não importa a dor! Adorador! Além das circunstâncias é adorador! [2x] Solo: Se a bênção lhe alcançar, é adorador! Mas se pelo vale tiver que passar, é adorador! Se o celeiro transbordar, é adorador! Mas se a figueira não brotar, é adorador! Todas: Adorador! Adora aí, adora não importa a dor! Adorador! Além das circunstâncias é adorador! [2x] É adorador! É adorador! Além das circunstâncias é adorador! [2x] Todas: E se tudo ele perder, como aconteceu com Jó Ele adora porque sabe que Deus nunca o deixa só! Em fornalha ou cova de leões ou até mesmo dentro de prisões Ninguém cala um adorador! Ele adora na alegria, adora na dor! Ainda que amarrem os seus pés e mãos Tentando parar a sua adoração Ele ainda adora com o coração! Adorador! Adora aí, adora não importa a dor! Adorador! Além das circunstâncias é adorador! [2x] É adorador! É adorador! Além das circunstâncias é adorador! [2x] Adorador! Adora aí, adora não importa a dor! Adorador! Além das circunstâncias é adorador! [2x] É adorador! É adorador! Além das circunstâncias é adorador! [4x] É adorador!      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Mestre eu preciso conversar Contigo... Quero Lhe falar, compartilhar minha dor! Ontem em minha casa um dos meus criados foi acometido de um mal que pode lhe matar! Diga tão somente Mestre uma palavra, Pois não há distância pra o Senhor curar! Não sou digno que entre em minha casa! Não precisa se cansar com caminhadas... Eu não quero incomodá-Lo... Não precisa dispersar a multidão pra atender esse pobre coração... Basta apenas uma palavra pro meu criado ser curado! Todas: Basta apenas uma palavra pra o milagre acontecer! Basta apenas uma palavra pra todo o inferno se render! Basta apenas uma palavra pra o homem que sem força ter o seu vigor Sair de derrotado pra ser vencedor! Basta apenas uma palavra pra tempestade virar brisa! Basta apenas uma palavra pra morte dar lugar a vida! Basta apenas uma palavra pra um pobre, frágil coração Ser um eterno campeão! Basta apenas uma palavra pra um pobre, frágil coração Ser um eterno campeão! Diga tão somente Mestre uma palavra...   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se teu inimigo tem se levantado pra te afrontar, pra te deixar parado Querendo roubar, irmão, a tua benção... Ele é sutil e quer te ver chorando, Deus te prometeu, mas ele está falando Que não adianta, você já perdeu... Olha, não desista, não se entregue agora! Acredite, Deus vai te a dar vitória E o inferno inteiro não vai entender! Você não é cauda, você é cabeça! Põe a boca no pó, irmão e prevaleça! Que o teu Deus a porta vai abrir! Não, não tem impedimento nem grandes muralhas! Se aquecem sete vezes até a fornalha... Mas o cristão de Deus, ele vai prosseguir! Não, não tem valente, mesmo que seja gigante! Se o mar está na frente o nosso Deus garante Ele faz uma rua pra você seguir! Não, não tem nenhuma forca, correntes e covas O crente não tem medo, passa pela prova Na hora certa sabe que Deus vai agir! Não, não tem derrota, não importa aonde for! Deus Manifesta Sua graça, Seu amor E te faz um vencedor! Então cante um hino de alegria e de vitória, porque Deus é Deus! Faz milagres, maravilhas por um filho Seu! Expulsa a enfermidade, manda ela embora Creia n’Ele agora, Ele é o teu Deus! Glorifique o Seu nome, Ele está aqui! Acredite, Ele opera, Ele é assim! Jeová é este Deus que te estende a mão E hoje mesmo Ele trouxe a resposta da tua oração! Não, não tem nenhuma forca, correntes e covas O crente não tem medo, passa pela prova Na hora certa sabe que Deus vai agir! Não, não tem derrota, não importa aonde for! Deus Manifesta Sua graça, Seu amor e te faz um vencedor! E te faz um vencedor!          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você chorou, você pediu... Tanto, tanto insistiu, precisando da resposta Já não faz nenhum sentido a vida que está vivendo de fracasso e derrota Tão sozinho e sem sorte, no vale da sombra da morte Pensando até que é o fim... Mas Jesus que muda a história, já declarou sua vitória só pra te fazer feliz! O crente quando chora o Senhor responde! A oração do crente estremece o monte! E quando ele chora o Senhor atende! Tem um grande valor a lágrima do crente! Ele foi com Daniel lá na cova dos leões Nada ali aconteceu, Deus ouviu suas orações! Mesmo quando Ana orava, por um filho ela clamava e o Senhor a atendeu! Atendeu a Josué quando orou e o sol parou Mandou tocarem as trombetas e as muralhas derrubou! Esse Deus se faz presente, vive no meio da gente É o mesmo e não mudou!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Quero ver o Seu rosto, Quero ouvir Sua voz Tocar em Suas mãos Nas marcas da cruz Quero olhar nos Seus olhos Contemplar Sua Luz Quero dar um abraço gostoso em Jesus! Quero ver os arcanjos, anjos e querubins Conhecer Abraão E todos os profetas Quero andar pela praça da árvore da vida! Ver o rio de Deus que vem do Seu trono! Todas: Quero entrar na cidade de portas formosas! Quero ver os seus muros de pedras preciosas! Sei que não é um sonho esta grande verdade! A cidade de ouro não é fantasia mas realidade! É a Nova Jerusalém! A cidade do meu Rei! É a Nova Jerusalém! O reino do meu Deus Com milhares de santos ali não haverá mais lágrimas, Só haverá paz para todos ali! Voarei, voarei! E num segundo com Ele estarei! Glorificado num corpo de glória entrarei na presença do Altíssimo! Cantarei, cantarei um novo hino de riso e vitória! Fui convidado pra festa das bodas com o Cordeiro Santo de Deus, Jesus Cristo que ressuscitou, Vida eterna nos deu! Solo: Quero estar preparado, Quero estar revestido Deste sangue precioso, Vertido na cruz! Quero ter minhas vestes mais alvas que a neve! Quero ouvir a trombeta Ecoar nas alturas! E deixar este mundo E esquecer as feridas! Quero ser um dos salvos que serão atraídos pelas mãos de Jesus! Voarei... Voarei... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: O crente pode ser provado, Mas na prova ele não fica! O choro pode até durar uma noite inteira mas eu sei que a alegria virá ao amanhecer! Nunca vi um justo mendigar o pão Nem sua descendência! Ele crê que o seu Deus é bem maior e vai entrar com providência! Pode vir a tempestade que vier, nada abala sua fé! Vai passar, isso é momento, Sabe está chegando a hora Ele é como uma palmeira, Depois que passa a tormenta Se levanta e põe de pé E canta o hino da vitória... Todas: A vitória está depois da prova permaneça fiel! Deus tem um segredo com você! Desistir agora por que? Deus faz este amargo virar mel! A vitória está depois do vale você vencerá! Você não nasceu para perder! Deus está cuidando de você! Deus não desampara o crente que é fiel! É fiel! É fiel! O crente que é fiel! A vitória está depois da prova permaneça fiel! Deus tem um segredo com você! Desistir agora por que? Deus faz este amargo virar mel! A vitória está depois do vale você vencerá! Você não nasceu para perder! Deus está cuidando de você! Deus não desampara o crente que é fiel! É fiel! É fiel! O crente que é fiel! (2x)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Eu creio no poder da oração! Aquele que se prostra com o rosto no pó e chora É dono do milagre, É dono do milagre! Eu creio no poder da oração! Aquele que na luta não murmura, se levanta e ora É dono do milagre, É dono do milagre! Quando a gente ora cresce intimidade, Deus nos capacita com autoridade! E quando a oração chega aos Seus ouvidos logo o céu se abre! Então se você crê levante a mão agora! Erga a sua voz com brado de vitória e Comece a orar! Comece a clamar! Comece a adorar! Todas: Se quer ser ungido, separado, consagrado É de joelhos! Se quer sua família restaurada, Ao pé do altar É de joelhos! Se quer um milagre, A cura dessa enfermidade É de joelhos! Oh, Oh... Oh, Oh... Se quer ser profeta, pregador do evangelho É de joelhos! Se quer as promessas, Uma vida abençoada É de joelhos! Se quer o seu nome escrito no livro da vida É de joelhos! Oh, Oh... Oh, Oh... E se o meu povo que se chama pelo Meu nome orar e buscar Minha face, se converter dos seus maus caminhos, Eu sararei a sua terra! Todas: Em fervente oração Vem o teu coração Na presença De Deus derramar Mas só podes fruir O que estás a pedir Quando tudo deixares no Altar! Coro: Se quer ser ungido, separado, consagrado É de joelhos! Se quer sua família restaurada, Ao pé do altar É de joelhos! Se quer um milagre, A cura dessa enfermidade É de joelhos! Oh, Oh... Oh, Oh... Se quer ser profeta, pregador do evangelho É de joelhos! Se quer as promessas, Uma vida abençoada É de joelhos! Se quer o seu nome escrito no livro da vida É de joelhos! Oh, Oh... Oh, Oh... Quando tudo perante o Senhor estiver E todo o teu ser Ele controlar Só então hás de ver Que o Senhor tem poder! Quando tudo deixares no altar...          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um grande mar está a sua frente, Problemas e tantas aflições estão ao seu redor Você pensa que não há uma saída... Olhe para o Senhor, d’Ele vem o seu socorro! Deus abre esse mar e faz você passar, Você não está sozinho Ele abre o caminho A vitória vai chegar, então você vai cantar: Grande é o Senhor Jeová! Senhor Jeová! [2x] Não se desanime, hoje Deus fala com você: Sou um Deus tremendo e poderoso, vim aqui lhe socorrer Ó filho querido, derramarei sobre você Da minha graça e do poder do meu Espírito e você vai vencer, vencer! Deus abre esse mar e faz você passar, Você não está sozinho Ele abre o caminho A vitória vai chegar, então você vai cantar: Grande é o Senhor Jeová! Senhor Jeová! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Deus é Fiel e Sua palavra se cumprirá! Nenhuma de Suas promessas, Nenhuma delas se perderá! Não é homem pra que minta, nem filho do homem pra se arrepender! Quando diz que sim... Creia, Vai acontecer! [2x] Todas: Deus é Fiel e trabalha por você! Ele não desiste enquanto você não vencer! Deus é Fiel e trabalha por você! Enquanto você louva veja o que Ele vai fazer! Muralhas vão cair, o mar vai se abrir Só pra você passar! A glória vai descer, de unção vai te encher, Veja o fogo queimar! O céu vai se abrir, a chuva vai descer, Vai fazer reviver! E tudo que está morto na sua vida Hoje vai fazer renascer! Este é o Deus do impossível que trabalha por você! Deus é Fiel! Fiel! Deus é Fiel! Deus é Fiel e trabalha por você! Ele não desiste enquanto você não vencer! Deus é Fiel e trabalha por você! Enquanto você louva veja o que Ele vai fazer! Muralhas vão cair, o mar vai se abrir Só pra você passar! A glória vai descer, de unção vai te encher, Veja o fogo queimar! O céu vai se abrir, a chuva vai descer, Vai fazer reviver! E tudo que está morto na sua vida Hoje vai fazer renascer! Ele é o Deus do impossível que trabalha por você! (2x) Deus é Fiel e trabalha por você!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu andei sem destino perdi a razão, na estrada da vida eu fui na contramão Mergulhei de cabeça no abismo sem fim, loucura e tristeza eram partes de mim! No terrível espinho do pecado eu pisei, a ponte entre a vida e a morte eu cruzei! No outro lado eu vi meus pedaços no chão, minh’alma vagava na escuridão! Das garras da morte o Senhor me arrancou! Me mostrou a verdade que eu nunca quis ver Acordei de um pesadelo e voltei a viver! Eu hoje estou bem, mas já estive mal! Sou dia de sol, mas já fui temporal! Fui barco à deriva, fui noite sem lua, verão sem calor... Hoje eu sou verdade, mas já fui engano Já fui fonte seca, hoje eu sou oceano A alma ferida, coração quebrado, Jesus consertou! Eu hoje estou bem, mas já estive mal! Sou dia de sol, mas já fui temporal! Fui barco à deriva, fui noite sem lua, verão sem calor... Hoje eu sou verdade, mas já fui engano Já fui fonte seca, hoje eu sou oceano A alma ferida, coração quebrado, Jesus consertou!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Maria entra na cidade chorando, Perguntando: “Onde foi que nós perdemos a Jesus?” José preocupado busca Ele de um lado pro outro, Perdeu Jesus na festa, e agora o que fazer? Essa história se repete por aí em nosso dias, Estão perdendo Jesus na festa distraídos com outras coisas... A festa pode ter cantor e pregador, convidados nobres Mas a festa que perde a Jesus, a festa é pobre! A festa pode ser grandiosa e divulgada atraindo as massas, Mas a festa que perde a Jesus, perde a graça! Todas: Quando Jesus está presente é diferente, a gente sente! Quando Ele fala, a terra abala, o mal se cala, Ele não falha! E nesta festa Ele quem manda, que comanda e o crente canta: Ele é o Centro de tudo neste lugar, é o Dono da festa! Tem cura, tem milagre, tem poder, tem visão! Tem glória, tem azeite, tem virtude e unção! Sua majestade toma conta deste lugar Fica conosco nesta festa queremos Te adorar! Batiza, salva, cura, traga libertação! Renova, refrigera, restaura o coração! Já é irresistível Tua presença aqui, Fica conosco nesta festa, nós queremos Te ouvir! Quando Jesus está presente é diferente, a gente sente! Quando Ele fala, a terra abala, o mal se cala, Ele não falha! E nesta festa Ele quem manda, que comanda e o crente canta: Tu És o Centro de tudo neste lugar, faz Teu querer Senhor! Tu És a Única Estrela que brilha aqui, faz Teu querer Senhor! Faz Teu querer Senhor... (5x) És o Dono da festa! Tem cura, tem milagre, tem poder, tem visão! Tem glória, tem azeite, tem virtude e unção! Sua majestade toma conta deste lugar Fica conosco nesta festa queremos Te adorar! Batiza, salva, cura, traga libertação! Renova, refrigera, restaura o coração! Já é irresistível Tua presença aqui, Fica conosco nesta festa, nós queremos Te ouvir! Faz Teu querer Senhor... (4x) És o Dono da festa!          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem é Este que tem autoridade Pra fazer o mar se acalmar? Quem é Este que amou a minha vida E a Sua deu pra me salvar? Ele É Jesus! Igual não há! Domina o vento e o bravo mar! (2x) Quem é Este que ama ao perdido, E um lar lhe oferece com amor? Quem é Este que resolve seus problemas, E tira do corpo toda dor? Ele É Jesus! Igual não há! Domina o vento e o bravo mar! (2x)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A marcha nupcial vai ser tocada, Um casamento vai acontecer O porta-voz do reino diz: Vem vindo! E o Noivo vem sorrindo Sua Noiva receber Nas nuvens o encontro acontece, Novo corpo, novas vestes pela fé eu posso ver! A mesa está posta e adornada, A cidade preparada e os anjos a dizer: Ela é linda, ela é linda! É a Noiva do Cordeiro que acabou de chegar Ela é linda, ela é linda! Foi fiel no sofrimento e no Palácio vai entrar E a Igreja canta: Santo Santo é o Cordeiro, É fiel e verdadeiro, o Filho do Deus Jeová! Neste momento, tão bonito e sem igual lá no encontro triunfal a Igreja santa vai cantar: Ele é lindo, Ele é lindo! Deu a vida no madeiro, Se entregou em meu lugar! Ele é lindo, Ele é lindo! O Seu nome é vencedor, Leão da Tribo de Judá! E a Igreja canta: Santo Santo é o Cordeiro, É fiel e verdadeiro, o Filho do Deus Jeová! Neste momento, tão bonito e sem igual lá no encontro triunfal a Igreja santa vai cantar: Ele é Santo! Ele é Santo! Ele é justo, verdadeiro Filho do Deus Jeová! Ele é Santo! Ele é Santo! Já venceu o inferno e a morte, ressurgiu e Vivo Está! [2x] Já venceu o inferno e a morte, Ressurgiu e Vivo Está! Vivo... Vivo Está!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Nunca diga não, você vai conseguir! Se o inimigo se levanta vai ser pra cair! Deus não te esqueceu e nunca te deixou, Insista confiante, espere no Senhor! Há uma dor que não tem cura, há um coração ferido Que não sabe o que é ser feliz... Mas existe uma saída, hoje Deus vai dar um jeito e vai mudar a sua vida! Todas: Deixa o Senhor agir! Deixa o Senhor lutar por ti! Você não vai ser vencido, o seu Deus está contigo! Deixa o Senhor agir! [2x] Ele é o escudo forte, o Deus que não falha E se for preciso entra na fornalha para te proteger! Ele é Deus poderoso e sempre está presente, Ele está contigo e vai na sua frente, na sua frente! Deixa o Senhor agir! Deixa o Senhor lutar por ti! Você não vai ser vencido, o seu Deus está contigo! Deixa o Senhor agir! [2x] Ele é o escudo forte, o Deus que não falha E se for preciso entra na fornalha para te proteger! Ele é Deus poderoso e sempre está presente, Ele está contigo e vai na sua frente, na sua frente! Deixa o Senhor agir! Deixa o Senhor lutar por ti! Você não vai ser vencido, o seu Deus está contigo! Deixa o Senhor agir! Deixa o Senhor agir!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu não O adoro somente porque Ele é Santo... Eu não O adoro somente porque Ele é Justo... Fiel, Verdadeiro, Infalível, Inefável! Insondável, Insolúvel, Totalmente incomparável! Majestoso, Glorioso, Onipotente Ele é! Pai da eternidade! É o autor da minha fé! Eu não O adoro somente porque sei Que Ele tem nas mãos todo o poder! Comanda o universo com a palma de Suas mãos! Entre todos vencedores Ele é o Campeão! Eu tenho que O adorar, pois mesmo antes da fundação do mundo Em Seu coração um plano Ele traçou! Colocou em mim essência de um adorador! E é por isso que se eu não Lhe adorar eu morro... Sem Te adorar sou como grão de areia no fundo do mar! Sou como folha seca voando no ar, como pássaro sem asa, sem poder voar... Sem Te adorar minha vida não é vida, não tenho alegria! Sou alguém sem esperança em busca de guarida... Uma alma implorando por socorro! E é por isso que se eu não Lhe adorar eu morro... Eu tenho que Lhe adorar! Eu tenho que Lhe engrandecer! Eu tenho que Lhe exaltar! Eu tenho que Lhe bendizer! Eu tenho que enaltecer o santo nome do Senhor! Pois foi Ele que minha vida transformou! Transformou a minha morte em vida! Transformou minha tristeza em alegria! E é por isso que se eu não Lhe adorar eu morro... Sem Te adorar sou como grão de areia no fundo do mar! Sou como folha seca voando no ar, como pássaro sem asa, sem poder voar... Sem Te adorar minha vida não é vida, não tenho alegria! Sou alguém sem esperança em busca de guarida... Uma alma implorando por socorro! E é por isso que se eu não Lhe adorar... (3x) E é por isso que se eu não Lhe adorar... Eu morro! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Aquietai-vos e sabei que Eu Sou Deus! Serei exaltado! Serei exaltado! A última palavra é a Minha, Eu Sou Deus! Serei exaltado! Serei exaltado! Ainda que a figueira não floresça e o fruto da videira minta Mesmo que não haja ovelhas no curral me alegrarei em Ti! [2x] Todas: Haverá, ó Sião, estabilidade, estabilidade! Em todos os teus tempos nada te abalará! Venha o que vier, como os montes de Sião, nada te abalará! Todas: Ainda que a figueira não floresça e o fruto da videira minta Mesmo que não haja ovelhas no curral me alegrarei em Ti! [2x] Haverá, ó Sião, estabilidade, estabilidade! Em todos os teus tempos nada te abalará! Venha o que vier como os montes de Sião... Haverá, ó Sião, estabilidade, estabilidade! Em todos os teus tempos nada te abalará! Venha o que vier, como os montes de Sião, nada te abalará! Nada te abalará, No tempo de perder, No tempo de sofrer, No tempo de chorar, No tempo de esperar, Nada te abalará! [2x] Haverá, ó Sião, estabilidade, estabilidade! Em todos os teus tempos nada te abalará! Venha o que vier como os montes de Sião... Haverá, ó Sião, estabilidade, estabilidade! Em todos os teus tempos nada te abalará! Venha o que vier como os montes de Sião, nada te abalará! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Filho meu, não temas, não fiques assim desse jeito, O seu clamor chegou a Mim, estou aqui! Eu sei que o mal só vive cercando você na estrada Tentando roubar sua fé até desistir... Pode ser grande o seu problema mas Eu Sou maior que tudo! Acalmo esse vento forte e lhe ajudo a prosseguir! Como ajudei os meus servos de outrora, Não abandono a quem me clama e chora Eu Sou teu Deus! Eu Sou teu Deus! Todas: Eu acalmo o mar, não temas ó meu filho Eu vim lhe ajudar, Sou seu porto seguro, pode confiar! Eu Sou maior que tudo então pra que temer? Eu estou com você! Eu acalmo o mar, estou na sua frente, Sou seu Guardião! Lhe guardo e lhe seguro com as Minhas mãos, Eu Sou maior que tudo e vou lhe abençoar, você vai triunfar! Confia, vai em frente, Não desista, não se entregue! Veja a bandeira da vitória que se ergue, Eu estou contigo, te ajudo e te liberto, Toda tempestade Eu faço acalmar! Eu Sou o teu Senhor e te ajudo a toda hora Quem é contra ti vai contemplar tua vitória! Quando eu abençoo ninguém pode intervir! Eu Sou Deus, Eu Sou Deus! Todas: Eu acalmo o mar, não temas ó meu filho Eu vim lhe ajudar, Sou seu porto seguro, pode confiar! Eu Sou maior que tudo então pra que temer? Eu estou com você! Eu acalmo o mar, estou na sua frente, Sou seu Guardião! Lhe guardo e lhe seguro com as Minhas mãos, Eu Sou maior que tudo e vou lhe abençoar, você irá cantar o hino da vitória!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Hoje eu vim mudar meu modo de agir, Meu jeito de orar, Todas às vezes de pedir... Eu sei que eu preciso, mas hoje eu quero Te adorar! Alegrar Teu coração, deixar oferta no altar! Posso estar com dor no peito pra chorar! Eu sei que Tu cuidas de mim, eu não vou me preocupar! Eu tenho que cumprir o desejo do meu coração... Eu não vou sair daqui sem Te render adoração! Todas: Eu só vim Te adorar! Hoje eu não vou Te pedir! E prostrado aos Teus pés, eu levanto as minhas mãos, E digo: Digno Tu és de Adoração! [2x] Eu me prostro e rasgo o meu coração, Sem reservas, eu clamo em alta voz! Eu me rendo, e venço o meu próprio eu... Tudo que há em mim, entrego a Ti, ó Deus da minha salvação! Eu só vim Te adorar! Hoje eu não vou Te pedir! E prostrado aos Teus pés, eu levanto as minhas mãos, E digo: Digno Tu és de Adoração! [2x]    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Alguém falando ao meu ouvido que aquela promessa Tinha prazo de validade e já passou do tempo Palavras que parecem flecha para nos ferir... Tirar a nossa paz e perturbar os pensamentos! Mas Aquele que fez a promessa tem Seu próprio tempo! Aliás, Ele manda no tempo e faz como Ele quer! Ele já falou pra mim que eu viverei milagres! Sua palavra é o suficiente para aumentar minha fé! Ah, e quando Ele fala comigo me sinto mais forte! Sua presença me renova, me dá forças pra seguir! E por mais que alguém tente com palavras tirar meu sorriso... Deus sempre me dará motivos pra sorrir! Todas: Eu vou viver milagres! O Deus que eu sirvo é Deus de milagres! Eu sei que está chegando novidades! Pois Quem fez a promessa é fiel, É fiel pra cumprir [2x] E eu não vou desistir! Solo: Ah, e quando Ele fala comigo me sinto mais forte! Sua presença me renova, me dá forças pra seguir! E por mais que alguém tente com palavras tirar meu sorriso... Deus sempre me dará motivos pra sorrir! Todas: Eu vou viver milagres! O Deus que eu sirvo é Deus de milagres! Eu sei que está chegando novidades! Pois Quem fez a promessa é fiel, É fiel pra cumprir [2x] E eu não vou desistir! Eu vou viver milagres! O Deus que eu sirvo é Deus de milagres! Eu sei que está chegando novidades! Pois Quem fez a promessa é fiel, É fiel pra cumprir E eu não vou desistir! Solo: Alguém falando ao meu ouvido que aquela promessa... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presos em cadeias por amor a Jesus, São decapitados por amor a Jesus Mas não negam sua fé, A identidade é povo adorador! Muitos estão em prisões E os mártires já são milhões! Mas não negam sua fé, A identidade é povo adorador! Povo adorador mesmo perseguido, Povo adorador segue destemido Mas não nega a fé! Povo adorador se preciso for dá seu sangue em guerra, Povo adorador não para, não recua, nunca se entrega! Pelo mundo a fora são mais de milhões! E até mesmo dentro de prisões seu coração tá livre para adorar! Prisão não cala fiel adorador! Perseguição não cala fiel adorador! Podem odiar, perseguir e matar, mas nem a morte cala fiel adorador! [2x] Livre eu estou para adorar! Livre tu estás para adorar! Podem odiar, perseguir e matar, mas nem a morte cala fiel adorador! [2x] Muitos estão em prisões E os mártires já são milhões! Mas não negam sua fé, A identidade é povo adorador! Povo adorador mesmo perseguido, Povo adorador segue destemido Mas não nega a fé! Povo adorador se preciso for dá seu sangue em guerra, Povo adorador não para, não recua, nunca se entrega! Pelo mundo a fora são mais de milhões! E até mesmo dentro de prisões seu coração tá livre para adorar! Prisão não cala fiel adorador! Perseguição não cala fiel adorador! Podem odiar, perseguir e matar, mas nem a morte cala fiel adorador! [2x] Levarei eu também minha cruz ‘té por uma coroa trocar! Livre eu estou para adorar! Livre tu estás para adorar! Podem odiar, perseguir e matar, mas nem a morte cala fiel adorador! [2x] Fiel adorador! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: É mesmo assim, Não há vitória sem luta É mesmo assim, Pra chegar até o fim você tem que insistir! Não é fácil exibir Um sorriso em meios às provas Que persiste dia-a-dia te causando agonia, Machucando o teu coração... Todas: Mas há uma palavra como profecia que diz que o justo não pode viver na contramão! Há uma saída! Hoje Cristo está mudando esta situação! Eu profetizo sobre tua vida uma nova direção Filho do Rei não pode ser plebeu, não pode mendigar o pão Eu profetizo que a partir de hoje tudo vai ser diferente Você vai ver o quanto vale a pena ser fiel e persistente! Eu profetizo cura! Eu profetizo benção! Sobre tua casa uma nova estação! Eu profetizo, eu profetizo sobre você! Mas há uma palavra como profecia que diz que o justo não pode viver na contramão! Há uma saída! Hoje Cristo está mudando esta situação! Eu profetizo sobre tua vida uma nova direção Filho do Rei não pode ser plebeu, não pode mendigar o pão Eu profetizo que a partir de hoje tudo vai ser diferente Você vai ver o quanto vale a pena ser fiel e persistente! Eu profetizo cura! Eu profetizo benção! Sobre tua casa uma nova estação! Eu profetizo, eu profetizo sobre você!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Junta o povo Gideão, Chegou a hora de lutar! Grande vai ser a escolha, os covardes e medrosos do caminho irão voltar! Junta o povo, Gideão, Eu vou marcar a tua história Te darei o livramento, Pois somente com trezentos Eu te darei vitória! Trinta e dois mil era a quantidade de homens a postos para pelejar Aparentemente todos corajosos, preparados pra lutar Porém há momentos que Deus resolve agir diferente E o Senhor disse a Gideão: “Ainda tem muita gente” E Disse o Senhor a Gideão: Muito é o povo que está contigo para Eu dar os midianitas em tuas mãos, a fim de que Israel não se glorie contra mim dizendo: A minha mão me livrou... Apregoa pois agora aos ouvidos de todo o povo dizendo: Os covardes e medrosos voltem! Todas: Então o povo ouviu e começou a voltar: um, dois, voltaram vinte mil! Porém há momentos que Deus quer agir diferente E o Senhor disse a Gideão: “Ainda tem muita gente” Solo: E disse o Senhor a Gideão: Faz descer o povo às águas e ali os provarei E há de ser que aquele que Eu te disser “esse irá contigo”, esse contigo irá! Porém todo aquele que Eu disser “esse não irá contigo”, esse não irá! Todas: E Gideão ordenou descer às águas e de longe começou entender Que havia um segredo de Deus na forma que o povo água ia beber Pois quem tomasse a água com a mão e levasse a boca este serviria! Porém quem baixasse perdendo atenção esse voltaria! E o segredo de Jeová, naquele momento Era escolher entre os trinta e dois mil somente trezentos Mas trezentos com buzinas! Trezentos com cântaros! Trezentos com tochas! Trezentos com fogo! Trezentos que obedecem! Trezentos corajosos! Trezentos verdadeiro! Trezentos valorosos! Porque Deus quando entra na guerra é d’Ele o comando, é d’Ele a estratégia! Manda quebrar o cântaro e toca as buzinas Não tente entender o trabalhar de Deus! E o resultado é [vitória (9x)] Deus está dando o livramento! E o resultado é [vitória (7x)] Se trinta e dois mil não querem ir Deus usa os trezentos! Mas trezentos com buzinas! Trezentos com cântaros! Trezentos com tochas! Trezentos com fogo! Trezentos que obedecem! Trezentos corajosos! Trezentos verdadeiro! Trezentos valorosos! Se trinta e dois mil não querem ir Deus usa os trezentos Aleluia! A vitória é do povo de Deus!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bem distante eu te vi parado a beira do caminho Cabisbaixo e sem direção se sentindo tão sozinho Coração batendo angustiado em seu peito Você vive maus momentos! É todo dia a mesma coisa e você se cansou de tanto sofrimento Mas eu declaro que chegou a hora e Deus vai tirar você desse vento! Se a fúria do inimigo contra ti se levantar Ele ordena anjos poderosos para te guardar Foi ungido, foi remido e separado pra vencer e reinar com Ele! Deus vai na frente garantindo a vitória para os filhos Seus! Quebrando as correntes sujeitando os inimigos porque Ele é Deus! Faz sair água da rocha, com esse Deus não há quem possa! Não há como nosso Deus! Lá no Egito trouxe as pragas e humilhou um tal de Faraó Exaltou a Israel e fez saber que aquele povo não estava só Faz a morte virar vida! Pra tudo tem uma saída! Não há Deus como esse Deus! Elohim, El Shaddai, Adonai, Adore o nome d’Ele! Ele é Deus verdadeiro, Ele te amou primeiro, te levanta desse chão! Elohim, El Shaddai, Adonai, Adore o nome d’Ele! Faz a morte virar vida, pra tudo tem uma saída, faz de ti um campeão!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Quem é o Homem que teve o poder de andar sobre o mar? Quem é Ele que pode fazer o mar se calar? No momento em que a tempestade vier te afogar... Ele vem com toda autoridade e manda acalmar! Quem é o Homem que teve o poder de fazer Israel Caminhar por entre as águas do Mar Vermelho? Fez caminho no meio do mar para o povo de Israel passar! D’outro lado com os pés enxutos puderam cantar o Hino da Vitória! Todas: Quando estiver frente ao mar e não puder atravessar... Chame este Homem com fé, Só Ele abre o mar! Não tenha medo irmão se atrás vem Faraó Deus vai te atravessar e você vai entoar o Hino da Vitória! Toda vez que o Mar Vermelho tiver que passar Chame logo este Homem para te ajudar! É nas horas mais difíceis que Ele mais te vê, Pode chamar esse Homem que Ele tem poder! Se passares pelo fogo não vai te queimar Se nas águas tu passares não vão te afogar! Faça como Israel que o mar atravessou E no nome do Senhor o Hino de Vitória do outro lado cantou! Do outro lado cantou... Do outro lado cantou!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu queria estar lá no meio da multidão Contemplar aquela mulher que usou a sua fé, tocando em Jesus Eu queria estar lá no momento da ressurreição Quando Jesus chamou a Lázaro Saia para fora e Lázaro saiu... Saiu com vida! Eu queria estar lá, ver o cego Bartimeu Clamando: Filho de Davi tem misericórdia de mim! Jesus parou, lhe perguntou: O que queres que eu te faça? Senhor, que eu veja! E ele viu... foi lindo! Mas a cena mais bonita foi a de João Batista quando foi Jesus batizar O céu se abriu e o Espírito desceu Uma voz ecoou: Este é meu filho, O amado meu! Não pude estar lá, mas Ele está aqui! A Sua unção já posso sentir! E hoje um milagre Deus vai fazer aqui! O Homem dos milagres está neste lugar! Toda enfermidade hoje não vai suportar O toque da Sua mão cheia de unção! Receba tua benção, tua cura, tua libertação! Já posso ver o mal indo embora! Já posso ver a tua vitória! Levante as mãos, comece a louvar! O Homem dos milagres está neste lugar! Está neste lugar! Está neste lugar!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: O que fazer quando a ciência e a medicina desenganam? O desespero bate a porta e você reclama Angustiado, você não sabe mais o que dizer... O que fazer quando o dinheiro ou posição não podem ajudar Tua fama, tua glória não vão adiantar quando a morte no teu lar tiver que entrar! Jairo se sentiu assim tão fraco e indefeso! Vendo sua filha quase morta saiu a procurar uma resposta e pensou consigo mesmo, Vou deixar o eu, a posição, vou correr atrás da multidão Ali está alguém que pode me ajudar! Jairo partiu determinado! Na sua bagagem a certeza, maior que o desespero, a sua fé! No coração a esperança, uma grande fé e confiança Se jogou aos pés de Jesus de Nazaré! E O adorou, e suplicou: Socorre-me Senhor! Jesus movido de uma grande compaixão disse: Jairo se levante desse chão! Creia Eu sou a ressurreição! E o milagre Ele realizou! Pro milagre acontecer você tem que clamar! Pro milagre acontecer você tem que ter fé! Pro milagre acontecer você tem que insistir Cair aos teus pés e O adorar! Ele vai além da morte! Ele vai além da vida! Ele vai além da dor! Ele vai além do que a mente humana imaginou! Ele tem autoridade! Ele em todo poder! Meu irmão se você crer Ele transforma o impossível em Realidade pra você! [2x] Ele transforma em Realidade pra você! Ele transforma em Realidade pra você! Solo: O que fazer quando a ciência e a medicina desenganam... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Tem mais um milagre no caminho, Dessa vez um grande oficial do rei O procurou Jesus chegava no lugar que um dia fez da água vinho Desesperado, aquele oficial n’Ele encostou, Tem mais um milagre no caminho, Por favor Senhor, desça lá em casa, vem me socorrer! O meu filho que eu tenho cuidado com muito carinho, Agora está num leito ressequido prestes a morrer! Todas: Nessa hora o coração do homem foi examinado O estado de angústia foi detectado! Por que só Ele vê o coração chorar... Pelos olhos da misericórdia ele foi alcançado Jesus deu a resposta com o resultado: Seu filho está curado, pode retornar! Existe um milagre no caminho ainda, existe uma resposta que vem de Jesus! O estado de miséria a qualquer hora finda e nessa escuridão vai acender a luz! A misericórdia já te alcançou, você não está sozinho! Nosso Mestre não mudou, tem mais um milagre no caminho! Seu milagre está a caminho! (3x) Tem mais um milagre no caminho! [2x] Existe um milagre no caminho ainda, existe uma resposta que vem de Jesus! O estado de miséria a qualquer hora finda e nessa escuridão vai acender a luz! A misericórdia já te alcançou, você não está sozinho! Nosso Mestre não mudou, tem mais um milagre no caminho! Tem mais um milagre no caminho, É pra você... Seu milagre está a caminho!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Ele vem, brilhando como o sol! Voando sobre as nuvens! A trombeta eu posso ouvir! E um grande coral cantando uma canção dizendo que já vem a salvação! Estes são os dias de Elias, pregando a palavra de Deus E estes são os dias de Moisés, justiça reinando outra vez! E estes são os dias de hoje, o mundo vive em escravidão! Mas nós somos os pregadores anunciando a volta do Rei! Acorda, igreja, Deus me mandou te avisar! Acorda, igreja, a coisa vai apertar! Acorda, aí vem o Esposo! Acorda, igreja, é tempo de juntar os pés! Acorda, igreja, o céu espera os fiéis! Acorda, Jesus vem de novo! Ele vem, brilhando como o sol! Voando sobre as nuvens! A trombeta eu posso ouvir! E um grande coral cantando uma canção dizendo que já vem a salvação! (2x) No coral eu quero cantar, declarar que Ele é Santo, Santo! Infinitamente adorar dizendo que Jesus é Santo, Santo! A composição do céu vai cantar quem for fiel! O hino da vitória será o meu troféu! No coral eu quero cantar, declarar que Ele é Santo, Santo! Infinitamente adorar dizendo que Jesus é Santo, Santo! A composição do céu vai cantar quem for fiel! Vou erguer o meu troféu!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Se você já pensou em desistir tenha fé e não pare de sorrir! Você vai ver que o inimigo não vai entender que o crente até mesmo chorando ele canta porque... Se chorar, chora nos pés do Senhor! Tem Jesus como seu Consolador! Teu sofrer, uma noite até pode durar, mas o crente sabe que a vitória vem pela manhã Então cante assim... Quando estiver frente ao mar e não puder atravessar Chame este Homem com fé, só Ele abre o mar! Não tenha medo irmão se atrás vem Faraó Deus vai te atravessar e você vai entoar o Hino da Vitória! O crente cheio da unção manda glória pra cima e recebe poder Ele passa o Mar Vermelho, sai do lado de lá! Ele expulsa os demônios, faz o inferno tremer! Ele louva a Deus na cova, faz leão dormir Ele ora no holocausto e o fogo vai cair! Quando está no deserto Deus envia o maná Se vier o Jordão o rio vai abrir E se não abrir vai passar por cima das águas na unção de Deus! Lembra da nuvem de dia? Fui Eu! Lembra da coluna de fogo? Fui Eu! Eu fiz pedra jorrar água pra você beber! Lembra do maná do céu? Fui Eu! Lembra do caminho no meio do mar? Canta, pois Sou Eu Quem cuido de você! Ninguém vai te tocar! Ninguém vai te deter! E se te acusar, Eu defendo você! Eu te abençoo aqui, Eu te abençoo lá! Onde pisar teu pé abençoado será! Eu dou, Eu tomo, exalto, humilho, abato e honro, dou e tiro Tenho, faço, mando, posso, Eu Sou, Eu Sou! Eu posso matar! Eu faço viver! Eu posso exaltar! Eu posso abater! E se Eu quero te abençoar quem vai contender? Sem Te adorar sou como grão de areia no fundo do mar Sou como folha seca voando no ar, como pássaro sem asa, sem poder voar... Sem te adorar minha vida não é vida, não tenho alegria! Sou alguém sem esperança em busca de guarida, Uma alma implorando por socorro! E é por isso que se eu não Lhe adorar (3x) eu morro...      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pra que ficar assim, deixar se intimidar?  Enfrente o que há de vir com fé sem vacilar Se fraco te mostrares o medo vai vencer, A força do cristão está na sua fé! Deus faz o impossível! É só acreditar! Põe sua fé em Deus e ninguém te vencerá! Se vier a tempestade Deu faz acalmar! Se há muro na tua frente Deus vai derrubar! Se o inferno se levanta não te atingirá! Seu escudo protetor Se chama Jeová! Teu futuro e tua história quem escreve é Deus! Ele faz a trajetória dos caminhos teus! Se na frente tem gigante Deus joga no chão! Da vitória de um crente Deus não abre mão! E ai de quem tocar em um só cabelo seu, você é a menina dos olhos de Deus! (2x) Você não está só, não vive por viver Existe um Deus no céu cuidando de você! Se o tempo impõe limites a fé te leva além! Põe sua fé em Deus e não temerás ninguém! Se vier a tempestade Deu faz acalmar! Se há muro na tua frente Deus vai derrubar! Se o inferno se levanta não te atingirá! Seu escudo protetor Se chama Jeová! Teu futuro e tua história quem escreve é Deus! Ele faz a trajetória dos caminhos teus! Se na frente tem gigante Deus joga no chão! Da vitória de um crente Deus não abre mão! E ai de quem tocar em um só cabelo seu, você é a menina dos olhos de Deus! (2x) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milagres! Milagres! Milagres vão acontecer! Milagres! Milagres! Milagres Deus vai fazer! No passado Jesus operou muitas maravilhas Onde Ele passava milagres aconteciam! Ordenava e o mal ia embora! Não marcava nem dia, nem hora A missão dEle aqui na terra era fazer o bem! Curou lepra, deu vista ao cego, fez coxo andar! Fez o surdo ouvir, também fez o mudo falar! Expulsava todos os demônios, também fez morto ressuscitar! Meu Jesus não mudou e hoje pode operar aqui! Eu quero ver grandes milagres acontecerem! O mudo falar, o surdo ouvir e o cego ver! O paralítico sair correndo para provar que Tu és tremendo! Deus poderoso! Ninguém impede quando queres agir! Tu podes curar qualquer doença e mandar embora a depressão, A tuberculose, a AIDS, problemas de coração E se alguém morrer, Tu és a vida e faz reviver pelo Seu poder! Cura o câncer da alma do homem e faz renascer! [2x] E se alguém morrer, Tu és a vida e faz reviver pelo Seu poder! Cura o câncer da alma do homem e faz renascer!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todas: Hosana! Hosana! Hosana àquele que venceu! Hosana! Hosana! Hosana ao Filho de Deus! Solo: O mundo está querendo me desanimar, Falando que Jesus, não mais vai voltar... Já passou-se muito tempo e nada aconteceu... Mas aguardo a promessa, que nos fez o filho de Deus Todas: Em que o céu irá se abrir e a glória vai surgir! E a igreja vestida de branco, para o céu ira subir! Seu nome é Santo, Santo, Santo: Vou cantar assim! A coroa está na mão daquele que venceu! Pois o Seu nome É tremendo! Poderoso Deus! Os vinte e quatro anciões cantam glória sem parar! Canta anjo, canta arcanjo, canta querubim! Milhões de vozes diante dEle, cantam serafins! E a igreja reunida, revestida, bem servida vai cantar assim: Hosana! Hosana! Hosana àquele que venceu! Hosana! Hosana! Hosana ao Filho de Deus! Vou exaltar, vou adorar, vou bendizer, vou proclamar Este é o Cordeiro que morreu pra me salvar! Hosana! Hosana! Hosana ao Filho de Deus! Hosana! Hosana! Hosana! Hosana àquele que venceu! Hosana! Hosana! Hosana ao Filho de Deus! Ao Filho de Deus!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Quando as lutas vierem contra ti, Irmão insista, ainda não é o fim! A tua fé, mesmo fraca... Ela é forte! Destrói muralhas! Ponha os olhos no Senhor Jesus... Receba a benção e a Sua luz! Você vai ver... Você vai vencer! Na unção de Deus e no Seu poder! Todas: O crente cheio da unção manda glória pra cima e recebe poder Ele passa o Mar Vermelho, sai do lado de lá! Ele expulsa os demônios, faz o inferno tremer! Ele louva a Deus na cova, faz leão dormir Ele ora no holocausto e o fogo vai cair! Quando está no deserto Deus envia o maná Se vier o Jordão o rio vai abrir... E se não abrir vai passar por cima das águas na unção de Deus! O crente cheio da unção manda glória pra cima e recebe poder Ele passa o Mar Vermelho, sai do lado de lá! Ele expulsa os demônios, faz o inferno tremer! Ele louva a Deus na cova, faz leão dormir Ele ora no holocausto e o fogo vai cair! Quando está no deserto Deus envia o maná Se vier o Jordão o rio vai abrir... E se não abrir vai passar por cima das águas na unção de Deus! Na unção de Deus!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minh’alma suspira por meu Deus... Minha esperança, ela vem do céu! Por isso não, não temo a nada os perigos em minha jornada Pois tenho um Deus que está comigo pra me ajudar! Vai me ajudar! Vai me ajudar! Eu tenho um Deus que vai me ajudar! O inimigo quer ver o meu fim, mas se engana, não será assim! Porque as misericórdias de Deus, elas são sobre mim! Há momentos nesta vida que as aflições são fortes demais E parece que não vou suportar! Mas, quando isso acontece, sinto minhas forças se acabar Jesus aparece e me diz: Vou te ajudar! Vai me ajudar! Vai me ajudar! Eu tenho um Deus que vai me ajudar! O inimigo quer ver o meu fim, mas se engana, não será assim! Porque as misericórdias de Deus, elas são sobre mim! Jesus está perto de voltar para com Ele me levar Sabendo disto, o inimigo quer me atrapalhar! Não adianta ele lutar, porque Jesus está a me ajudar E com Sua ajuda, certamente, eu chegarei lá! Vai me ajudar! Vai me ajudar! Eu tenho um Deus que vai me ajudar! O inimigo quer ver o meu fim, mas se engana, não será assim! Porque as misericórdias de Deus, elas são sobre mim!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando as portas se fecham e a gente não vê saída e direção, É nos momentos mais precisos que a gente não tem um amigo pra estender a mão Quando a gente chega no nosso limite E a força em nós já não existe e só nos resta o chão Quando a esperança cansa e vai embora, Jesus diz chegou a hora é minha vez, Vou entrar em ação! E não existe nada que possa impedir quando Ele entra em ação, É no limite nosso que Ele diz, Eu posso e tenho a solução! Ele move barreiras, faz o impossível pra o filho Seu vencer! Tudo o que prometeu pra mim e pra você no momento d’Ele, Ele vai fazer! E não existe nada que possa impedir quando Ele entra em ação, É no limite nosso que Ele diz, Eu posso e tenho a solução! Ele move barreiras, faz o impossível pra o filho Seu vencer! Tudo o que prometeu pra mim e pra você no momento d’Ele, Ele vai fazer!      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando as dores da vida te ferem a alma E a cada dia as lutas apagam tua Fé... O mar se agita revolto e as ondas querendo te afogar! E todas as portas fecharam-se para você... Parece que Deus não escuta o teu lamento... E às vezes tu pensas em abandonar tua cruz... E chega a pensar que és o único que tens te sentido assim, O cálice amargo que bebes vai chegar ao fim! Saibas que Deus tem olhado o teu sofrimento! O teu lamento chegou ao Trono do Senhor! Deus tem estado ao teu lado em todo o tempo Na hora da angústia, na hora da dor! Saibas não há provação que dure pra sempre! E, depois da tempestade, o sol vai brilhar! Pois não há luta que dure por todo o tempo É Deus Quem te garante, a vitória vai chegar!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a idade do meu Deus? Seu aniversário que data é? Que carro Ele usa pra andar na terra? Que sapato cabe no Seu pé? Quantos metros têm a Sua casa? E em que faculdade Ele estudou? Qual o valor do Seu patrimônio? Qual o nome do Seu professor? Quem Lhe ensinou agronomia? E em direito é muito mais que bacharel Na palma da mão colhe as águas do mar E chama pelo nome cada estrela do céu! Não! Ele não dá a Sua glória a ninguém, Pois é dono de tudo e tudo Ele tem! Não aceita soberba e ao prepotente Ele faz descer! É dono do ouro e da prata, tudo é Seu! Incalculável é o tamanho do meu Deus! Ele não tem, Ele é o Próprio Poder! Por isso a glória é d’Ele, Tudo aqui é d’Ele! O Grande aqui é Ele, Aqui é tudo d’Ele! É pra Ele, É por Ele, É com Ele, É tudo d’Ele! Eu vim louvar a Ele, Quem mandou foi Ele! A promessa é d’Ele, Quem falou foi Ele! E quem não concordar com o que Ele faz vai reclamar com Ele! Eu vim louvar a Ele, Quem mandou foi Ele! A promessa é d’Ele, Quem falou foi Ele! E quem não concordar com o que Ele faz vai reclamar com Ele!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBS: Versão para ser usada com Playback Ao chegar ao rio, a jornada findar, A distância esta vida ficar. Haverá um amigo para me guiar, O Jordão eu não passarei só! O Jordão eu não passarei só, Jesus Cristo é meu guia eficaz. Quando as trevas eu ver, virá socorrer O Jordão eu não passarei só! Muitas vezes cansado e triste aqui, Parece amigos não ter Mas um pensamento alegria me dá, O Jordão eu não passarei só! O Jordão eu não passarei só, Jesus Cristo é meu guia eficaz. Quando as trevas eu ver, virá socorrer O Jordão eu não passarei só!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forte, poderoso, é absoluto! Gerador da força que move todo o mundo! Estendeu o céu como cortina para habitar! Formou o grande exército de lindas estrelas, E chama cada uma pelo próprio nome! Acima da terra está sentado no Seu trono! Nem o mais lindo verso em melodia traduzirá um dia a grandeza que Ele é! Autoridade máxima na terra, no mar e no céu! Aquele que foi, sempre é, e será! El Shaddai, Elohim, Elyon, Adonai! Não há Deus como Ele, eu adoro só Ele! El Shaddai, Elohim, Elyon, Adonai, Mesmo sendo quem é posso tocá-Lo com minha fé Ele é Santo! Santo! Ele é Santo! Santo! Como cheiro suave respira o meu louvor! Ele é Santo! Grande! Poderoso! Altíssimo! O universo se rende a Ti em louvor! [2x] El Shaddai, Elohim, Elyon, Adonai! Não há Deus como Ele, eu adoro só Ele! El Shaddai, Elohim, Elyon, Adonai, Mesmo sendo quem é posso tocá-Lo com minha fé   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Sempre que eu leio a história de Cristo eu fico a pensar com grande emoção Do privilégio que muitos tiveram de ver o Seu rosto, sentir Sua mão Eu também teria a mesma alegria de vê-Lo bem perto, bem juntinho a mim! Olhar em Seus olhos serenos e meigos, Oh! Como eu seria tão feliz assim! Todas: Queria saber como era o Seu rosto embora eu sinta que era mui lindo! Inspirava fé e também confiança E dava a todos um gozo infindo! Ao ver as gravuras dos quadros pintados daquilo que dizem ser o meu Senhor Meu ser não aceita o que está na tela! É falsa a inspiração do pintor Não creio, não creio num Cristo vencido cheio de amargura, semblante de dor! Eu creio num Cristo de rosto alegre, eu creio num Cristo que é vencedor! Um dia também eu O verei face a face, e assim eu creio pela minha fé! OBS: Na versão da orquestra pula direto para o final Oh! Aleluia! Verei o Seu rosto! Verei a Jesus como Ele é! Queria saber como era o Seu rosto embora eu sinta que era mui lindo! Inspirava fé e também confiança E dava a todos um gozo infindo! Um dia também eu O verei face a face, e assim eu creio pela minha fé! Oh! Aleluia! Verei o Seu rosto! Verei a Jesus como Ele é! (2x)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todas: É como pérola escondida no mar, A tua vida é um tesouro que só Deus sabe cuidar, Aqui no mundo não, não é teu lugar Há uma terra que te espera e Jesus vem te buscar! Solo: Sobre muito Deus já te colocou, Você não é cauda, você é cabeça onde quer que for As promessas de Deus não vão morrer Se Ele prometeu confia, Ele não vai te esquecer! Todas: Mesmo que o azeite se acabe Deus ainda vai fazer milagres Deus dá providência e faz a esperança renascer! Mesmo que não haja fruto na videira e as ovelhas venham perecer Deus ainda faz o teu celeiro se encher! É como pérola escondida no mar A tua vida é um tesouro que só Deus sabe cuidar Aqui no mundo não, não é teu lugar Há uma terra que te espera e Jesus vem te buscar! Solo: Providências Deus toma por você, Você chora, Ele ouve e manda alguém te socorrer! Não há dúvidas quando Ele diz “Eu Sou Tua Providência, teu Socorro, teu Refúgio e Protetor” Todas: Mesmo que o azeite se acabe Deus ainda vai fazer milagres Deus dá providência e faz a esperança renascer! Mesmo que não haja fruto na videira e as ovelhas venham perecer Deus ainda faz o teu celeiro se encher! É como pérola! É como pérola! É como pérola escondida no mar A tua vida é um tesouro que só Deus sabe cuidar Aqui no mundo não, não é teu lugar Há uma terra que te espera e Jesus vem te buscar! É como pérola escondida no mar A tua vida é um tesouro que só Deus sabe cuidar Aqui no mundo não, não é teu lugar Há uma terra que te espera e Jesus vem te buscar! (2x) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esse problema pro teu Deus é nada! Esse problema pro teu Deus é nada! Pode glorificar! [2x] Levante a mão e receba a vitória! Vai adorando e dizendo glória, Deus vai te abençoar! Esse problema pro teu Deus é nada! Esse problema pro teu Deus é nada! Pode glorificar! Se você pensa estar tudo acabado porque o médico desenganou... Então descansa o teu coração, a última palavra é do Senhor! Se a depressão está batendo forte roubando as forças que tens pra lutar... Esse problema pro teu Deus é nada! Pode glorificar! Esse problema pro teu Deus é nada! Esse problema pro teu Deus é nada! Pode glorificar! [2x] Levante a mão e receba a vitória! Vai adorando e dizendo glória, Deus vai te abençoar! Esse problema pro teu Deus é nada! Esse problema pro teu Deus é nada! Pode glorificar! Se o coração está batendo fraco, o desespero entrou no teu lar, Se os teus filhos estão em cadeias, Deus pode os libertar! Se estais num vale chorando sozinho com tantas dívidas para pagar... Esse problema pro teu Deus é nada! Pode glorificar! Esse problema pro teu Deus é nada! Esse problema pro teu Deus é nada! Pode glorificar! [2x] Levante a mão e receba a vitória! Vai adorando e dizendo glória, Deus vai te abençoar! Esse problema pro teu Deus é nada! Esse problema pro teu Deus é nada! Pode glorificar! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Eu fiquei observando porque é que Davi foi um homem segundo o coração de Deus, E depois de algum tempo analisando eu cheguei a conclusão de como isso aconteceu. Analisando suas qualidades, seu jeito humilde e simplicidade, Eu descobrir porque Deus fez essa observação: “Achei Davi homem segundo o Meu coração!” Eu não achei Davi comemorando ao se destacar entre os seus irmãos Eu não achei Davi comemorando quando foi honrado recebendo unção Eu não achei Davi comemorando quando ele matou o urso e o leão Eu não achei Davi comemorando quando ele jogou o gigante no chão Mas eu vi Davi comemorando saltando e dançando ali como ninguém Quando trouxe a Arca da Aliança de volta com ele pra Jerusalém! Todas: Quer reinar, traz a presença de Deus! Prosperar, traz a presença de Deus! Quer ser ungido, reconhecido traga a Arca da Aliança meu irmão contigo Quer cantar traz a presença de Deus! Quer pregar traz a presença de Deus! Quer impactar, influenciar, deixa a presença de Deus, irmão, te dominar! É a Presença! (2x) É a Presença de Deus que ordena a Bênção! É a Presença! (2x) É a Presença de Deus que faz a diferença! [2x] Todas: Eu não achei Davi comemorando ao se destacar entre os seus irmãos Eu não achei Davi comemorando quando foi honrado recebendo unção Eu não achei Davi comemorando quando ele matou o urso e o leão Eu não achei Davi comemorando quando ele jogou o gigante no chão Mas eu vi Davi comemorando saltando e dançando ali como ninguém Quando trouxe a Arca da Aliança de volta com ele pra Jerusalém! Quer reinar traz a presença de Deus! Prosperar traz a presença de Deus! Quer ser ungido, reconhecido traga a Arca da Aliança meu irmão contigo Quer cantar traz a presença de Deus! Quer pregar traz a presença de Deus! Quer impactar, influenciar, deixa a presença de Deus, irmão, te dominar! É a Presença! (2x) É a Presença de Deus que ordena a Bênção! É a Presença! (2x) É a Presença de Deus que faz a diferença! [3x] É a Presença de Deus! É a Presença... É a Presença de Deus que faz a diferença!        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Se o Senhor prometeu lhe abençoar E as promessas até hoje não cumpriu... Já cansou de esperar, não tem forças pra lutar e nada ainda... Todas: Mas hoje eu vim aqui como profeta E a mensagem do Senhor pra você será completa! O seu nome lá no céu é comentado! Todo dia é lembrado, você pode acreditar! E as promessas que o Senhor lhe prometeu Ele jamais se esqueceu, é somente confiar! Eu profetizo agora em nome de Jesus Que Deus jamais esquece de você irmão! Pode passar o céu, a Terra e o mar! Ele tem seu nome na palma da mão! Eu profetizo agora em nome de Jesus Que o inimigo jamais pode lhe deter! Se o Senhor falou que é com você Então desistir agora meu irmão por quê? Pode o inferno tentar se levantar E a forte tempestade vir te afrontar Se o Senhor prometeu te abençoar As promessas com certeza Ele cumprirá! Deus é fiel, e com você Ele está! Eu profetizo agora em nome de Jesus Que Deus jamais esquece de você irmão! Pode passar o céu, a Terra o mar! Ele tem seu nome na palma da mão! Eu profetizo agora em nome de Jesus Que o inimigo jamais pode lhe deter! Se o Senhor falou que é com você Então desistir agora meu irmão por quê? Pode o inferno tentar se levantar E a forte tempestade vir te afrontar Se o Senhor prometeu te abençoar As promessas com certeza Ele cumprirá! Deus é fiel, e com você Ele está! (2x)          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: O vento assopra, o mar agita, a luta é grande! A morte fica Só até quando a poderosa presença de Jesus chegar! Enfermidade, as potestades, o mal da alma, guerra nos lares Só haverá enquanto o homem da providência não chegar! Ele vem para fazer o vento parar! Ele ordena e faz o mar se aquietar! Com a Sua mão arranca o mal da alma! Ele vem para mudar a sua história! Todas: E quando Jesus chega estoura o cativeiro Tira as algemas faz o chão tremer! Ele tem nas mãos poder e a chave da vitória, E até a morte pode repreender! Quando Jesus chega vem mudando tudo Ele muda a direção, muralha faz tombar! Ele ordena e o mal tem que ir embora Esse Deus chegou aqui e vai operar! Não há como deter, pois Ele tem poder! Faz e acontece... Ele faz! Não há como deter, pois Ele tem poder! Faz e acontece... Ele vem para fazer o vento parar! Ele ordena e faz o mar se aquietar! Com a Sua mão arranca o mal da alma! Ele vem para mudar a sua história! E quando Jesus chega estoura o cativeiro Tira as algemas faz o chão tremer! Ele tem nas mãos poder e a chave da vitória, E até a morte pode repreender! Quando Jesus chega vem mudando tudo Ele muda a direção, muralha faz tombar! Ele ordena e o mal tem que ir embora Esse Deus chegou aqui e vai operar! [2x] Não há como deter, pois Ele tem poder! Faz e acontece...Ele faz! Não há como deter, pois Ele tem poder! Faz e acontece...  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Quem me vê cantando pensa que todo tempo foi só alegria E que nessa vida eu nunca tive motivos pra chorar... Quem me vê cantando nunca imagina que passei noites escuras Pensa que minha vida foi viver feliz e só cantar... Mas não foi bem assim... O deserto atravessei! Os pés doendo com as feridas dos espinhos... E quantas vezes eu gritei porque a dor não suportei... Deus, eu vou morrer nesse caminho! Mas quando eu pensava que estava só o Todo Poderoso aparecia! Renovava as promessas e me lembrava do que Ele fez... E palavras de conforto me dizia! Todas: Lembra da nuvem de dia? Fui Eu! Lembra da coluna de fogo? Fui Eu! Eu fiz pedra jorrar água pra você beber! Lembra do maná do céu? Fui Eu! Lembra do caminho no meio do mar? Canta, pois Sou Eu Quem cuido de você! Ninguém vai te tocar! Ninguém vai te deter! E se te acusar, Eu defendo você! Eu te abençoo aqui! Eu te abençoo lá! Onde pisar teu pé abençoado será! Eu dou, Eu tomo, exalto, humilho, abato e honro, dou e tiro Tenho, faço, mando, posso, Eu Sou, Eu Sou! Eu posso matar! Eu faço viver! Eu posso exaltar! Eu posso abater! E se Eu quero te abençoar quem vai contender? Lembra da nuvem de dia? Fui Eu! Lembra da coluna de fogo? Fui Eu! Eu fiz pedra jorrar água pra você beber! Lembra do maná do céu? Fui Eu! Lembra do caminho no meio do mar? Canta, pois Sou Eu Quem cuido de você! Ninguém vai te tocar! Ninguém vai te deter! E se te acusar, Eu defendo você! Eu te abençoo aqui! Eu te abençoo lá! Onde pisar teu pé abençoado será! Eu dou, Eu tomo, exalto, humilho, abato e honro, dou e tiro Tenho, faço, mando, posso, Eu Sou, Eu Sou! Eu posso matar! Eu faço viver! Eu posso exaltar! Eu posso abater! E se Eu quero te abençoar quem vai contender? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Deus não despreza quem é justo Deus jamais mudaria a justiça! Deus nunca ajudará os malfeitores, Ele tira do caminho dos justos os inimigos! Com o hálito de Deus eles perecem Com o assopro de Sua ira eles se consomem Deus faz coisas grandiosas, não se podem explicar! Ele fere mas Suas mãos podem curar Em seis angústias Ele me livrará! E na sétima o mal não pode me tocar! Ele move a terra e céus pra me guardar E na guerra da espada Ele me livrará! Esse é o Deus que está comigo, posso confiar! Todas: Eu quero ser armado e protegido, Preciso nessa hora ser ungido! Eu quero a proteção contra o pecado Eu quero ser obreiro aprovado! Eu sei o que eu quero não mereço Eu quero e eu vou pagar o preço! E mesmo que eu seja humilhado Lá no final por Deus serei honrado! Quero arma pra lutar! Quero escudo e proteção e por onde eu passar deixar rastro de unção! Ser fiel e não errare jamais entristecer No arado que eu pegar eu não vou retroceder! Alegrar meu coração mesmo estando em provação, Não deixar de Te louvar mesmo dentro da prisão! Seja onde estiver eu não vou negar a fé Pois o Deus que eu adoro vai me colocar de pé! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Pai, me dá disposição para aprender de Ti Me dá disposição pra mergulhar no mar da oração mais uma vez Pai, eu quero ser levado por Tua direção! Ouvir Tua palavra e entender com suprema exatidão o que quer de mim! Todas: Eu não vim aqui pedir mais um milagre Eu não vim aqui Apenas de passagem Hoje eu vim aqui pra Te servir melhor! [2x] Renovo! O que eu quero é renovo Pra Te sentir de novo, de novo! Renovo! O que eu quero é renovo Pra ter o brilho no rosto, de novo! Toca-me! Toca-me! Nem mais um passo darei, Nada farei sem Ti! [4x] Tem Renovo na casa tem! (2x) E tem, tem, tem... Tem Renovo na casa tem! (2x) Renovo tem! Renovo! O que eu quero é renovo Pra Te sentir de novo, de novo! Renovo! O que eu quero é renovo Pra ter o brilho no rosto, de novo!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todas: Santo! Santo! Santo! Santo! Declamação: Vinde e adoremos ao único digno de honra, de glória e de exaltação, Jesus Cristo, o Rei dos reis! Solo: Acaba de entrar, aqui neste lugar O dono do universo, o filho de Davi, o Santo dos santos! Comanda os altos céus, arcanjos e Miguel! Serafins e querubins adoram o nome santo do maior Soberano! Todas: Maior que o mar, maior que o céu, maior que tudo! Maior que as estrelas, maior que os anjos, Salvador do mundo! Ele venceu a morte porque tem poder! Desceu no inferno, fez demônio estremecer! A chave Ele tomou, está em Suas mãos Ele é forte, poderoso, de Judá é o leão! Ele andou sobre o mar, fez o vento acalmar, na frente da batalha foi com o rei Josafá! Ele é Santo! Santo! Santo! Santo! Nunca perde em batalha, este Deus nunca falha! A todos perdidos Ele é a luz! Ele é o sangue espargido do Messias prometido Pra este mundo inteiro Seu nome é Jesus! Todas: Maior que o mar, maior que o céu, maior que tudo! Maior que as estrelas, maior que os anjos, Salvador do mundo! [2x] Aleluia! Aleluia! Santo és Tu, ó Cordeiro de Deus! Aleluia! Aleluia! Santo! Santo!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Não sairei sem Tua presença Se não fores comigo, Senhor, não irei! Nada pode substituir Tua presença em minha vida, Tu és Deus pra mim! Os anjos até podem ir pra me livrar, me proteger, Se não fores comigo eles não podem me valer! Eu quero a Tua mão segurando a minha mão, Eu quero a Tua glória enchendo o meu coração Eu quero Teu Espírito agindo sobre mim Se não fores comigo, não sairei daqui! Sê comigo, Deus! Sê comigo ó Deus, Então irei! Todas: Andarei no deserto, certo que não morrerei Passarei pelos vales e os vales vencerei Andarei pelo fogo e ele não vai me queimar, Passarei pelas águas e elas não vão me afogar Pisarei os espinhos e eles não vão me ferir! Venenos de serpente não são fortes sobre mim! Saltarei as muralhas em Teu nome ó meu Rei, Se não fores comigo sair não me atreverei! Sê comigo, Deus! Sê comigo ó Deus, Então irei! Se Tu fores comigo eu posso descansar Se fores comigo eu posso confiar Se fores comigo eu não temerei Se fores comigo então vencerei Sê comigo, Deus! Sê comigo ó Deus, Então irei! Sê comigo, Deus! Sê comigo ó Deus! Então irei... ê comigo, Deus! Sê comigo ó Deus! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando você fica triste, desespero insiste em te abater... Angústia invade o teu peito, você não tem mais o que fazer! Quando você senta e chora e não tem ninguém pra te ajudar... Apenas dobre os teus joelhos! Se não tem palavras, começa a chorar! Mesmo em gemidos o Senhor te ouvirá! Até sem palavras Ele vai te responder! Pois Ele entende quando você quer chorar! Sabe de tudo mesmo antes de falar! Ele conhece o teu sofrer, a tua dor! Sabe perfeitamente onde ela está! Por isso eu sei que mesmo sem palavras o Senhor te ouvirá! Ao dobrar os teus joelhos, em meio as lágrimas você clama a Deus Tua voz é um gemido e não tem palavras mais para pedir! E em meio a sofrimento que causa lamento, não sabe o que fazer! Deus responde às orações, deixa o Espírito Santo falar com você! Mesmo em gemidos o Senhor te ouvirá! Até sem palavras Ele vai te responder! Pois Ele entende quando você quer chorar! Sabe de tudo mesmo antes de falar! Ele conhece o teu sofrer, a tua dor! Sabe perfeitamente onde ela está! Por isso eu sei que mesmo sem palavras o Senhor te ouvirá! Mesmo sem palavras o Senhor te ouvirá! Mesmo sem palavras o Senhor te ouvirá!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olhando o passado eu vejo o sangue na arena Dos nossos irmãos primitivos morrendo então, E como se fosse num vídeo eu vejo as cenas Dos nossos irmãos devorados por fortes leões; O sangue quente que corria como enxurrada pelo chão Era a semente do Evangelho, era sinal de salvação! Pois cada alma que partia ia direto ao paraíso, Mesmo morrendo aos milhões pra Deus não era prejuízo! Eu sou a semente do sangue dos irmãos que morreram sangrando, Pra manter o Evangelho vencendo eles iam morrendo de Cristo falando! Eu sou a semente do sangue dos irmãos que tiveram coragem De enfrentar os açoites e a morte, levar a mensagem! Sei que Tiagofoi morto ao ser decapitado, E Pedro foi crucificado de forma cruel, Sei que alguns foram mortos ao fio da espada, Sei que também já estão lá no seio de Deus Ninguém pensou em ser covarde, morreram mesmo por amor! Não negaram um segundo, que Jesus Cristo é o Salvador Eram firmados na promessa por Jesus Cristo garantida Quem for fiel até a morte, terá a coroa da vida! Eu sou a semente do sangue dos irmãos que morreram sangrando, Pra manter o Evangelho vencendo eles iam morrendo de Cristo falando! Eu sou a semente do sangue dos irmãos que tiveram coragem De enfrentar os açoites e a morte, levar a mensagem! [2x] De enfrentar os açoites e a morte, levar a mensagem!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Deus sempre abre uma porta pra livrar E preserva o mundo inteiro se um escolhido nele está! Deus não lhe deixa nem por um minuto fracassar E lhe dá o livramento no momento certo que precisar! Todas: Destrói seus inimigos e põe anjos pra mostrar a saída Dando escape com Sua forte mão preservando sempre a sua vida! Porque pra livrar um justo Deus destrói uma cidade, faz cair no chão Deus é sempre fiel pra livrar o servo Seu! Sempre fiel, jamais deixa você fracassar! Sempre fiel, não te deixa para trás olhar! Sempre fiel, te dá força e na luta faz você cantar! Sempre fiel, te dá força pra vencer, te faz passar pelo fogo ainda sobreviver! E nos espinhos te levanta, não te deixa ferir, Seca as águas, faz caminho só pra você seguir! [2x, 4x no final]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Só Deus pode fazer milagres! (2x) Somente Deus! [2x] Porque Ele tem em Suas mãos o poder e a autoridade! Creia que é somente Deus para fazer milagres! Só Deus pode ordenar ao morto que venha pra fora! Dizer pra viúva: A hora é agora, a vida pro seu filho eu posso devolver! Só Deus pode afundar muros, destruir cidades! Ele tem nas mãos poder e autoridade, É somente Deus para fazer milagres! Só Deus pode fazer milagres! (2x) Somente Deus! [2x] Porque Ele tem em Suas mãos o poder e a autoridade! Creia que é somente Deus para fazer milagres! Só Deus pode arrancar o mal e queimar a raiz Curar depressão e te fazer feliz e dizer ao cego: Agora podes ver! Só Deus pode fazer bater mais forte o coração Renovar, encher o homem de unção É somente Deus para fazer milagres! Só Deus pode encher os vales com a Sua glória Escrever pro homem uma nova história, Pode trazer de volta a arca do Seu povo Só Deus pra perdoar pecado e dar liberdade Ele é soberano, dono da verdade É somente Deus para fazer milagres! Só Deus pode fazer milagres! (2x) Só Deus pode fazer... milagres! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Foram noites intermináveis, eu só chorava... Bem no auge da minha dor nada me consolava... Mas eu sobrevivi como a água solitária E a sorte, de novo, sorriu para mim! Deus me escondeu bem debaixo de Suas asas Nenhuma peste me matou, nenhuma flecha me atingiu! Todas: Eu aprendi a ganhar perdendo! Aprendi a subir descendo! Doeu... doeu... mas eu cresci! E cresci diminuindo Apareci desaparecendo e o poder de Deus na minha fraqueza se aperfeiçoou! Tem coisa boa chegando, tem algo acontecendo E não importa o que eu sofri, o que importa é que eu sobrevivi! [2x] Sobrevivi! Sobrevivi! Sobrevivi!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: O vento não me derrubou, o medo não me parou A guerra me feriu, mas a experiência ficou... Eu não me calei e não vou me calar, enquanto houver fôlego vou adorar! Posso até ter caído na guerra, mas caído não vou ficar! Todas: Sei que esse vento vai passar! Também sei que o meu milagre vai chegar! Deus conhece a minha história, sabe tudo sobre mim! É só olhar pra trás para ver quantas guerras já venci! Sobrevivi adorando, sobrevivi confiando! Sobrevivi, não desisti Deus cuida de mim! [2x] Ele cuida da tua casa, cuida da tua família, cuida do trabalho, Ele cuida da tua vida! Cuida do ministério, cuida da saúde, cuida dessa igreja, Ele cuida de ti... Adore que Ele cuida, Exalte que Ele cuida, Glorifica que Ele cuida, Louve a Ele que Ele cuida! Receba força, receba alegria, receba equilíbrio, unção de ousadia! Essa guerra não te mata, vai te fortalecer É nesse deserto que Deus vai prover Se prepare tem novidade chegando pra você! Deus dá força ao cansado, Levanta o caído Exalta o humilhado, Ele cuida do ferido Enquanto você adora Ele aqui, Ele cuida de tudo pra você! Adore que Ele cuida, Exalte que Ele cuida, Glorifica que Ele cuida, Louve a Ele que Ele cuida! Se alguém perguntar como você venceu, você vai dizer assim Sobrevivi adorando, sobrevivi confiando Sobrevivi, não desisti Deus cuida de mim! [2x] Ele cuida de mim... Ele cuida de mim... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fui Eu quem fiz o firmamento, tenho o controle do tempo Dou a direção ao vento e digo ao mar daqui você não vai passar! Sou Eu quem mando o céu derramar chuva Mando o dilúvio e a terra inunda, pois tenho em minhas mãos todo poder Sou Eu quem abre porta, fecha porta, abre cova, fecha cova Põe na prova, tira a prova e faço ressuscitar! Eu mando e por ninguém Sou mandado Sou Eu quem quebra a lança e corta os laços para o meu povo livrar! Eu entro na fornalha e o fogo não Me queima, Caminho sobre as águas tal como em terra seca Acalmo a tempestade e o forte furacão, Com gritos e buzinas fiz muralhas vir ao chão Com apenas um sopro abri o mar ao meio Faço voltar o tempo, Sou Deus e tudo vejo Quando entro na guerra é pra vencer, Em meu agir não há defeitos! Eu mando e desmando, Eu faço e desfaço E quando entro em cena quebro o arco e corto o laço Queimo os carros no fogo, Sou Deus de livramento Acalme o coração e crê no que estou te dizendo Estou passando, tô operando, estou agindo e por ti trabalhando Abrindo portas, fechando covas! Estou descendo hoje com tua vitória! Canta que Eu faço, ora que Eu trabalho, faz a minha obra e esse mal desfaço! Podes contar comigo e crer no que Eu te digo, Sou Deus de livramento Sou fiel, Sou teu amigo Na tua vida Eu Sou, na tua família Eu Sou, na tua saúde Eu Sou, No teu futuro Eu Sou, o teu sustento Eu Sou, teu livramento Eu Sou Na causa impossível Eu Sou o Que Sou! Estabeleço reis, também tiro do trono, Exalto o humilhado, dou honra a quem Eu chamo Se for preciso Eu entro nessa guerra e provo que você tem Dono! Volta em “Eu mando e desmando,” repete tudo de novo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Tu és o meu refúgio, em Ti confiarei! Tu és o meu escudo, o mau não temerei! Tu és a minha Rocha, meu guia e protetor! Tu tens todo o poder Tu és Senhor! As vezes há caminhos difíceis de passar... O vento as vezes sopra, quer me amedrontar! Mas sei que no meu barco sozinho não estou! Sei que Tu estás comigo, perecer não vou! Todas: E mesmo que o mar se revolte e o vento sopre sobre mim Eu sei que o meu Redentor vive, a luta vai chegar ao fim! Mesmo que o sol não apareça, e a noite queira amedrontar Eu sei que a minha vida em Tuas mãos está! E mesmo que o mar se revolte e o vento sopre sobre mim Eu sei que o meu Redentor vive, a luta vai chegar ao fim! Mesmo que o sol não apareça, e a noite queira amedrontar Eu sei que Tu estás comigo, Sob Tuas asas tenho abrigo! E o mar revolto eu sei que Tu vais acalmar!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: O céu se cala, há um silêncio Quando aqui na Terra entoa uma adoração! E Deus recebe e a glória desce Porque pra Deus o teu louvor tem cheiro e unção! E quando louva Deus faz milagres, O céu se abre e as mãos de Deus se movem! E não tem nada que impeça Deus agir através do teu louvor! Todas: Um adorador debaixo de pedras! Um adorador dentro da prisão! Um adorador em meio a fornalha! Um adorador na cova dos leões! Um adorador que o céu silencia E com seus acordes faz o mal ir embora! Faz a diferença aqui na Terra Diante dos anjos e do trono de Deus! Adora! Faz a tua história com o teu louvor! (3x no final)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: A unção de Deus é algo que vem pra capacitar Faz o fraco ficar forte desafia a própria morte quando na batalha está! Qualquer coisa vira arma nas mãos de quem tem unção Uma queixada mata mil! Uma capa abre o rio, assim foi no rio Jordão! Uma pedra vira bala, com trombeta a terra abala e as muralhas vem ao chão! Todas: É na unção divina que você passa por cima do inimigo e vai! E aonde você chega, a diferença faz! Você canta, você fala e Deus faz um milagre! É na unção divina que Deus chega e extermina quem se levantar! Mesmo que esteja preso, comece a cantar que Deus manda um anjo forte e a cadeia abre! É na unção, É na unção que se encontra poder! É na unção, É na unção que se aprende a vencer! Quem é ungido vence nunca é vencido, Em nome de Jesus, você está ungido! [2x] É na unção, É na unção que se encontra poder! É na unção, É na unção que se aprende a vencer! Quem é ungido vence nunca é vencido, Em nome de Jesus, você está ungido! [2x]    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Está registrado, marcado nos planos de Deus um dia muito especial Em que salvos e anjos louvando terão um encontro triunfal! A igreja vai entrar cantando em Jerusalém o hino da vitória! Deixará para trás a tristeza, oh! Aleluia! É dia de glória! Vai chegar na sala do banquete, se assentar ao lado do Senhor Ele mesmo servirá os salvos, que maravilha! Dia de louvor! E o que os olhos não viram, os ouvidos não puderam ouvir, O que não subiu ao coração será revelado ali! Vai ser só glória quando este dia então chegar! A igreja vai subir e vai cantar louvores a Jeová! Vai ser só glória, caminhando pelas ruas de Jerusalém! Contemplando a beleza que só ela tem Ao lado de Jesus, pra todo sempre, amém! Vai ser só glória receber uma coroa das mãos do Senhor Na cidade do meu Deus onde é só louvor, é só louvor! Vai ser só glória ver a face do Deus vivo como é! Posso imaginar o céu por minha fé! Este dia vai chegar, marcado já está! Aleluia! Para sempre vamos triunfar com Deus! Na cidade que Ele mesmo prometeu aos Seus! Sua face linda como é vamos contemplar! Aleluia! Para sempre Te adorar! Te louvar! Te exaltar! Vai ser só glória, caminhando pelas ruas de Jerusalém! Contemplando a beleza que só ela tem Ao lado de Jesus, pra todo sempre, amém! Vai ser só glória receber uma coroa das mãos do Senhor Na cidade do meu Deus onde é só louvor, é só louvor! Vai ser só glória ver a face do Deus vivo como é! Posso imaginar o céu por minha fé! Este dia vai chegar! [2x] Marcado já está! Aleluia! Aleluia! Aleluia! Aleluia! Aleluia! Vai ser só glória! (3x) Marcado já está! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pra Te adorar, Senhor! Te dar o meu louvor! Quero me prostrar, vou me derramar aos Teus pés, Senhor! O meu vaso de alabastro quero Lhe oferecer! Me humilho aos Teus pés porque santo Tu és! Vem meu louvor receber! Sou pequeno e tão falho... Não mereço Teu amor! Mas eu sei que mesmo assim o Senhor cuida de mim, um tão pobre pecador! Purifica as minhas vestes Com Seu sangue remidor! Me ajude a ser fiel! Eu quero chegar no céu e Te abraçar, Senhor! Pra Te adorar, Senhor! Te dar o meu louvor! Quero me prostrar, vou me derramar aos Teus pés, Senhor! O meu vaso de alabastro quero Lhe oferecer! Me humilho aos Teus pés porque santo Tu és! Vem meu louvor receber! [2x]       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toda a minha vida eu já entreguei ao meu Jesus Sou templo e morada do Espírito Santo de luz! Já renunciei tudo que eu tinha e era, Já não faço planos e nem posso agir Porque já não vivo eu mas Cristo vive em mim! Tudo que eu fizer é porque Ele já me ordenou Onde pôr a planta dos meus pés Ele está na direção Ele me sustenta, Ele me conduz, Ele me ajuda a carregar a cruz Em todos os momentos eu dependo inteiramente de Jesus! Não posso dizer se Ele não mandar, não poderei ir se não me enviar Ele é quem faz a obra e eu apenas sou um vaso de honra nas mãos do Senhor Abro a minha boca e Ele fala aos corações, estendo as mãos e Ele abençoa! O Espírito de Deus está sobre mim e a cada dia Ele me aperfeiçoa [2x] Não há mais tristeza em meu coração, Não há mais espaço para a solidão Jesus vive em mim o mal não toca o meu coração! Não posso dizer se Ele não mandar, não poderei ir se não me enviar Ele é quem faz a obra e eu apenas sou um vaso de honra nas mãos do Senhor Abro a minha boca e Ele fala aos corações, estendo as mãos e Ele abençoa! O Espírito de Deus está sobre mim e a cada dia Ele me aperfeiçoa [2x] E a cada dia Ele me aperfeiçoa Toda a minha vida eu já entreguei ao meu Jesus...   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deus está contigo no deserto e não vai te abandonar! Se levanta, olha para o céu agora que a vitória vai chegar! Deus jamais permitiria que você... Enfrentasse o inimigo pra perder! Se Ele permitiu o vale em sua vida é pra exaltar você! O inimigo disse que você jamais conseguiria suportar... Jeová mostrou pra ele outra vez que bem guardado você está! O inferno levantou com grande fúria... Mas o Guarda de Israel moveu a mão! Ele é Eterno, Santo, Poderoso, de Judá Ele é o Leão! Vença a prova cantando, louvando, adorando! Não tema, não pare, atravesse esse vale! Além da montanha a vitória preparada pra você está! Não tem cova, nem poço, nem grande fornalha Nenhum filisteu nem tampouco a muralha Nada pode impedir sua benção, seu Deus é Jeová! Ele é Santo e Tremendo, Ele é Justo e Fiel! Ele é o Dono de tudo, o Seu trono é o céu! Toda a Terra está cheia da glória do Emanuel! Ele faz e desfaz o que quiser fazer! Ele é Grande e Tremendo, é Dele o poder! O impossível pra Ele é nada! Você vai vencer! Você vai vencer... Você vai vencer!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando já não tem mais jeito, quando a dor invade o peito E já bem mais fraco pulsa o coração Quando a esperança acaba, quando o mundo então desaba, Quando sonhos e projetos vão ao chão Quando a paz é utopia, o amor é fantasia, A angústia invade a alma e te consome Quando não há mais saída, quando a morte vence a vida, Só lhe resta então chamar por seu nome! Jesus, neste nome a vitória é certa! Neste nome portas são abertas! Este nome vence todo mal! Jesus, neste nome o inimigo tomba, Ele é mais forte que uma bomba, não existe outro nome igual! Jesus, neste nome a vitória é certa! Neste nome portas são abertas! Este nome vence todo mal! Jesus, neste nome o inimigo tomba, Ele é mais forte que uma bomba, não existe outro nome igual! Ele é mais forte que uma bomba, Não existe outro nome igual!     </t>
+  </si>
+  <si>
+    <t>Solo: De repente uma mulher se aproxima de Eliseu E lhe diz meu esposo era teu servo porém morreu... E é tão grande o meu desgosto, está na minha porta o moço e quer levar os filhos meus... Eu estou desesperada! Já não sei o que fazer! Cada dia que se passa aumenta mais o meu sofrer! Homem de Deus me ajude por favor! Eliseu então pergunta, o que posso fazer por ti mulher? Diga-me o que tens em casa, Deus vai honrar a tua fé! Tua serva não tem nada, a não ser uma botija de azeite... Eliseu cheio de fé disse àquela mulher Vá até aos seus vizinhos, tome vasos emprestados, Deus vai mostrar quem Ele é! Entra agora em sua casa, os seus filhos e você E em nome de Jesus eu profetizo que o milagre vai acontecer! Todas: Eu vou profetizar que você irá vencer! Eu vou profetizar que meu Deus irá fazer! Eu vou profetizar em sua vida multiplicação! Eu vou profetizar, tome posse meu irmão! Eu vou profetizar a bênção sobre sua família! Eu vou profetizar que Deus fará maravilhas! Eu vou profetizar na ousadia de Eliseu! Eu vou profetizar porque sou profeta de Deus! Receba a cura! Receba a unção! Receba a vitória, é agora! Tome posse meu irmão! [2x, 4x no final] Tome posse meu irmão! Receba a cura... _x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meninas: Aleluia... Aleluia... Santo és tu ó Cordeiro de Deus! Aleluia... Aleluia... Santo és tu ó Cordeiro de Deus! Aleluia...! Santo! Santo é o Cordeiro do vivo Deus! Digno Tu és, digno Tu és, de todo louvor! Santo é o Cordeiro do vivo Deus! Digno Tu és, digno Tu és! Amém! Meninas: Aleluia... Aleluia... Santo és tu ó Cordeiro de Deus! Aleluia... Aleluia... Santo! Santo é o Cordeiro do vivo Deus! Digno Tu és, digno Tu és, de todo louvor! Santo é o Cordeiro do vivo Deus! Digno Tu és, digno Tu és! Amém!      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Até o sol nascer eu vou lutar, Até o sol nascer eu vou cantar, Se a alegria vem só de manhã, Vou louvar até amanhecer! Sim eu creio mesmo que eu não possa ver Sim eu creio, não consigo entender Mas eu creio e vou confiar em Ti até o sol nascer! Agora posso crer, não vou, não vou desistir! Agora posso ser usado por Ti! O choro já durou a noite inteira... Já é hora de me levantar! Sim eu creio mesmo que eu não possa ver Sim eu creio, não consigo entender Mas eu creio e vou confiar em Ti... Mesmo que a noite seja escura, mesmo cercado de amargura, Eu vou, vou confiar! Não tenho tempo a perder, tudo é possível ao que crer Eu vou, vou confiar! Sim eu creio mesmo que eu não possa ver Sim eu creio, não consigo entender Mas eu creio e vou confiar em Ti... Sim eu creio mesmo que eu não possa ver Sim eu creio, não consigo entender Mas eu creio e vou confiar em Ti até o sol nascer! Eu vou confiar em Ti Até o sol nascer! [2x]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Há poder no nome de Jesus (3x) Pra cadeias quebrar, Cadeias quebrar! (2x) Cadeias quebrar! (3x) Alto preço Ele pagou! Tão livremente Se entregou por nossa redenção Se deu e o céu se abriu! Há poder no nome de Jesus (3x) Pra cadeias quebrar, Cadeias quebrar! (2x) Cadeias quebrar! (3x) Um exército surgiu (3x) Pra cadeias quebrar, Cadeias quebrar! (2x) Cadeias quebrar! (3x) Ouço cadeias quebrando! Há poder no nome de Jesus (3x) Pra cadeias quebrar, Cadeias quebrar! (2x) Cadeias quebrar! (3x)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quero ouvir Sua voz hoje aqui, Sentir o chamado de Deus! Pois sei que perfeito não sou Se queres Tu podes me usar! Pessoas vivem a zombar de mim Só porque escolhi a Deus servir! Se elas compreendem será que podem entender O que é ter comunhão com Jesus? Foi Deus que nos escolheu e hoje Ele quer nos usar! Não há impossível pra Deus! Seu Espírito nos guiará... (2x) Tanto estou e com medo de não conseguir a vitória alcançar! Ele é quem me diz, não se desespere, Comigo vai vencer sempre ao teu lado vou estar! Ao meu redor vai um anjo que Deus colocou pra me ajudar Nesse caminho tão estreito que preciso prosseguir, Com Sua Graça sempre perto, não vou desanimar! Foi Deus que nos escolheu e hoje Ele quer nos usar! Não há impossível pra Deus! Seu Espírito nos guiará... (2x)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sei que um dia saberei tudo o que tens pra mim, Face a face Te verei rodeado de poder! Todo o meu temor se vai com a luz do Teu amor Onde posso encontrar Tua eterna paz Senhor! Onde flui adoração, e as ruas de ouro são Levantamos nossa voz a Ti Senhor! Sem pranto, angústia e dor, sem morte Comigo estás! (2x) Sem noite, sem aflição, sem culpa Comigo estás! (2x) Nesta vida passarei por tristezas e dor Esperando ver chegar o grande dia do Senhor Quando todos vão cantar em sublime adoração Pra Teu nome exaltar, sei que o dia chegará! Onde reina eterna paz, não há guerras nem temor! Levantamos nossa voz a Ti Senhor! Sem pranto, angústia e dor,sem morte Comigo estás! (2x) Sem noite, sem aflição, sem culpa Comigo estás! (2x) O meu coração Sempre dará Toda glória a Ti Senhor! Sem pranto, angústia e dor,sem morte Comigo estás! (2x) Sem noite, sem aflição, sem culpa Comigo estás! (2x)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenho fogo cerrado em meu peito Que não me dá descanso, eu não tenho descanso! Deixa queimar! Deixa queimar... Eu não vou parar! Gastarei minha vida aos Teus pés... Tenho fogo cerrado em meu peito Que não me dá descanso, eu não tenho descanso! Deixa queimar! Deixa queimar...        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louvar-Te é bem mais que eu mereço, Adorar-Te é mais profundo do que eu pensei Servir-Te é tudo o que eu espero, O que mais quero é estar mais junto a Ti! Derramar perante Ti os meus anseios A minha oferta nesta hora é a verdade E Te mostrar os meus pequenos sonhos Ah, Senhor, como eu dependo de Ti! Para me curar, para me ensinar o caminho que devo seguir Podes me usar como Tu bem queres Abro meu coração! Louvar-Te é bem mais que eu mereço, Adorar-Te é mais profundo do que eu pensei Servir-Te é tudo o que eu espero, O que mais quero é estar mais junto a Ti! Derramar perante Ti os meus anseios A minha oferta nesta hora é a verdade E Te mostrar os meus pequenos sonhos Ah, Senhor, como eu dependo de Ti! Para me curar, para me ensinar o caminho que devo seguir Podes me usar como Tu bem queres Abro meu coração!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minha trajetória é marcada por conquistas, minha arma foi a fé Minha esperança é regada por lembranças que o tempo não levou Mas parece que um furacão me alcançou Deus, eu não podia imaginar... perdi meu chão! Olha como chora o meu coração... Dessa vez não consigo Te tocar, não tenho forças pra clamar! Confesso, já tentei... Dessa vez eu entrei no quarto e tranquei a porta, só Tu podes me encontrar! Pois Tu És o Deus que me vê no oculto, Tu És o Deus que me vê no secreto! Tu És o Deus que me vê quando o homem não me vê Eu não estou só, eu não estou só! Mas parece que um furacão me alcançou Deus, eu não podia imaginar... perdi meu chão! Olha como chora o meu coração... Dessa vez não consigo Te tocar, não tenho forças pra clamar! Confesso, já tentei... Dessa vez eu entrei no quarto e tranquei a porta, só Tu podes me encontrar! Pois Tu És o Deus que me vê no oculto, Tu És o Deus que me vê no secreto! Tu És o Deus que me vê quando o homem não me vê Eu não estou só, eu não estou só! [2x]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deus não abre mão de você Aonde você for não te perde de vista Ele te comprou, com Seu sangue te comprou, Deus não abre mão de você! Ele te conhece por onde você anda, Deus não vai perder, você é d’Ele e Ele é seu! Não, não adianta tentar fugir... Deus não abre mão... (3x) de você! Deus não abre mão de você Aonde você for não te perde de vista Ele te comprou, com Seu sangue te comprou, Deus não abre mão de você! Ele não desiste quando você pensar em parar Ele estende a mão para te fazer caminhar Não, não adianta tentar fugir... Deus não abre mão... (3x) de você! Deus não abre mão de você Aonde você for não te perde de vista Ele te comprou, com Seu sangue te comprou, Deus não abre mão de você!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ele é contigo onde você estiver Ele é Abrigo, seu Amigo, Deus provedor, Pode confiar, pode confiar! Lara, lara, lá... lá... lá! (2x) Lara, lara, lá... lá, lá, lá! (2x) Deus poderoso! O Deus que tudo pode fazer! E o controle de tudo está nas mãos desse Deus, Nas mãos de Deus, nas mãos de Deus, tudo está! É maravilhoso... saber que não há impossível pra Deus Então não duvida, confia em Deus, confia em Deus, confia em Deus! Porque Ele é contigo onde você estiver Ele é Abrigo, seu Amigo, Deus provedor, Pode confiar, pode confiar! Lara, lara, lá... lá... lá! (2x) Lara, lara, lá... lá, lá, lá! (2x) Deus poderoso! O Deus que tudo pode fazer! E o controle do mundo está nas mãos desse Deus, Nas mãos de Deus, nas mãos de Deus, tudo está! É maravilhoso... saber que não há impossível pra Deus Então não duvida, confia em Deus, confia em Deus, confiaaaaa... Ele é contigo onde você estiver Ele é Abrigo, seu Amigo, Deus provedor, Pode confiar, pode confiar! Porque Ele é contigo onde você estiver Ele é Abrigo, seu Amigo, Deus provedor, Pode confiar, pode confiar! Lara, lara, lara, lara, lá, lá, lá, lá... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juntaste meus pedaços, meu fardo, meu fracasso levou sobre Si Fizeste meu passado mau naufragar no mar onde não se pode mais lembrar! O Teu amor me arrebatou... Mesmo assim, digo sim quando tenho que negar... Me dou quando tenho que fugir! Ai de mim! Por favor, por favor! Me ensina a Te amar como me amas! Espírito Santo diz pra mim O que fazer pra não pecar contra aqu’Ele que só fez me amar! Espírito Santo diz pra mim Será que sou capaz de crucificar o meu eu? Espírito Santo sejas meu Consolador, minha oração, meu intercessor! Espírito Santo diz pra mim O que fazer pra não pecar contra aqu’Ele que só fez me amar! Espírito Santo diz pra mim será que sou capaz de crucificar o meu eu?      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estou seguindo a Jesus Cristo, Desse caminho eu não desisto Estou seguindo a Jesus Cristo, Atrás não volto nunca mais! Se me deixarem os pais e amigos Se me cercarem muitos perigos Se me deixarem os pais e amigos Atrás não volto nunca mais! Atrás o mundo, Jesus na frente Jesus é o Guia Onipotente Atrás o mundo, Jesus na frente Atrás não volto nunca mais! Depois da luta vem a coroa A recompensa é certa e boa Depois da luta vem a coroa Atrás não volto nunca mais! Estou seguindo a Jesus Cristo, Desse caminho eu não desisto Estou seguindo a Jesus Cristo Atrás não volto nunca mais! (3x)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senhor, eu nasci pra Te chamar de Deus, Eu nasci pra Te chamar de Pai e andar do Seu lado! Senhor, desde o ventre da minha mãe eu sou povo exclusivo Seu Eu sou abençoado se vivo obediente! Mas todo dia o pecado vem e me chama Todo dia as propostas vêm e me chamam Todo dia vêm as tentações e me chamam Todo dia o pecado vem... Mas eu escolho Deus! Eu escolho ser amigo de Deus! Eu escolho Cristo todo o dia, Já morri pra minha vida E agora eu vivo a vida de Deus!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu Te busco, Te procuro ó Deus! No silêncio Tu estás Eu Te busco, toda hora espero em Ti, revela-Te a mim! Conhecer-Te eu quero mais! Senhor Te quero! Quero ouvir Tua voz! Senhor Te quero mais! Quero tocar-Te Tua face eu quero ver Senhor Te quero mais! Prosseguindo para o alvo eu vou a coroa conquistar! Vou lutando, nada pode me impedir, eu vou Te seguir Conhecer-Te eu quero mais! Senhor Te quero! Quero ouvir Tua voz! Senhor Te quero mais! Quero tocar-Te Tua face eu quero ver Senhor Te quero mais!      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eis-me aqui, tantas fraquezas diante da Tua grandeza O que se vê o coração sente, O corpo responde, Minh’alma não mente! Sonda agora este coração Veja, Senhor, se não tenho razão! Mas eu não quero ser tão racional, Espírito Santo, pode se achegar E fazer morada! fazer morada... Espírito Santo mora em mim! O meu coração é o Teu lugar, faça morada! Eu Te convido a nunca mais me deixar aqui... Faça morada em mim! (3x) Eis-me aqui, tantas fraquezas diante da Tua grandeza O que se vê o coração sente, O corpo responde, Minh’alma não mente! Sonda agora este coração Veja, Senhor, se não tenho razão! Mas eu não quero ser tão racional, Espírito Santo, pode se achegar E fazer morada! E fazer morada... Espírito Santo mora em mim! O meu coração é o Teu lugar, faça morada! Eu Te convido a nunca mais me deixar aqui... Faça morada em mim! (3x)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filho de Davi sei que estás neste lugar Na multidão eu clamo o Teu nome, o Teu favor eu vou alcançar! O favor de Deus é o que abre as portas pra mim, Faz o impossível acontecer! Se estou fraco me levanta, não me abandonará! Maravilhoso, Santo e Poderoso Deus! Filho de Davi sei que estás neste lugar Na multidão eu clamo o Teu nome, o Teu favor eu vou alcançar! O favor de Deus é o que abre as portas pra mim, Faz o impossível acontecer! Se estou fraco me levanta, não me abandonará! Maravilhoso, Santo e Poderoso Deus!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deixou os céus pra me encontrar, aqui não é o Seu lugar, Um amor assim o mundo não conheceu! Naquela cruz se entregou, o Seu perdão me alcançou, Um amor assim o mundo não conheceu! No altar de adoração seja sempre exaltado, Jesus, Filho de Deus! Deixou a Sua Glória, morreu em meu lugar, Jesus, Filho de Deus! Tu És Jesus, Filho de Deus! Levou sobre si pecado e dor, venceu a morte e ressuscitou! Um amor assim o mundo não conheceu! Levou sobre si pecado e dor, venceu a morte e ressuscitou! Um amor assim o mundo não conheceu! No altar de adoração seja sempre exaltado, Jesus, Filho de Deus! Deixou a Sua Glória, morreu em meu lugar, Jesus, Filho de Deus! Tu És Jesus, Filho de Deus! Seja exaltado e engrandecido! Teu nome é Santo, Poderoso És! E não há nada que apague o Seu amor A cruz me libertou! (4x) No altar de adoração seja sempre exaltado, Jesus, Filho de Deus! Deixou a Sua Glória, morreu em meu lugar, Jesus, Filho de Deus! Tu És Jesus, Filho de Deus!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No início Eras a Palavra, Um com Deus, O Altíssimo! O mistério de Tua glória, Cristo, em Ti Se revelou! Oh! Quão lindo esse nome é! (2x) O nome de Jesus, meu Rei! Oh! Quão lindo esse nome é! Maior que tudo ele é! Oh! Quão lindo esse nome é! O nome de Jesus! Deixou o céu para buscar-nos, Veio pra nos resgatar! Amor maior que o meu pecado, Nada vai nos separar! Oh! Quão Maravilhoso é! (2x) O nome de Jesus, meu Rei! Oh! Quão Maravilhoso é! Maior que tudo ele é! Oh! Quão Maravilhoso é! O nome de Jesus... (2x) A morte venceste! O véu Tu rompeste! A tumba vazia agora está! O céu Te adora, Proclama Tua glória, Pois ressuscitaste e vivo está! És invencível! Inigualável! Hoje e pra sempre reinarás! Teu é o reino, Tua é a glória! Acima de todo nome está! Poderoso esse nome é! (2x) O nome de Jesus, meu Rei! Poderoso esse nome é! Mais forte que tudo é! Poderoso esse nome é! O nome de Jesus! Há poder no nome de Jesus! Pra cadeias quebrar, cadeias quebrar, Cadeias quebrar... Ouço cadeias quebrando! Há poder no nome de Jesus! Pra cadeias quebrar, cadeias quebrar, cadeias quebrar... A morte venceste! O véu Tu rompeste! A tumba vazia agora está! O céu Te adora, Proclama Tua glória, Pois ressuscitaste e vivo está! És invencível! Inigualável! Hoje e pra sempre reinarás! Teu é o reino, Tua é a glória! Acima de todo nome está! Poderoso esse nome é! (2x) O nome de Jesus, meu Rei! Poderoso esse nome é! Mais forte que tudo é! Poderoso esse nome é! O nome de Jesus... (3x) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muito mais que uma história, de um bebê que Deus mandou da glória Muito mais que o nascimento de um grande rei! Ele é do mundo o Salvador por mim e por ti! Narração Masculina: Muitas evidencias históricas colaboram na compreensão de que o Natal é bem mais do que apenas uma história: Belém - Deus chegando; Emanuel - Deus conosco; Calvário - Deus por nós; O dia de hoje - Deus em nós Desde o primeiro gemido daquele bebê recém-nascido em Belém, naquela noite sopra sobre nós o vento do Espírito Santo. Narração Feminina: O bebê na manjedoura de Belém e o Cristo ferido na cruz são a mesma pessoa, a pessoa preparada por Deus desde o princípio dos tempos. - Anjos cantaram; - Pastores velaram; - O Rei dos reis nascido no estábulo; - O Senhor dos senhores envolto em panos, um infante nascido como Salvador do mundo! Isso tudo é bem mais do que apenas uma história! Solo: Inda me lembro da noite à meia luz, Família reunida no cenário que reluz Alguém abriu a Bíblia e então começou a ler. Mais que uma história, plena verdade! Todos: Muito mais que uma história, de um bebê que Deus mandou da glória Muito mais que o nascimento de um grande rei! Ele é do mundo o Salvador por mim e por ti! Solo: Menino prometido, de palha o berço é, Mas como pode o Salvador nascer humilde pobre assim? Não veio por prazeres, mas tinha um plano a cumprir! Muito mais que o mundo governar veio a todos libertar! Todos: Muito mais que uma história, de um bebê que Deus mandou da glória Muito mais que o nascimento de um grande rei! Ele é do mundo o Salvador por mim e por ti! Meninas: Quão preciosa história, mais linda que conheci! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manancial! Fonte de vida de onde preciso e quero beber todos os dias! Bem mais que um desejo, Tu És essencial Pra sustentar a minha vida Senhor Jesus! Eu tenho sede de Ti! Minha alma anseia por Ti! Só me satisfaço quando estou junto aos teus pés! Eu tenho sede de Ti! Minha alma anseia por Ti! Manancial, única fonte de vida Tu És! Manancial! Fonte de vida de onde preciso e quero beber todos os dias! Bem mais que um desejo, Tu És essencial Pra sustentar a minha vida Senhor Jesus! Eu tenho sede de Ti! Minha alma anseia por Ti! Só me satisfaço quando estou junto aos teus pés! Eu tenho sede de Ti! Minha alma anseia por Ti! Manancial, única fonte de vida Tu És!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tem ciúmes de mim, o Seu amor é como um furacão! E eu me rendo ao vento de Sua misericórdia... Então de repente não vejo mais minhas aflições, eu só vejo a glória! E percebo o quão Maravilhoso Ele é e o tanto que Ele me quer! Oh... Ele me amou! Uh... Ele me ama... Ele me amou! Tem ciúmes de mim, o Seu amor é como um furacão! E eu me rendo ao vento de Sua misericórdia... Então de repente não vejo mais minhas aflições, eu só vejo a glória! E percebo o quão Maravilhoso Ele é e o tanto que Ele me quer! Oh... Ele me amou! Uh... Ele me ama... Ele me amou! Me ama! Ele me ama! Ele me ama! Ele me ama! Somos Sua herança e Ele é o nosso Galardão Seu olhar de graça nos atrai à redenção Se a Graça é um oceano estamos afogando! O céu se une a terra como um beijo apaixonado! Meu coração dispara em meu peito, acelerado Não tenho tempo pra perder com ressentimentos quando penso que Ele... Me ama! Ele me ama! Ele me ama! Ele me ama!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eis-me aqui outra vez Diante de Ti abro o meu coração Meu clamor Tu escutas E fazes cair as barreiras em mim És fiel Senhor e dizes Palavras de amor e esperança sem fim Ao sentir Teu toque Por Tua bondade libertas meu ser no calor deste lugar Eu venho me derramar, Dizer que Te amo, Me derramar, dizer Te preciso, Me derramar, dizer que sou grato, Me derramar, dizer que És formoso!        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu nunca vi um justo mendigar o pão, nem sua descendência perecer... Deus sempre tem o escape em Suas mãos Deus sempre tem resposta ao que crê! Preciso aprender a confiar em Deus Vitória só se alcança pela fé! Deus sempre tem uma saída, A vitória é minha, só me resta crer! O que não vejo com os meus olhos naturais A minha fé vai me dar forças para enxergar além, além! Eu vou descansar, pois já entreguei meu amanhã nas mãos de Deus! A última palavra vem de Deus! A última resposta vem de Deus! Preciso aprender a confiar em Deus Vitória só se alcança pela fé! Deus sempre tem uma saída, A vitória é minha, só me resta crer! O que não vejo com os meus olhos naturais A minha fé vai me dar forças para enxergar além, além! Eu vou descansar, pois já entreguei meu amanhã nas mãos de Deus! A última palavra vem de Deus! A última resposta vem de Deus! [3x]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O vento balançou meu barco em alto mar O medo me cercou e quis me afogar... Mas então eu clamei ao Filho de Davi! Ele me escutou, por isso estou aqui! O vento Ele acalmou, o medo repreendeu! Quando Ele ordenou o mar obedeceu! Não temo mais o mar, pois firme está minha fé! No meu barquinho está Jesus de Nazaré! Se o medo me cercar ou se o vento soprar Seu nome eu clamarei, Ele me guardará... Não temo mais o mar, pois firme está minha fé! No meu barquinho está Jesus de Nazaré! Se o medo me cercar ou se o vento soprar Seu nome eu clamarei, Ele me socorrerá... O vento balançou meu barco em alto mar O medo me cercou e quis me afogar... Mas então eu clamei ao Filho de Davi! Ele me escutou, por isso estou aqui! O vento Ele acalmou, o medo repreendeu! Quando Ele ordenou o mar obedeceu! Não temo mais o mar, pois firme está minha fé! No meu barquinho está Jesus de Nazaré! Se o medo me cercar ou se o vento soprar Seu nome eu clamarei, Ele me guardará... Não temo mais o mar, pois firme está minha fé! No meu barquinho está Jesus de Nazaré! Se o medo me cercar ou se o vento soprar Seu nome eu clamarei, Ele me socorrerá... [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este é o meu respirar! Este é o meu respirar! Teu Santo Espírito vivendo em mim! E este é o meu pão... E este é o meu pão... Tua vontade feita em mim... E eu... Eu nada sou sem Ti! E eu... Perdido estou sem Ti!         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O mundo não é o meu lugar No céu de luz eu vou morar! Eu vou cumprir minha missão Levar ao mundo a salvação! Jesus, És meu Salvador! Tudo que eu sou vem de Ti Eu vou gritar ao mundo que Tu És amor E contigo eu vou habitar no céu pra sempre E hoje posso ser livre então A Sua morte não foi em vão Os meus pecados Ele lavou Na cruz morreu e me salvou! Jesus, És meu Salvador! Tudo que eu sou vem de Ti Eu vou gritar ao mundo que Tu És amor E contigo eu vou habitar no céu pra sempre Pra sempre lá no céu eu estarei Pra sempre vou viver com o meu Rei! Pra sempre Santo, Santo vou cantar! Com Cristo para sempre vou morar! [2x] Jesus, És meu Salvador! Tudo que eu sou vem de Ti Eu vou gritar ao mundo que Tu És amor E contigo eu vou habitar no céu pra sempre   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teu sangue leva-me além de todas as alturas onde ouço a Tua voz E sinto o Seu amor pela minha vida, Jesus este é o Teu sangue! A cruz veio nos mostrar o grande amor de Deus e prepara para nós Um caminho para Ele onde posso me achegar somente pelo sangue! Quem irá me perdoar? Quem irá me restaurar? Só o meu Jesus com o Seu precioso sangue Que ao homem pecador pode, enfim, purificar Nada além do sangue, nada além do sangue de Jesus! Teu sangue leva-me além de todas as alturas onde ouço a Tua voz E sinto o Seu amor pela minha vida, Jesus este é o Teu sangue! A cruz veio nos mostrar o grande amor de Deus e prepara para nós Um caminho para Ele onde posso me achegar somente pelo sangue! Quem irá me perdoar? Quem irá me restaurar? Só o meu Jesus com o Seu precioso sangue Que ao homem pecador pode, enfim, purificar Nada além do sangue, nada além do sangue de Jesus! Eu sou livre! Eu sou livre! Nada além do sangue, nada além do sangue de Jesus! Alvo mais que a neve! Alvo mais que a neve! Sim, neste sangue lavado, mais alvo que a neve serei!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não tardará, Cristo irá voltar Não tardará, E veremos Jesus Não tardará, Cristo irá voltar Não tardará, Vamos para o lar Eu quero me preparar Pois quero logo subir E quero junto a você... Lá no céu conversar com Jesus! Não tardará, Cristo irá voltar Não tardará, E veremos Jesus Não tardará, Cristo irá voltar Não tardará, Vamos para o lar Eu quero me preparar Pois quero logo subir E quero junto a você... Lá no céu conversar com Jesus!      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meninas: Noite feliz de estrelas tão brilhantes Que linda foi quando Cristo nasceu! Todo pecar dos homens tão errantes, Dissipará, vida nova dará! Todos: Do céu chegou a nossa esperança. Jesus nasceu, a nova luz raiou! Ajoelhai! Ouvi a voz do anjo! Natal, Natal! Nasceu o Salvador! Natal, Natal! Nasceu o Redentor! Meninas: Com corações alegres nos curvamos Todos: Na manjedoura ‘stá o Rei dos reis! Nosso temor, as fraquezas e desejos, Jesus tirou e vem nos ajudar! O Rei chegou! Louvor vamos cantar! Cristo é Senhor! Louvai Seu nome sempre! Dai glória e honra, adore a Jesus! Louvor e glória, sempre vou cantar.... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andando, vivendo, buscando só Tuas mãos Não me contentei, tem algo além, eu sei... Olhando os Teus olhos um susto eu levei Quando percebi que não estavam em mim mas... No ferido, angustiado, pobre, aflito, cego e nu... No faminto, desprezado, sem amigos, sem amor... Teu Reino vem se eu anunciar! Teu Reino vem se minha postura mudar! Teu Reino vem se o lugar secreto eu frequentar! Teu Reino vem se eu entender que... [2x] O menos é mais, O líder é servo, O pobre é rico, O louco é sábio, O último primeiro é! O fraco é forte, O grande é pequeno, Quem perde que ganha, Quem chora é quem ri, Quem morre vive para Ti! [2x] Teu Reino vem se eu anunciar! Teu Reino vem se minha postura mudar! Teu Reino vem se o lugar secreto eu frequentar! Teu Reino vem se eu entender que... [2x] Pá-pá-rá, pá-pá, pá-pá! (3x) Pá-pá, pá-pá!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nosso amigo Santo Espírito Venha aquecer os corações! Vem com cura e todo Seu poder! Vem manifestar os Seus sinais! O que dizer? O que fazer quando Ele vem aqui? Mais que ser Bem-Vindo, nós Te desejamos outra vez aqui! Nosso amigo Santo Espírito Venha aquecer os corações! Com Seu óleo venha nos ungir E com Seu fogo vem nos batizar! O que dizer? O que fazer quando Ele vem aqui? Mais que ser Bem-Vindo, nós Te desejamos outra vez aqui! [2x] Faz de novo... Faz de novo... O Seu povo clama a Ti mais uma vez... De novo... Faz de novo... O Seu povo clama a Ti mais uma vez... De novo... Faz de novo... O Seu povo clama a Ti mais uma vez... De novo... Faz de novo... O seu povo clama a Ti... O que dizer? O que fazer quando Ele vem aqui? Mais que ser Bem-Vindo, nós Te desejamos outra vez aqui! [2x]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deus, meu Deus tudo está tão difícil pra mim... Deus, meu Deus muitos me perguntam onde Tu estás... Dentro de mim minh’alma se abateu... Mas Tua mão com tudo me escondeu em Tua presença ó Deus! Quando eu chorar vou me lembrar que até aqui Tua mão me sustentou! Digo à minh’alma, “espera em Deus”, pois ainda O louvarei, eu O louvarei... Deus, meu Deus tudo está tão difícil pra mim... Deus, meu Deus muitos me perguntam onde Tu estás... Dentro de mim minh’alma se abateu... Mas Tua mão com tudo me escondeu em Tua presença ó Deus! Quando eu chorar vou me lembrar que até aqui Tua mão me sustentou! Digo à minh’alma, “espera em Deus”, pois ainda O louvarei, eu O louvarei... Quando eu chorar vou me lembrar que até aqui Tua mão me sustentou! Digo à minh’alma, “espera em Deus”, pois ainda O louvarei, eu O louvarei...      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando o meu “eu” e o meu orgulho descer comigo e se misturar Com as águas do rio então subirei como Naamã curado! Eu abro mão de tudo o que sou só pra servir-Te ó meu Senhor! Eu abro mão de tudo o que sou só pra Te adorar Senhor! Senhor, quebra o meu orgulho! Eu quero descer e mergulhar nas águas do Teu amor... Me purifica! Eu quero ser limpo como Naamã no Teu poder Quando o meu “eu” e o meu orgulho descer comigo e se misturar Com as águas do rio então subirei como Naamã curado! Eu abro mão de tudo o que sou só pra servir-Te ó meu Senhor! Eu abro mão de tudo o que sou só pra Te adorar Senhor! Senhor, quebra o meu orgulho! Eu quero descer e mergulhar nas águas do Teu amor... Me purifica! Eu quero ser limpo como Naamã no Teu poder       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não consigo ir além do teu olhar Tudo o que eu consigo é imaginar a riqueza que existe dentro de você O ouro eu consigo só admirar mas te olhando eu posso a Deus adorar Sua alma é um bem que nunca envelhecerá! O pecado não consegue esconder a marca de Jesus que existe em você! O que você fez ou deixou de fazer não mudou o início, Deus escolheu você! Sua raridade não está naquilo que você possui ou que sabe fazer Isso é mistério de Deus com você! Você é um espelho que reflete a imagem do Senhor Não chore se o mundo ainda não notou Já é o bastante Deus reconhecer o seu valor! Você é precioso mais raro que o ouro puro de Ofir Se você desistiu, Deus não vai desistir! Ele está aqui pra te levantar se o mundo te fizer cair O ouro eu consigo só admirar mas te olhando eu posso a Deus adorar Sua alma é um bem que nunca envelhecerá! O pecado não consegue esconder a marca de Jesus que existe em você! O que você fez ou deixou de fazer não mudou o início, Deus escolheu você! Sua raridade não está naquilo que você possui ou que sabe fazer Isso é mistério de Deus com você! Você é um espelho que reflete a imagem do Senhor Não chore se o mundo ainda não notou Já é o bastante Deus reconhecer o seu valor! Você é precioso mais raro que o ouro puro de Ofir Se você desistiu, Deus não vai desistir! Ele está aqui pra te levantar se o mundo te fizer cair [2x]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que posso ver, senão um vale de ossos secos? O que posso dizer se já se foi a esperança? Nossa vergonha está exposta debaixo do sol há muito tempo... Foi-se a alegria, não há espírito, não há palavra! Filho do homem mude a história! Com sua boca profetiza! Volte alegria! Venha Espírito! Haja palavra! Ressuscita ó terra que estava morta, Ó vale de ossos secos volte a respirar! Posso ouvir o som do avivamento, A morte tornando vida! Ressuscita! O que posso ver, senão um vale de ossos secos? O que posso dizer se já se foi a esperança? Nossa vergonha está exposta debaixo do sol há muito tempo... Foi-se a alegria, não há espírito, não há palavra! Filho do homem mude a história! Com sua boca profetiza! Volte alegria! Venha Espírito! Haja palavra! Ressuscita ó terra que estava morta, Ó vale de ossos secos volte a respirar! Posso ouvir o som do avivamento, A morte tornando vida! Ressuscita! Vida! Eu profetizo sobre ti a Vida! Receba sobre ti a Vida! Vida de Deus!!! Ressuscita ó terra que estava morta, Ó vale de ossos secos volte a respirar! Posso ouvir o som do avivamento, A morte tornando vida! Ressuscita!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não dá mais pra ficar do jeito que está, Chegou o tempo eu sei que Deus irá usar Profetas verdadeiros como Daniel Que honram o chamado como Samuel O amor de muita gente já se esfriou, A iniquidade há muito se multiplicou! Amantes de si mesmos é o que mais se vê mas Deus não vai deixar jamais se escarnecer! É hora da Igreja se manifestar Lutar contra o pecado e denunciar Aqueles que distorcem o que a bíblia diz, Que tentam infiltrar na Igreja os seus ardis É tempo de viver em santificação, De se entregar a Deus de todo coração! A noiva amada preparada deve estar, O noivo a qualquer momento vai chamar! Santidade ao Senhor! Santidade ao Senhor! Pois sem santificação ninguém verá o Salvador! Santidade no agir, Santidade no falar, Santidade no vestir, Santidade no olhar Santidade pra vencer o pecado e todo mal Santidade para crer no que é sobrenatural! Santidade pra esperar a promessa se cumprir Santidade ao caminhar e aos impulsos resistir Santidade ao se negar e ao tomar a sua cruz Santidade pra subir ao encontro de Jesus  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu quero entrar nos átrios do pai E regozijar-me em Tua presença E ali me prostrarei com toda reverência e entregarei minha humilde oferta Meu coração, minha vida, meu ser, Te entregarei Colher o que há de bom em Tua palavra E descansar em Teus braços de amor, Quero Teu arado, preparando a minha vida, Devolva com vontade o mais profundo de mim... Tire as pedras e os espinhos, terra fértil quero ser! Pra Teu louvor faz-me Senhor, Eu quero ser usado sem medida! Prepara-me Senhor, capacita-me Senhor Te entrego a direção da minha vida! Colher o que há de bom em Tua palavra e descansar em Teus braços de amor, Quero Teu arado, preparando a minha vida, Devolva com vontade o mais profundo de mim... Tire as pedras e os espinhos, terra fértil quero ser! Pra Teu louvor faz-me Senhor, Eu quero ser usado sem medida! Prepara-me Senhor, capacita-me Senhor Te entrego a direção da minha vida! [2x] Sou tão dependente desse Teu amor Uma pequena gota em Teu grande mar Move as Tuas águas, enche-me de Ti, eu quero Senhor transbordar! Pra Teu louvor faz-me Senhor, Eu quero ser usado sem medida! Prepara-me Senhor, capacita-me Senhor Te entrego a direção da minha vida! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me perguntaram o que eu vim fazer aqui, eu? Vim falar com Deus! Vim falar com Deus! Vim falar com Deus, vim dizer pra Deus Que eu sou d’Ele, que Ele é meu! Me perguntaram o que eu vim fazer aqui, eu? Vim falar com Deus! Vim falar com Deus! Vim falar com Deus, vim dizer pra Deus Que eu sou d’Ele, que Ele é meu! É meu, é meu, É meu, é meu, É meu, é meu... Meu irmão, não abra mão de Deus! Porque você é d’Ele e Ele é seu Eu sou do meu Amado, O meu Amado é meu Eu abro mão do mundo mas não abro mão de Deus! Vim falar com Deus, vim dizer pra Deus Que eu sou d’Ele, que Ele é meu!      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luz do mundo viestes a Terra para que eu pudesse Te ver! Tua beleza me leva a adorar-Te, quero contigo viver! Vim para adorar-Te, vim para prostrar-me Vim para dizer que És meu Deus! És totalmente Amável, totalmente Digno! Tão maravilhoso para mim! Eterno Rei, Exaltado nas alturas, Glorioso nos céus! Humilde viestes a Terra que criaste, por amor pobre se fez! Vim para adorar-Te, vim para prostrar-me Vim para dizer que És meu Deus! És totalmente Amável, totalmente Digno! Tão maravilhoso para mim! Eu nunca saberei o preço dos meus pecados lá na cruz (4x) Vim para adorar-Te, vim para prostrar-me Vim para dizer que És meu Deus! És totalmente Amável, totalmente Digno! Tão maravilhoso para mim!     </t>
+  </si>
+  <si>
+    <t>Oh quão bom e quão suave viver em comunhão Com meus irmãos, com meus irmãos... [2x] A casa está cheia da Sua glória É muita benção, Tem muita vitória! A hipocrisia ficou lá fora e a falsidade mandamos embora É muita festa aqui na casa do Senhor! _x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A luz do Teu rosto resplandeceu sobre mim A Tua graça como um rio transbordou! Fui atraído pelo Teu imenso amor Teu precioso sangue me purificou Encheste minha vida, meu coração de alegria Tua presença é real dentro de mim! Tua palavra ilumina o meu caminho Sou guiado pelo Teu Espírito! E eu vou, a cada dia Te buscar, Se estou andando vou correr, Se eu correr quero voar! E eu vou, a cada dia me achegar Pra Te encontrar Amado meu! Nas asas do Espírito eu vou cada vez mais alto... E eu vou, a cada dia Te buscar, Se estou andando vou correr, Se eu correr quero voar! E eu vou, a cada dia me achegar Pra Te encontrar Amado meu! Nas asas do Espírito eu vou cada vez mais alto...    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, oh, oh, ouo... Ou ou ô Oh, oh, ouo ou ou Oh, oh, oh, ouo... Ou ou ô Oh, oh, ouo... A vida... A vida é tudo de bom! A vida é tudo de bom! Eu ando sorrindo à toa, tô de bem com a vida! E a vida... A vida... A vida é tudo de bom! A vida é tudo de bom! Eu vou contar pra todo mundo Jesus é a Vida e eu vou... Eu vou cortando a estrada do Brasil, eu vou! Passo em Goiânia minha terra linda e de lá eu vou, Eu vou pra capital, capital do Brasil, linda Brasília, linda Brasília! Vou visitando os quatro cantos do Brasil eu vou! Minas Gerais, Rio de Janeiro, Mato Grosso, Salvador, Cuiabá, Maranhão, São Paulo levando o verdadeiro amor! Brasil é do Senhor! Se Deus fizer chover Vou adorar! Na chuva, na chuva, Na chuva, na chuva! Mas se o sol aparecer Vou adorar! É no calor do sol! É no calor do sol! [2x] Eu vou cortando a estrada do Brasil, eu vou! Passo em Goiânia minha terra boa e de lá eu vou, Eu vou pro Paraná, de lá pro Ceará Terra bonita! Terra bonita! Vou visitando os quatro cantos do Brasil eu vou! Bahia, Acre, Tocantins, Espírito Santo, Amapá, Guarujá, São Paulo levando o verdadeiro amor! Brasil é do Senhor! Se Deus fizer chover Vou adorar! Na chuva, na chuva, Na chuva, na chuva! Mas se o sol aparecer Vou adorar! É no calor do sol! É no calor do sol! [2x] A vida... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu não preciso ficar de bobeira, eu adoro a Deus! Adoro a Jesus da minha maneira, eu adoro a Deus! Quando pensam que estou caído e fraquinho, estou adorando a Deus Quanto mais pedras me atiram, eu adoro a Deus! Adora, Adora, Adora a Deus! Tu adoras, adoras, adoras a Deus! Vou adorando, adorando, adorando a Deus! Adora, Adora, Adora a Deus! Quando eu me levanto e proponho para O adorar As cadeias se abrem e as correntes se quebram em meu caminhar O verdadeiro adorador é como o rei Davi, É saltando, correndo, dançando e cantando assim! Adora, Adora, Adora a Deus! Tu adoras, adoras, adoras a Deus! Vou adorando, adorando, adorando a Deus! Adora, Adora, Adora a Deus! Os irmãos de toda igreja já chegaram aqui, Estou vendo que a glória de Deus começou a fluir A glória de Deus tomou conta de todo esse lugar E vem com a UMADECAP hoje adorar! Adora, Adora, Adora a Deus! Tu adoras, adoras, adoras a Deus! Vou adorando, adorando, adorando a Deus! Adora, Adora, Adora a Deus! Marchando, Marchando, Marchando assim Adorando, Adorando, Adorando assim...  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninguém é super-homem, Deus não te fez de aço, Não leve em teus ombros além do que Ele te deixou... O mundo é natural, a carne é mortal, é a realidade pra chegar no ideal! O inimigo luta pra você deixar a cruz! Sem ela, ele sabe que você negou Jesus! O peso da tribulação não dá pra comparar Com o peso da glória que o céu vai revelar! Não despreze a sua cruz! Ela tem sua medida, Deus um dia calculou! Ele conhece a força e a fraqueza de um pecador! O calvário declarou com o sangue de Jesus para o mundo o seu valor! Não despreze a sua cruz! A renúncia é o braço de equilíbrio pra você! Hoje você não entende, mas um dia irá saber... Que as pegadas de Jesus são o Mapa do Tesouro, Deus tem recompensa pra você! A cruz é a responsabilidade do fiel! É o domínio sobre a carne, a ponte para o céu! Diga sim pra Deus! Não negue o que é teu! A trajetória certa Ele escreveu! Não despreze a sua cruz! Ela tem sua medida, Deus um dia calculou! Ele conhece a força e a fraqueza de um pecador! O calvário declarou com o sangue de Jesus para o mundo o seu valor! Não despreze a sua cruz! A renúncia é o braço de equilíbrio pra você! Hoje você não entende, mas um dia irá saber... Que as pegadas de Jesus são o Mapa do Tesouro, Deus tem recompensa pra você  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não me envergonharei do Teu amor Pagaste um alto preço pra eu viver, Senhor! Livre para Te adorar, Te conhecer, Te fazer conhecido com meu viver! Não me envergonharei do Teu imenso amor! (2x) [2x] Deus amou o mundo de tal maneira, Se entregou... Para que todo o que N’Ele crê Tenha a vida eterna e nada  Irá nos separar deste amor! Deus amou o mundo de tal maneira, Se entregou... Para que todo o que N’Ele crê Tenha a vida eterna e nada  Irá nos separar deste amor! Não me envergonharei desse amor! Não me envergonharei do Teu imenso amor! (2x)      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Espírito de Deus está aqui (3x) Ele se move, se move, Ele se move, se move Estou trazendo este som novo que vem do Amapá Do norte a sul do meu país eu quero adorar Do Oiapoque ao Chuí eu quero cantar E vem com a UMADECAP hoje celebrar! O Espírito de Deus está aqui (3x) Ele se move, se move, Ele se move, se move Foi no dia de pentecostes que aconteceu, Veio um vento veemente e toda a casa encheu, Línguas de fogo repartidas começaram a falar, Aquele mesmo pentecostes está aqui neste lugar! O Espírito de Deus está aqui (3x) Ele se move, se move, Ele se move, se move Não quero nem saber o que falam de mim, Se falam mal, Se falam bem, eu não tô nem aí! O meu louvor pertence a Ele e eu quero falar, Vem com a UMADECAP hoje adorar! O Espírito de Deus está aqui (3x) Ele se move, se move, Ele se move, se move Não quero nem saber o que falam de mim, Se falam mal, se falam bem, eu não tô nem aí! O meu louvor pertence a Ele e eu quero falar, Vem com a UMADECAP hoje adorar!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igual ao Rei Davi eu quero celebrar, Jogar as mãos pro alto e o Teu nome exaltar! Conheci a verdade, ela me libertou! Hoje sou livre e glorifico o nome do Senhor! Aqui não tem sofrência e nem solidão, Sou transformado pela graça e cheio de unção E vem com alegria que já começou! Essa noite de adoração, UMADECAP é só louvor! Jogue as mãos pra cima Exalte ao Senhor! Só ao Senhor! A Ele... Jogue as mãos pra cima E grite ao Senhor! Só ao Senhor! A Ele... Eu canto pra Ele, Eu danço pra Ele, Exalto a Ele, Eu vivo pra Ele Jogue as mãos pra cima Exalte ao Senhor! Só ao Senhor! A Ele... Jogue as mãos pra cima E grite ao Senhor! Só ao Senhor! A Ele... Eu canto pra Ele, Eu danço pra Ele, Exalto a Ele, Eu vivo pra Ele    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vai abalar! Vai abalar! Quando Jesus voltar O mundo vai abalar! (2x) Cristo descendo, O Céu se abrindo, Os anjos tocando, E a Igreja subindo! (2x) Vai abalar! Vai abalar! Quando Jesus voltar O mundo vai abalar! (2x) Alguém me perguntou Se Cristo vai voltar A resposta foi aquela que na bíblia escrito está! [2x] Ele voltará! Ele voltará! Ele voltará e para o céu me levará!         </t>
+  </si>
+  <si>
+    <t>Posso ouvir a Sua voz nessa escuridão Nos desafios dessa vida vou na contramão Contigo eu sei que posso andar sobre as águas E quanto mais eu me aproximo mais me sinto assim Tão tranquilo porque sinto Deus cuidar de mim A tempestade turbulenta não me atrapalha Estou seguro e vou para o alvo eu vou! Nada me impedirá, Sou mais que vencedor, Comigo Deus está! Posso ouvir a Sua voz nessa escuridão Nos desafios dessa vida vou na contramão Contigo eu sei que posso andar sobre as águas E quanto mais eu me aproximo mais me sinto assim Tão tranquilo porque sinto Deus cuidar de mim A tempestade turbulenta não me atrapalha Estou seguro e vou para o alvo eu vou! Nada me impedirá, Sou mais que vencedor, Comigo Deus está! A Tua mão que me sustenta! A Tua voz me orienta Para onde eu vou, para onde eu vou! Tu És Senhor o meu caminho Sem ti não sei andar sozinho! Tu me Guiará! (3x) Vou para o alvo eu vou! Nada me impedirá Sou mais que vencedor Comigo Deus está!_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os campos estão brancos, (Os campos estão brancos) Já podemos ver, (Já podemos ver) Desponta um novo dia, (Desponta um novo dia) Um novo amanhecer! (Um novo amanhecer!) Há trabalho a ser feito (Ah, Ah, Ah) Inda muito o que colher (Que colher) É Jesus quem nos convida (Ah, Ah, Ah) O que vamos responder? Eu quero ir Senhor à seara trabalhar Quero ser ajudador, Falar de Cristo e Seu amor! Eu quero ser Senhor uma luz a iluminar Quero dar o meu melhor, quero ver Jesus voltar... Solo: É nossa alegria ir e proclamar, Jesus está voltando, Virá pra nos buscar! (Todos: Virá pra nos buscar!) Solo: Muita gente Todos: não percebe o que vai acontecer Se não forem avisados eles podem perecer! Eu quero ir Senhor à seara trabalhar Quero ser ajudador, Falar de Cristo e Seu amor! Eu quero ser Senhor uma luz a iluminar Quero dar o meu melhor, quero ver Jesus voltar... Eu quero ir Senhor à seara trabalhar Quero ser ajudador, Falar de Cristo e Seu amor! Eu quero ser Senhor uma luz a iluminar Quero dar o meu melhor! Solo: Quero ver Jesus voltar! Meninas: Quero ver Jesus voltar! Homens: Quero ver Jesus voltar! Homens: Ver Jesus voltar! Meninas: Ver Jesus voltar! Todos: Ver Jesus... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo 1: A coroa que Ele usou não era de ouro Apesar de O coroarem como Rei, Não era de rubi ou diamante, mas era feita só de espinhos vis... Solo 2: Por que tratar um Rei desta maneira? E por que fazê-lo usar coroa tal? Ele nunca foi forçado a usá-la! Mas por amor deixou Seu lar real! Todos: A coroa que Jesus usou na cruz fora feita para mim! Ele a trocou pela minha salvação e jamais terá de usá-la outra vez... Solo 3: O inimigo não desiste facilmente... Ele quer fazê-Lo usar coroa tal! Mas tenha isto sempre em sua mente, no calvário o bem venceu o mal! Todos: A coroa que Jesus usou na cruz fora feita para mim! Ele a trocou pela minha salvação e jamais terá de usá-la outra vez... A coroa que Jesus usou na cruz fora feita para mim! Ele a trocou pela minha salvação... E jamais terá de usá-la outra vez... (3x) E jamais terá de usá-la outra ve... e... ez... A coroa que Jesus usou na cruz fora feita para mim! Ele a trocou pela minha salvação e jamais terá de usá-la outra vez... A coroa que Jesus usou na cruz fora feita para mim! Ele a trocou pela minha salvação... E jamais terá de usá-la outra vez... (3x)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meu Deus me fez promessas, Ele não se esquece do que prometeu! É o Seu prazer cumprir tudo o que me diz! Sei não está demorando Está caprichando para me honrar! É no Seu de repente que me surpreende E se manifesta o Seu Poder! A última palavra vem de Deus ao meu respeito e ao teu! Não temerei o dia mal! Deus é fiel, não falhará! A última palavra vem de Deus ao meu respeito e ao teu! Não temerei o dia mal! Deus é fiel, não falhará! Sei não está demorando Está caprichando para me honrar! É no Seu de repente que me surpreende e se manifesta o Seu Poder! A última palavra vem de Deus ao meu respeito e ao teu! Não temerei o dia mal! Deus é fiel, não falhará! Ele tem suprido minhas necessidades Segundo Suas riquezas e o Seu poder! Ele tem agido de várias maneiras pra me favorecer! [3x] A última palavra vem de Deus ao meu respeito e ao teu! Não temerei o dia mal! Deus é fiel, não falhará! A última palavra vem de Deus ao meu respeito e ao teu! Não temerei o dia mal! Deus é fiel, não falhará!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tua Santidade é grande! Teu amor imensurável! Tuas palavras dentro de mim me fazem ver que sou Teu! [2x] Te adorarei! Te bendirei! És para mim Amor maior! És para mim Amor melhor! [2x] Em Teus braços eu me aconchego, Tua doce voz me leva a descansar... Tua palavra me faz sentir consolo e paz, pois sou Teu! [2x] Te adorarei! Te bendirei! És para mim Amor maior! És para mim Amor melhor! [2x] Amor maior não há... Amor melhor não há! [2x] Amor maior não há... Amor melhor não há! [2x] Te adorarei! Te bendirei! És para mim Amor maior! És para mim Amor melhor! [3x]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantai ao grande Deus, A Ele um templo erguei! Um eterno louvor, um trono de graça ao Soberano Rei! Cantai uma canção por Seu eterno amor! Pois quando há louvor Sua glória enche o templo Louvai a Deus aqui! Louvai a Deus aqui! [2x] Pois Deus habita em meio aos louvores e canto dos santos! (2x) Cantai ao grande Deus, A Ele um templo erguei! Um eterno louvor, um trono de graça ao Soberano Rei! Cantai uma canção por Seu eterno amor! Pois quando há louvor Sua glória enche o templo Louvai a Deus aqui! Louvai a Deus aqui! Mulheres: Viemos pra Te adorar ó Senhor com música e canto! Homens: Estamos alegres nos feitos do Pai Todos: A Ele louvamos! Cantai ao grande Deus, A Ele um templo erguei! Um eterno louvor, um trono de graça ao Soberano Rei! Cantai uma canção por Seu eterno amor! Pois quando há louvor Sua glória enche o templo Louvai a Deus aqui! Louvai a Deus aqui! Louvai! Louvai! Cantai ao grande Deus, A Ele um templo erguei! Um eterno louvor, um trono de graça ao Soberano Rei! Cantai uma canção por Seu eterno amor! Pois quando há louvor Sua glória enche o templo Louvai a Deus aqui! Louvai a Deus aqui! Louvai a Deus aqui! Louvai Ele está aqui! Louvai... Louvai... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deus não rejeita oração, Oração é alimento! Nunca vi um justo sem resposta ou ficar no sofrimento Basta somente esperar o que Deus irá fazer! Quando Ele estende Suas mãos é a hora de vencer! Então louve! Simplesmente louve! Tá chorando? Louve! Precisando? Louve! Tá sofrendo? Louve! Não importa, louve! Teu louvor invade o céu! Deus vai na frente abrindo o caminho, Quebrando as correntes, tirando os espinhos! Ordena os anjos pra contigo lutar, Ele abre as portas pra ninguém mais fechar! Ele trabalha pra quem n’Ele confia, caminha contigo de noite ou de dia! Erga suas mãos, sua benção chegou! Comece a cantar... Com muito louvor! (4x) A gente precisa entender o que Deus está falando! Quando Ele fica em silêncio é porque está trabalhando! Basta somente esperar o que Deus irá fazer! Quando Ele estende Suas mãos é a hora de vencer! Então louve! Simplesmente louve! Tá chorando? Louve! Precisando? Louve! Tá sofrendo? Louve! Não importa, louve! Teu louvor invade o céu! Deus vai na frente abrindo o caminho, Quebrando as correntes, tirando os espinhos! Ordena os anjos pra contigo lutar, Ele abre as portas pra ninguém mais fechar! Ele trabalha pra quem n’Ele confia, caminha contigo de noite ou de dia! Erga suas mãos, sua benção chegou! Comece a cantar... Com muito louvor! (371x) Com muito louvor! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo 1: Senhor não quero ser refém de mim mesmo, venha me salvar! Mesmo que eu seja alguém que eu não venha me vangloriar Crucifico o meu ego pra que Tu cresças sobre mim, Me esvazio dos meus ideais, quero transbordar mais de Ti! Solo 2: Senhor, me escondo em Tua graça e no Teu amor, Me esconda em cavernas se preciso for! Não quero estar em evidência se não for pra Tua glória e pro Teu louvor! Solo 1: Senhor, blindado em Tua verdade está o meu coração O meu fascínio está além da multidão! Dueto: Rejeito Babilônia, seus manjares e os altares da corrupção! Cresça, até que o meu eu desapareça Até a Tua glória me cobrir! Quero Tua presença exalando em mim, que eu diminua e o Senhor cresça! Que o Teu nome esteja sempre em evidência E Tua glória eternamente permaneça!	 Senhor que eu venha diminuir E a Tua glória vá além de mim! (Ô...Ô...Ô...Ô...Ô...Ô) (Ô...Ô...Ô...Ô...Ô...Ô...Ô) (Ô...Ô...Ô...Ô...Ô...Ô) (Ô...Ô...Ô...Ô...Ô...Ô...Ô) Cresça, até que o meu eu desapareça Até a Tua glória me cobrir! Quero Tua presença exalando em mim, que eu diminua e o Senhor cresça! Que o Teu nome esteja sempre em evidência E Tua glória eternamente permaneça! Senhor que eu venha diminuir Solo: E a Tua glória vá além de mim! Todos: Do pó, do barro formastes o homem Feito em Tuas mãos, Criador tão nobre! Eles não têm, não possuem, não são! É só a caneta, És o autor da canção! Nem fama, nem palco, nem honra, nem aplausos Traduzem o preço na cruz que foi pago! A renúncia existe, vai na contramão, Nós somos só a voz que anuncia a salvação Tesouros em vasos de barro pra que a excelência seja Tua Brilhando o farol e sendo Tua luz nas ruas mais escuras! Ninguém rouba Tua glória! Ninguém toma o Teu trono! Ai daquele que mexe e troca manjares por honra... Da Igreja És o Dono! Que sopra e erga Teu nome Que venha a justiça e o Teu reino! Que a glória da cruz confronte com os grandes e caiam de joelhos Solo: Somos o pincel, Só Tu És o artista! Que eu diminua e o Senhor cresça, cresça... Cresça, até que o meu eu desapareça Até a Tua glória me cobrir! Quero Tua presença exalando em mim, que eu diminua e o Senhor cresça! Que o Teu nome esteja sempre em evidência E Tua glória eternamente permaneça! Senhor que eu venha diminuir Solo: E a Tua glória vá além de mim! [2x] Cresça!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenho sede de Ti, tenho fome da Tua presença Tu És o meu sustento, Tua palavra, meu alimento! Tenho sede de Ti, tenho fome da Tua presença Tu És o meu sustento Tua palavra, meu alimento! Preciso do Teu amor... Vou mergulhar nas águas do Espírito, quero beber dos Teus rios E saciar a sede da minh’alma [2x] Quero ir mais fundo Senhor... Deixa o Teu rio me levar (2x) Vem Senhor frutificar o deserto da minha alma Por onde esse rio passar tudo vai mudar! Preciso do Teu perdão... Vou mergulhar nas águas do Espírito, quero beber dos Teus rios E saciar a sede da minh’alma [2x] Quero ir mais fundo Senhor... Deixa o Teu rio me levar (6x)      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existe um Deus no céu que a letra do papel não pode descrever Não dá pra imaginar, não dá pra comparar o Seu grande poder! Ele faz o que Ele quer! Soberano e Forte até o infinito! Ganha a luta sem lutar, Vence a luta e faz cansar o inimigo! Jeová... Deus de vida e de vitória! Jeová... Deus de paz, Deus de glória! Jeová... Vai mudar a sua história hoje aqui! (Hoje aqui) Quando Deus quer fazer ninguém pode parar, Quando manda mensagem faz profeta entregar, Faz a nuvem descer, faz a água subir E se Ele soprar faz o inferno explodir! Ele sempre resolve sem ter reunião, Pega o homem sem Deus e derrama unção! O Seu braço é capaz de parar um trovão, Esse é o Deus dos deuses meu irmão... Esse é o Deus dos deuses... (2x) Ah... Meu irmão!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entoarei louvores Não cessarei meu canto! Não pouparei a carne, mesmo na dor pra meu Senhor eu canto! [2x] Mesmo que não haja peixes no mar, Mesmo que não haja estrelas no céu! Mesmo que o sol venha escurecer o meu Deus permanece fiel! Eu não posso retroceder, Meu espírito é de adorador! Te amo, Te adoro Senhor! Um fogo arde no meu coração! Há uma alegria que invade o meu ser! Eu não consigo controlar a emoção Meu desejo é saltar e correr! Há uma chama que queima por dentro Por isso eu não posso parar! Quero aproveitar o momento... e vou adorar! Mesmo que não haja peixes no mar, Mesmo que não haja estrelas no céu! Mesmo que o sol venha escurecer o meu Deus permanece fiel! Eu não posso retroceder, Meu espírito é de adorador! Te amo, Te adoro Senhor! Entoarei louvores Não cessarei meu canto! Não pouparei a carne, mesmo na dor pra meu Senhor eu canto!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Ti eu vou clamar, pois tudo vem de Ti e tudo está em Ti Por Ti vou caminhar Tu És a direção, o sol a me guiar! Tudo pode passar Teu amor jamais me deixará! Sempre há de existir um novo amanhã Preparado pra mim! (2x) Eu me rendo aos Teus pés... És tudo que eu preciso pra viver! Eu me lanço aos Teus braços onde encontro meu refúgio! [2x] Jesus, Eis me aqui! (2x) Eu me rendo aos Teus pés... És tudo que eu preciso pra viver! Eu me lanço aos Teus braços onde encontro meu refúgio! [2x] Jesus, Eis me aqui! (2x)      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na oração encontro calma, na oração encontro paz! Orar a Deus faz bem à alma, falar com Deus me satisfaz! Falar com Deus, que privilégio abrir a alma ao Criador! Sentir que os céus estão abertos, e ouvir a voz do Salvador! Grande é o nosso Deus E as obras que Ele faz! O Seu amor não tem limites! Em Seu perdão encontro paz... Falar com Deus é o que preciso, pois Ele é fonte de poder! Só n’Ele a vida faz sentido, pois me dá forças pra viver! Grande é o nosso Deus E as obras que Ele faz! O Seu amor não tem limites! Em Seu perdão encontro paz... Grande é o nosso Deus E as obras que Ele faz! O Seu amor não tem limites! Em Seu perdão encontro paz... Na oração encontro calma, na oração encontro paz! Orar a Deus faz bem à alma, falar com Deus me satisfaz! Orar a Deus faz bem à alma, falar com Deus me satisfaz! Falar com Deus me satisfaz...      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Ó Deus de Israel eu sei Que não vim a esse mundo pra adorar outro rei! Os leões estão rugindo sem parar, Meu louvor incomodou a todos que estão contra Ti ó Jeová! Todos: Nada pode intercalar o louvor do meu coração Dos manjares eu abro mão, Os palácios não quero não! Eis me aqui como Daniel, com os olhos focados no céu, Com o risco de morrer, pois o que me importa é obedecer! Senhor, não vou dividir minha adoração! Exclusivo é o meu coração! Vivo só pra Ti, não abro mão do céu! Até diante da morte prefiro ser fiel... Aquele que habita no esconderijo do Altíssimo, À sombra do Onipotente descansará! Direi do Senhor: Ele é o meu Deus, o meu Refúgio, a minha Fortaleza! Ele me livra do laço do passarinheiro e da peste perniciosa Ele me cobre com Suas penas e debaixo de Suas asas estarei seguro! Meninas: Eu não temo espanto noturno, Nem seta que voe de dia! Homens: Nem peste que ande na escuridão, Nem mortandade que assole ao meio-dia! Meninas: Não importa quantos caiam ao meu lado, Direita, esquerda, eu sou protegido! Todos: Se eu for fiel eu moverei o céu Solo: Ele envia anjos para me guardar! Senhor, não vou dividir minha adoração! Exclusivo é o meu coração! Vivo só pra Ti, não abro mão do céu! Até diante da morte prefiro ser fiel! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Se alguém tentar te humilhar porque és crente e crê em Deus Não dê ouvidos, ouvidos! Diga apenas que a tormenta vai passar porque Deus é contigo, contigo! Não se deixe ser levado pela voz do opressor, ele só sabe acusar, Não se renda porque ele já perdeu! Agora é a sua vez de humilhar Não te lembras que ele foi até a Deus dizer que Jó Blasfemaria contra o seu Senhor, Se o Senhor deixasse ele consumir todos seus bens, Jó não aguentaria! Mas o homem que é fiel no seu propósito e teme a Deus Não se corrompe não, não, não... Mesmo em meio a tempestade, Jó se levantou das cinzas E adorou ao Senhor! Todos: Jó lançou-se sobre a terra e adorou e falou pra todo inferno escutar: Nu saí do ventre da minha mãe E é nu que voltarei para lá! Tudo que eu tinha era de Deus, Deus me deu e Ele mesmo tomou! Cai por terra o inimigo de Deus e louvado seja o nome do Senhor! Solo: Deus deixou que o inimigo roubasse os bens do Seu ungido... Deixou que o inimigo matasse os seus filhos queridos... Deixou ferir com chagas, porém Jó não deu ouvidos! E a sua mulher gritou bem alto: “Amaldiçoa esse Deus e morre!” Todos: Como falas uma louca mulher tu falaste agora contra Jeová! Aceitaste o bem de Deus com prazer e o mal não queres tu aceitar! Tudo que eu tinha era de Deus, Deus me deu e Ele mesmo tomou! Cai por terra o inimigo de Deus e louvado seja o nome do Senhor! Bendito é o Senhor!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glória, Aleluia, Ó Pai Celeste Adorar-Te quero sempre enfim, Deus majestoso, Rei do Universo! Adorar-Te quero sempre enfim! Só Teu nome será exaltado eternamente! És o mesmo ontem, hoje e sempre, Te rendemos glória sempre enfim! Poderoso, Exaltado Rei dos céus, da terra, Criador dos mares e as estrelas! Te rendemos glória sempre enfim! Glória, Glória e Aleluia... (8x) Glória, Glória e Aleluia... (6x) Glória... Só Teu nome será exaltado eternamente! És o mesmo ontem, hoje e sempre, Te rendemos glória sempre enfim! Poderoso, Exaltado Rei dos céus, da terra, Criador dos mares e as estrelas! Te rendemos glória sempre enfim! Glória, Glória e Aleluia... (8x) Glória, Glória e Aleluia... (6x) Glória.... Só Teu nome será exaltado eternamente! És o mesmo ontem, hoje e sempre, Te rendemos glória sempre enfim! Poderoso, Exaltado Rei dos céus, da terra, Criador dos mares e as estrelas! Te rendemos glória sempre enfim! Glória, Glória e Aleluia... (8x) Glória, Glória e Aleluia... (6x) Glória.... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por tudo que És... Por tudo que tens feito, Tua presença e direção! Nossas vidas transformadas por Tua graça e poder És muito além do que eu posso entender... [2x] Obrigado Senhor! Graças Te damos todos os dias! Graças Te damos por tudo o que nos faz viver! Pela família, por toda cura, pela conquista de Tuas promessas! Pelo Teu grande amor por mim... Por tudo que És... Por tudo que tens feito, Tua presença e direção! Nossas vidas transformadas por Tua graça e poder És muito além do que eu posso entender! Obrigado Senhor! Graças Te damos todos os dias! Graças Te damos por tudo o que nos faz viver! Pela família, por toda cura, pela conquista de Tuas promessas! Pelo Teu grande amor por mim! [3x] Pela família, por toda cura, pela conquista de Tuas promessas! Pelo Teu grande amor por mim...     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagine um lugar onde tudo é muito lindo! Imagine um lugar onde não haverá dor, nem ódio e nem rancor, é o Céu para onde eu vou! Imagine você voando com os anjos! Imagine você andando pelas ruas de ouro e de cristal, como nunca viu igual Eu queria ir pra lá, se eu pudesse estar lá, Não queria voltar, só pra ver o meu Rei! Frente a frente com o Pai, só cantando assim: Santo, Santo és Senhor, para sempre cantaria... Imagine você num corpo transformado! Imagine você falando com Abraão, Isaque e Jacó, estaremos juntos lá! Imagine você recebendo uma coroa! Imagine você cantando num coral um hino sem igual, um hino triunfal! Frente a frente com o Pai, só cantando assim: Santo, Santo és Senhor, para sempre cantaria! Pra sempre cantarei! Pra sempre cantarei!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digno de honra, Digno de louvor, Digno de glória, Cordeiro de Deus! [2x] Quem é esse Leão e Cordeiro sentado sobre o trono a direita do Pai? Quem é esse o Sol da justiça, a Estrela da manhã e Rei que voltará?! Toda terra se alegra e canta em Seu louvor! Digno de honra, Digno de louvor, Digno de glória, Cordeiro de Deus! [2x] Quem é esse Leão e Cordeiro sentado sobre o trono a direita do Pai? Quem é esse o Sol da justiça, a Estrela da manhã e Rei que voltará?! Toda terra se alegra e canta em Seu louvor! Digno de honra, Digno de louvor, Digno de glória, Cordeiro de Deus! [2x] Santo, Santo, Santo é o Senhor! (6x) Digno de honra, Digno de louvor, Digno de glória, Cordeiro de Deus! [2x]      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louve, sempre louve, louve e exalte ao Senhor! Louve, louve mais... Louve sempre, vencerás! Enquanto você louva Deus te livra da prisão Enquanto você louva o inimigo cai ao chão Cadeias se abrirão, multidões se renderão Não olhe o teu problema e não pare de louvar! Louve, sempre louve, louve e exalte ao Senhor! Louve, louve mais... Louve sempre, vencerás! Louve, exalte, adore, erga a voz e ofereça Honra e glória para aqu’Ele que te livra da fornalha! Ele É aqu’Ele que te guarda até na cova dos leões E abençoa tua vida, Ele acalma a tempestade! Então... Louve, sempre louve, louve e exalte ao Senhor! Louve, louve mais... Louve sempre, vencerás! Louve... Louve... Louve... Louve! (3x) Louve, sempre louve, louve e exalte ao Senhor! Louve, louve mais... Louve sempre, vencerás! Louve, exalte, adore, erga a voz e ofereça Honra e glória para aqu’Ele que te livra da fornalha! Ele É aqu’Ele que te guarda até na cova dos leões E abençoa tua vida, Ele acalma a tempestade! Então... Louve, sempre louve, louve e exalte ao Senhor! Louve, louve mais... Louve sempre, vencerás! Quando você louva... Deus te livra da prisão Quando você louva... O inimigo cai ao chão Quando você louva... Deus te livra da prisão Quando você louva... Louve, sempre, louve! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tu És a minha luz, a minha salvação e a Ti me renderei! Se ao Teu lado estou, seguro em Tuas mãos, eu nada temerei! Oh... Oh... Oh... Tu És Santo ó Senhor! Oh... Oh... Oh... Tu És Digno de louvor! Só em Ti confiarei, eu nada temerei, Em frente eu irei, pois eu sei que vivo Estás... E um dia voltarás do céu pra nos buscar! Pra sempre reinarás! Aleluia! Só em Ti confiarei, eu nada temerei, Em frente eu irei, pois eu sei que vivo Estás... E um dia voltarás do céu pra nos buscar! Pra sempre reinarás! Aleluia! Vem Jesus! Vem Jesus! Maranata ora vem Senhor Jesus! [2x] Vem Jesus! Vem Jesus! Maranata ora vem Senhor Jesus! [3x]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me lembro de Daniel entre os leões, Lá ficou por não adorar o rei! Não há dúvida que o Senhor livrou Seu servo da morte, pois ouviu a oração Meu Deus tem poder! Só Ele é a força que me traz cada dia Sua paz... [2x] Cada dia Sua paz... Estava eu sofrendo a pecar, E Cristo veio e me trouxe a salvação Se tentações me vierem clamo a Deus pois tenho certeza que virá me ajudar! Meu Deus tem poder! Só Ele é a força que me traz cada dia Sua paz... [2x] Cada dia Sua paz... (3x) Meu Deus tem poder! Só Ele é a força que me traz cada dia Sua paz... [2x] Cada dia Sua paz...(3x)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Além do céu existe um lugar Onde minha alma almeja ir morar Que foi preparado por Jesus Quando um dia me justificou na cruz Vivo porque Ele me amou E o que eu devia Ele já pagou! E antes de subir me prometeu Que eu moraria bem ao lado Seu! Muito além do céu não há tristeza ou dor! Porque habita lá a Essência do amor! [2x] Nada nessa terra vale mais Que morar com Cristo em um lugar de paz Corpo glorioso eu terei, Semelhante a Ele eu também serei! Sei que nada fiz pra merecer Mas foi Seu amor quem quis me escolher! E o que eu mais quero é contemplar A face de Deus e poder Lhe adorar! Muito além irei morar com Quem me amou! E desfrutarei o que Ele preparou! [2x] Maranata, Maranata Ora vem Senhor Jesus! (4x)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nada se compara ao brilho da glória que vem de Deus, Nada se compara ao valor da Sua presença em nós Queimando nos corações e entre esses corações fui escolhido! Nada se compara à graça que revelou Jesus, Nada se compara ao amor que O fez vencer na cruz Com preço de sangue e dor... Com preço de sangue e dor fui redimido! Então eu vi um céu e uma nova terra, Toda esperança que se foi na guerra eu encontrei nos olhos do Cordeiro! Então não há mais morte tudo agora é vida, Minha coroa está garantida, eu vou reinar com Cristo para sempre... Nada se compara ao dia que eu verei Jesus Vindo com poder e glória sobre as nuvens do céu Num abrir e fechar de olhos... Num abrir e fechar de olhos Ser arrebatado! Então eu vi um céu e uma nova terra, Toda esperança que se foi na guerra eu encontrei nos olhos do Cordeiro! Então não há mais morte, tudo agora é vida, Minha coroa está garantida Eu vou reinar com Cristo para sempre... Maranata, Ora vem, Jesus! Eu quero a Sua volta! Eu quero a Sua volta!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando um novo dia começa ninguém vê Mas à meia-noite tudo já mudou! No tempo de Deus vai aparecer O que Ele já mostrou ao que creu! Nem tudo o que acontece dá pra entender, Lutando pela fé a gente vai vencer! O que quero mais é me encher do Teu poder! Jesus se estás comigo, a quem eu temerei? Novo dia, Novo tempo a fé faz aparecer! O impossível, o inatingível de repente vai acontecer! Quando um novo dia começa ninguém vê Mas à meia-noite tudo já mudou! No tempo de Deus vai aparecer O que Ele já mostrou ao que creu! Nem tudo o que acontece dá pra entender, Lutando pela fé a gente vai vencer! O que quero mais é me encher do Teu poder! Jesus se estás comigo, a quem eu temerei? Novo dia, Novo tempo a fé faz aparecer! O impossível, o inatingível De repente vai acontecer!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pai quero ouvir a Tua voz Pai Tuas palavras me consolam Pai quero sempre Te servir Viver contigo no porvir! Aleluia! Sou filho Teu! Aleluia! Tu és meu Pai! Pai agradeço pela vida! Pai agradeço pela paz! Pai quero estar na Tua graça Andar sempre firme a Te seguir! Aleluia! Sou filho Teu! Aleluia! Tu és meu Pai! Pai junto a Ti a vida é rica Pai não permitas Te deixar! Pai faz sentir-me renovado Pai dá-me mais do Teu amor! Aleluia! Sou filho Teu! Aleluia! Tu és meu Pai!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Sua história é um exemplo pra mim... O seu testemunho tem me aproximado de Deus! Se eu viver mais de oitenta anos quero ser como você pastor... Solo: Sua casa testifica sobre quem você é! Sua obra, sua vida, seu amor, sua fé! Os meus filhos vão saber que se eu hoje adoro a Deus... É por tudo que você me ensinou... Profeta do Senhor! Todos: Homem de Deus! Escolhido pra curar as feridas da minha alma! Homem de fé! Que tem dedicado a mim o seu amor e proteção! Homem amado! Quando fala faz arder dentro de mim o coração! Pastor, você é o profeta da minha geração! (3x) Meninas: Oh! Por que Jesus me ama? Eu não posso t’explicar! Mas, a ti também te chama, Pois deseja te salvar. Homens: Eu quero mais e mais de Cristo, eu quero mais do Teu poder! Eu quero mais da Tua presença! Eu quero mais do Teu viver! Todos: Santo Espírito enche a minha vida, Pois com Cristo eu quero brilhar! Santo Espírito enche a minha vida, Usa-me as almas a salvar! Aleluia! Aleluia! Aleluia dou ao Cristo Rei! Aleluia! Aleluia! Aleluia Dou ao Rei! Homem de Deus! Escolhido pra curar as feridas da minha alma! Homem de fé! Que tem dedicado a mim o seu amor e proteção! Homem amado! Quando fala faz arder dentro de mim o coração! Pastor, você é o profeta da minha geração! (3x) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quero voltar ao início de tudo, encontrar-me contigo Senhor... Quero rever meus conceitos e valores, eu quero reconstruir! Vou regressar ao caminho, volver às primeiras obras Senhor! Eu me arrependo Senhor! Me arrependo Senhor! (2x) Eu quero voltar Ao Primeiro Amor! Ao Primeiro Amor! Eu quero voltar a Deus! Quero voltar ao início de tudo, encontrar-me contigo Senhor... Quero rever meus conceitos e valores, eu quero reconstruir! Vou regressar ao caminho, volver às primeiras obras Senhor! Eu me arrependo Senhor! Me arrependo Senhor! (2x) Eu quero voltar Ao Primeiro Amor! Ao Primeiro Amor! Eu quero voltar a Deus!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece mesmo que esse dia nunca vai chegar... Parece mesmo que Suas promessas eu não vou viver... Possuir a terra onde há honra, leite e mel Com meus filhos ao redor, ver Suas bênçãos sobre os meus! [2x] Aqu’Ele que começou a boa obra em minha vida É Fiel, Ele É Fiel! Não descansará! Não desistirá enquanto não houver terminado! Não vivo do que vejo mas vivo do que creio e Ele É Fiel, sim Jesus É Fiel! Eu não morrerei... Antes viverei todo bem do Senhor aqui na terra e no céu! Uh, Uh, Uh, Uh... Uh, Uh, Uh, Uh... Uh, Uh, Uh, Ah...! Olhando para Ele eu entro em Seu altar... Sentindo o Seu Espírito queimando o coração! Pai das luzes que não muda continua a me dizer Que essa terra é minha e que nela eu vou viver! Aqu’Ele que começou a boa obra em minha vida É Fiel, Ele É Fiel! Não descansará! Não desistirá enquanto não houver terminado! Não vivo do que vejo mas vivo do que creio e Ele É Fiel, sim Jesus É Fiel! Eu não morrerei... Antes viverei todo bem do Senhor aqui na terra e no céu!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quão grande é o meu Deus! Cantarei quão grande é o meu Deus! E todos hão de ver quão grande é o meu Deus! Com esplendor de um Rei em majestade e luz Faz a terra se alegrar! Faz a terra se alegrar! Ele É a própria Luz E as trevas vão fugir Tremer com Sua voz! Tremer com Sua voz! Quão grande é o meu Deus! Cantarei quão grande é o meu Deus! E todos hão de ver quão grande é o meu Deus! Por gerações Ele É, O tempo está em Suas mãos! O começo e o fim... O começo e o fim... Três se formam em Um: Filho, Espírito e Pai! Cordeiro e Leão! Cordeiro e Leão! Quão grande é o meu Deus! Cantarei quão grande é o meu Deus! E todos hão de ver quão grande é o meu Deus! Dueto: Sobre todo nome é o Seu! Tu És digno do louvor! Eu cantarei quão grande É o meu Deus É o meu Deus! Todos: Quão grande é o meu Deus! Cantarei quão grande é o meu Deus! E todos hão de ver quão grande é o meu Deus! Quão grande é o meu Deus! Cantarei quão grande é o meu Deus! E todos hão de ver quão grande é o meu Deus! [2x]    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reina em mim com o Teu poder sobre a escuridão, sobre os sonhos meus, Tu És o Senhor de tudo que sou, vem reinar em mim Senhor! Sobre toda a terra Tu És o Rei, Sobre as montanhas e o pôr do sol Uma coisa só meu desejo é, vem reinar em mim Senhor! Sobre o meu pensar, tudo o que eu falar, Faz-me refletir a beleza que há em Ti Tu És para mim mais que tudo aqui, vem reinar de novo em mim! Reina em mim com o Teu poder sobre a escuridão, sobre os sonhos meus Tu És o Senhor de tudo que sou, vem reinar em mim Senhor! Sobre o meu pensar, tudo o que eu falar, Faz-me refletir a beleza que há em Ti Tu És para mim mais que tudo aqui, vem reinar de novo em mim! Reina em mim com o Teu poder sobre a escuridão, sobre os sonhos meus Tu És o Senhor de tudo que sou, vem reinar em mim Senhor! Reina em mim com o Teu poder sobre a escuridão, sobre os sonhos meus Tu És o Senhor de tudo que sou, vem reinar em mim Senhor! [4x] Vem reinar em mim Senhor!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toma-me, rendido estou, aos pés da cruz me encontrei O que tenho Te entrego ó Deus! Vem limpar as minhas mãos, purificar meu coração Que eu ande em tudo que Tu tens pra mim! Oh, oh, oh, oh... Eis me aqui, rendido estou! Oh, oh, oh, oh... Eu sou Teu e Tu És meu, Jesus... Meus momentos e os dias meus Meu respirar e meu viver Que sejam todos, pra Ti ó Deus Oh, oh, oh, oh... Eis me aqui, rendido estou! Oh, oh, oh, oh... Eu sou Teu e Tu És meu... [2x] Oh, Oh, Oh, Oh, Oh! Minha vida dou a Ti, Senhor Rendido a Ti estou! E pra sempre cantarei faz em mim o Teu querer! [2x] Oh, oh, oh, oh... Eis me aqui, rendido estou! Oh, oh, oh, oh... Eu sou Teu e Tu És meu... [2x] Minha vida dou a Ti, Senhor Rendido a Ti estou! E pra sempre cantarei faz em mim o Teu querer! [2x]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quero me apresentar a Ti ó Deus, Te ofertar em louvor! Me entregar, me derramar, os Teus planos cumprir! Que possas achar em mim a voz que deseja ouvir Que toca o Espírito, abre os céus e enche o Teu coração! Ser reconhecido, marcado por transformação Provado pelo fogo, Habilitado pela unção Sabe todos os meus dias que pra vida e para morte eu vou andar com Deus! O Senhor conhece os que são Seus! Ouve a voz sincera de um adorador Me separou, me marcou no Seu altar para servir! O Senhor conhece os que são Seus! Ouve a voz sincera de um adorador Me separou, me marcou no Seu altar para servir! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que a minha vida seja um louvor a Ti... Cada momento um acorde especial! Cada mês um hino novo, cada ano uma sinfonia Que cante o Teu amor, Jesus... Que eu seja um instrumento afinado por Ti No tom da especial adoração! Fortalezas cairão! Portas do inferno tremerão! E demônios pela unção deste louvor vão recuar! [2x] Cordeiro de Deus, Rei dos reis e Senhor! A Ti toda honra, glória e todo louvor! Poder e Majestade, Força e Alegria pertencem a Ti, ó Rei Jesus! Eu Te amo, Te adoro, Te adoro ó Rei Jesus! Te amo, Te adoro, Te adoro ó Rei Jesus! Quero viver pra Te louvar e Te adorar ó Rei Jesus! Te amo e Te adoro... (3x) Ó Rei Jesus! [2x] Solo: Que a minha vida seja um louvor a Ti...    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Com Teu vento vem soprar sobre nós, Sobre o vale de ossos secos Espírito de Deus [2x] Pela fé eu posso ouvir a glória encher esse lugar Da fraqueza um forte exército levantar Todos: Profetiza, ó filho do homem Vem dos quatro ventos ó Espírito de Deus! E assopra sobre esse vale, um ruído e um rebuliço eu já posso ouvir! Sopra! Vento de Deus! Sopra! Preciso de Ti! Sopra! Sopra! Poderoso, Onisciente, Onipresente, Emanuel! Santo e Consolador, Espírito de Deus! Vem encher, fortalecer, Vem curar, vem soprar, Derramar, vem visitar Vento de Deus! Profetiza, ó filho do homem Vem dos quatro ventos ó Espírito de Deus! E assopra sobre esse vale, um ruído e um rebuliço eu já posso ouvir! Sopra! Vento de Deus! Sopra! Preciso de Ti! Sopra! Sopra! Poderoso, Onisciente, Onipresente, Emanuel! Santo e Consolador, Espírito de Deus! Vem encher, fortalecer, vem curar, vem soprar, Derramar, vem visitar Vento de Deus! Sopra! (5x) Vento de Deus!!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seja qual for o teu problema amigo, eu te convido a adorar comigo! Porque toda vez que um louvor alcança o trono do Senhor, Um terremoto vem anunciar que sempre vale a pena adorar... A prisão não é eterna, vai passar e quem crê jamais desiste de cantar! Porque toda vez que uma canção é transformada em oração, Um terremoto vem anunciar que sempre vale a pena adorar! Um terremoto vai acontecer aqui e as cadeias que me cercam vão cair! Quando não há o que fazer e é muito forte a minha dor Levanto as mãos pro céu e louvo ao Senhor! A meia noite cantarei uma canção... Tão alto que os prisioneiros ouvirão! Um terremoto vai acontecer e o inimigo vai ceder, Porque não há cadeias onde há adoração! Aleluia, Aleluia... (8x) Um terremoto vai acontecer aqui e as cadeias que me cercam vão cair! Quando não há o que fazer e é muito forte a minha dor Levanto as mãos pro céu e louvo ao Senhor! A meia noite cantarei uma canção... Tão alto que os prisioneiros ouvirão! Um terremoto vai acontecer e o inimigo vai ceder, Porque não há cadeias onde há adoração! Porque não há cadeias... Porque não há cadeias... Porque não há cadeias onde há adoração... Onde há adoração!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">É preciso confiar em Seu amor, É preciso acreditar em Seu poder Deus é o mesmo não mudou, creia você vai vencer! Deus fará um novo dia pra você! Por maior que seja a tua provação Tenhas fé, Deus pode tudo resolver! Não existe impossível, para Deus, meu irmão! Deus coloca agora a benção em tuas mãos! Ele te levanta do pó! Faz brilhar o sol sobre ti! Te protege a cada manhã, Seu cuidado nunca tem fim! Ele ouve sempre tua voz quando você clama na dor, Sempre estará com você, Ele é teu Deus, teu Senhor! O teu Senhor... Por maior que seja a tua provação Tenhas fé, Deus pode tudo resolver! Não existe impossível, para Deus, meu irmão! Deus coloca agora a benção em tuas mãos! Ele te levanta do pó! Faz brilhar o sol sobre ti! Te protege a cada manhã, Seu cuidado nunca tem fim! Ele ouve sempre tua voz quando você clama na dor, Sempre estará com você, Ele é teu Deus, teu Senhor! O teu Senhor... [2x] Ele ouve sempre tua voz quando você clama na dor, Sempre estará com você, Ele é teu Deus, teu Senhor! O teu Senhor...   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almejo o dia em que verei uma pequena luz no céu! E essa luz aumentará, milhares de anjos surgirão! Eu creio sim que Ele virá E muito em breve eu subirei Pra um novo lar, um novo céu! Pra sempre eu estarei, feliz eu viverei! Verei Jesus! A voz de Deus irá soar, nas nuvens Sua glória surgirá! Mil gerações se encontrarão e para sempre louvarão Eu creio sim que Ele virá E muito em breve eu subirei Pra um novo lar, um novo céu! Pra sempre eu estarei, feliz eu viverei! Verei Jesus! Eu creio sim que Ele virá E muito em breve eu subirei Pra um novo lar, um novo céu! Pra sempre eu estarei, feliz eu viverei... [2x] Verei Jesus!     </t>
+  </si>
+  <si>
+    <t>Vou com Jesus! Ninguém pode me parar! Vou com Jesus! Voooou... Ninguém pode me parar! (2x) Vou com Jesus! Ninguém pode me parar! Vou com Jesus! Voooou... Ninguém pode me parar! (2x) Sop: Numa bela manhã ressuscitou, Todos: Ressuscitou! Sop: Numa bela manhã ressuscitou, ressuscitou... Con: Numa bela manhã ressuscitou, Todos: Ressuscitou! Con: Numa bela manhã ressuscitou, ressuscitou... Ten: Foi ao céu e um dia voltará, Todos: Voltará! Ten: Foi ao céu e um dia voltará, voltará... Todos: Foi ao céu e um dia voltará, voltará! Foi ao céu e um dia voltará, voltarááááÁ... Estou me preparando para subir com Ele! Ninguém pode me parar! Vooooou... Ninguém pode me parar! Verei Jesus sentado ao lado de Deus! Ninguém pode me parar! Vooooou...Ninguém pode me parar! Andarei com Ele nas ruas de ouro! Ninguém pode me parar! Vooooou... Ninguém pode me parar! Não... pode me parar! Vooooou... Ninguém pode me parar (2x) Não.... _x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amanhã eu não sei o que virá O que acontecerá aos meus sonhos tão diversos Amanhã o meu ser se alegrará ou tristonho ficará O amanhã eu não sei... Qual será o futuro pra você se não se arrepender Dessas coisas tão errôneas? Qual será nesta vida o seu fim se continuar assim? Volte logo para Deus! Como será o amanhã? Será feito de sofrer ou delícias e prazer? Qual será seu horizonte final? Como explicar seu proceder? Nossa vida é um farol, Resplandece a luz do sol ou então fica sem brilho! Volte logo pra Deus! Deixa este mundo mau Venha ser como eu! Volte logo pra Deus! [2x]      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senhor, às vezes penso que estou só na caminhada Como é tão dura e difícil a jornada! Nem sempre forte eu me sinto pra seguir... Senhor, quantos me olham e criticam meus fracassos Não sabem eles que seguindo estou Teus passos, Sou imperfeito, porém Tu Senhor és forte! Senhor, é na fraqueza minha que Tua mão me toca! Não sou, porém Tu És e isso é o que importa! Apenas servo sou... Teu servo e nada mais! Senhor! Mas quem sou eu pra imaginar que sou? Tu És em mim! E enquanto assim pensar mais perto eu estarei de Ti! Mesmo sendo o que sou, sou servo Teu, Senhor! Senhor, quantos gigantes me perseguem no caminho Como vencê-los se me sinto tão sozinho? Eles são muitos, verdadeira multidão! Senhor, eles vêm vindo todos muito bem armados Pra enfrentá-los tenho que estar preparado Transforma essa fraqueza em força ainda hoje! Senhor, é na fraqueza minha que Tua mão me toca! Não sou, porém Tu És e isso é o que importa! Apenas servo sou... Teu servo e nada mais! Senhor! Mas quem sou eu pra imaginar que sou? Tu És em mim! E enquanto assim pensar mais perto eu estarei de Ti! Mesmo sendo o que sou, sou servo Teu, Senhor!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você pode estar buscando felicidade E até mesmo riquezas também E o Senhor preparou para nós O calvário, monte de salvação! Calvário! Monte de redenção! Muitos foram ali receber perdão Calvário! Monte de esperança! Quem por ali passar lá no céu vai morar. Você nunca andou por ali Nem seus olhos viram a velha cruz Mas o seu coração nunca esquecerá O encontro com o monte de salvação! Calvário! Monte de redenção! Muitos foram ali receber perdão Calvário! Monte de esperança! Quem por ali passar lá no céu vai morar. [2x]      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deus não há como descrever Tua grandeza e Teu poder Não há outro igual a Ti! Sim, quando desço reconheço Que foi pago um alto preço por mim! Eu vou descer à casa do Oleiro E o meu Senhor irá me refazer! Eu vou descer pra glória e honra d’Ele Eu vou descer pra Deus aparecer! Deus não há como descrever Tua grandeza e Teu poder Não há outro igual a Ti! Sim, quando desço reconheço Que foi pago um alto preço por mim! Eu vou descer à casa do Oleiro E o meu Senhor irá me refazer! Eu vou descer pra glória e honra d’Ele Eu vou descer pra Deus aparecer! [2x] Eu Te dou glória! Eu Te dou glória! Eu Te dou glória pra todo sempre, amém!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eram cem ovelhas juntas no aprisco Eram cem ovelhas que amante cuidou Porém numa tarde ao contá-las todas Lhe faltava uma, lhe faltava uma e triste chorou! As noventa e nove deixou no aprisco E pelas montanhas a buscá-la foi! A encontrou gemendo, tremendo de frio Curou suas feridas, pôs logo em seus ombros e ao redil voltou! Essa mesma história volta a repetir-se Pois muitas ovelhas perdidas estão! Mas ainda hoje o Pastor amado Chora suas feridas, chora suas feridas e quer te salvar! As noventa e nove deixou no aprisco E pelas montanhas a busca-la foi! A encontrou gemendo, tremendo de frio Curou suas feridas, pôs logo em seus ombros e ao redil voltou!      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olhe para as aves do céu não semeiam e nem colhem, Mas Deus delas cuida mui bem! Olhe para os lírios do campo, Não tecem e nem fiam e Deus os cobre de glórias também! Não tendes vós muito mais valor do que isso? Acredite nisso, Deus cuida de você! Deus cuida de ti isto é certo, Ele é fiel! Pode ficar descansado é promessa do céu! Se até dos pardais Ele cuida com os carinhos seus, Cuida de ti muito mais, és um filho de Deus! Vives lamentando a sorte te amedronta a morte, São longos os dias do mal... Há uma luz que ainda brilha lá no fim da estrada Prometendo um alegre final! Se creres que Deus sempre está por perto Podes ficar certo Ele cuida de você. Deus cuida de ti isto é certo, Ele é fiel! Pode ficar descansado é promessa do céu! Se até dos pardais Ele cuida com os carinhos seus, Cuida de ti muito mais, és um filho de Deus!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoje há muita indiferença e tanta descrença a nos rodear, Tanta gente está sofrendo, outros vão morrendo sem encontrar paz... Há aquele que insiste mesmo estando triste em continuar Pois aguarda um novo dia quando em alegria poderá cantar! O choro pode durar uma noite! Uma noite o choro pode durar! Mas de manhãzinha a alma se alegra E Deus vem o teu pranto enxugar! A noite tão escura e fria que antecede o dia parece não ter fim E o crente triste e aflito Pensa “Jesus Cristo se esqueceu de mim!” Mas a noite logo passa e a manhã de graça começa a raiar Ele lembra da promessa ela nunca cessa, firme sempre está! O choro pode durar uma noite! Uma noite o choro pode durar! Mas de manhãzinha a alma se alegra E Deus vem o teu pranto enxugar!      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Está difícil... Está fechado o teu caminho em toda direção... Não tem jeito, sempre alguém está dizendo, “Não há solução!” Mas Deus muda num instante a sua vida se assim você crer! Faz você mudar, derruba muralhas, Deus é Deus, igual a Deus não há! Muda a sua, muda a minha, muda a nossa Com esse Deus tremendo não há quem possa! Se hoje Deus tomar lugar em sua vida verá que existe solução! Deus é Deus e vai mudar sua situação! Alguém disse: “É o fim da sua vida; você perdido está.” Não, não aceite, diga: “Agora estou liberto! Deus vai me ajudar.” Esse medo que aos poucos vai tomando o seu coração, Deixe-o sair! Deus hoje ainda, vai mudar sua situação! Muda a sua, muda a minha, muda a nossa Com esse Deus tremendo não há quem possa! Se hoje Deus tomar lugar em sua vida verá que existe solução! Deus é Deus e vai mudar sua situação! [2x] Deus é Deus e vai mudar sua situação!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ei, você que anda triste e abatido, o teu semblante está caído E você diz a vida é mesmo assim... Ei, você que só insiste em andar triste, amor em ti já não existe... Isso não é o fim! Ei, você que já não tem mais alegria Está raiando um novo dia, o sol começa a aparecer! Pra você a solução chegou agora! Não, não sai assim, não vai embora! Jesus quer te socorrer! [2x]         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">És o orvalho que nutre uma rosa, És a rosa que enfeita o jardim, És jardim que ornamenta a campina, És o campo radioso sem fim! És o raio de luz dentre as sombras, És a sombra suave e fiel, És o manto azulado do espaço, És o braço que me une aos céus! És o sonho ideal da poesia! Que irradia na rima do verso Na candura do meu dia a dia, O segredo total do universo! És o berço que embala a criança que nasce És a face alegre da alma remida! És degrau para a eterna subida És a vida meu Deus! És a vida! És a ponte que jaz sobre o abismo, És a fonte dos mananciais, És o doce marulho das águas, No deserto és recanto de paz! Tu que reinas acima da morte És o forte que sustenta a cruz És o norte que orienta o filho És o brilho no olhar de Jesus! És o sonho ideal da poesia! Que irradia na rima do verso Na candura do meu dia a dia, O segredo total do universo! És o berço que embala a criança que nasce És a face alegre da alma remida! És degrau para a eterna subida És a vida meu Deus... És a ponte que jaz sobre o abismo, És a fonte dos mananciais, És o doce marulho das águas, No deserto és recanto de paz! Tu que reinas acima da morte És o forte que sustenta a cruz És o norte que orienta o filho És o brilho no olhar de Jesus!         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sei que estás aqui Senhor, podes perceber quem sou Podes ver se há em mim um verdadeiro adorador A minha oferta eu ofereço a Ti, Deus meu Pra reconhecer que nada tenho, tudo é Teu! Quero Te adorar, ainda que a figueira não floresça! Quero me alegrar, mesmo se o dinheiro me faltar! A vitória vem, mesmo que pareça que é o fim Pois Tu és fiel Senhor, fiel a mim! Tu és fiel Senhor, eu sei que Tu és fiel! (2x) E ainda que eu não mereça permaneces assim Fiel, Senhor meu Deus, fiel a mim... (2x) A minha oferta eu ofereço a Ti, Deus meu Pra reconhecer que nada tenho, tudo é Teu! Quero Te adorar, ainda que a figueira não floresça! Quero me alegrar, mesmo se o dinheiro me faltar! A vitória vem, mesmo que pareça que é o fim Pois Tu és fiel Senhor, fiel a mim! Tu és fiel Senhor, eu sei que Tu és fiel! (2x) E ainda que eu não mereça permaneces assim Fiel, Senhor meu Deus, fiel a mim... (2x)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bem distante eu te vi parado a beira do caminho... Cabisbaixo e sem direção se sentindo tão sozinho! Coração angustiado em seu peito! Você vive maus momentos! É todo dia a mesma coisa e você se cansou de tanto sofrimento! Mas eu declaro que chegou a hora e Deus vai tirar você desse vento! Se a fúria do inimigo contra ti se levantar... Ele ordena anjos poderosos para te guardar! Foi ungido, foi remido, separado pra vencer e reinar com Ele! Deus vai na frente garantindo a vitória para os filhos Seus! Quebrando as correntes, sujeitando os inimigos porque Ele é Deus! Faz sair água da rocha, com esse Deus não há quem possa! Não há como nosso Deus! Lá no Egito trouxe as pragas e humilhou um tal de Faraó! Exaltou a Israel e fez saber que aquele povo não estava só! Faz a morte virar vida! Pra tudo tem uma saída! Não há como nosso Deus! Elohim, El Shaddai, Adonai! Adore o nome d’Ele! Ele é Deus verdadeiro! Ele te amou primeiro! Te levanta desse chão! Elohim, El Shaddai, Adonai! Adore o nome d’Ele! Faz a morte virar vida! Pra tudo tem uma saída! Faz de ti um campeão! Deus vai na frente garantindo a vitória para os filhos Seus! Quebrando as correntes, sujeitando os inimigos porque Ele é Deus! Faz sair água da rocha, com esse Deus não há quem possa! Não há como nosso Deus! Lá no Egito trouxe as pragas e humilhou um tal de Faraó! Exaltou a Israel e fez saber que aquele povo não estava só! Faz a morte virar vida! Pra tudo tem uma saída! Não há como nosso Deus! Elohim, El Shaddai, Adonai! Adore o nome d’Ele! Ele é Deus verdadeiro! Ele te amou primeiro! Te levanta desse chão! Elohim, El Shaddai, Adonai! Adore o nome d’Ele! uma saída! Faz de ti um campeão! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus é o meu refúgio em toda tempestade Ele é a rocha firme por toda eternidade Ele em tudo me envolve e me arrebatará Jesus é o meu refúgio, Jesus é o meu refúgio, Nada me faltará! (2x) As turbulentas ondas se aumentam sobre mim E a escura noite já quer me encobrir! Meu barco navegando rumo ao porto está Jesus é o meu piloto, Jesus é o meu piloto, Seguro vou chegar! (2x) Jesus é a esperança de toda a humanidade Ele é a medicina pra toda a enfermidade Não temerei a morte Ele me guardará! Jesus é a esperança, Jesus é a esperança, N’Ele vou confiar! (3x)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus desceu do monte com a multidão e eis que um leproso O adorava ali Dizendo: “Ó Senhor, se Tu quiseres faças com que eu fique limpo!” Jesus tocou-lhe com a mão dizendo “Quero!” E no mesmo instante curado ficou, Apenas com um toque do Senhor aquele leproso sarou! Jesus não é o homem, quando cura, cura! Faz a obra completa, não faz confusão E quando Ele opera não deixa sintomas, nada por fazer! Quando Ele fere, fere! Quando mata, mata! Quando sara, sara! Ele diz “Eu Sou” e o mundo se cala! Todo homem treme ante o Seu poder! Entrou na Sinagoga e encontrou ali um homem com a mão atrofiada E então falou “Estende a mão” e ele a estendeu com fé e foi curado! Lá em Cafarnaum milagres operou, ao paralítico seus pecados perdoou E disse mais “Levanta, toma a tua cama, anda” e ele andou! Jesus não é o homem, quando cura, cura! Faz a obra completa, não faz confusão E quando Ele opera não deixa sintomas, nada por fazer! Quando Ele fere, fere! Quando mata, mata! Quando sara, sara! Ele diz “Eu Sou” e o mundo se cala! Todo homem treme ante o Seu poder! As margens do caminho estava Bartimeu, Um cego de nascença que queria ver “Tem compaixão de mim” dizia ele ali, clamando a Jesus! “Que queres que Eu te faça?” o Senhor perguntou “Senhor, eu quero ver!” Bartimeu lhe falou, Jesus curou lhe pronto! Enxugou seu pranto e Bartimeu sarou Jesus não é o homem, quando cura, cura! Faz a obra completa, não faz confusão E quando Ele opera não deixa sintomas, nada por fazer! Quando Ele fere, fere! Quando mata, mata! Quando sara, sara! Ele diz “Eu Sou” e o mundo se cala! Todo homem treme ante o Seu poder! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deus faz a vitória acontecer, No seu deserto Ele faz chover, Deus não muda! Deus faz o caído se levantar e a tempestade se acalmar Só Deus é Deus! Senhor! É na fraqueza minha que Tua mão me toca! Não sou, porém Tu És e isso é o que importa! Apenas servo sou... Teu servo e nada mais! Senhor! Mas quem sou eu pra imaginar que sou? Tu És em mim! E enquanto assim pensar mais perto eu estarei de Ti! Mesmo sendo o que sou, sou servo Teu, Senhor! Deixa Deus resolver, é melhor Deus fazer, é bem melhor assim! Diga agora ao Senhor: Esta causa é Tua, resolve por mim! Deixa Deus resolver, Ele age no vento, no sol e na sombra, É Deus do silêncio e é Deus de toda hora! Convida o Senhor, Ele vai resolver! Seu olhar simplesmente ordena e todo o mal desaparece! O Senhor tem poder! Ele é grande, Ele é tudo! Ele é Deus, te consola deixa Deus resolver! Se o crente está caído perdendo a confiança Sua única esperança é o Senhor! E o crente chora e ora e chora e chora e ora E o crente ora e chora e ora e ora e chora Mas Deus logo responde com seu imenso amor E o crente na batalha é vencedor! Quando Ele fere, fere! Quando mata, mata! Quando sara, sara! Ele diz “Eu Sou” e o mundo se cala! Todo homem treme ante o Seu poder!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como agradecer por tudo que fizeste a mim? Não merecedor, mas provaste o Seu amor sem fim! As vozes de um milhão de anjos não expressam a minha gratidão... Tudo o que sou e o que almejo ser eu devo tudo a Ti... A Deus seja a Glória (3x) Por tudo que fez por mim! Com Seu sangue lavou-me! Seu poder transformou-me! A Deus seja a Glória para sempre, Amém! Quero viver para Ti, Sua vontade obedecer, E se o aplauso eu receber No Calvário irei me gloriar! Com Seu sangue lavou-me! Seu poder transformou-me! A Deus seja a Glória para sempre, Amém! To God be the glory (3x) For the things He has done! With His blood He has saved me! With His power He has raised me! To God be the glory for the things He has done! Quero viver para Ti, Sua vontade obedecer, E se o aplauso eu receber No Calvário irei me gloriar! Com Seu sangue lavou-me! Seu poder transformou-me! A Deus seja a Glória para sempre, Amém!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se você acreditar em Deus e somente n’Ele confiar... Essa onda de problemas seus como vento logo vai passar! Só Deus faz o que só Ele faz... Faz o impossível e muito mais! Deus faz a vitória acontecer, No seu deserto Ele faz chover, Deus não muda! Deus faz o caído se levantar e a tempestade se acalmar, Só Deus é Deus! Se você acreditar em Deus esse fardo que pesando está, Essa noite que não tem mais fim em alívio Deus vai transformar! Só Deus faz o que só Ele faz... Faz o impossível e muito mais! Deus faz a vitória acontecer, No seu deserto Ele faz chover, Deus não muda! Deus faz o caído se levantar e a tempestade se acalmar, Só Deus é Deus! [2x]      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Há uma alegria em minh’alma, por isso eu canto! Cristo livrou a minha vida e enxugou o meu pranto! Hoje a minh’alma agradece pela morte na cruz E a coroa de espinhos que puseram em Jesus! Não chores mais! Disse Jesus, quando minh’alma resgatou! Não chores mais! Sou o teu Deus, o teu amparo, teu Salvador! Nesta alegria extravaso o meu contentamento Cristo livrou a minha vida do eterno tormento Hoje a minh’alma agradece pelamorte na cruz E a coroa de espinhos que puseram em Jesus! Não chores mais! Disse Jesus, quando minh’alma resgatou! Não chores mais! Sou o teu Deus, o teu amparo, teu Salvador!      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegaram os meus sonhos, minha vida, meus projetos O inferno decidiu em destruir isso, estava certo! Armaram uma conspiração muito bem arquitetada contra mim! Palavras persuasivas minha mente absorveu! O coração já tão cansado me diz “você morreu”! E as forças se acabaram, não sabia reagir! Foi aí que eu lembrei da promessa que Ele fez! Que sempre estará comigo, não só mais uma vez! Foi aí que eu decidi, eu vou viver! Quero viver Suas promessas e então depois partir... Ver Seus propósitos se cumprirem um a um! E profetizar que a minha história não vai terminar assim! Não vai terminar assim! Minha história não termina assim! De derrota e vergonha, vou viver a dupla honra! Minha história não termina assim! Não vai terminar assim! Não vai terminar assim! Quem me viu jogado as traças, coração todo em pedaços, Minha história não acaba assim! Não vai terminar assim! Foi aí que eu lembrei da promessa que Ele fez! Que sempre estará comigo, não só mais uma vez! Foi aí que eu decidi, eu vou viver! Quero viver Suas promessas e então depois partir... Ver Seus propósitos se cumprirem um a um! E profetizar que a minha história não vai terminar assim! Não vai terminar assim! Minha história não termina assim! De derrota e vergonha, vou viver a dupla honra! Minha história não termina assim! Não vai terminar assim! Não vai terminar assim! Quem me viu jogado as traças, coração todo em pedaços, Minha história não acaba assim! Não vai terminar assim! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouça-me, por favor uma vez mais... Ouça-me, dessa vez foi demais! Ouça-me, quero sim te ajudar! Ouça-me, o que vou te contar Ouça-me, não custa nada ouvir, ouça-me! Sua atenção pode salvar você, só te peço, ouça-me! Ouça-me, dê um tempo pra me ouvir e ouça-me! Algo diferente eu tenho a te dizer, ouça-me! Você está sem saber o que fazer Chame Deus pra mudar o seu viver! Ele faz muito mais, fale assim: “Nada sou, ó Senhor, tenha misericórdia de mim!” Ouça-me, não custa nada ouvir, ouça-me! Sua atenção pode salvar você, só te peço, ouça-me! Ouça-me, dê um tempo pra me ouvir e ouça-me! Algo diferente eu tenho a te dizer, ouça-me! Deus tem mais, muito mais pra você Ser feliz é melhor que sofrer! Se quiser vai achar solução Sem pagar vai ganhar salvação! Ouça-me, não custa nada ouvir, ouça-me! Sua atenção pode salvar você, só te peço, ouça-me! Ouça-me, dê um tempo pra me ouvir e ouça-me! Algo diferente eu tenho a te dizer, ouça-me! Por favor uma vez mais, ouça-me! Meu amigo, pare um pouco e ouça-me!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Com gemidos que palavras não podem explicar Ele leva ao Pai as minhas intercessões Quando dobro os meus joelhos em meio às tribulações Ele ouve o gemido do meu coração Ó Jesus a Ti confesso não dá pra viver Sem sentir a Tua presença no meu ser! Sou eterno dependente, ser humano tão carente! Estou de novo aqui e quero o Teu poder! Ainda que pra Te servir Jesus eu tenha que chorar... Te servirei porque comigo estarás! Sofrer contigo é bem melhor do que errar! Perdoa-me porque as vezes não consigo nem falar... Logo as lágrimas meus olhos vem molhar Como sinal que Tu estás neste lugar! Ó Jesus a Ti confesso não dá pra viver Sem sentir a Tua presença no meu ser! Sou eterno dependente, ser humano tão carente! Estou de novo aqui e quero o Teu poder! Ainda que pra Te servir Jesus eu tenha que chorar... Te servirei porque comigo estarás! Sofrer contigo é bem melhor do que errar! Perdoa-me porque as vezes não consigo nem falar... Logo as lágrimas meus olhos vem molhar Como sinal que Tu estás neste lugar! [2x]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensando bem... Só a presença de Jesus na minha vida Justifica tanta coisa sem saída! É a realidade que eu não posso me afastar... Sua presença me encoraja, me anima todo dia! Sem Jesus Cristo eu não sei o que seria! Um vivo morto, sem poder me levantar... Não...! Não me deixes! Não me deixes sozinho nem por um minuto, por favor... Não...! Não me deixes! A minh’alma chora, grita, implora! Não me deixes, Senhor... Só Tu me entendes e não me censuras embora eu sei que Te aborreço! Mas eu Te peço, por favor, meu Deus, esqueça... As muitas falhas que cometo contra Ti! Se for preciso me exortar fala comigo, estou ouvindo! Fala comigo acordado ou dormindo! Ou aqui mesmo, se quiseres, quero ouvir! Não...! Não me deixes! Não me deixes sozinho nem por um minuto, por favor... Não...! Não me deixes! A minh’alma chora, grita, implora! Não me deixes, Senhor... Estou contigo! Ora não temas, te encorajas, vá em frente! É a presença que eu anelo tão somente Não há barreiras que não possa ultrapassar! Mas se estou fraco... Oh, me escondas em Tuas asas bem seguras! Me agasalha com Teu manto de ternura! Oh, me transportas como vento sobre o mar! Não...! Não me deixes! Não me deixes sozinho nem por um minuto, por favor... Não...! Não me deixes! A minh’alma chora, grita, implora! Não me deixes, Senhor... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pode alguém castigar o meu corpo ou tirar a visão dos olhos meus... Pode alguém destruir minha vida mas não vai me afastar do meu Deus! Nem a morte, nem a vida, nem os anjos poderão me afastar dessa luz! Pode alguém me afastar da família querida, mas não vai me afastar de Jesus! Pode alguém vasculhar meu passado ou tratar-me com ódio ou rancor... Pode alguém publicar meus pecados mas não vai me afastar do Senhor Nem a morte, nem a vida, nem os anjos poderão me afastar dessa luz! Pode alguém me afastar da família querida, mas não vai me afastar de Jesus! Pode alguém perseguir-me com fúria e eu não vou pronunciar nem um “Ai”... Pode alguém me afastar dos amigos, só não vai me afastar do meu Pai! Nem a morte, nem a vida, nem os anjos poderão me afastar dessa luz! Pode alguém me afastar da família querida, mas não vai me afastar de Jesus!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ás vezes triste e aflito busco a Deus em oração Na intenção verdadeira de obter comunhão O coração se convence a alma só faz pecar Está imerso em conflitos já não consegue cantar Quebranta-me Senhor faz-me assim reviver Quebranta-me Senhor quero sentir Teu poder Aquece minh’alma como fogo vivo do altar Quebranta-me Ó Deus Jeová! Tal como os discípulos lá em Jerusalém Com a promessa do Pai se quebrantaram também Quero sentir essa chama vem minh’alma arder Em comunhão verdadeira eu quero agora viver Quebranta-me Senhor faz-me assim reviver Quebranta-me Senhor quero sentir Teu poder Aquece minh’alma como fogo vivo do altar Quebranta-me Ó Deus Jeová!      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me peguei perguntando, o que pode Deus fazer? Mudar todos os planos, fazer o Seu querer! Fazer o que Lhe apraz, sem dar explicação Conhecer teu sentimentos, avaliar sua reação! E se Ele não quiser, fazer o vento cessar... E se Ele não quiser, o mar acalmar! E no meio dessa tempestade, apenas te restar a voz de um adorador! E se Ele não quiser, matar a Faraó! Te levar lá pro deserto, e te deixar só... E no meio dessa adversidade o exército inimigo vier te afrontar... Questiona ou adora? Questiona ou adora? Se Ele nada fizer me mostre a sua fé! Questiona ou adora? [2x] E se Ele não quiser, fazer o vento cessar... E se Ele não quiser, o mar acalmar! E no meio dessa tempestade, apenas te restar a voz de um adorador! E se Ele não quiser, matar a Faraó! Te levar lá pro deserto, e te deixar só... E no meio dessa adversidade o exército inimigo vier te afrontar... Questiona ou adora? Questiona ou adora? Se Ele nada fizer me mostre a sua fé! Questiona ou adora? [2x] Eu prefiro adorar! Eu prefiro adorar! Se Ele nada fizer eu uso a minha fé! Eu prefiro adorar! [2x]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo, Santo, Santo é o Senhor! (2x) Pois Tu fizeste o céu e a terra, as estrelas, fizeste o mar! Também fizeste o homem a Sua criação! Eu sou feliz por ser Teu servo, o louvador da Sua seara E dizer ao mundo vil que Santo És! Santo, Santo, Santo é o Senhor! (2x) Eu sou a Sua criação Teu é o meu coração Receba o louvor como cheiro suave às Suas narinas! Quero servir a Ti enquanto viver, quero Te adorar até quando morrer! Quero dizer ao mundo que sou salvo e Tu és Santo! Santo, Santo, Santo é o Senhor! (2x) Dá-me amor para amar, perdão para perdoar! Fôlego para dizer que Tu és Santo! Arranca o desamor do meu coração! Quero ser simples e amar o meu irmão E dizer ao mundo em tribulação que Tu és Santo! Santo, Santo, Santo é o Senhor! (2x) E todos reis e governadores reconheçam que Ele é Santo! Que Ele é Santo e Bendito é o Senhor! Pra todo sempre Santo és Senhor!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teu coração te diz que não tem jeito Uma voz te diz que acabou Quem te conhece diz: “Só um milagre!” Dizem tantas coisas... As circunstâncias dizem impossível! Amigos dizem que você falhou... Mas Deus está dizendo: “Eu posso tudo Se você crer que Eu Sou capaz!” Se o Espírito Santo te tocar Nunca mais você vai ser igual! Se o Espírito Santo te tocar Você será selado contra o mal! Se for chorar vai ter o teu consolo, Ele vai contigo no teu caminhar! E se tiver barreiras no caminho a fé vai te dar asas pra alcançar! As circunstâncias dizem impossível! Amigos dizem que você falhou... Mas Deus está dizendo: “Eu posso tudo Se você crer que Eu Sou capaz!” Se o Espírito Santo te tocar Nunca mais você vai ser igual! Se o Espírito Santo te tocar Você será selado contra o mal! Se for chorar vai ter o teu consolo, Ele vai contigo no teu caminhar! E se tiver barreiras no caminho a fé vai te dar asas pra alcançar! Se o Espírito Santo te tocar Nunca mais você vai ser igual! Se o Espírito Santo te tocar Você será selado contra o mal! Ele vai contigo no teu caminhar...  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procurei achar um nome nos maiores dicionários Que amenizasse a fome dos meus pensamentos vários... Sobre qual nome seria, o mais belo que existia! Até que um belo dia a voz de Deus suave então disse ao meu coração... Filho meu, Abre tua bíblia agora Pois dentro dela em frases belas já expus! No princípio era o Verbo, e o Verbo Era... E ainda hoje É e há de Ser o nome mais lindo que há de haver! E ao ser pronunciado tudo faz-se Luz! O incomparável nome de Jesus! Procurei achar um nome nos maiores dicionários Que amenizasse a fome dos meus pensamentos vários... Sobre qual nome seria, o mais belo que existia! Até que um belo dia a voz de Deus suave então disse ao meu coração... Filho meu, Abre tua bíblia agora Pois dentro dela em frases belas já expus! No princípio era o Verbo, e o Verbo Era... E ainda hoje É e há de Ser o nome mais lindo que há de haver! E ao ser pronunciado tudo faz-se Luz! O incomparável nome de Jesus!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vem com Josué lutar em Jericó, Jericó, Jericó Vem com Josué lutar em Jericó e as muralhas ruirão! Suba os montes devagar que o Senhor vai guerrear! Cerque os muros para mim, pois Jericó chegou ao fim! Vem com Josué lutar em Jericó, Jericó, Jericó Vem com Josué lutar em Jericó e as muralhas ruirão! As trombetas soarão abalando o céu e o chão, Cerque os muros para mim, pois Jericó chegou ao fim! Vem com Josué lutar em Jericó, Jericó, Jericó Vem com Josué lutar em Jericó e as muralhas ruirão!        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vocal: Glória, Rompendo em Glória, De Glória em Glória, Reflete a Glória A Igreja vem com aqu’Ele que brilha mais que a luz do sol Dissipando as trevas, destruindo o mal, a Sua face é um refletor de Glória, O céu derrama a Glória, Porque a Igreja vem, arrebentando com as portas do inferno com barulho de milagre, levantando um exército de vidas Solo: É a Igreja Santa, aqui perseguida... Tentaram acabar coma base da Igreja Sem ela a Terra não povoaria o céu Ela não teria força pra adorar, Não haveria missionário em todo lugar Mas o plano não deu certo... não, não! Tentaram nos calar matando alguns irmãos, Mas nada adiantou surgiram mais cristãos! Vocal: Louvando como Paulo e Silas na prisão, Solo: Movendo o grande céu estremecendo chão, assumindo a missão! Vocal: O plano do Senhor, é o que prevaleceu! Solo: Há quase dois mil anos a Igreja só cresceu! Vocal: Jesus é a cabeça, nos ensina a trabalhar Solo: A base é muito forte, nada pode abalar Por isso o inferno vive a chorar A Igreja não descansa o tempo todo está lá Brilhando em toda parte a Igreja vem Quebrando cativeiros pra salvar alguém, a Igreja vem! Vocal: A Igreja vem com aqu’Ele que brilha mais que a luz do sol Dissipando as trevas, destruindo o mal A Sua face é um refletor de Glória, O céu derrama a Glória, Porque a Igreja vem, arrebentando com as portas do inferno com barulho de milagre, levantando um exército de vidas É a Igreja Santa, Solo: aqui perseguida... O plano do Senhor, é o que prevaleceu [Oh, Oh, Oh] Há quase dois mil anos a Igreja só cresceu! Vocal: Jesus é a cabeça, nos ensina a trabalhar Solo: A base é muito forte, nada pode abalar Por isso o inferno vive a chorar Vocal: A Igreja não descansa o tempo todo esta lá Solo: Brilhando em toda parte a Igreja vem Quebrando cativeiros pra salvar alguém, a Igreja vem! Vocal: A Igreja vem com aqu’Ele que brilha mais que a luz do sol Dissipando as trevas, destruindo o mal, a Sua face é um refletor de Glória, O céu derrama a Glória, Porque a Igreja vem, arrebentando com as portas do inferno com barulho de milagre, levantando um exército de vidas É a Igreja Santa, Solo: aqui perseguida... O Noivo vem aí [Uh, Uh] A Igreja está se preparando [Uh, Uh, Uh, Uh, Uh] Pra cantar no coral [Uh, Uh, Uh, Uh, Uh] Junto com os anjos [Glória] O Noivo vem aí [Rompendo em Glória] Ele está te convidando [De Glória em Glória] Pra cantar no coral [Reflete a Glória] Junto com os anjos Vocal: A Igreja vem... Vem! Mais que a luz do sol Dissipando as trevas, destruindo o mal, a Sua face é um refletor de Glória, O céu derrama a Glória, Porque a Igreja vem, arrebentando com as portas do inferno com barulho de milagre, levantando um exército de vidas Solo: É a Igreja Santa... Vocal: A Igreja vem com aqu’Ele que brilha mais que a luz do sol Dissipando as trevas, destruindo o mal, a Sua face é um refletor de Glória, O céu derrama a Glória, Porque a Igreja vem, arrebentando com as portas do inferno com barulho de milagre, levantando um exército de vidas É a Igreja Santa, Solo: aqui perseguida...  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regozijai cantando, rendei louvor Perante o Rei, o Criador! Ajoelhai louvando ao grande Deus Honra e glória ao Rei dos reis! Aleluia ao Rei da Glória! Aleluia ao Rei do amor! Aleluia ao Deus de Israel! Ele sempre reinará... [2x] Sempre reinará! Regozijai cantando, rendei louvor Perante o Rei, o Criador! Ajoelhai louvando ao grande Deus Honra e glória ao Rei dos reis! Aleluia ao Rei da Glória! Aleluia ao Rei do amor! Aleluia ao Deus de Israel! Ele sempre reinará... [2x] Sempre reinará! Deus sempre reinará! (3x) Ele sempre reinará! Sempre reinará! [2x] Aleluia ao Rei da Glória! Aleluia ao Rei do amor! Aleluia ao Deus de Israel! Ele sempre reinará... [2x] Sempre reinará! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu creio e vou dizer Deus é bom pra mim! E a cada provação com Ele eu vencerei O inimigo vem tentando me abalar e me derrubar Mas o meu Deus jamais falhou e jamais falhará! Meninas: Não importa o que virá, estou pronto pra dizer: Todos: Aleluia, Celebrai! Sem um minuto a mais eu quero ainda lhe dizer Das bênçãos que Ele tem sempre dado a mim Eu vou permanecer e esperar, Ver Deus trabalhar, renovar, mudar o que precisar! Meninas: Não importa o que virá, estou pronto pra dizer: Todos: Aleluia, Celebrai! Oh! Alelu... Aleluia Cantai! Alelu... Aleluia louvai! Alelu... Aleluia exaltai! Não importa o que virá Meninas: Eu vou cantar: Oh! Alelu... Aleluia Cantai! Alelu... Aleluia louvai! Alelu... Aleluia exaltai! Não importa o que virá Meninas: Estou pronto pra dizer: Alelu... Celebrai! (2x) Meninas: Cantarei: Alelu... Celebrai! (2x)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Além do rio azul as ruas são de ouro e de cristais Ali tudo é vida! Ali tudo é paz! Morte e choro... Nunca mais! Tristeza e dor... Nunca mais! Verei o grande rio da vida claro como o cristal (Ah, Ah, Ah...) (Ah, Ah, Ah...!) Verei a face do meu Mestre querido! (Ah, Ah, Ah...) Vocal: Não haverá mais noite ali! Não haverá nenhum clamor! Verei os olhos de Jesus E tocarei Seu corpo enfim! Não(não) haverá mais noite ali! Não haverá nenhum clamor! Verei os olhos de Jesus E tocarei Seu corpo enfim! Solo: As nações andarão na Sua luz e as portas jamais se fecharão! A cidade é de ouro puro! De jaspe é seu muro! Além do rio azul! Morte e choro... tristeza e dor... Nunca mais! Nunca mais! [4x] Não haverá mais noite ali! Não haverá nenhum clamor! Verei os olhos de Jesus E tocarei Seu corpo enfim! [2x]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Tu que estás assentando no trono, Sempre reinando Soberano! Anjos cantando homens louvando, Deus reunido com seu povo! Vocal: Oh... Oh... Alfa! Ômega! Cristo! Filho! Ó vem, Ó vem, Ó vem Senhor Jesus! Solo: Ansioso espero a Sua volta, O grande dia em que Tu virás, Então subiremos! Contigo estaremos Pra todo sempre, Aleluia! Vocal: Oh... Oh... Alfa! Ômega! Cristo! Filho! Ó vem, Ó vem, Ó vem Senhor Jesus! Maranata! Cristo! Filho! Mestre! Ó vem, Ó vem, Ó vem Senhor Jesus! (2x) Ó vem, Ó vem, Ó vem Senhor... Solo: Porque d’Ele e por Ele, para Ele são todas as coisas! (2x) Vocal: Porque d’Ele e por Ele, para Ele são todas as coisas! (2x) A Ele a glória, (3x) Pra sempre amém! Oh... Oh... Alfa! Ômega! Cristo! Filho! Ó vem, Ó vem, Ó vem Senhor Jesus! (3x)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Espírito Santo, (Uh...) meu Consolador (Uh...) Espírito Santo, sabes quem eu sou! E mesmo assim se importas comigo! E mesmo assim, (E mesmo assim) moras em mim... (Espírito Santo!) Vocal: Tu és Santo, Tu és Santo! Que outra palavra se faz necessária pra Te descrever? Tu és Santo, Tu és Santo! Procuro palavras pra Te descrever, Espírito Santo! Solo: Amigo, abrigo, renovo, consolo, Vocal: Espírito Santo de Deus! Que fala comigo, que ora por mim com gemidos inexprimíveis! Em todos momentos vem me convencer Vocal: que sou dependente Solo: de Deus! ÔÔÔÔÔ... Não Te afaste de mim, Não Te retires de mim! ÔÔÔÔÔ... Vocal: Não Te afaste de mim! Não Te retires de mim! Solo: Espírito Santo! (2x) Vocal: Tu és Santo, Tu és Santo! Que outra palavra se faz necessária pra Te descrever? Tu és Santo, Tu és Santo! Procuro palavras pra Te descrever, Espírito Santo!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Há Poder no nome de Jesus (3x) Pra cadeias quebrar, cadeias quebrar, cadeias quebrar Cadeias quebrar, cadeias quebrar, cadeias quebrar Santo! Santo! Santo! Deus todo poderoso, que era e É e há de vir. Com a criação eu canto, Louvores ao Rei dos reis. És tudo para mim e eu Ti adorarei... Está vestido do arco-íris, sons de trovão, luzes, relâmpagos. Louvores, honra e glória, força e poder pra sempre Ao único Rei eternamente... Há Poder no nome de Jesus (3x) Pra cadeias quebrar, cadeias quebrar, cadeias quebrar Cadeias quebrar, cadeias quebrar, cadeias quebrar Santo! Santo! Santo! Deus todo poderoso, que era e É e há de vir. Com a criação eu canto, Louvores ao Rei dos reis. És tudo para mim e eu Ti adorarei... (2x) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Fechando eu os olhos meus, eu posso ver Jesus na cruz... Seu sofrimento é demais e é até difícil imaginar Que alguém consiga aguentar sofrer assim! Todos: Prego nas mãos... prego nos pés... Meninas: Jesus está sofrendo! Todos: E sabendo eu, que tudo isto é por mim Meninas: Eu não me controlo, quando penso nisto eu choro... Meninas: Ainda estou ali, parado... Olho para as Suas mãos e lembro! Todos: Mãos que um dia Ele estendeu pra curar... Meninas: Mãos que um dia Ele estendeu pra salvar... Todos: Mãos que um dia Ele estendeu... Meninas: pra abençoar! Todos: Mãos que um dia Ele estendeu... Meninas: pra dar vida outra vez! Todos: Agora são mãos feridas, furadas, marcadas! Cicatrizes que provam que Ele precisou sofrer Pra que eu pudesse ser livre! [2x] Meninas: Ainda estou ali, parado... Olho para as Suas mãos e lembro! Todos: Mãos que um dia Ele estendeu pra curar... Meninas: Mãos que um dia Ele estendeu pra salvar... Todos: Mãos que um dia Ele estendeu... Meninas: pra abençoar! Todos: Mãos que um dia Ele estendeu... Meninas: pra dar vida outra vez! Todos: Agora são mãos feridas, furadas, marcadas! Cicatrizes que provam que Ele precisou sofrer Pra que eu pudesse ser livre! [2x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deus, Tu És Santo, Deus, Tu És Santo! Engrandeço e exalto ao Teu Nome [2x] Solo: Olho ao redor e vejo tudo que criaste aqui, Quão maravilhoso Senhor o Teu amor nunca falhou! Não tenho palavras para expressar ou descrever a Tua glória, Como prova do meu amor isso eu Te dou, levanto as mãos e digo: Todos: Deus, Tu És Santo, Deus, Tu És Santo! Engrandeço e exalto ao Teu Nome [2x] Solo: Não tenho palavras para expressar o quanto eu dependo de Ti, Bençãos tão lindas que deste-me, carinho graça e amor eterno! Todos: Por isso quero louvar-Te e dizer o quanto eu Te amo! Solo: Pois é Digno de toda, de toda Glória e é Todos: Digno de todo Louvor! Solo: Não sei por que me amaste e misericórdia por mim tiveste, Porque sofreu e morreu por mim na cruz, na cruz do Calvário. Todos: Mas eu dou graças... Solo: dou graças Deus... Todos: Dou graças... Solo: e Te rendo louvores... Todos: Dou graças... Solo: meu coração clama e diz, e Te dou todo louvor! Todos: Maravilhoso! Glorioso! Justo e santo! Vitorioso! Vencedor! Em tudo És triunfante! Curador! Libertador! Escudo e defesa! Torre forte, amigo em todo tempo! Onipotente! Onipresente! Rei que em breve vem! Alfa e Ômega, É Senhor até o fim! Solo: Santo... Todos: Santo, Santo, Santo é o Teu Nome... Todos: Maravilhoso! Glorioso! Justo e santo! Vitorioso! Vencedor! Em tudo És triunfante! Homens: Curador! Libertador! Escudo e defesa! Todos: Torre forte, amigo em todo tempo! Onipotente! Onipresente! Rei que em breve vem! Alfa e Ômega, É Senhor até o fim! Solo: Santo... Todos: Santo, Santo, Santo é o Teu Nome... Todos: Maravilhoso! Glorioso! Justo e santo! Vitorioso! Vencedor! Em tudo És triunfante! Curador! Libertador! Escudo e defesa! Torre forte, amigo em todo tempo! Onipotente! Onipresente! Rei que em breve vem! Alfa e Ômega, É Senhor até o fim! Solo: Santo Deus... Todos: Santo, Santo, Santo é o Teu Nome... Santo! Santo! Santo é o Teu nome! (2x)         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Eu sei que vem o dia em que o céu se abrirá E o tempo não mais existirá! Ele vem... Eu sei que vem, dos mundos ir ecoar, A história se renovará, pois Ele vem! Ele vem, Ele vem! (Uh... Uh...) Coroado em glória e poder Cristo vem! Ele vem, Ele vem! (Uh... Ele vem!) E seremos um só povo em Seu reino de amor (Uh... Uh... Uh... Uh...) Viveremos para sempre no Senhor, Ele vem... Agora eu sei, É tempo de se preparar! Olhar para o alto e lembrar, Ele vem! Se entregar, viver pelo aplauso do céu Andar sob a graça e aceitar a salvação! Ele vem, Ele vem! Coroado em glória e poder Cristo vem! Ele vem, Ele vem! E seremos um só povo em Seu reino de amor! Viveremos para sempre no Senhor, Ele vem... Glória, glória, aleluia! (Ele vem) Glória, glória, aleluia! (Ele vem) Glória, glória, aleluia (Glória... Glória...) Sop: Ale... 	Ten: Aleluia! Sop e Cont: Aleluia! Vencendo vem (Jesus!) E seremos um só povo em Seu reino de amor! Viveremos para sempre no Senhor! Ten: Ele vem Sop: Ele vem Con: Ele vem Ele vem! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Os sinais já se podem ver... Ele em breve virá! Penso em como eu estarei quando encontrar meu Senhor! Os meus olhos verão o Rei, Seu olhar de amor! Como estarei quando enfim vier? Vocal: Ele virá resgatar quem O esperou! Ele virá! Prometeu e será fiel! Eu posso esperar meu Senhor Eu posso confiar, Ele voltará! Solo: Tantas vezes você ouviu sobre um Deus de grande amor... Que entregou Sua vida aqui, você pode entender o porquê? Para te dar liberdade e vir, Pra salvar teu viver! Como estarás quando enfim vier... vier o fim? Vocal: Ele virá resgatar quem O esperou! Ele virá! Prometeu e será fiel! Solo: Eu posso esperar meu Senhor Eu posso confiar, Ele voltará! Solo: Sobre as nuvens eu já posso ver! Eu reconheço o meu Mestre e Seu olhar... (Ohh....!) Todo o meu medo já passou! Quanta saudade eu senti! Vocal: Agora sei que estou liberto! Estou liberto! Sei que virá... Virá! Vocal: Ele virá resgatar quem O esperou! Ele virá! Prometeu e será fiel! Solo: Eu posso esperar meu Senhor, (Ah...!) Eu posso confiar, Ele voltará! (Ah...!) Vocal: Ele virá resgatar quem O esperou! Ele virá! Prometeu e será fiel! Solo: Eu posso esperar meu Senhor, (Ah...!) Eu posso confiar... Ele voltará!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Em fervente oração, vem o teu coração Na presença de Deus derramar Mas só podes fruir o que estás a pedir Quando tudo deixares no Altar Quando tudo perante o Senhor estiver, Vocal: Uh, Uh, Uh, Uh, Uh, Uh, Uh… E todo o teu ser Ele controlar, Vocal: Uh... Uh... Uh… Uh, Uh... Só então hás de ver que o Senhor tem poder, Quando tudo deixares no Altar! Interlúdio: Igreja... Deus escuta nossa Oração! Quando oramos, falamos com Deus, e quando lemos a Bíblia, ouvimos a sua voz. É através da oração que somos fortalecidos, que somos edificados. A Oração abre os Céus, move o braço de Deus! Homens: Maravilhas de amor, te fará o Senhor Meninas: Maravilhas de amor, Uh... O Senhor, Sop: Atendendo a oração que aceitar Con e Ten: Que aceitar (2x) Sop: Seu imenso poder, te virá socorrer Con e Ten: Seu imenso poder, Ah... Socorrer Todos: Quando tudo deixares no Altar! Solo: Quando tudo perante o Senhor estiver Todos: Uh, Uh, Uh! Estiver Todos e Solista: E todo teu ser Ele controlar Solo: Só então hás de ver que o Senhor tem poder! Todos: Quando tudo deixares no Altar! Meninas: Se orares então, sem que o teu coração Homens: Goze a paz que o Senhor pode dar... Todos: É que Deus não sentiu... Que tu’alma se abriu, tudo, tudo deixando no Altar! Homens: Quando tudo perante o Senhor estiver Meninas: Uh, Uh, Uh! Estiver Todos e Solista: E todo teu ser Ele controlar. Solo: Só então hás de ver, que o Senhor tem poder! Todos: Quando tudo deixares (3X) No Altar!         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh... Oh... Oh... Deus está lutando, Ele é por nós Ele triunfou! (2x) Estaremos firmes, sem temor algum, Jesus está aqui! Leva nosso fardo, pecado também Ele triunfou! (2x) Estaremos firmes, sem temor algum, Jesus está aqui! Viverei! Não morrerei! O poder da ressurreição É vivo em mim! Sou livre em nome de Jesus! Oh... Oh... Oh... Leva nosso fardo, pecado também, Ele triunfou! (2x) Estaremos firmes, sem temor algum, Jesus está aqui! Viverei! Não morrerei! O poder da ressurreição É vivo em mim! Sou livre em nome de Jesus! Viverei! Não morrerei! Com minha voz exaltarei Eu sei que sou curado em nome de Jesus! Deus está lutando, Dissipando as trevas, Trazendo Seu Reino Firmado pra sempre No nome de Cristo cai o inimigo E bradaremos: “Grande é o Senhor!” [3x] Viverei! Não morrerei! O poder da ressurreição É vivo em mim! Sou livre em nome de Jesus! Viverei! Não morrerei! Com minha voz exaltarei Eu sei que sou curado em... Deus está lutando, Dissipando as trevas Trazendo Seu Reino Firmado pra sempre No nome de Cristo cai o inimigo E bradaremos: “Grande é o Senhor!” [4x] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensina-me a seguir Teus passos Senhor! Cada dia em meu viver! Por Tuas bênçãos peço-Te ó Pai... Ensina-me a seguir Teus passos sim! (2x) [2x] Não só de ouvir falar Deus, mas de Contigo andar! Ensina-me a seguir-Te e só em Ti confiar! O mundo eu sei que muda, meu Deus Tu sempre será! Ensina-me mais a Te adorar! Ensina-me a seguir Teus passos Senhor! Cada dia em meu viver! Por Tuas bênçãos peço-Te ó Pai... Ensina-me a seguir Teus passos sim! (2x) Não só de ouvir falar Deus, mas de Contigo andar! Ensina-me a seguir-Te e só em Ti confiar! O mundo eu sei que muda, meu Deus Tu sempre será! Ensina-me mais a Te adorar! Ensina-me a pregar com amor... Ensina-me a falar com amor... Ensina-me a viver Teu amor! Ensina-me a louvar com amor... Ensina-me a ouvir com temor... Ensina-me Senhor Teu amor! Ó Pai, Te entrego o meu viver... Te adorarei com todo meu ser! És Senhor! És Senhor! Ensina-me a seguir Teus passos sim... (6x) Não só de ouvir falar Deus! (2x) Mas de Contigo andar! Ensina-me a seguir-Te e só em Ti confiar! O mundo eu sei que muda, meu Deus Tu sempre será! Ensina-me mais a Te adorar!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olhar pro céu e nas estrelas ver o Teu poder, poder que já enxerguei! Levanto pra viver as Tuas promessas e andar de novo em Teu glorioso mover! Tenho sede, quero mais de Ti Senhor! Olhar pro céu e nas estrelas ver o Teu poder, poder que já enxerguei! Levanto pra viver as Tuas promessas e andar de novo em Teu glorioso mover! Tenho sede, quero mais de Ti Senhor! (2x) Manda Tua nuvem que traz Tua chuva! Chuva que cura e faz renascer! Faz meu deserto um jardim de milagres Pra que a Tua colheita eu possa viver! [2x] Faz chover! Faz chover! Faz chover! Faz chover! Manda Tua nuvem que traz Tua chuva! Chuva que cura e faz renascer! Faz meu deserto um jardim de milagres Pra que a Tua colheita eu possa viver! [2x] Faz chover! Faz chover! Faz chover! Faz chover! Com Poder! Com Poder! Com Poder! Com Poder!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Senhor meu Deus quando eu maravilhado Fico a pensar no Teu grandioso Ser... Vejo tormenta e o céu estrelado A proclamar ao mundo o Teu poder Então minh’alma canta a Ti Senhor Grandioso és Tu! [Grandioso és Tu!] Grandioso és Tu! Então minh’alma canta a Ti Senhor Grandioso és Tu! Grandioso és Tu! E quando enfim eu for ao céu subindo [Uuh..., contemplarei] A face do Senhor Adorarei com meu amor e vida [UUUUUUH...] A quem por mim mostrou o grande amor Todos: Então minh’alma canta a Ti Senhor Grandioso és Tu, Grandioso és Tu [4x] Tu és Deus, forte Deus! Nome sem igual! Com toda minha voz cantarei e celebrarei! [4x] Então minh’ alma canta a ti Senhor Grandioso és Tu! (7x)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">João viu o Trono, morada de Deus Solo: Santa cidade, Jerusalém! Sua luz brilhava como cristal Solo: Tanta beleza é sem igual! Ao redor do Trono existe um rio Solo: A árvore da vida sim ele viu Eu quero ir pra este lugar, Jerusalém! Jerusalém! Vou caminhar nas ruas de ouro Irei abraçar o meu mestre Jesus! Jerusalém! Vou descansar vendo o rio da vida Vou em breve pra’o Novo Lar... Jerusalém Solo: João viu os santos louvando ao Senhor Digno é o Cordeiro de honra e louvor Solo: Não viu mais noite nem escuridão Pois o próprio mestre ilumina Sião Solo: Perto está o dia em que eu subirei E num lar de paz eu morarei! Solo: Eu quero ir pra este lugar, Jerusalém! Jerusalém! Vou caminhar nas ruas de ouro Irei abraçar o meu mestre Jesus! Jerusalém! Vou descansar vendo o rio da vida Vou em breve pra’o Novo Lar... Jerusalém! Jerusalém! Cantai ó santa grei: Hosana nas alturas! Hosana pra sempre, pra sempre! Jerusalém (Jerusalém!) Vou caminhar nas ruas de ouro Irei abraçar o meu mestre Jesus! Jerusalém (Jerusalém!) Vou descansar vendo o rio da vida, Vou em breve pra’o Novo Lar, Jerusalém... Celeste lar! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mui perto ‘stá o grande dia, Jesus voltará! (3x) Mui perto ‘stá o grande dia, Jesus voltará! (3x) Ele prometeu-nos que em breve há de voltar Ao céu Ele subiu para preparar-nos um lugar! Virá! Ele nos prometeu! (2x) Sim Ele virá estejais alerta! (4x) Sim Ele virá estejais alerta! (4x) Eu vou........... Tenor: oooooooo... Sop/Cont: oooooooooooo... Hôu ôôôôôôô ôôôôôôô Eu vou… pra Sião! Desperta tu que dorme, eis que Cristo breve voltará! (3x) Desperta tu que dorme, eis que Cristo breve voltará! (3x) Ah... Ah... Ah... Ah... Ah... Ah...  Os sinais indicam logo, Jesus enfim nos levará! Virá! (3x) Brevemente a trombeta soará eu vou... Maranata (4x) Com Jesus nas bodas cea...rei... Novo nome eu terei. [2x] E ao entrar no Céu desfrutarei pra sempre ali... Glória! Glória! Glória! Glória Ao Rei! (4x) Contralto: Aleluia, Aleluia, Aleluia, Sop/Tenor: Aleluia, Aleluia, Aleluia,  Todos: Amém, Amém, Amém, Amém, Amém, Amém! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solista: João viu milhares e milhares de anjos Vocal: Que voavam ao redor do trono, (3x) de Deus! Solista: João viu os sete castiçais de ouro (Uh, Uh, Uh, Uh...) E no meio dos sete castiçais, Um semelhante ao filho do homem E quem era esse Homem? Era Jesus de Nazaré! Vocal: Não era um sonho, era realidade! João viu a cidade santa para os crentes sendo preparada! Quem tem ouvidos ouça o que o Espírito diz às igrejas Jesus Cristo está voltando! Se prepare pra que tu O vejas! João viu e não mais pode suportar Todas essas maravilhas preparadas para os Seus filhos Herdará todas essas coisas quem vencer! João viu e eu também espero ver O que foi morto e reviveu e a morte Ele venceu E com isto a vida eterna concedeu! Coro: Não era um sonho, era realidade! João viu a cidade santa para os crentes sendo preparada! Quem tem ouvidos ouça o que o Espírito diz às igrejas Jesus Cristo está voltando! Se prepare pra que tu O vejas! [2x] João viu!!!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Em busca de amor, sozinha, desesperada perdida, marcada pela dor... O pecado cegava, não queria me deixar, eu não enxergava a cruz do calvário. Mas eu olhei o sacrifício na cruz! Jesus me salvou na cruz do calvário Vocal: Lá na cruz morreu Jesus, Verteu Seu sangue a vida deu por ti e por mim! Os meus pecados Ele apagou! Lá me encontrei seguro estou... Solo: Pela cruz Solo: Dia após dia eu encontro provas, problemas, batalhas pra travar... O medo me cerca e quer me deter, Jesus está comigo, sozinha eu não estou! Eu acredito pelo sangue da cruz, liberta eu estou por Jesus no calvário! Vocal: Lá na cruz morreu Jesus, Verteu Seu sangue a vida deu por ti e por mim! Os meus pecados Ele apagou! Lá me encontrei seguro estou... [3x] Solo: Pela cruz      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo, Santo, Santo Sop.: Santo, Santo, Santo, Deus Onipotente Sop. e Con.: Cedo de manhã cantaremos Teu louvor Todos: Santo, Santo, Santo, Deus Jeová Triuno, És um só Deus Excelso Criador! Solo 1: Santo, Santo, Santo! Todos os remidos Solo 2: Juntos com os anjos proclamam Teu louvor Solo 3: Antes de formar-se o firmamento e a terra! Eras e sempr’És e hás de Ser Senhor! Aaaaaaah... Ah... Santo, Santo! Deus Poderoso! Aleluia de Handel Aleluia (5x) Aleluia (5x) Aleluia (5x) Pois o Senhor Onipotente reina! Aleluia, Aleluia! Alfa e Ômega / Porque d’Ele e por Ele Solo: Porque d’Ele e por Ele, para Ele são todas as coisas! (2x) Todos: Porque d’Ele e por Ele, para Ele são todas as coisas! (2x) A Ele a glória, A Ele a glória, A Ele a glória pra sempre amém! (2x) Oh... Oh... Alfa! Ômega! Filho! Mestre! Ó vem, Ó vem, Ó vem Senhor Jesus! Ó vem, Ó vem, Ó vem Senhor Jesus! Ó vem, Ó vem, Ó vem Senhor Jesus!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quero Encontrá-Lo! Quero Encontrá-Lo! Quero Encontrá-Lo! Quando eu chegar ao céu, ó bom Deus quero encontrá-Lo! [2x] Eu quero ter o prazer de sentar e ouvir de Gideão Suas experiências com Deus diante do seu povo Eu quero estar com Daniel, com Jeremias e Isaías Mas quando lá no céu eu adentrar primeiro eu quero Te encontrar! Quero Encontrá-Lo! Quero Encontrá-Lo! Quando eu chegar ao céu, ó bom Deus quero encontrá-Lo! [2x] Quando eu chegar ao céu, ó bom Deus quero encontrá-Lo! Canto da Família Clamo Aba! Meu Pai! Digno És Senhor! Aba! Meu Pai! Digno És Senhor! Meninas: Hoje estamos reunidos em família Homens: De mãos dadas, juntos louvando ao nosso grande Rei! Canto Aba! Meu Pai! Santo És Senhor! Aba! Meu Pai! Santo És Senhor! Um milagre Senhor Um milagre Senhor! Um milagre eu sou! Um milagre Senhor tens feito em mim! ‘Té findar meu viver dar-Te-ei meu louvor! Um milagre Senhor tens feito em mim! Solo: Em caminhos de (Ah...) perdição andava eu... Mas com amor (Ah...) Tu traçaste um plano para mim! Respondeste minha oração de fé Senhor! Desde então (Ah...) só a Ti, só a Ti pertenço eu! Um milagre Senhor! Um milagre eu sou! Um milagre Senhor tens feito em mim! ‘Té findar meu viver dar-Te-ei meu louvor Um milagre Senhor tens feito em mim! Um milagre Senhor Jerusalém! Vou caminhar nas ruas de ouro Irei abraçar o meu Mestre Jesus! Jerusalém! Vou descansar vendo o rio da vida Vou em breve pra’o Novo Lar... Jerusalém! Jerusalém! Cantai ó santa grei: Hosana nas alturas! Hosana ao nosso Rei! (2x) Quero Encontrá-Lo!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poderosamente Vivo! Vivo! Poderosamente Vivo! Jesus está vivo! Já não sou eu quem vivo, quem vive em mim é Cristo! Poderosamente Vivo! Jesus está vivo! Já não sou eu quem vivo, quem vive em mim é Cristo! Solo: Porque Ele vive, posso crer no amanhã! Porque Ele Vive, sim vive no amanhã! Todos: Porque Ele vive, temor não há! Mas eu bem sei... Eu sei que a minha vida Está nas mãos do meu Jesus que vivo está! Fidelidade Oh! Oh! Ah! Ah! Ah... Nada pode intercalar o louvor do meu coração Dos manjares eu abro mão, os palácios não quero não! Eis me aqui como Daniel, com os olhos focados no céu Com o risco de morrer, pois o que me importa é obedecer! Senhor não vou dividir minha adoração! Exclusivo é o meu coração, Vivo só pra Ti, não abro mão do céu, Até diante da morte prefiro ser fiel! Santificação Só entra no céu quem aqui for fiel Santificação pra morar lá em Sião! Só entra no céu quem aqui for fiel Vigiai e orai Solo: O Noivo logo vem! Abre os meus olhos Queria tanto olhar pro céu, Contemplar a grandeza do meu Deus! Diferente da atitude de Tomé, Quero ver porque eu creio, porque eu tenho fé! Queria tanto receber a cura, o milagre eu quero ver! Gritarei o Seu nome com muita fé e Ele me atenderá, me colocará de pé... Abra... Abra os meus olhos! Dá-me a visão! Eu preciso ver... Eu quero ver aqu’Ele que faz o milagre! Abra... Abra os meus olhos! Dá-me a visão! Eu preciso ver... Eu quero ver... Solo: Porque Ele vive, posso crer no amanhã! Porque Ele Vive, sim vive no amanhã! Todos: Porque Ele vive, temor não há! Mas eu bem sei... Eu sei que a minha vida Está nas mãos do meu Jesus que vivo está! Poderosamente Vivo! Poderosamente Vivo!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abre os meus olhos Queria tanto olhar pro céu, Contemplar a grandeza do meu Deus! Diferente da atitude de Tomé, Quero ver porque eu creio, porque eu tenho fé! Queria tanto receber a cura, o milagre eu quero ver! Gritarei o Seu nome com muita fé e Ele me atenderá, me colocará de pé... Abra... Abra os meus olhos! Dá-me a visão! Eu preciso ver... Eu quero ver aqu’Ele que faz o milagre! Abra... Abra os meus olhos! Dá-me a visão! Eu preciso ver... Eu quero ver... Fidelidade Senhor não vou dividir minha adoração! Exclusivo é o meu coração, Vivo só pra Ti, não abro mão do céu, Até diante da morte prefiro ser fiel! [2x] Oh, oh, oh, oh, oh, oh! Quero descer Senhor, quebra o meu orgulho, eu quero descer... E mergulhar nas águas do Teu amor... Me purifica! Eu quero ser limpo! Como Naamã no Teu poder [2x] Advogado Fiel! Advogado Fiel! O meu Jesus é pra mim... Advogado Fiel! Advogado Fiel! Advogado Fiel! O meu Jesus é pra mim... Meu advogado é o meu Senhor Ele me defende do acusador! Minha causa entreguei em Suas mãos Posso descansar o meu coração! Minha audiência Ele já marcou E garantiu de novo que eu serei o vencedor! Meu advogado mora lá no céu Verdadeiro justo, pra sempre fiel! Quero descer O Todo Poderoso está aqui! Cristo já está passando aqui! Rompe a multidão e toque n’Ele... Virtude sairá! O Todo Poderoso está aqui! Cristo já está passando aqui! Estenda a tua mão e toque n’Ele... Sete trombetas Eu quero estar além de tudo! Eu não pertenço a esse mundo! Eu vou guardar a minha fé pra não perder minha coroa! Preciso andar em santidade pra ver a face do meu Noivo! E adorar na Excelência O Todo Poderoso! Sou Humano Estou sentindo minhas forças indo embora... Mas Tua presença me renova nessa hora! Vem e me leva além! O meu sonho de chegar está tão longe! Sou humano, não consigo ser perfeito! Vem e me leva além! Ressuscita-me Mestre eu preciso de um milagre! Transforma minha vida, meu estado... Faz tempo que eu não vejo a luz do dia, Estão tentando sepultar minha alegria, Tentando ver meus sonhos cancelados! Lázaro ouviu a Sua voz quando aquela pedra removeu... Depois de quatro dias ele reviveu! Mestre, não há outro que possa fazer Aquilo que só o Teu nome tem todo poder! Eu preciso tanto de um milagre! Remove a minha pedra! Me chama pelo nome! Muda a minha história! Ressuscita os meus sonhos! Transforma a minha vida! Me faz um milagre! Me toca nessa hora, me chama para fora! Ressuscita-me! Tu És a própria Vida! A força que há em mim! Tu És O Filho de Deus que me ergue pra vencer! Senhor de tudo em mim já ouço a Tua voz Me chamando pra viver uma história de poder! Remove a minha pedra! Me chama pelo nome! Muda a minha história! Ressuscita os meus sonhos! Transforma a minha vida! Me faz um milagre! Me toca nessa hora, me chama para fora......... Ressuscita-me!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem é o Homem que teve o poder de andar sobre o mar? Quem é Ele que pode fazer o mar se calar? No momento em que a tempestade vier te afogar Ele vem com toda autoridade e manda acalmar! Quem é o Homem que teve o poder de fazer Israel Caminhar por entre as águas do mar Vermelho? Fez caminho no meio do mar para o povo de Israel passar D’outro lado com os pés enxutos puderam cantar o Hino da Vitória! Quando estiver frente ao mar e não puder atravessar Chame este Homem com fé, ó Ele abre o mar! Não tenha medo irmão se atrás vem Faraó Deus vai te atravessar e você vai entoar o Hino da Vitória! Toda vez que o Mar Vermelho tiver que passar Chame logo este Homem para te ajudar É nas horas mais difíceis que Ele mais te vê, Pode chamar esse Homem que Ele tem poder Se passares pelo fogo não vai te queimar Se nas águas tu passares não vão te afogar Faça como Israel que o mar atravessou E no nome do Senhor o Hino de Vitória... Solista: Do outro lado cantou Vocal: Do outro lado cantou... Solista: Do outro lado cantou Vocal: Hú-uh... A obra do Senhor ninguém pode parar, Pois a porta que Ele abre homem não pode fechar Por amor ao Seu Nome muitos sofreram perseguições, Foram levados para o fogo, lançados na cova dos leões Mas Deus sempre levanta servos que não tem medo pois estão em oração Mesmo sendo perseguidos não negaram ao seu Deus Deus protege sempre os filhos Seus! Se é Deus que abre a porta ninguém pode fechar Se te perseguem não temas isso logo vai passar Deus vai te guardar... Pois quem está com você é mais forte que o mal Não pare agora por que já está perto o final, Deus por você vai lutar! Se te perseguem vão ser perseguidos Não adianta lutar contra os ungidos Até no fogo Ele entra com a gente, Também na cova dos leões está presente Quem sofre por amor de Deus nunca padece Porque Deus sempre dá o escape e fortalece E quando morre vai direto para a Glória A recompensa é a coroa de Vitória... Nada vai calar a voz, nada pode parar nem deter o povo de Deus... Porque Deus envia anjos para nos guardar E o que promete Deus cumpre não vai falhar E a porta que Ele abre homem não pode fechar... Não negue a Jesus... Não nego a Jesus Solista: Não! Não! Não negue! Vocal: Não! Não! Não negue! Não negue a Jesus... Não nego a Jesus... Não nego a Jesus e uma festa no céu vai acontecer, Jesus de braços abertos esperando você! Não negue a Jesus! Não negue a Jesus! Ele é a força que te faz vencer, Na palma de Suas mãos Ele leva você! Solista: E você vai passar e cantar de lá: “Só o Senhor é Deus!” O mar vai se fechar e exterminar os inimigos seus! Vocal: E você vai passar e cantar de lá: “Só o Senhor é Deus!” O mar vai se fechar e exterminar os inimigos seus! Solista: Não pense que a vida acabou, só lembre que você é vencedor, Você não é ungido pra perder, com Cristo é vencer ou vencer. Coral: Ah ah ah... Vencedor... com Cristo é vencer ou vencer Solista: Não diga que a vitória nunca vem, porque vitória pra você Deus tem, Se o mar da vida em sua frente está Deus abre o caminho deste mar... Coral: Ah ah ah...Sim Deus tem... Deus abre o caminho deste mar... Contigo está a vitória que Jesus conquistou na cruz, Contigo está a unção que tem poder pra tua vida transformar E todo mal tem que sair contigo está! Autoridade e poder para vencer a resistência do inimigo e com tua fé, Deus fará o impossível pra você vencer, Basta você crer... E quando o inferno pensava que havia vencido, Os anjos cantavam: Jesus está vivo! A morte não pôde segurar o meu Rei! Ele venceu... Solista: Venceu e hoje está aqui pra te abençoar, Vocal: A tua bênção hoje Ele vai entregar, Solista: o inimigo não pode em Vocal: tua vida tocar, porque Deus contigo está... Contigo está a vitória que Jesus conquistou na cruz, Contigo está a unção que tem poder pra tua vida transformar E todo mal tem que sair contigo está! Autoridade e poder para vencer a resistência do inimigo e com tua fé, Deus fará o impossível pra você vencer, Basta você crer... (2x)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Eu elevo os meus olhos ao céu, de onde vem meu socorro? Socorro vem do Senhor que fez toda a Terra e céu! Ele não deixará que os meus pés caminhem em vão, Meu Deus que me guardará, Ele jamais dormirá! Ele é o meu Protetor, escondo-me no Senhor Ao meu lado está! Ao meu lado está! O sol nunca me molestará nem me queimará! Minh’alma guardará, me livrará do mal! Senhor! Senhor! Senhor! (Uh, Uh, Uh) O meu socorro vem do Vocal: Senhor! Vocal: Eu elevo os meus olhos ao céu, de onde vem meu socorro? Socorro vem do Senhor que fez toda a Terra e céu! Ele não deixará que os meus pés caminhem em vão, Meu Deus que me guardará, Ele jamais dormirá! Ele é o meu Protetor, escondo-me no Senhor Ao meu lado está! Ao meu lado está! O sol nunca me molestará nem me queimará! Minh’alma guardará, me livrará do mal! Senhor! Senhor! Senhor! (Uh, Uh, Uh) O meu socorro vem do Senhor! Ele é o meu Protetor, escondo-me no Senhor Ao meu lado está! Ao meu lado está! O sol nunca me molestará nem me queimará! Minh’alma guardará, me livrará do mal! Senhor! Senhor! Senhor! O meu socorro vem do Senhor! (Senhor!) Senhor! Senhor! O meu socorro vem do Senhor! Senhor! Senhor! Senhor! O meu socorro vem do Senhor!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Solo: Eu, infeliz, miserável pecador Sem visão me perdi, via o tempo se esgotar Eu separado, distante a pecar E mesmo estando em um abismo ali quis me alcançar Me deu direção, caminho quis mostrar (Uuuhh..........) Ao deixar as mansões quis no coração morar (Uuuhh..........) Ali sobre a cruz sofreu em solidão (Uuuhh..........) Luz mostrou, libertou! Esperança tive então... Todos: Obrigado pela cruz Jesus, Por Seu sangue eu lavado fui Obrigado salvo estou Jesus... Me tirou das trevas pra Gloriosa Luz. E ao morrer para uma tumba foi Tão depressa despertou, Ele então ressuscitou! Sem mais dor, nem pesar, é vida sem fim Pois transformado fui, por Seu sangue Jesus... Todos: Obrigado pela cruz Jesus, Por Seu sangue eu lavado fui Obrigado salvo estou Jesus... Me tirou das trevas pra Gloriosa Luz. Solo: Nada se compara ao poder que há no sangue de Jesus... Jesus!! Agora somos filhos redimidos pelo sangue de Jesus... Jesus!! Todos: Nada se compara ao poder que há no sangue de Jesus... Jesus!! Agora somos filhos redimidos pelo sangue de Jesus... Jesus!! Glória ao Seu nome! Glória ao Seu nome! No coração Cristo veio entrar Glória ao Seu nome!! Obrigado pela cruz Jesus, Por Seu sangue eu lavado fui Obrigado salvo estou Jesus... Me tirou das trevas pra Gloriosa Luz. Obrigado salvo estou Jesus... Me tirou das trevas... (3x) Pra Gloriosa Luz... Sua Luz! Gloriosa Luz!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Eu sei que a caminhada é tão difícil de seguir... É tão bom estar sorrindo quando tudo vai bem... Eu quero ver tua fé quando o mundo te esquecer! Lembrarás que Eu Sou o Teu Deus? Deixarás te levar? Confio em Ti... Vai em Mim descansar? Confio em Ti... Lembrarás das promessas que Eu te fiz? Eu te fiz... Quando for impossível Clamarás a Mim... Clamarás a Mim! Clamarás a Mim... Lembrarás que Sou Teu Pai ou Me esquecerás? Uh! Uh! Uh! Uh! Ah! Vocal: Senhor eu confio em Ti! Vocal: Eu sei que a caminhada é tão difícil de seguir... É tão bom estar sorrindo quando tudo vai bem... Eu quero ver tua fé quando o mundo te esquecer! Solo: Lembrarás que Eu Sou o Teu Deus? Uh! Uh! Uh! Uh! Ah! E se chorares? Confio em Ti... E se te machucares? Confio em Ti! Lembrarás das promessas que Eu te fiz? Eu te fiz... Quando for impossível Clamarás a Mim... Clamarás a Mim! Clamarás a Mim... Lembrarás que Sou Teu Pai ou Me esquecerás? Uh! Uh! Uh! Uh! Ah! Vocal: Senhor eu confio em Ti! Pai eu confiarei... Pai eu confiarei... Pai eu confiarei... Ow! Ow! Ow! Ow! (4x) Uh! Uh! Uh! Uh! Uh! Uh! Uh! Ah! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solista: Existe um sangue puro carmesim que me comprou, me resgatou Que ao jorrar daquela cruz, os meus pecados ele apagou! A sepultura quis esconder precioso sangue da dura cruz, Mas em três dias Ele reviveu, Se levantou pra me salvar! Então vem dizer que vivo está! (Uh...!) Que lágrima por lágrima meu Jesus vai enxugar (Uh...!) Então vem dizer que Ele salva (Uh!) Que Ele voltará (Uh!) Para o céu nos levará! Solista: Existe um sangue que purifica, que tem poder de transformar, Que tem poder pra libertar de todo mal e nos curar! Então derrame em minha alma precioso sangue da redenção, Porque Ele vive e vai voltar... Canta minh’alma, canta ao Senhor! Vocal: Então vem dizer que vivo Está! Que lágrima por lágrima meu Jesus vai enxugar! Então vem dizer que Ele salva, Que Ele voltará, Para o céu nos levará! [2x] O que te poderá limpar? Nada... Nada! O que te poderá salvar? Nada além do sangue! Nada além do sangue! O que te poderá limpar? Nada... Nada! O que te poderá salvar? Nada além do sangue! Nada além do sangue! Solista: Existe um sangue que purifica, que tem poder pra transformar! Porque Ele vive e vai voltar! Canta minh’alma, canta ao Senhor! Então vem dizer que vivo Está! Que lágrima por lágrima meu Jesus vai enxugar! Então vem dizer que Ele salva, Que Ele voltará, Para o céu nos levará! Então vem dizer que vivo Está! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: É tarde da noite e não consigo dormir São mil pensamentos passando por mim Foi nesse momento que ouvi uma voz me chamando... Vocal: Quando me chamar Solo: Direi: Vocal: eis-me aqui Vocal: Quando me chamar Solo: Direi: Vocal: eis-me aqui Vocal: Quando me chamar Solo: Direi: Vocal: eis-me aqui Senhor, eis-me aqui! Solo: O barulho do mundo te impede de ouvir Mesmo teus pensamentos não te deixam sentir A presença de um Deus que está aqui Me chamando (Me chamando, te chamando, vem... vem... vem... vem!) Vocal: Quando me chamar Solo: Direi: Vocal: eis-me aqui Vocal: Quando me chamar Solo: Direi: Vocal: eis-me aqui Vocal: Quando me chamar Solo: Direi: Vocal: eis-me aqui Senhor, eis-me aqui! Vocal: Não mais andar Solo: Sem direção Fecho meus olhos em oração Vocal: E me deixo guiar pelo som da Tua voz Solo: Falando ao meu coração Quando me chamar direi: eis-me aqui Quando me chamar direi: eis-me aqui Quando me chamar direi: eis-me aqui Senhor, Vocal: eis-me aqui! Vocal: Quando me chamar Solo: Direi: Vocal: eis-me aqui Vocal: Quando me chamar Solo: Direi: Vocal: eis-me aqui Vocal: Quando me chamar Solo: Direi: Vocal: eis-me aqui Senhor, eis-me aqui!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vivo feliz pois sou de Jesus! E já desfruto o gozo da luz Sou por Jesus sim, filho de Deus Ele me leva à glória dos céus Canta minh’alma, canta ao Senhor Rendei-lhe sempre ardente louvor [2x] Ao Seu amor eu me submeti E extasiado então me senti! Anjos descendo trazem dos céus Ecos de excelsa graça de Deus Solo: Sempre vivendo em Seu grande amor Me regozijo em meu Salvador! Esperançoso vivo na luz, Pela bondade do meu Jesus! Todos: Canta minh’alma, canta ao Senhor Rendei-lhe sempre ardente louvor [2x]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sop. e Contr.: Quem pode imaginar Alguém abrindo mão do Céu pra se entregar? Pagando um alto preço assim, preço de sangue só por mim! Como explicar? Todos: Ah! Meu Senhor! Meu Salvador! Como poder retribuir? Sop. e Contr.: Tão grande amor que meu Senhor Todos: Teve por mim, tão pecador... Chorou! Gemeu! Sofreu! Morreu a dura cruz do meu perdão... O céu parou, silêncio fez, quem padecia era o Rei! Tenor: E pra me dar acesso ao Pai, Todos: Não desistiu de me amar! Levantarei as minhas mãos em gratidão por Seu amor, Pois Ele as d’Ele levantou... Oh, como Ele me amou! Tenor: Agora posso adentrar Todos: E ante Seu trono me prostrar... Pra Te adorar! Sop. e Con.: Na sala do trono Te adorar (2x) Todos: Na sala do trono Te adorar (2x) [3x] Chorou! Gemeu! Sofreu! Morreu a dura cruz do meu perdão... O céu parou, silêncio fez, quem padecia era o Rei! Tenor: E pra me dar acesso ao Pai, Todos: Não desistiu de me amar! Levantarei as minhas mãos em gratidão por Seu amor, Pois Ele as d’Ele levantou... Oh, como Ele me amou! Tenor: Agora posso adentrar Todos: E ante Seu trono me prostrar... Pra Te adorar!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh... Oh... Oh... Oh... Oh... Oh... Celebrai com júbilo ao Senhor Servi ao grande Deus com alegria! Entrai em Seus átrios com louvor Bendizei o nome do Altíssimo Ah... Ah... Ah... Aleluia! Celebrai com júbilo ao Senhor Com glórias e louvor O adoremos Ao Deus que nos fez povo Seu! Nos deu a salvação e graça e nos livrou da perdição! Enchendo de amor nossos corações! Sabei que o Senhor É Deus! Foi Ele e não nós que nos fez povo Seu! Sabei que o Senhor É Deus! Levantemos nossas mãos e louvemos! Ao grande Deus adoremos porque só Ele É Digno de louvor! [2x] Meninas: Senhor tenha piedade de mim, ó Deus... Pois sei que sempre falharei, no pecado eu nasci... Todos: Mas a Sua graça e também misericórdia me alcançam, Ó Senhor eu Te amarei! Oh! Meu Deus... Olhando Deus do céu um justo não se viu! O homem se contaminando das coisas terreais! Mas dispôs Seu Amor, Seu Filho enviou! Venceu a morte e o pecado, a salvação pra nós ganhou! Sabei que o Senhor É Deus! Foi Ele e não nós que nos fez povo Seu! Sabei que o Senhor É Deus! Levantemos nossas mãos e louvemos! Ao grande Deus adoremos, porque só Ele É Digno de louvor! [2x] Oh... Oh... Oh... Oh... Oh... Oh... Sabei que o Senhor É Deus! É Deus! É Deus! Sabei que o nosso Senhor... É Deus!!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solista: Oh, Oh, Oh, Oh, Oh… Você já pensou no céu de luz, nas coisas que vamos ter, Vivendo eternamente na glória para sempre com o Rei! Não haverá prazer igual (Uh... Uh...) Veremos a glória que Ele preparou Nos uniremos aos anjos eternamente dando-lhe louvor! Vocal: Santo, Santo, Santo Solo: É o Senhor meu Deus Vocal: Santo, Santo, Santo Solo: É o Cordeiro que venceu! Toda honra, toda glória e (Ah...!) poder Sejam dados ao Cordeiro que venceu (Santo! Santo! Ah...!) Tenor: Glória ao Cordeiro que vem! Pelos séculos dos séculos! Amém... (Santo! Santo! Ah...!)  Ele é digno da glória que tem! (Honra! Glória! Ah...!) Santo! Santo! Solista: Oh! Bendita esperança estar junto com os meus... Na Jerusalém eterna... Na glória que Jesus nos prometeu! Vocal: Não haverá prazer igual poder estar pra sempre com Jesus E nos unir aos anjos eternamente dando-lhe louvor! Vocal: Santo, Santo, Santo Solo: É o Senhor meu Deus Vocal: Santo, Santo, Santo Solo: É o Cordeiro que venceu! Toda honra, toda glória e (Ah...!) poder Sejam dados ao Cordeiro que venceu (Santo! Santo! Ah...!) Tenor: Glória ao Cordeiro que vem! Pelos séculos dos séculos! Amém... (Santo! Santo! Ah...!)  Ele é digno da glória que tem! (Honra! Glória! Ah...!) [2x] Vocal: Santo, Santo, Santo Solo: É o Senhor meu Deus (Uh... Uh...) Vocal: Santo, Santo, Santo Solo: É o Cordeiro que venceu! Vocal: Santo! Santo! Santo! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1ª Voz: Santo, Santo, Santo, Deus Onipotente 1ª e 2ª Voz: Cedo de manhã cantaremos Teu louvor Vocal: Santo, Santo, Santo, Deus Jeová Triuno, És um só Deus Excelso Criador Solo 1: Santo, Santo, Santo, todos os remidos Solo 2: Junto com os anjos proclamam Teu louvor Solo 3: Antes de formasse o firmamento a Terra Vocal: Eras e sempre hás de ser Senhor Aaaaah... Santo, Santo, Deus Poderoso! Santo, Santo, Santo, nós os pecadores Não podemos ver oh! Tua glória sem temor! Tu somente Santo, não há nem um outro Puro e perfeito Excelso Bem Feitor Ah, Ah, Ah... Aleluia, Aleluia, Aleluia Santo, Santo, Santo, Deus Poderoso Sempre hei de Te louvar, Santo És meu Senhor! Santo... (12x) Oh, Oh, Oh, Oh, Oh... Aleluia, Aleluia, Santo Tu És Senhor!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Da linda pátria estou tão longe, triste eu estou... Eu tenho de Jesus saudade! Quando será que vou Vocal: Da linda pátria estou tão longe, triste eu estou... Eu tenho de Jesus saudade! Quando será que vou... Passarinhos, belas flores fazem me almejar As maravilhas e esplendores do meu celeste lar Dueto: Cristo me deu fiel promessa, vem me buscar (vem me buscar) Meu coração está com pressa, Eu quero já voar (sim voar!) Meus pecados eram muitos (Uh! Ôu, Ôu, Ôou...) E culpado sou Mas o Seu sangue faz-me limpo e para pátria vou Vocal: Qual filho do seu lar saudoso eu quero ir Qual passarinho para o ninho eu vou ao céu subir É fiel, a vinda é certa, quando eu não sei, mas Ele me achará alerta! Solo: Com Ele ao céu irei Vocal: Ao céu irei, Ao céu irei, Ao céu irei... Solo: Eu tenho de Jesus saudade, quando será que vou... Vocal: Uh....     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ah! Ah! Ah! Mas Jesus... Ah! Meninas: Nunca houve noite que pudesse impedir O nascer do sol e a esperança E não há problema que possa impedir As mãos de Jesus pra me ajudar! [2x] Homens: Haverá um milagre dentro de mim, Vem descendo o rio pra me dar a vida! Todos: Este rio que emana lá da cruz do lado de Jesus! Homens: Haverá um milagre dentro de mim, Vem descendo o rio pra me dar a vida! Meninas: (Ah... Ah...) Todos: Este rio que emana lá da cruz do lado de Jesus! Aquilo que parecia impossível... Aquilo que parecia não ter saída... Aquilo que parecia ser minha morte... Mas Jesus mudou minha sorte, sou um milagre estou aqui! [2x] Usa-me! Sou o Teu milagre! Usa-me! Eu quero Te servir... Usa-me! Sou a Tua imagem! Usa-me! Ó Filho de Davi... Aquilo que parecia impossível... Aquilo que parecia não ter saída... Aquilo que parecia ser minha morte... Mas Jesus mudou minha sorte, sou um milagre estou aqui! [3x]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por tudo o que tens feito Por tudo o que vais fazer Por Tuas promessas e tudo que És, Eu quero Te agradecer com todo o meu ser! Homens: Te agradeço meu Senhor...... Meninas: (Te agradeço meu Senhor......) Homens: Te agradeço meu Senhor...... Meninas: (Te agradeço meu Senhor!) Te agradeço por me libertar e salvar Por ter morrido em meu lugar Te agradeço! Jesus Te agradeço! Eu Te agradeço! Te agradeço... Por tudo o que tens feito Por tudo o que vais fazer Por Tuas promessas e tudo que És, Eu quero Te agradecer com todo o meu ser! Homens: Te agradeço meu Senhor...... Meninas: (Te agradeço meu Senhor......) Homens: Te agradeço meu Senhor...... Meninas: (Te agradeço meu Senhor!) Te agradeço por me libertar e salvar Por ter morrido em meu lugar Te agradeço! Jesus Te agradeço! Eu Te agradeço! Te agradeço... Te agradeço...! (2x)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Te exaltamos ó Senhor por tudo que Tu És (3x) És exaltado ó Deus! (2x) Senhor, Te louvamos (3x) Senhor, Exaltado És [4x] És exaltado ó Deus! (2x) Te exaltamos ó Senhor por tudo que Tu És (3x) És exaltado ó Deus! 2x Senhor, Te louvamos (3x) Senhor, Exaltado És [4x] És exaltado ó Deus! (2x) Exalto ó Deus!!!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Te louvamos Deus grandioso, Deus da terra, céu e mar! Sou feliz, pois me escolheste pra Teu nome proclamar! Exaltar-Te-ei pra sempre! Quem é como nosso Deus? Rendei glória ao Teu nome, no louvor... No louvor... Graças dou por Teu amor! Vocal: Te louvamos Deus grandioso, Deus da terra, céu e mar! Sou feliz, pois me escolheste pra Teu nome proclamar! Exaltar-Te-ei para sempre! Quem é como nosso Deus? Rendei glória ao Teu nome seja a honra e o louvor... Graças dou por Teu amor! Teu amor! [2x] Glórias ao Seu nome e para todo sempre, só em Ti vou confiar! Eu quero estar em Tua presença! Só a Ti canto louvores Uuuh... ié... Só a Ti canto louvores, Só a Ti louvo e sou feliz, sou feliz! Te louvamos Deus grandioso, Deus da terra, céu e mar! Sou feliz, pois me escolheste pra Teu nome proclamar! Exaltar-Te-ei para sempre! Quem é como nosso Deus? Rendei glória ao Teu nome seja a honra... E o louvor... (9x) Graças dou por Teu amor! Teu amor!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Tudo ó Cristo a Ti entrego, tudo sim por Ti darei... Resoluto, mas submisso, sempre, sempre seguirei! Tudo ó Cristo a Ti entrego, corpo e alma eis aqui! Este mundo mau renego, ó Jesus aceita a mim! Tudo entregarei, Tudo entregarei (Tudo entregarei) Vocal: Sim por Ti Jesus bendito tudo deixarei Vocal: Tudo ó Cristo a Ti entrego, oh! Que gozo meu Senhor Paz perfeita, paz completa, glória, glória ao Salvador! Vocal: Tudo entregarei, Solo: tudo entregarei (Tudo entregarei) Vocal: Sim por Ti Jesus bendito Solo: tudo deixarei (Ah, Ah... Ah, Ah...) Vocal: Tudo entregarei, Solo: tudo entregarei (tudo entrega... entregarei!) Solo: Sim por Ti Vocal: Jesus bendito tudo entregarei (Entregarei) Vocal: Tudo entregarei... Entregarei!       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo: Em Breve voarei para as bodas do meu Rei, Não vou negociar com o mundo a minha fé, Tão certo como Deus o dia chegará! Enquanto eu vivo aqui.... Vocal: [Estou focalizado no que vai acontecer, Já é última hora eu não posso me perder!] eu sinto o céu em mim! Vocal: Mas a glória maior Deus reservou pra mim! Solo: No encontro triunfal, no cerimonial... Vocal: Vale a pena ser fiel eu vou morar no céu, eu não abro mão do céu meu destino é o céu Solo: Deus vai me arrebatar com Ele vou voar, Tenho endereço novo aqui não é o meu lugar! Vocal: Vale a pena ser fiel eu vou morar no céu, eu não abro mão do céu meu destino é o céu Solo: Deus vai me arrebatar com Ele vou voar Tenho endereço novo... Vocal: Meu endereço é na cidade de Deus Em ruas de ouro eu vou caminhar Estou imaginando a árvore da vida Em questão de tempo eu irei pra lá Meu endereço é na cidade de Deus O meu passaporte eu já conquistei Autenticado pelo sangue do Cordeiro Vou morar pra sempre juntinho de Deus... Vale a pena ser fiel eu vou morar no céu, eu não abro mão do céu meu destino é o céu Solo: Deus vai me arrebatar com Ele vou voar, Tenho endereço novo aqui não é o meu lugar! Vocal: Vale a pena ser fiel eu vou morar no céu, eu não abro mão do céu meu destino é o céu Solo: Deus vai me arrebatar com Ele vou voar Tenho endereço novo... Vocal: Meu endereço é na cidade de Deus Em ruas de ouro eu vou caminhar Estou imaginando a árvore da vida Em questão de tempo eu irei pra lá Meu endereço é na cidade de Deus O meu passaporte eu já conquistei Autenticado pelo sangue do Cordeiro Vou morar pra sempre juntinho de Deus... Santo, Santo... No céu eu vou cantar com os anjos vou cantar No endereço novo eu só quero adorar! Santo, Santo, Santo, Santo Em glória eu vou voar pra casa eu vou voar No endereço novo eu só quero adorar! Homens: O Rei está voltando (2x) Meninas: A trombeta está soando, o meu nome a chamar Todos: O Rei está voltando (2x) Aleluia Ele vem nos buscar... Meu endereço é na cidade de Deus Em ruas de ouro eu vou caminhar Estou imaginando a árvore da vida Em questão de tempo eu irei pra lá Meu endereço é na cidade de Deus O meu passaporte eu já conquistei Autenticado pelo sangue do Cordeiro Vou morar pra sempre juntinho de Deus... [2x]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vem S’pírito Santo, Vem com Teu poder e amor! Vem mudar nossas vidas, S’tamos ao Teu dispor Pra Te adorar, pra Te adorar Rei da Glória És bem vindo entre nós, Ao Teu nome Santo vou erguer meu louvor Minha vida aqui é só pra Te adorar! Solista: Estamos nós aqui unidos, em sublime Comunhão desfrutando as muitas bênçãos na presença do grande Senhor. Ó Deus o maior presente temos quando vamos Te adorar Nossas mãos e nossas vozes vamos erguer em Teu louvor! Todos: Pra Te adorar, pra Te adorar Rei da Glória És bem vindo entre nós, Ao Teu nome Santo vou erguer meu louvor Minha vida aqui é só pra Te adorar! Ah, Ah... Vem S’pírito Santo, Vem com Teu poder e amor! Vem mudar nossas vidas, S’tamos ao Teu dispor Pra Te adorar, pra Te adorar Rei da Glória És bem vindo entre nós, Ao Teu nome Santo vou erguer meu louvor Minha vida aqui é só pra Te adorar! Ao Teu nome Santo Vou erguer meu louvor... Meu louvor! Minha vida aqui É só pra Te Louvar... Meu Deus eu vivo pra Te adorar! Meu Deus, Cristo vou Te adorar! Meu Deus, Cristo vou Te adorar! Meu Deus, Cristo! Cristo! Cristo! Estou aqui só para Te louvar!  </t>
+  </si>
+  <si>
+    <t>Vem...! Vem! O Amado sobre as nuvens descerá Vem! Sua igreja redimida arrebatar Vem! Com poder e autoridade Ele virá Meninas: Prepara-te Israel, o “Rei dos reis” já vai voltar! Vem! O Amado sobre as nuvens descerá Vem! Sua igreja redimida arrebatar (Vem!) Solista: Com poder e autoridade Ele virá Meninas: Prepara-te Israel... Solista: o “Rei dos reis” já vai voltar! Solista: Contemple os sinais do fim, O amor se esfriou aqui Estamos vivendo como nos dias de Noé. A fome, peste e a depressão, o pânico entre a população O medo, a guerra, triunfo de homens cruéis A natureza também nos emite o sinal De que o mundo caminha para o seu final... Muito em breve o Filho de Deus vem nos arrebatar! Vem! O Amado sobre as nuvens descerá Vem! Sua igreja redimida arrebatar Vem! Com poder e autoridade Ele virá Meninas: Prepara-te Israel, o “Rei dos reis” já vai voltar! Vem! O Amado sobre as nuvens descerá Vem! Sua igreja redimida arrebatar (Vem!) Solista: Com poder e autoridade Ele virá Meninas: Prepara-te Israel... Solista: o “Rei dos reis” já vai voltar! Todos: A natureza também nos emite o sinal De que o mundo caminha para o seu final... Muito em breve Solista: o Filho de Deus vem nos arrebatar! Vem! O Amado sobre as nuvens descerá Vem! Sua igreja redimida arrebatar Vem! Com poder e autoridade Ele virá Meninas: Prepara-te Israel, o “Rei dos reis” já vai voltar! Vem! O Amado sobre as nuvens descerá Vem! Sua igreja redimida arrebatar (Vem!) Solista: Com poder e autoridade Ele virá Prepara-te Israel, o “Rei dos reis” já vai voltar! (Vem! Vem...!) Meninas: Glória, glória, aleluia! Glória, glória, aleluia! Todos: Glória, glória, aleluia! Solista: Vencendo vem Jesus! Todos: Glória, glória, aleluia! Glória, glória, aleluia! Glória, glória, aleluia! Solista: Vencendo vem Jesus! Todos: Vem, vem, vem, vem, Vem......! Solista: O Amado sobre as nuvens descerá. (Vem!) Sua igreja redimida arrebatar. (Vem com poder!) Vem com poder! Meninas: Prepara-te Israel, o “Rei dos reis” já vai voltar! Vem! O Amado sobre as nuvens descerá Vem! Sua igreja redimida arrebatar (Vem com poder!) Solista: Prepara-te Israel, o “Rei dos reis” já vai voltar!_x000C_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cada passo que eu dou na vida É um degrau a mais que subo ao céu Em Cristo tenho a melhor guarida E da morte não temo labéu A cada passo vou me aproximando Daquele lar que Cristo prometeu E passo a passo sigo caminhando A cada instante mais perto de Deus Estou seguro em Suas mãos divinas Que me conduzirão ao santo lar Em Cristo tenho a chave certa Que abre o portal da glória celestial A cada passo vou me aproximando Daquele lar que Cristo prometeu E passo a passo sigo caminhando A cada instante mais perto de Deus Às vezes sinto-me tão desolado Quando as tristezas vêm me assaltar Então eu olho para o mestre amado Que me diz: “sê firme no avançar!” A cada passo vou me aproximando Daquele lar que Cristo prometeu E passo a passo sigo caminhando A cada instante mais perto de Deus   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para casa de Jairo ia Jesus, Uma grande multidão ia atrás d’Ele Uma pobre mulher cheia de fé Se esqueceu da multidão e o tocou! Faz tu qual a mulher que foi e tocou Na orla do vestido de Jesus Virtude logo saiu e a curou Se n’Ele tocas tu saras também! O Senhor perguntou quem Me tocou? Pois de Mim saiu virtude, Eu o senti A mulher se levantou e confessou: Fui eu Senhor quem te tocou, perdoa-me! Faz tu qual a mulher que foi e tocou Na orla do vestido de Jesus Virtude logo saiu e a curou Se n’Ele tocas tu saras também! Se quiseres acercar-te ao Salvador Com tuas cargas de pecados como estás Faze hoje qual a mulher que foi e tocou, De seus vestidos para ti sairá virtude! Faz tu qual a mulher que foi e tocou Na orla do vestido de Jesus Virtude logo saiu e a curou Se n’Ele tocas tu saras também!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se atentamente ouvir a Deus e os mandamentos seus obedecer O Senhor, meu Deus me exaltará sobre todas as nações onde eu passar Eu não correrei atrás de bênçãos, sei que elas vão me alcançar! Onde eu colocar a planta dos meus pés, sei que a Sua bênção chegará! Bendito serei na terra, bendito serei! Quando eu profetizar, sei que a minha voz será a voz de Deus! Bendito serei no campo, bendito serei! Por onde eu passar, onde eu tocar abençoado será... Quando eu obedecer a Sua voz... Se atentamente ouvir a Deus e os mandamentos seus obedecer O Senhor, meu Deus me exaltará sobre todas as nações onde eu passar Eu não correrei atrás de bênçãos, sei que elas vão me alcançar! Onde eu colocar a planta dos meus pés, sei que a Sua bênção chegará! Bendito serei na terra, bendito serei! Quando eu profetizar, sei que a minha voz será a voz de Deus! Bendito serei no campo, bendito serei! Por onde eu passar, onde eu tocar abençoado será... Quando eu obedecer a Sua voz... [2x] Bendito serei na terra, bendito serei! Quando eu profetizar, sei que a minha voz será a voz de Deus! Bendito serei no campo, bendito serei! Por onde eu passar, onde eu tocar abençoado será... Quando eu obedecer (3x) A Sua voz...   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando Cristo Sua trombeta lá do céu mandar tocar Quando o dia mui gloriosolá romper E aos remidos desta terra meu Jesus se incorporar E fizer-se então chamada lá estarei! Quando se fizer chamada (3x) Quando se fizer chamada lá estarei! Nesse tão glorioso dia quando o crente ressurgir E da glória de Jesus participar Quando os crentes ressurgidos O saudarem no porvir E fizer-se então chamada lá estarei! Quando se fizer chamada (3x) Quando se fizer chamada lá estarei! Lidarei então pra Cristo até o dia terminar Falarei do Seu amor por nós aqui Quando pois findar a vida e o labor aqui cessar E fizer-se então chamada lá estarei! Quando se fizer chamada (3x) Quando se fizer chamada lá estarei! [2x]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divino Companheiro no caminho Sua presença sinto logo ao transitar Já dissipaste toda sombra Já tenho luz, a luz bendita do amor! Fica Senhor, já se faz tarde Tens meu coração para pousar Faz em mim morada permanente! Fica Senhor, fica Senhor, meu Salvador! A sombra da noite se aproxima E nela o tentador vai chegar Não, não me deixes pelo caminho! Ajuda-me! Ajuda-me até chegar Fica Senhor, já se faz tarde Tens meu coração para pousar Faz em mim morada permanente! Fica Senhor, fica Senhor, meu Salvador!      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estou contigo, ó meu filho! Nunca te deixo sozinho! Sou um Deus que dos filhos Sempre velo muito bem E de ti não esqueço também! Não abandones meu amparo, Eu Sou um Deus que te guardo! Eu te amo, pois provei lá na cruz o Meu amor... E pra sempre serei teu Senhor! Se entrares na batalha Eu contigo lutarei! Se pisares nos espinhos Eu contigo pisarei! Não te deixo, ó meu filho Seja onde quer que andar E ao teu lado para te guiar Pelos terrores abatido! E pela seta ferido! Eu tão meigo, com carinho lá do mundo te busquei E te trouxe para Minha lei! Se entrares na batalha Eu contigo lutarei! Se pisares nos espinhos Eu contigo pisarei! Não te deixo, ó meu filho Seja onde quer que andar E ao teu lado para te guiar [2x]    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felicidade é ter Cristo ao meu lado E por Ele ser lavado e meu nome escrito no céu Meu nome está escrito nas mãos de meu Jesus Quando morreu naquela cruz e assim mui feliz sou eu! Felicidade é possuir o meu Jesus E todo dia levar a cruz até o dia que Ele voltar! Felicidade é ser lavado no sangue de Jesus E sempre andar em Sua luz até o dia que Ele voltar! Felicidade é morar numa cidade Onde há paz e verdade, é Jesus que mora lá! Eu sou feliz, em Jesus eu tenho algo E por Ele já sou salvo, Ele pode me guardar! Felicidade é possuir o meu Jesus E todo dia levar a cruz até o dia que Ele voltar! Felicidade é ser lavado no sangue de Jesus E sempre andar em Sua luz até o dia que Ele voltar!      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sopra como um vento Queima como fogo Flua como rio Espírito Santo! Suba como incenso Minha adoração Vou me derramar Espírito Santo! Faça queimar Teu fogo! Faça fluir Teu rio! Nesse lugar, Espírito Santo! [2x] Eu navegarei no oceano do Espírito E ali adorarei, ao Deus do meu amor! Eu adorarei, ao Deus da minha vida Que me compreendeu, sem nenhuma explicação! Espírito! Espírito! Que desce como fogo! Vem como em pentecostes e enche-me de novo! [2x] Faça queimar Teu fogo! Faça fluir Teu rio! Nesse lugar, Espírito Santo! [2x]    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eu aqui no mundo não tenho riquezas, Mas sei que na glória eu terei mansão Com minh’alma triste em meio à pobreza, De mim Jesus Cristo teve compaixão. Muito além do sol, Muito além do sol Está o meu lar, Um belo lugar, Muito além do sol [2x] Sempre pelo mundo eu vou caminhando Enfrentando lutas, provas e tentação Mas Jesus, meu Mestre, que me fortalece Vai levar-me a salvo à real mansão! Muito além do sol, Muito além do sol Está o meu lar, Um belo lugar, Muito além do sol [2x] Vinde, vós, cansados deste mundo escuro, Cristo vos concede plena salvação E também morada, feita não por homens Quer oferecer-vos na eterna Sião. Muito além do sol, Muito além do sol Está o meu lar, Um belo lugar, Muito além do sol [2x]    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dois discípulos no caminho de Emaús Iam falando a respeito de Jesus Um viajante deles se aproximou, Não perceberam que era o meigo Salvador! Fica conosco nosso Amado e bom Jesus! Fica conosco pelo Seu imenso amor Como os discípulos Te pediram no caminho de Emaús Fica conosco nosso Amado e bom Jesus! Eles falavam a respeito de Jesus, Varão Profeta que foi poderoso em obras Diante de Deus e todo povo, aleluia! Esse Jesus ainda hoje nos conduz! Fica conosco nosso Amado e bom Jesus! Fica conosco pelo Seu imenso amor Como os discípulos Te pediram no caminho de Emaús Fica conosco nosso Amado e bom Jesus! Estando a mesa tomando o pão o abençoou, Partiu e deu-lhes e eles então reconheceram Cheios de gozo em ver o Filho de Deus, No mesmo instante Ele desapareceu Fica conosco nosso Amado e bom Jesus! Fica conosco pelo Seu imenso amor Como os discípulos Te pediram no caminho de Emaús Fica conosco nosso Amado e bom Jesus!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBS: Versão para ser usada com a Orquestra Ao chegar ao rio, a jornada findar, A distância esta vida ficar. Haverá um amigo para me guiar, O Jordão eu não passarei só! O Jordão eu não passarei só, Jesus Cristo é meu guia eficaz. Quando as trevas eu ver, virá me socorrer O Jordão eu não passarei só! Muitas vezes cansado e triste aqui, Parece amigos não ter Mas um pensamento alegria me dá, O Jordão eu não passarei só! O Jordão eu não passarei só, Jesus Cristo é meu guia eficaz. Quando as trevas eu ver, virá me socorrer O Jordão eu não passarei só!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ah! Se meu povo me escutasse e me servisse com integridade Eu abriria as janelas do céu e lhe daria o trigo mais fino Ah! Se meu povo que me adora Me adorasse acima de tudo Com o mel puro da rocha o sustentaria A palavra de Deus é fiel e jamais ela volta vazia! Se eu honrar e bendizer, ao meu Senhor obedecer Eu comerei o melhor desta terra! [2x] Ah! Se meu povo me escutasse e me servisse com integridade Eu abriria as janelas do céuE lhe daria o trigo mais fino Ah! Se meu povo que me adora Me adorasse acima de tudo Com o mel puro da rocha o sustentaria A palavra de Deus é fiel e jamais ela volta vazia! Se eu honrar e bendizer, ao meu Senhor obedecer Eu comerei o melhor desta terra! [3x] Se eu honrar e bendizer, ao meu Senhor obedecer Eu comerei o melhor desta terra!     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande é o nosso gozo de sermos o povo por Deus escolhido Somos nação santa, Somos a eleita, Povo adquirido! Somos sal da terra, somos luz do mundo, a bíblia é quem diz Somos de outra parte, de um outro planeta, de outro país... Este é o motivo da nossa alegria! Este é o motivo da nossa emoção! E se não bastasse do céu nós ainda somos cidadãos! Éramos perdidos, Jesus nos achou! Na cruz nos comprou com Seu sangue puro Por esta razão é que ser cristão é motivo de orgulho! Em todo lugar onde a Noiva está, Deus está presente! Não nos ignore, Não somos melhores, Somos diferentes! Contra principados, Contra potestades é a nossa guerra Somos conhecidos por sermos o povo mais feliz da terra! Este é o motivo da nossa alegria! Este é o motivo da nossa emoção! E se não bastasse do céu nós ainda somos cidadãos! Éramos perdidos, Jesus nos achou! Na cruz nos comprou com Seu sangue puro Por esta razão é que ser cristão é motivo de orgulho! [2x]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a presença de Deus em mim que fez eu deixar este mundo pra Lhe servir! É a presença de Deus em mim que me tornou o homem mais feliz! É Tua presença que faz o caído levantar! Que faz o homem o pecado deixar! Que faz o fraco ficar forte! É tua presença que põe o medo no inimigo! Que faz o fracassado invencível, que nos dá razão pra viver! É a presença de Deus em mim que me dá forças para prosseguir! Me faz chorar me faz sentir a Sua paz e o Seu amor em mim! É Tua presença que faz o caído levantar! Que faz o homem o pecado deixar! Que faz o fraco ficar forte! É tua presença que põe o medo no inimigo! Que faz o fracassado invencível, que nos dá razão pra viver! É tua presença que põe o medo no inimigo! Que faz o fracassado invencível, que nos dá razão pra viver! Que nos dá razão pra viver! Que nos dá razão pra viver!      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A minh’alma estava longe do caminho do céu, Eu era pobre e desprezível pecador! Mas Jesus transformou minhas trevas em luz! Quando Ele estendeu a Sua mão para mim! Quando Jesus estendeu a Sua mão... Quando Ele estendeu a Sua mão para mim! Eu era pobre e perdido! Sem Deus... Sem Jesus... Quando Ele estendeu a Sua mão para mim... Agora me regozijo desde que O aceitei! E na tempestade posso sossegar! Pois com Ele estou liberto do perigo e do mal, Quando Ele estendeu a Sua mão para mim! Quando Jesus estendeu a Sua mão... Quando Ele estendeu a Sua mão para mim! Eu era pobre e perdido! Sem Deus... Sem Jesus... Quando Ele estendeu a Sua mão para mim... [2x] Eu era pobre e perdido! Sem Deus... Sem Jesus... Quando Ele estendeu a Sua mão para mim...     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deixou o esplendor de Sua glória Para vir a este mundo aqui Estava só e ferido no Gólgota Para dar Sua vida por mim Se isto não for amor o Céu não é real! Não há estrelas no céu! As andorinhas não voam mais! Se isto não for amor o oceano secou! Tudo perde o valor se isto não for amor! Mesmo na morte lembrou-se De um ladrão que a Seu lado estava Com amor e ternura falou-lhe Ao paraíso comigo irás! Se isto não for amor o Céu não é real! Não há estrelas no céu! As andorinhas não voam mais! Se isto não for amor o oceano secou! Tudo perde o valor se isto não for amor! [2x]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao passar o Jordão dessa vida A vitória teremos de Deus Entraremos em terra prometida Glória e honra pertence a Deus! Aleluia seja Deus louvado No céu, na terra e no mar; Entraremos em terra prometida Ao Egito onde não voltarei Minha vida era triste e vazia Eu não tinha a consolação De repente encontrei o auxílio De Jesus que estendeu Sua mão Aleluia seja Deus louvado No céu, na terra e no mar; Entraremos em terra prometida Ao Egito onde não voltarei      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando Cristo expirou a minha vida transformou Meus pecados sobre a cruz então levou Eu não me canso de contar as maravilhas que operou! Vou dizendo Jesus Cristo é o Senhor! E toda vez que eu glorifico nos céus anjos dizem: “Amém!” E se eu morro Vou com Cristo pro além! O homem sofre porque quer, Jesus dá força, tenha fé! Ninguém pode dizer sou, Só Ele É! Tem tanta gente a morrer, morrendo sem poder viver! Desprezaram o chamado de amor... Um dia vão ter que dobrar os seus joelhos e falar, Confessando Jesus Cristo É o Senhor! E depois envergonhados eternamente vão sofrer! Enquanto os salvos triunfantes vão viver! Ainda é tempo, venha já! Venha correndo pra essa luz! Venha agora aos braços do Senhor Jesus! E toda vez que eu glorifico nos céus anjos dizem: “Amém!” E se eu morro Vou com Cristo pro além! O homem sofre porque quer, Jesus dá força tenha fé! Ninguém pode dizer sou, Só Ele É! O homem sofre porque quer, Jesus dá força tenha fé! Ninguém pode dizer sou, Só Ele É!    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Há muitos feridos, choram de angústia e de dor... Clamam por proteção e por paz... Amigos que sofrem, sua necessidade atende hoje! Não deixe o soldado ferido morrer... Verta o bálsamo que a ferida sarará! Protege-o com Teu manto de amor...! O pão partiremos sim! Descanso lhes dará! E toda angústia sairá! Não deixes fiéis soldados feridos morrer... Seguindo Sua ordem, lutaram na frente para o Rei, E o forte inimigo puderam vencer...! Mas por este esforço, satã intentou suas vidas matar! Não deixe um soldado ferido morrer... Verta o bálsamo que a ferida sarará! Protege-o com Teu manto de amor...! O pão partiremos sim! Descanso lhes dará! E toda angústia sairá! Não deixes fieis soldados feridos morrer... Não podes olhar sem socorrer! O amor é mais forte e faz viver! Não podes deixar um soldado ferido morrer...     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01. Vamos nós trabalhar, somos servos de Deus, Com o Mestre seguir o caminho dos céus; Com o Seu bom conselho o vigor renovar E fazer prontamente o que Cristo mandar 02. Vamos nós trabalhar, os famintos fartar; Para a fonte os sedentos depressa levar; Só na cruz do Senhor nossa glória será, Pois Jesus salvação pela graça nos dá! 03. Vamos nós trabalhar para Cristo, o Senhor; Contra o reino das trevas será vencedor, Ele, então, para sempre exaltado será, Pois real salvação pela graça nos dá. 04. Vamos nós trabalhar, ajudados por Deus, Que coroa real nos dará lá nos céus; Na mansão dos fiéis o descanso será, Pois Jesus salvação pela graça nos dá!   </t>
+  </si>
+  <si>
+    <t>Tu És Santo! Poderoso Tu És Digno De adoração Eu Te sigo Eu Te ouço Para sempre Te amarei! Ele é o meu Senhor Ele é o Rei dos reis Ele é o Pai de amor Poderoso Deus! É o Emanuel  É o Grande Eu Sou Ele É o Cordeiro que me salvou! Ele Vivo Está Ele ressurgiu! Sempre reinará Ele sempre existiu! Ele é o Alfa, o Ômega Início e Fim! Salvador e Messias Amigo pra mim! E eu canto E louvo Ao Rei que É Digno! Eu O amo E adoro Diante d’Ele eu Me prostro E eu canto E louvo Ao Rei que É Digno! Eu O amo E adoro Diante d’Ele eu Me prostro Todos: Príncipe da Paz! Só por Ele eu viverei! Príncipe da Paz! Só por Ele eu viverei! Ele é o meu Senhor, Ele é o Rei dos reis Ele é o Pai de amor, Poderoso Deus! É o Emanuel, É o Grande Eu Sou Ele é o Cordeiro, Que me salvou! Ele Vivo Está, Ele ressurgiu! Sempre reinará, Ele sempre existiu! Ele é o Alfa, o Ômega Início e Fim! Salvador e Messias Amigo pra mim! Príncipe da Paz! Só por Ele eu viverei! (2x) Oh... Oh... Oh.... (4x)</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -59375,13 +60851,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEC4970-1C25-417B-942E-AB4F1EC9EEFB}">
   <dimension ref="A1:E492"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C494" sqref="C494"/>
+    <sheetView topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="A394" sqref="A394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="78.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -59401,7 +60878,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -59413,6 +60890,9 @@
       </c>
       <c r="D2">
         <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3869</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -59428,6 +60908,9 @@
       <c r="D3">
         <v>19</v>
       </c>
+      <c r="E3" t="s">
+        <v>3870</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -59442,6 +60925,9 @@
       <c r="D4">
         <v>20</v>
       </c>
+      <c r="E4" t="s">
+        <v>3871</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -59455,6 +60941,9 @@
       </c>
       <c r="D5">
         <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3872</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -59470,6 +60959,9 @@
       <c r="D6">
         <v>22</v>
       </c>
+      <c r="E6" t="s">
+        <v>3873</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -59483,6 +60975,9 @@
       </c>
       <c r="D7">
         <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3874</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -59498,6 +60993,9 @@
       <c r="D8">
         <v>24</v>
       </c>
+      <c r="E8" t="s">
+        <v>3875</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -59512,6 +61010,9 @@
       <c r="D9">
         <v>25</v>
       </c>
+      <c r="E9" t="s">
+        <v>3876</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -59526,6 +61027,9 @@
       <c r="D10">
         <v>26</v>
       </c>
+      <c r="E10" t="s">
+        <v>3877</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -59540,6 +61044,9 @@
       <c r="D11">
         <v>27</v>
       </c>
+      <c r="E11" t="s">
+        <v>3878</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -59554,6 +61061,9 @@
       <c r="D12">
         <v>29</v>
       </c>
+      <c r="E12" t="s">
+        <v>3879</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -59568,6 +61078,9 @@
       <c r="D13">
         <v>30</v>
       </c>
+      <c r="E13" t="s">
+        <v>3880</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -59582,6 +61095,9 @@
       <c r="D14">
         <v>31</v>
       </c>
+      <c r="E14" t="s">
+        <v>3881</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -59596,6 +61112,9 @@
       <c r="D15">
         <v>32</v>
       </c>
+      <c r="E15" t="s">
+        <v>3882</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -59610,8 +61129,11 @@
       <c r="D16">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>3883</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -59624,8 +61146,11 @@
       <c r="D17">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -59638,8 +61163,11 @@
       <c r="D18">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -59652,8 +61180,11 @@
       <c r="D19">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -59666,8 +61197,11 @@
       <c r="D20">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -59680,8 +61214,11 @@
       <c r="D21">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -59694,8 +61231,11 @@
       <c r="D22">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>3889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -59708,8 +61248,11 @@
       <c r="D23">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -59722,8 +61265,11 @@
       <c r="D24">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -59736,8 +61282,11 @@
       <c r="D25">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -59750,8 +61299,11 @@
       <c r="D26">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -59764,8 +61316,11 @@
       <c r="D27">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -59778,8 +61333,11 @@
       <c r="D28">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -59792,8 +61350,11 @@
       <c r="D29">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -59806,8 +61367,11 @@
       <c r="D30">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -59820,8 +61384,11 @@
       <c r="D31">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -59834,8 +61401,11 @@
       <c r="D32">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -59848,8 +61418,11 @@
       <c r="D33">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -59862,8 +61435,11 @@
       <c r="D34">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -59876,8 +61452,11 @@
       <c r="D35">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -59890,8 +61469,11 @@
       <c r="D36">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -59904,8 +61486,11 @@
       <c r="D37">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -59918,8 +61503,11 @@
       <c r="D38">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -59932,8 +61520,11 @@
       <c r="D39">
         <v>57</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -59946,8 +61537,11 @@
       <c r="D40">
         <v>58</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -59960,8 +61554,11 @@
       <c r="D41">
         <v>59</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -59974,8 +61571,11 @@
       <c r="D42">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -59988,8 +61588,11 @@
       <c r="D43">
         <v>61</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -60002,8 +61605,11 @@
       <c r="D44">
         <v>62</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -60016,8 +61622,11 @@
       <c r="D45">
         <v>63</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -60030,8 +61639,11 @@
       <c r="D46">
         <v>64</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -60044,8 +61656,11 @@
       <c r="D47">
         <v>66</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -60058,8 +61673,11 @@
       <c r="D48">
         <v>67</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -60072,8 +61690,11 @@
       <c r="D49">
         <v>68</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -60086,8 +61707,11 @@
       <c r="D50">
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -60100,8 +61724,11 @@
       <c r="D51">
         <v>70</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -60114,8 +61741,11 @@
       <c r="D52">
         <v>71</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -60128,8 +61758,11 @@
       <c r="D53">
         <v>72</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -60142,8 +61775,11 @@
       <c r="D54">
         <v>73</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -60156,8 +61792,11 @@
       <c r="D55">
         <v>74</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -60170,8 +61809,11 @@
       <c r="D56">
         <v>75</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -60184,8 +61826,11 @@
       <c r="D57">
         <v>76</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -60198,8 +61843,11 @@
       <c r="D58">
         <v>77</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -60212,8 +61860,11 @@
       <c r="D59">
         <v>78</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -60226,8 +61877,11 @@
       <c r="D60">
         <v>79</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -60240,8 +61894,11 @@
       <c r="D61">
         <v>80</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -60254,8 +61911,11 @@
       <c r="D62">
         <v>81</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -60268,8 +61928,11 @@
       <c r="D63">
         <v>82</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -60282,8 +61945,11 @@
       <c r="D64">
         <v>83</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -60296,8 +61962,11 @@
       <c r="D65">
         <v>84</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -60310,8 +61979,11 @@
       <c r="D66">
         <v>85</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -60324,8 +61996,11 @@
       <c r="D67">
         <v>86</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -60338,8 +62013,11 @@
       <c r="D68">
         <v>87</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -60352,8 +62030,11 @@
       <c r="D69">
         <v>88</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -60366,8 +62047,11 @@
       <c r="D70">
         <v>89</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -60380,8 +62064,11 @@
       <c r="D71">
         <v>90</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -60394,8 +62081,11 @@
       <c r="D72">
         <v>91</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -60408,8 +62098,11 @@
       <c r="D73">
         <v>92</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -60422,8 +62115,11 @@
       <c r="D74">
         <v>93</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -60436,8 +62132,11 @@
       <c r="D75">
         <v>94</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -60450,8 +62149,11 @@
       <c r="D76">
         <v>95</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -60464,8 +62166,11 @@
       <c r="D77">
         <v>96</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -60478,8 +62183,11 @@
       <c r="D78">
         <v>97</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -60492,8 +62200,11 @@
       <c r="D79">
         <v>98</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -60506,8 +62217,11 @@
       <c r="D80">
         <v>99</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -60520,8 +62234,11 @@
       <c r="D81">
         <v>100</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -60534,8 +62251,11 @@
       <c r="D82">
         <v>101</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -60548,8 +62268,11 @@
       <c r="D83">
         <v>102</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -60562,8 +62285,11 @@
       <c r="D84">
         <v>103</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -60576,8 +62302,11 @@
       <c r="D85">
         <v>104</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>3951</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -60590,8 +62319,11 @@
       <c r="D86">
         <v>105</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -60604,8 +62336,11 @@
       <c r="D87">
         <v>106</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -60618,8 +62353,11 @@
       <c r="D88">
         <v>107</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -60632,8 +62370,11 @@
       <c r="D89">
         <v>108</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -60646,8 +62387,11 @@
       <c r="D90">
         <v>109</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -60660,8 +62404,11 @@
       <c r="D91">
         <v>110</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -60674,8 +62421,11 @@
       <c r="D92">
         <v>111</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -60688,8 +62438,11 @@
       <c r="D93">
         <v>112</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -60702,8 +62455,11 @@
       <c r="D94">
         <v>113</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -60716,8 +62472,11 @@
       <c r="D95">
         <v>114</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -60730,8 +62489,11 @@
       <c r="D96">
         <v>115</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -60744,8 +62506,11 @@
       <c r="D97">
         <v>116</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -60758,8 +62523,11 @@
       <c r="D98">
         <v>117</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -60772,8 +62540,11 @@
       <c r="D99">
         <v>118</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -60786,8 +62557,11 @@
       <c r="D100">
         <v>119</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -60800,8 +62574,11 @@
       <c r="D101">
         <v>120</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -60814,8 +62591,11 @@
       <c r="D102">
         <v>121</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -60828,8 +62608,11 @@
       <c r="D103">
         <v>122</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -60842,8 +62625,11 @@
       <c r="D104">
         <v>123</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -60856,8 +62642,11 @@
       <c r="D105">
         <v>124</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -60870,8 +62659,11 @@
       <c r="D106">
         <v>125</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -60884,8 +62676,11 @@
       <c r="D107">
         <v>126</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -60898,8 +62693,11 @@
       <c r="D108">
         <v>127</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -60912,8 +62710,11 @@
       <c r="D109">
         <v>128</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -60926,8 +62727,11 @@
       <c r="D110">
         <v>129</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -60940,8 +62744,11 @@
       <c r="D111">
         <v>130</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -60954,8 +62761,11 @@
       <c r="D112">
         <v>131</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>3977</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -60968,8 +62778,11 @@
       <c r="D113">
         <v>132</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -60982,8 +62795,11 @@
       <c r="D114">
         <v>133</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -60996,8 +62812,11 @@
       <c r="D115">
         <v>134</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -61010,8 +62829,11 @@
       <c r="D116">
         <v>135</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -61024,8 +62846,11 @@
       <c r="D117">
         <v>136</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -61038,8 +62863,11 @@
       <c r="D118">
         <v>137</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -61052,8 +62880,11 @@
       <c r="D119">
         <v>138</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -61066,8 +62897,11 @@
       <c r="D120">
         <v>139</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -61080,8 +62914,11 @@
       <c r="D121">
         <v>140</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -61094,8 +62931,11 @@
       <c r="D122">
         <v>141</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -61108,8 +62948,11 @@
       <c r="D123">
         <v>142</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -61122,8 +62965,11 @@
       <c r="D124">
         <v>143</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -61136,8 +62982,11 @@
       <c r="D125">
         <v>144</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -61150,8 +62999,11 @@
       <c r="D126">
         <v>145</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -61164,8 +63016,11 @@
       <c r="D127">
         <v>146</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -61178,8 +63033,11 @@
       <c r="D128">
         <v>147</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -61192,8 +63050,11 @@
       <c r="D129">
         <v>148</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -61206,8 +63067,11 @@
       <c r="D130">
         <v>149</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -61220,8 +63084,11 @@
       <c r="D131">
         <v>150</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -61234,8 +63101,11 @@
       <c r="D132">
         <v>151</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -61248,8 +63118,11 @@
       <c r="D133">
         <v>152</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -61262,8 +63135,11 @@
       <c r="D134">
         <v>153</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -61276,8 +63152,11 @@
       <c r="D135">
         <v>154</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -61290,8 +63169,11 @@
       <c r="D136">
         <v>155</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -61304,8 +63186,11 @@
       <c r="D137">
         <v>156</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -61318,8 +63203,11 @@
       <c r="D138">
         <v>157</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -61332,8 +63220,11 @@
       <c r="D139">
         <v>158</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -61346,8 +63237,11 @@
       <c r="D140">
         <v>159</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -61360,8 +63254,11 @@
       <c r="D141">
         <v>160</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -61374,8 +63271,11 @@
       <c r="D142">
         <v>161</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -61388,8 +63288,11 @@
       <c r="D143">
         <v>162</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -61402,8 +63305,11 @@
       <c r="D144">
         <v>163</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -61416,8 +63322,11 @@
       <c r="D145">
         <v>164</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -61430,8 +63339,11 @@
       <c r="D146">
         <v>165</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -61444,8 +63356,11 @@
       <c r="D147">
         <v>166</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -61458,8 +63373,11 @@
       <c r="D148">
         <v>167</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -61472,8 +63390,11 @@
       <c r="D149">
         <v>168</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -61486,8 +63407,11 @@
       <c r="D150">
         <v>169</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -61500,8 +63424,11 @@
       <c r="D151">
         <v>170</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -61514,8 +63441,11 @@
       <c r="D152">
         <v>171</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -61528,8 +63458,11 @@
       <c r="D153">
         <v>172</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -61542,8 +63475,11 @@
       <c r="D154">
         <v>173</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -61556,8 +63492,11 @@
       <c r="D155">
         <v>174</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -61570,8 +63509,11 @@
       <c r="D156">
         <v>175</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -61584,8 +63526,11 @@
       <c r="D157">
         <v>176</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -61598,8 +63543,11 @@
       <c r="D158">
         <v>177</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -61612,8 +63560,11 @@
       <c r="D159">
         <v>178</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" t="s">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -61626,8 +63577,11 @@
       <c r="D160">
         <v>179</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" t="s">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -61640,8 +63594,11 @@
       <c r="D161">
         <v>180</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -61654,8 +63611,11 @@
       <c r="D162">
         <v>181</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" t="s">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -61668,8 +63628,11 @@
       <c r="D163">
         <v>182</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" t="s">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -61682,8 +63645,11 @@
       <c r="D164">
         <v>183</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" t="s">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -61696,8 +63662,11 @@
       <c r="D165">
         <v>184</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -61710,8 +63679,11 @@
       <c r="D166">
         <v>185</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -61724,8 +63696,11 @@
       <c r="D167">
         <v>186</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -61738,8 +63713,11 @@
       <c r="D168">
         <v>187</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -61752,8 +63730,11 @@
       <c r="D169">
         <v>188</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -61766,8 +63747,11 @@
       <c r="D170">
         <v>189</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -61780,8 +63764,11 @@
       <c r="D171">
         <v>190</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -61794,8 +63781,11 @@
       <c r="D172">
         <v>191</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -61808,8 +63798,11 @@
       <c r="D173">
         <v>193</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -61822,8 +63815,11 @@
       <c r="D174">
         <v>194</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -61836,8 +63832,11 @@
       <c r="D175">
         <v>195</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" t="s">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -61850,8 +63849,11 @@
       <c r="D176">
         <v>196</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" t="s">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -61864,8 +63866,11 @@
       <c r="D177">
         <v>197</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -61878,8 +63883,11 @@
       <c r="D178">
         <v>198</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -61892,8 +63900,11 @@
       <c r="D179">
         <v>199</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" t="s">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -61906,8 +63917,11 @@
       <c r="D180">
         <v>200</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -61920,8 +63934,11 @@
       <c r="D181">
         <v>201</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -61934,8 +63951,11 @@
       <c r="D182">
         <v>202</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" t="s">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -61948,8 +63968,11 @@
       <c r="D183">
         <v>203</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" t="s">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -61962,8 +63985,11 @@
       <c r="D184">
         <v>204</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -61976,8 +64002,11 @@
       <c r="D185">
         <v>205</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" t="s">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -61990,8 +64019,11 @@
       <c r="D186">
         <v>206</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -62004,8 +64036,11 @@
       <c r="D187">
         <v>207</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -62018,8 +64053,11 @@
       <c r="D188">
         <v>208</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -62032,8 +64070,11 @@
       <c r="D189">
         <v>209</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -62046,8 +64087,11 @@
       <c r="D190">
         <v>210</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -62060,8 +64104,11 @@
       <c r="D191">
         <v>211</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -62074,8 +64121,11 @@
       <c r="D192">
         <v>212</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -62088,8 +64138,11 @@
       <c r="D193">
         <v>213</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -62102,8 +64155,11 @@
       <c r="D194">
         <v>214</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" t="s">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -62116,8 +64172,11 @@
       <c r="D195">
         <v>215</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -62130,8 +64189,11 @@
       <c r="D196">
         <v>216</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -62144,8 +64206,11 @@
       <c r="D197">
         <v>217</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -62158,8 +64223,11 @@
       <c r="D198">
         <v>218</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -62172,8 +64240,11 @@
       <c r="D199">
         <v>219</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -62186,8 +64257,11 @@
       <c r="D200">
         <v>220</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -62200,8 +64274,11 @@
       <c r="D201">
         <v>221</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -62214,8 +64291,11 @@
       <c r="D202">
         <v>222</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -62228,8 +64308,11 @@
       <c r="D203">
         <v>223</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -62242,8 +64325,11 @@
       <c r="D204">
         <v>224</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -62256,8 +64342,11 @@
       <c r="D205">
         <v>225</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -62270,8 +64359,11 @@
       <c r="D206">
         <v>226</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -62284,8 +64376,11 @@
       <c r="D207">
         <v>227</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -62298,8 +64393,11 @@
       <c r="D208">
         <v>228</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -62312,8 +64410,11 @@
       <c r="D209">
         <v>229</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -62326,8 +64427,11 @@
       <c r="D210">
         <v>230</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -62340,8 +64444,11 @@
       <c r="D211">
         <v>231</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -62354,8 +64461,11 @@
       <c r="D212">
         <v>232</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -62368,8 +64478,11 @@
       <c r="D213">
         <v>233</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -62382,8 +64495,11 @@
       <c r="D214">
         <v>234</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -62396,8 +64512,11 @@
       <c r="D215">
         <v>235</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -62410,8 +64529,11 @@
       <c r="D216">
         <v>236</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -62424,8 +64546,11 @@
       <c r="D217">
         <v>237</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -62438,8 +64563,11 @@
       <c r="D218">
         <v>238</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" t="s">
+        <v>4083</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -62452,8 +64580,11 @@
       <c r="D219">
         <v>239</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -62466,8 +64597,11 @@
       <c r="D220">
         <v>240</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" t="s">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -62480,8 +64614,11 @@
       <c r="D221">
         <v>241</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" t="s">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -62494,8 +64631,11 @@
       <c r="D222">
         <v>242</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" t="s">
+        <v>4087</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -62508,8 +64648,11 @@
       <c r="D223">
         <v>243</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" t="s">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -62522,8 +64665,11 @@
       <c r="D224">
         <v>244</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" t="s">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -62536,8 +64682,11 @@
       <c r="D225">
         <v>245</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" t="s">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -62550,8 +64699,11 @@
       <c r="D226">
         <v>246</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" t="s">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -62564,8 +64716,11 @@
       <c r="D227">
         <v>247</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" t="s">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -62578,8 +64733,11 @@
       <c r="D228">
         <v>248</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -62592,8 +64750,11 @@
       <c r="D229">
         <v>249</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -62606,8 +64767,11 @@
       <c r="D230">
         <v>250</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" t="s">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -62620,8 +64784,11 @@
       <c r="D231">
         <v>251</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" t="s">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -62634,8 +64801,11 @@
       <c r="D232">
         <v>252</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" t="s">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -62648,8 +64818,11 @@
       <c r="D233">
         <v>253</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" t="s">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -62662,8 +64835,11 @@
       <c r="D234">
         <v>254</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -62676,8 +64852,11 @@
       <c r="D235">
         <v>255</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" t="s">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -62690,8 +64869,11 @@
       <c r="D236">
         <v>256</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -62704,8 +64886,11 @@
       <c r="D237">
         <v>257</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" t="s">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -62718,8 +64903,11 @@
       <c r="D238">
         <v>258</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" t="s">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -62732,8 +64920,11 @@
       <c r="D239">
         <v>260</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -62746,8 +64937,11 @@
       <c r="D240">
         <v>261</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" t="s">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -62760,8 +64954,11 @@
       <c r="D241">
         <v>263</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" t="s">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -62774,8 +64971,11 @@
       <c r="D242">
         <v>264</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" t="s">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -62788,8 +64988,11 @@
       <c r="D243">
         <v>265</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" t="s">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -62802,8 +65005,11 @@
       <c r="D244">
         <v>266</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -62816,8 +65022,11 @@
       <c r="D245">
         <v>268</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" t="s">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -62830,8 +65039,11 @@
       <c r="D246">
         <v>269</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" t="s">
+        <v>3861</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -62844,8 +65056,11 @@
       <c r="D247">
         <v>270</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" t="s">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -62858,8 +65073,11 @@
       <c r="D248">
         <v>271</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" t="s">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -62872,8 +65090,11 @@
       <c r="D249">
         <v>272</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" t="s">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -62886,8 +65107,11 @@
       <c r="D250">
         <v>274</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" t="s">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -62900,8 +65124,11 @@
       <c r="D251">
         <v>275</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" t="s">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -62914,8 +65141,11 @@
       <c r="D252">
         <v>276</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" t="s">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -62928,8 +65158,11 @@
       <c r="D253">
         <v>277</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" t="s">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -62942,8 +65175,11 @@
       <c r="D254">
         <v>278</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" t="s">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -62956,8 +65192,11 @@
       <c r="D255">
         <v>279</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" t="s">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -62970,8 +65209,11 @@
       <c r="D256">
         <v>280</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" t="s">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -62984,8 +65226,11 @@
       <c r="D257">
         <v>281</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" t="s">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -62998,8 +65243,11 @@
       <c r="D258">
         <v>282</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" t="s">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -63012,8 +65260,11 @@
       <c r="D259">
         <v>283</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" t="s">
+        <v>4122</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -63026,8 +65277,11 @@
       <c r="D260">
         <v>284</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" t="s">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -63040,8 +65294,11 @@
       <c r="D261">
         <v>285</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -63054,8 +65311,11 @@
       <c r="D262">
         <v>287</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -63068,8 +65328,11 @@
       <c r="D263">
         <v>288</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" t="s">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -63082,8 +65345,11 @@
       <c r="D264">
         <v>289</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" t="s">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -63096,8 +65362,11 @@
       <c r="D265">
         <v>290</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" t="s">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -63110,8 +65379,11 @@
       <c r="D266">
         <v>291</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" t="s">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -63124,8 +65396,11 @@
       <c r="D267">
         <v>292</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" t="s">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -63138,8 +65413,11 @@
       <c r="D268">
         <v>293</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" t="s">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -63152,8 +65430,11 @@
       <c r="D269">
         <v>295</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" t="s">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -63166,8 +65447,11 @@
       <c r="D270">
         <v>296</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -63180,8 +65464,11 @@
       <c r="D271">
         <v>297</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271" t="s">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -63194,8 +65481,11 @@
       <c r="D272">
         <v>298</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -63208,8 +65498,11 @@
       <c r="D273">
         <v>299</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273" t="s">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -63222,8 +65515,11 @@
       <c r="D274">
         <v>300</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -63236,8 +65532,11 @@
       <c r="D275">
         <v>301</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275" t="s">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -63250,8 +65549,11 @@
       <c r="D276">
         <v>302</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -63264,8 +65566,11 @@
       <c r="D277">
         <v>303</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -63278,8 +65583,11 @@
       <c r="D278">
         <v>304</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278" t="s">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -63292,8 +65600,11 @@
       <c r="D279">
         <v>305</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279" t="s">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -63306,8 +65617,11 @@
       <c r="D280">
         <v>306</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -63320,8 +65634,11 @@
       <c r="D281">
         <v>307</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281" t="s">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -63334,8 +65651,11 @@
       <c r="D282">
         <v>308</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282" t="s">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -63348,8 +65668,11 @@
       <c r="D283">
         <v>310</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" t="s">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -63362,8 +65685,11 @@
       <c r="D284">
         <v>312</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" t="s">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -63376,8 +65702,11 @@
       <c r="D285">
         <v>313</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -63390,8 +65719,11 @@
       <c r="D286">
         <v>314</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286" t="s">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -63404,8 +65736,11 @@
       <c r="D287">
         <v>315</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287" t="s">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -63418,8 +65753,11 @@
       <c r="D288">
         <v>316</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" t="s">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -63432,8 +65770,11 @@
       <c r="D289">
         <v>317</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" t="s">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -63446,8 +65787,11 @@
       <c r="D290">
         <v>318</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" t="s">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -63460,8 +65804,11 @@
       <c r="D291">
         <v>319</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" t="s">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -63474,8 +65821,11 @@
       <c r="D292">
         <v>320</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" t="s">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -63488,8 +65838,11 @@
       <c r="D293">
         <v>321</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -63502,8 +65855,11 @@
       <c r="D294">
         <v>322</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294" t="s">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -63516,8 +65872,11 @@
       <c r="D295">
         <v>323</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295" t="s">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -63530,8 +65889,11 @@
       <c r="D296">
         <v>324</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296" t="s">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -63544,8 +65906,11 @@
       <c r="D297">
         <v>325</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297" t="s">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -63558,8 +65923,11 @@
       <c r="D298">
         <v>326</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298" t="s">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -63572,8 +65940,11 @@
       <c r="D299">
         <v>327</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299" t="s">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -63586,8 +65957,11 @@
       <c r="D300">
         <v>328</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300" t="s">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -63600,8 +65974,11 @@
       <c r="D301">
         <v>329</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301" t="s">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -63614,8 +65991,11 @@
       <c r="D302">
         <v>330</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302" t="s">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -63628,8 +66008,11 @@
       <c r="D303">
         <v>331</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -63642,8 +66025,11 @@
       <c r="D304">
         <v>332</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304" t="s">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -63656,8 +66042,11 @@
       <c r="D305">
         <v>333</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305" t="s">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -63670,8 +66059,11 @@
       <c r="D306">
         <v>334</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -63684,8 +66076,11 @@
       <c r="D307">
         <v>335</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -63698,8 +66093,11 @@
       <c r="D308">
         <v>336</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308" t="s">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -63712,8 +66110,11 @@
       <c r="D309">
         <v>337</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -63726,8 +66127,11 @@
       <c r="D310">
         <v>338</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310" t="s">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -63740,8 +66144,11 @@
       <c r="D311">
         <v>339</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -63754,8 +66161,11 @@
       <c r="D312">
         <v>340</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312" t="s">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -63768,8 +66178,11 @@
       <c r="D313">
         <v>341</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313" t="s">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -63782,8 +66195,11 @@
       <c r="D314">
         <v>342</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314" t="s">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -63796,8 +66212,11 @@
       <c r="D315">
         <v>343</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -63810,8 +66229,11 @@
       <c r="D316">
         <v>344</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316" t="s">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -63824,8 +66246,11 @@
       <c r="D317">
         <v>345</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317" t="s">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -63838,8 +66263,11 @@
       <c r="D318">
         <v>346</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318" t="s">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -63852,8 +66280,11 @@
       <c r="D319">
         <v>347</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319" t="s">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -63866,8 +66297,11 @@
       <c r="D320">
         <v>348</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320" t="s">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -63880,8 +66314,11 @@
       <c r="D321">
         <v>349</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321" t="s">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -63894,8 +66331,11 @@
       <c r="D322">
         <v>350</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -63908,8 +66348,11 @@
       <c r="D323">
         <v>351</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323" t="s">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -63922,8 +66365,11 @@
       <c r="D324">
         <v>352</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324" t="s">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -63936,8 +66382,11 @@
       <c r="D325">
         <v>353</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325" t="s">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -63950,8 +66399,11 @@
       <c r="D326">
         <v>354</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326" t="s">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -63964,8 +66416,11 @@
       <c r="D327">
         <v>355</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327" t="s">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -63978,8 +66433,11 @@
       <c r="D328">
         <v>356</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -63992,8 +66450,11 @@
       <c r="D329">
         <v>357</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -64006,8 +66467,11 @@
       <c r="D330">
         <v>358</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330" t="s">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -64020,8 +66484,11 @@
       <c r="D331">
         <v>359</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331" t="s">
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -64034,8 +66501,11 @@
       <c r="D332">
         <v>360</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E332" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -64048,8 +66518,11 @@
       <c r="D333">
         <v>361</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E333" t="s">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -64062,8 +66535,11 @@
       <c r="D334">
         <v>362</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E334" t="s">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -64076,8 +66552,11 @@
       <c r="D335">
         <v>363</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E335" t="s">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -64090,8 +66569,11 @@
       <c r="D336">
         <v>364</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336" t="s">
+        <v>4198</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -64104,8 +66586,11 @@
       <c r="D337">
         <v>365</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -64118,8 +66603,11 @@
       <c r="D338">
         <v>366</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E338" t="s">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -64132,8 +66620,11 @@
       <c r="D339">
         <v>367</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E339" t="s">
+        <v>4201</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -64146,8 +66637,11 @@
       <c r="D340">
         <v>368</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E340" t="s">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -64160,8 +66654,11 @@
       <c r="D341">
         <v>369</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E341" t="s">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -64174,8 +66671,11 @@
       <c r="D342">
         <v>370</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E342" t="s">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -64188,8 +66688,11 @@
       <c r="D343">
         <v>371</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E343" t="s">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -64202,8 +66705,11 @@
       <c r="D344">
         <v>372</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E344" t="s">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -64216,8 +66722,11 @@
       <c r="D345">
         <v>373</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E345" t="s">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -64230,8 +66739,11 @@
       <c r="D346">
         <v>374</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E346" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -64244,8 +66756,11 @@
       <c r="D347">
         <v>375</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E347" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -64258,8 +66773,11 @@
       <c r="D348">
         <v>376</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E348" t="s">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -64272,8 +66790,11 @@
       <c r="D349">
         <v>377</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E349" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -64286,8 +66807,11 @@
       <c r="D350">
         <v>378</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E350" t="s">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -64300,8 +66824,11 @@
       <c r="D351">
         <v>379</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E351" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -64314,8 +66841,11 @@
       <c r="D352">
         <v>380</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352" t="s">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -64328,8 +66858,11 @@
       <c r="D353">
         <v>381</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E353" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -64342,8 +66875,11 @@
       <c r="D354">
         <v>382</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E354" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -64356,8 +66892,11 @@
       <c r="D355">
         <v>383</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E355" t="s">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -64370,8 +66909,11 @@
       <c r="D356">
         <v>384</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E356" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -64384,8 +66926,11 @@
       <c r="D357">
         <v>385</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E357" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -64398,8 +66943,11 @@
       <c r="D358">
         <v>386</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E358" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -64412,8 +66960,11 @@
       <c r="D359">
         <v>387</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E359" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -64426,8 +66977,11 @@
       <c r="D360">
         <v>388</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E360" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -64440,8 +66994,11 @@
       <c r="D361">
         <v>389</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E361" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -64454,8 +67011,11 @@
       <c r="D362">
         <v>390</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E362" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -64468,8 +67028,11 @@
       <c r="D363">
         <v>391</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E363" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -64482,8 +67045,11 @@
       <c r="D364">
         <v>393</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E364" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -64496,8 +67062,11 @@
       <c r="D365">
         <v>394</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E365" t="s">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -64510,8 +67079,11 @@
       <c r="D366">
         <v>395</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E366" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -64524,8 +67096,11 @@
       <c r="D367">
         <v>396</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E367" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -64538,8 +67113,11 @@
       <c r="D368">
         <v>397</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E368" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -64552,8 +67130,11 @@
       <c r="D369">
         <v>398</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E369" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -64566,8 +67147,11 @@
       <c r="D370">
         <v>399</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E370" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -64580,8 +67164,11 @@
       <c r="D371">
         <v>400</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E371" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -64594,8 +67181,11 @@
       <c r="D372">
         <v>401</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E372" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -64608,8 +67198,11 @@
       <c r="D373">
         <v>402</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E373" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -64622,8 +67215,11 @@
       <c r="D374">
         <v>403</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E374" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -64636,8 +67232,11 @@
       <c r="D375">
         <v>404</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E375" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -64650,8 +67249,11 @@
       <c r="D376">
         <v>405</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E376" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -64664,8 +67266,11 @@
       <c r="D377">
         <v>406</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E377" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -64678,8 +67283,11 @@
       <c r="D378">
         <v>407</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E378" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -64692,8 +67300,11 @@
       <c r="D379">
         <v>408</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E379" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -64706,8 +67317,11 @@
       <c r="D380">
         <v>409</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E380" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -64720,8 +67334,11 @@
       <c r="D381">
         <v>410</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E381" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -64734,8 +67351,11 @@
       <c r="D382">
         <v>411</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E382" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -64748,8 +67368,11 @@
       <c r="D383">
         <v>412</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E383" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -64762,8 +67385,11 @@
       <c r="D384">
         <v>413</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E384" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -64776,8 +67402,11 @@
       <c r="D385">
         <v>414</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E385" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -64790,8 +67419,11 @@
       <c r="D386">
         <v>415</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E386" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -64804,8 +67436,11 @@
       <c r="D387">
         <v>416</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E387" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -64818,8 +67453,11 @@
       <c r="D388">
         <v>417</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E388" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -64832,8 +67470,11 @@
       <c r="D389">
         <v>418</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E389" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -64846,8 +67487,11 @@
       <c r="D390">
         <v>419</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E390" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -64860,8 +67504,11 @@
       <c r="D391">
         <v>420</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E391" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -64874,8 +67521,11 @@
       <c r="D392">
         <v>421</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E392" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -64888,8 +67538,11 @@
       <c r="D393">
         <v>422</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E393" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -64902,8 +67555,11 @@
       <c r="D394">
         <v>423</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E394" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -64916,8 +67572,11 @@
       <c r="D395">
         <v>425</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E395" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -64930,8 +67589,11 @@
       <c r="D396">
         <v>426</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E396" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -64944,8 +67606,11 @@
       <c r="D397">
         <v>427</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E397" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -64958,8 +67623,11 @@
       <c r="D398">
         <v>428</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E398" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -64972,8 +67640,11 @@
       <c r="D399">
         <v>429</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E399" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -64986,8 +67657,11 @@
       <c r="D400">
         <v>430</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E400" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -65000,8 +67674,11 @@
       <c r="D401">
         <v>431</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E401" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -65014,8 +67691,11 @@
       <c r="D402">
         <v>432</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E402" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -65028,8 +67708,11 @@
       <c r="D403">
         <v>433</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E403" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -65042,8 +67725,11 @@
       <c r="D404">
         <v>434</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E404" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -65056,8 +67742,11 @@
       <c r="D405">
         <v>435</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E405" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -65070,8 +67759,11 @@
       <c r="D406">
         <v>436</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E406" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -65084,8 +67776,11 @@
       <c r="D407">
         <v>438</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E407" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -65098,8 +67793,11 @@
       <c r="D408">
         <v>439</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E408" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -65112,8 +67810,11 @@
       <c r="D409">
         <v>440</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E409" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -65126,8 +67827,11 @@
       <c r="D410">
         <v>441</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E410" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -65140,8 +67844,11 @@
       <c r="D411">
         <v>442</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E411" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -65154,8 +67861,11 @@
       <c r="D412">
         <v>443</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E412" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -65168,8 +67878,11 @@
       <c r="D413">
         <v>444</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E413" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -65182,8 +67895,11 @@
       <c r="D414">
         <v>445</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E414" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -65196,8 +67912,11 @@
       <c r="D415">
         <v>446</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E415" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -65210,8 +67929,11 @@
       <c r="D416">
         <v>447</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E416" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -65224,8 +67946,11 @@
       <c r="D417">
         <v>448</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E417" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -65238,8 +67963,11 @@
       <c r="D418">
         <v>449</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E418" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -65252,8 +67980,11 @@
       <c r="D419">
         <v>450</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E419" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -65266,8 +67997,11 @@
       <c r="D420">
         <v>451</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E420" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -65280,8 +68014,11 @@
       <c r="D421">
         <v>452</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E421" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -65294,8 +68031,11 @@
       <c r="D422">
         <v>453</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E422" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -65308,8 +68048,11 @@
       <c r="D423">
         <v>454</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E423" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -65322,8 +68065,11 @@
       <c r="D424">
         <v>455</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E424" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -65336,8 +68082,11 @@
       <c r="D425">
         <v>456</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E425" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -65350,8 +68099,11 @@
       <c r="D426">
         <v>457</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E426" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -65364,8 +68116,11 @@
       <c r="D427">
         <v>458</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E427" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -65378,8 +68133,11 @@
       <c r="D428">
         <v>460</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E428" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -65392,8 +68150,11 @@
       <c r="D429">
         <v>461</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E429" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -65406,8 +68167,11 @@
       <c r="D430">
         <v>462</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E430" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -65420,8 +68184,11 @@
       <c r="D431">
         <v>463</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E431" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -65434,8 +68201,11 @@
       <c r="D432">
         <v>464</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E432" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -65448,8 +68218,11 @@
       <c r="D433">
         <v>465</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E433" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -65462,8 +68235,11 @@
       <c r="D434">
         <v>466</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E434" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -65476,8 +68252,11 @@
       <c r="D435">
         <v>467</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E435" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -65490,8 +68269,11 @@
       <c r="D436">
         <v>469</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E436" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -65504,8 +68286,11 @@
       <c r="D437">
         <v>470</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E437" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -65518,8 +68303,11 @@
       <c r="D438">
         <v>471</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E438" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -65532,8 +68320,11 @@
       <c r="D439">
         <v>473</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E439" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -65546,8 +68337,11 @@
       <c r="D440">
         <v>474</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E440" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -65560,8 +68354,11 @@
       <c r="D441">
         <v>475</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E441" t="s">
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -65574,8 +68371,11 @@
       <c r="D442">
         <v>476</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E442" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -65588,8 +68388,11 @@
       <c r="D443">
         <v>477</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E443" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
@@ -65602,8 +68405,11 @@
       <c r="D444">
         <v>478</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E444" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -65616,8 +68422,11 @@
       <c r="D445">
         <v>479</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E445" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
@@ -65630,8 +68439,11 @@
       <c r="D446">
         <v>480</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E446" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -65644,8 +68456,11 @@
       <c r="D447">
         <v>481</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E447" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
@@ -65658,8 +68473,11 @@
       <c r="D448">
         <v>482</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E448" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
@@ -65672,8 +68490,11 @@
       <c r="D449">
         <v>483</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E449" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
@@ -65686,8 +68507,11 @@
       <c r="D450">
         <v>485</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E450" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
@@ -65700,8 +68524,11 @@
       <c r="D451">
         <v>487</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E451" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
@@ -65714,8 +68541,11 @@
       <c r="D452">
         <v>490</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E452" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
@@ -65728,8 +68558,11 @@
       <c r="D453">
         <v>493</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E453" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
@@ -65742,8 +68575,11 @@
       <c r="D454">
         <v>494</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E454" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
@@ -65756,8 +68592,11 @@
       <c r="D455">
         <v>495</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E455" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
@@ -65770,8 +68609,11 @@
       <c r="D456">
         <v>496</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E456" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
@@ -65784,8 +68626,11 @@
       <c r="D457">
         <v>497</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E457" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
@@ -65798,8 +68643,11 @@
       <c r="D458">
         <v>498</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E458" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
@@ -65812,8 +68660,11 @@
       <c r="D459">
         <v>499</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E459" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
@@ -65826,8 +68677,11 @@
       <c r="D460">
         <v>500</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E460" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
@@ -65840,8 +68694,11 @@
       <c r="D461">
         <v>501</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E461" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
@@ -65854,8 +68711,11 @@
       <c r="D462">
         <v>502</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E462" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
@@ -65868,8 +68728,11 @@
       <c r="D463">
         <v>503</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E463" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
@@ -65882,8 +68745,11 @@
       <c r="D464">
         <v>504</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E464" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
@@ -65896,8 +68762,11 @@
       <c r="D465">
         <v>505</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E465" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
@@ -65910,8 +68779,11 @@
       <c r="D466">
         <v>506</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E466" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
@@ -65924,8 +68796,11 @@
       <c r="D467">
         <v>507</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E467" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
@@ -65938,8 +68813,11 @@
       <c r="D468">
         <v>508</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E468" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
@@ -65952,8 +68830,11 @@
       <c r="D469">
         <v>509</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E469" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
@@ -65966,8 +68847,11 @@
       <c r="D470">
         <v>511</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E470" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
@@ -65980,8 +68864,11 @@
       <c r="D471">
         <v>512</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E471" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
@@ -65994,8 +68881,11 @@
       <c r="D472">
         <v>514</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E472" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
@@ -66008,8 +68898,11 @@
       <c r="D473">
         <v>515</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E473" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
@@ -66022,8 +68915,11 @@
       <c r="D474">
         <v>516</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E474" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
@@ -66036,8 +68932,11 @@
       <c r="D475">
         <v>517</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E475" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
@@ -66050,8 +68949,11 @@
       <c r="D476">
         <v>518</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E476" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
@@ -66064,8 +68966,11 @@
       <c r="D477">
         <v>519</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E477" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
@@ -66078,8 +68983,11 @@
       <c r="D478">
         <v>520</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E478" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
@@ -66092,8 +69000,11 @@
       <c r="D479">
         <v>521</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E479" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
@@ -66106,8 +69017,11 @@
       <c r="D480">
         <v>522</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E480" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
@@ -66120,8 +69034,11 @@
       <c r="D481">
         <v>523</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E481" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
@@ -66134,8 +69051,11 @@
       <c r="D482">
         <v>524</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E482" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
@@ -66148,8 +69068,11 @@
       <c r="D483">
         <v>525</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E483" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
@@ -66162,8 +69085,11 @@
       <c r="D484">
         <v>526</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E484" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
@@ -66176,8 +69102,11 @@
       <c r="D485">
         <v>527</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E485" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
@@ -66190,8 +69119,11 @@
       <c r="D486">
         <v>528</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E486" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
@@ -66204,8 +69136,11 @@
       <c r="D487">
         <v>529</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E487" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
@@ -66218,8 +69153,11 @@
       <c r="D488">
         <v>530</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E488" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
@@ -66232,8 +69170,11 @@
       <c r="D489">
         <v>531</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E489" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
@@ -66246,8 +69187,11 @@
       <c r="D490">
         <v>532</v>
       </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E490" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
@@ -66260,8 +69204,11 @@
       <c r="D491">
         <v>533</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E491" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
@@ -66273,6 +69220,9 @@
       </c>
       <c r="D492">
         <v>534</v>
+      </c>
+      <c r="E492" t="s">
+        <v>3868</v>
       </c>
     </row>
   </sheetData>
@@ -66283,10 +69233,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DADA653-03F9-4F28-A34A-5799BD7C6B78}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66295,98 +69245,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>4350</v>
       </c>
       <c r="B1" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3825</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3776</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>3834</v>
       </c>
     </row>
